--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1678">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6273250579834</t>
+    <t xml:space="preserve">21.6273212432861</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4367733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5399875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0397968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8333683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6189975738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3252391815186</t>
+    <t xml:space="preserve">21.4367713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5399856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8333644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3252353668213</t>
   </si>
   <si>
     <t xml:space="preserve">20.738094329834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3089771270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879890441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1815605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.276834487915</t>
+    <t xml:space="preserve">19.3089733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879871368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1815586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2768363952637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7845840454102</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">17.6178531646729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7849636077881</t>
+    <t xml:space="preserve">18.7849655151367</t>
   </si>
   <si>
     <t xml:space="preserve">17.3479061126709</t>
@@ -95,55 +95,55 @@
     <t xml:space="preserve">17.4273052215576</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5225791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3876037597656</t>
+    <t xml:space="preserve">17.5225772857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3876056671143</t>
   </si>
   <si>
     <t xml:space="preserve">16.8238983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">16.649227142334</t>
+    <t xml:space="preserve">16.6492252349854</t>
   </si>
   <si>
     <t xml:space="preserve">16.3237037658691</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6329650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4106588363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9902429580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.02956199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3709621429443</t>
+    <t xml:space="preserve">15.6329641342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4106578826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9902448654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0295600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3709592819214</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172771453857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.910852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0696411132812</t>
+    <t xml:space="preserve">15.9108514785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0696392059326</t>
   </si>
   <si>
     <t xml:space="preserve">16.4269218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0458221435547</t>
+    <t xml:space="preserve">16.0458202362061</t>
   </si>
   <si>
     <t xml:space="preserve">16.5936489105225</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6412868499756</t>
+    <t xml:space="preserve">16.6412887573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522487640381</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">16.8159561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.887414932251</t>
+    <t xml:space="preserve">16.8874130249023</t>
   </si>
   <si>
     <t xml:space="preserve">17.2685108184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4670009613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5618915557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8711538314819</t>
+    <t xml:space="preserve">17.4670028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5618934631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.871150970459</t>
   </si>
   <si>
     <t xml:space="preserve">16.0378837585449</t>
@@ -173,43 +173,43 @@
     <t xml:space="preserve">16.7762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3872222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9426069259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5777702331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743623733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.276065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6095314025879</t>
+    <t xml:space="preserve">16.3872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9426040649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5777683258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743680953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2760677337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.609525680542</t>
   </si>
   <si>
     <t xml:space="preserve">16.6730480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5698318481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.284008026123</t>
+    <t xml:space="preserve">16.5698337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2840099334717</t>
   </si>
   <si>
     <t xml:space="preserve">16.0140628814697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7838182449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8790922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0061225891113</t>
+    <t xml:space="preserve">15.7838144302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8790903091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.00612449646</t>
   </si>
   <si>
     <t xml:space="preserve">15.6885423660278</t>
@@ -218,49 +218,49 @@
     <t xml:space="preserve">15.8870315551758</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7044229507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7917556762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1724739074707</t>
+    <t xml:space="preserve">15.704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7917575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1724729537964</t>
   </si>
   <si>
     <t xml:space="preserve">15.4185981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4582929611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4162702560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6194372177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8063526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7982244491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031866073608</t>
+    <t xml:space="preserve">15.4582967758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4162693023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6194353103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8063535690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7982263565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031875610352</t>
   </si>
   <si>
     <t xml:space="preserve">15.6275653839111</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5950593948364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4894113540649</t>
+    <t xml:space="preserve">15.5950613021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4894123077393</t>
   </si>
   <si>
     <t xml:space="preserve">16.1314182281494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3427104949951</t>
+    <t xml:space="preserve">16.3427124023438</t>
   </si>
   <si>
     <t xml:space="preserve">16.9115772247314</t>
@@ -269,151 +269,151 @@
     <t xml:space="preserve">16.4321041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7165374755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9359588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8384342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0497303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2122650146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0090961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.488151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5129489898682</t>
+    <t xml:space="preserve">16.7165355682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9359569549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8384380340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0497283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2122611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0090980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4881458282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5129470825195</t>
   </si>
   <si>
     <t xml:space="preserve">17.8055095672607</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4804420471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4723205566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5698394775391</t>
+    <t xml:space="preserve">17.4804458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4723167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5698356628418</t>
   </si>
   <si>
     <t xml:space="preserve">17.8461418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0411853790283</t>
+    <t xml:space="preserve">18.0411834716797</t>
   </si>
   <si>
     <t xml:space="preserve">18.5287818908691</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6750602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7156944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8375930786133</t>
+    <t xml:space="preserve">18.6750621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7156925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8375968933105</t>
   </si>
   <si>
     <t xml:space="preserve">19.2764358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5933742523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2520542144775</t>
+    <t xml:space="preserve">19.593376159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2520561218262</t>
   </si>
   <si>
     <t xml:space="preserve">19.1220283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0570163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8538513183594</t>
+    <t xml:space="preserve">19.0570125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8538475036621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4470958709717</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6340065002441</t>
+    <t xml:space="preserve">19.6340084075928</t>
   </si>
   <si>
     <t xml:space="preserve">19.2439289093018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.601921081543</t>
+    <t xml:space="preserve">18.6019191741943</t>
   </si>
   <si>
     <t xml:space="preserve">18.1387023925781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9924221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.244348526001</t>
+    <t xml:space="preserve">17.9924240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2443523406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.6913146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5856704711914</t>
+    <t xml:space="preserve">18.58567237854</t>
   </si>
   <si>
     <t xml:space="preserve">18.5450344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.69944190979</t>
+    <t xml:space="preserve">18.6994438171387</t>
   </si>
   <si>
     <t xml:space="preserve">17.3910484313965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1883068084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.80592918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0659847259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3747959136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3422927856445</t>
+    <t xml:space="preserve">16.188304901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8059310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0659866333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3747978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3422908782959</t>
   </si>
   <si>
     <t xml:space="preserve">16.5783843994141</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4564838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2126865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4646110534668</t>
+    <t xml:space="preserve">16.456485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.212682723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4646129608154</t>
   </si>
   <si>
     <t xml:space="preserve">17.0741100311279</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8790721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8546905517578</t>
+    <t xml:space="preserve">16.8790702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8546886444092</t>
   </si>
   <si>
     <t xml:space="preserve">17.1228713989258</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">17.6429748535156</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5942192077637</t>
+    <t xml:space="preserve">17.594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">17.5210762023926</t>
@@ -443,16 +443,16 @@
     <t xml:space="preserve">17.9599151611328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3499965667725</t>
+    <t xml:space="preserve">18.3499984741211</t>
   </si>
   <si>
     <t xml:space="preserve">18.1630821228027</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4150104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0574359893799</t>
+    <t xml:space="preserve">18.4150085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0574340820312</t>
   </si>
   <si>
     <t xml:space="preserve">18.0655651092529</t>
@@ -473,34 +473,34 @@
     <t xml:space="preserve">19.4633483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6177539825439</t>
+    <t xml:space="preserve">19.6177558898926</t>
   </si>
   <si>
     <t xml:space="preserve">18.8701000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9269886016846</t>
+    <t xml:space="preserve">18.9269905090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.666934967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9351177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6425552368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4231357574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7400741577148</t>
+    <t xml:space="preserve">18.935115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6425533294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4231338500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7400760650635</t>
   </si>
   <si>
     <t xml:space="preserve">18.8050880432129</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2606048583984</t>
+    <t xml:space="preserve">18.2606029510498</t>
   </si>
   <si>
     <t xml:space="preserve">18.3256168365479</t>
@@ -509,55 +509,55 @@
     <t xml:space="preserve">18.1061954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1468315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9761695861816</t>
+    <t xml:space="preserve">18.1468296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9761714935303</t>
   </si>
   <si>
     <t xml:space="preserve">18.1549549102783</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8786506652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5373306274414</t>
+    <t xml:space="preserve">17.8786487579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5373268127441</t>
   </si>
   <si>
     <t xml:space="preserve">17.3260364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3991794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7486209869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8623962402344</t>
+    <t xml:space="preserve">17.3991737365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7486228942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.862398147583</t>
   </si>
   <si>
     <t xml:space="preserve">18.0086765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7242431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.187463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2118434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553581237793</t>
+    <t xml:space="preserve">17.7242450714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1874618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5535831451416</t>
   </si>
   <si>
     <t xml:space="preserve">17.5454578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6267204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5048274993896</t>
+    <t xml:space="preserve">17.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5048236846924</t>
   </si>
   <si>
     <t xml:space="preserve">17.4641895294189</t>
@@ -566,52 +566,52 @@
     <t xml:space="preserve">18.0168037414551</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9842948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7811298370361</t>
+    <t xml:space="preserve">17.9842967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7811279296875</t>
   </si>
   <si>
     <t xml:space="preserve">17.8298892974854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6836090087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9680442810059</t>
+    <t xml:space="preserve">17.6836109161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9680423736572</t>
   </si>
   <si>
     <t xml:space="preserve">17.9436626434326</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1793346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249290466309</t>
+    <t xml:space="preserve">18.1793365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249271392822</t>
   </si>
   <si>
     <t xml:space="preserve">17.7973804473877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6352691650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6677780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9522113800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0334758758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6840324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0664043426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9688844680786</t>
+    <t xml:space="preserve">16.6352710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6677761077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9522132873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0334777832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6840305328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9688854217529</t>
   </si>
   <si>
     <t xml:space="preserve">15.7657165527344</t>
@@ -620,13 +620,13 @@
     <t xml:space="preserve">17.2203903198242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.781551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5946388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8709468841553</t>
+    <t xml:space="preserve">16.7815494537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5946350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8709411621094</t>
   </si>
   <si>
     <t xml:space="preserve">17.4316844940186</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">16.9197044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6596488952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4235572814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2041358947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4073047637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2691516876221</t>
+    <t xml:space="preserve">16.6596508026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4235553741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.204137802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4073028564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2691497802734</t>
   </si>
   <si>
     <t xml:space="preserve">17.4885711669922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.586088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7567481994629</t>
+    <t xml:space="preserve">17.5860900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7567520141602</t>
   </si>
   <si>
     <t xml:space="preserve">18.2037162780762</t>
@@ -674,25 +674,25 @@
     <t xml:space="preserve">18.6506824493408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944797515869</t>
+    <t xml:space="preserve">18.8944835662842</t>
   </si>
   <si>
     <t xml:space="preserve">19.0163803100586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.78883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.610050201416</t>
+    <t xml:space="preserve">18.7888374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6100482940674</t>
   </si>
   <si>
     <t xml:space="preserve">18.7319488525391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.634428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3906288146973</t>
+    <t xml:space="preserve">18.6344299316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3906269073486</t>
   </si>
   <si>
     <t xml:space="preserve">18.5531635284424</t>
@@ -707,70 +707,70 @@
     <t xml:space="preserve">18.8863563537598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7482013702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0976467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9838752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260181427002</t>
+    <t xml:space="preserve">18.7481994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0976486206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9838771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2601833343506</t>
   </si>
   <si>
     <t xml:space="preserve">19.9021873474121</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1784934997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1216068267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0728511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1459903717041</t>
+    <t xml:space="preserve">20.1784915924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1216087341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3003921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0728492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1459884643555</t>
   </si>
   <si>
     <t xml:space="preserve">19.8778076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2516326904297</t>
+    <t xml:space="preserve">20.2516345977783</t>
   </si>
   <si>
     <t xml:space="preserve">20.0647201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9103126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2841396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6665172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4389667510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7152729034424</t>
+    <t xml:space="preserve">19.9103145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2841377258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4389686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.715274810791</t>
   </si>
   <si>
     <t xml:space="preserve">20.0565948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3329010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0561752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8448791503906</t>
+    <t xml:space="preserve">20.3328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.056173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8448829650879</t>
   </si>
   <si>
     <t xml:space="preserve">20.9830322265625</t>
@@ -785,40 +785,40 @@
     <t xml:space="preserve">21.5112648010254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1288928985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9419784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6819286346436</t>
+    <t xml:space="preserve">22.1288909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9419803619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6819267272949</t>
   </si>
   <si>
     <t xml:space="preserve">21.6331653594971</t>
   </si>
   <si>
-    <t xml:space="preserve">21.755069732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1532745361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7956962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9338531494141</t>
+    <t xml:space="preserve">21.7550678253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1532707214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7956981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9338512420654</t>
   </si>
   <si>
     <t xml:space="preserve">21.8769664764404</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6002388000488</t>
+    <t xml:space="preserve">22.6002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">22.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2264137268066</t>
+    <t xml:space="preserve">22.226411819458</t>
   </si>
   <si>
     <t xml:space="preserve">22.104513168335</t>
@@ -827,25 +827,25 @@
     <t xml:space="preserve">22.3401851654053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1387195587158</t>
+    <t xml:space="preserve">22.5027179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1387214660645</t>
   </si>
   <si>
     <t xml:space="preserve">23.0466690063477</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8876667022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295082092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
+    <t xml:space="preserve">22.8876686096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713535308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621421813965</t>
   </si>
   <si>
     <t xml:space="preserve">23.3060894012451</t>
@@ -860,37 +860,37 @@
     <t xml:space="preserve">24.3186664581299</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4525661468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0174045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4525623321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090389251709</t>
   </si>
   <si>
     <t xml:space="preserve">23.8835105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5906162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650897979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
+    <t xml:space="preserve">23.5906143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
   </si>
   <si>
     <t xml:space="preserve">22.7788772583008</t>
   </si>
   <si>
-    <t xml:space="preserve">23.004825592041</t>
+    <t xml:space="preserve">23.0048236846924</t>
   </si>
   <si>
     <t xml:space="preserve">23.5989837646484</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">23.7077751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.908618927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1596698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701431274414</t>
+    <t xml:space="preserve">23.9086151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345653533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.67014503479</t>
   </si>
   <si>
     <t xml:space="preserve">24.7873020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6868801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789344787598</t>
+    <t xml:space="preserve">24.686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789325714111</t>
   </si>
   <si>
     <t xml:space="preserve">24.4023532867432</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">24.2935638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4358291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203559875488</t>
+    <t xml:space="preserve">24.435827255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203578948975</t>
   </si>
   <si>
     <t xml:space="preserve">23.992301940918</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">24.0508785247803</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.393985748291</t>
+    <t xml:space="preserve">24.8458824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
   </si>
   <si>
     <t xml:space="preserve">24.2600917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">24.268461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
+    <t xml:space="preserve">24.2684574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839305877686</t>
   </si>
   <si>
     <t xml:space="preserve">22.8458232879639</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">22.4776134490967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529327392578</t>
   </si>
   <si>
     <t xml:space="preserve">22.7035598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6700897216797</t>
+    <t xml:space="preserve">22.6700878143311</t>
   </si>
   <si>
     <t xml:space="preserve">22.8039855957031</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">22.7956161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4901924133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
+    <t xml:space="preserve">23.4901962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
   </si>
   <si>
     <t xml:space="preserve">23.8416690826416</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">23.6826686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240901947021</t>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240863800049</t>
   </si>
   <si>
     <t xml:space="preserve">23.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416137695312</t>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
   </si>
   <si>
     <t xml:space="preserve">21.9755077362061</t>
   </si>
   <si>
-    <t xml:space="preserve">21.950403213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060340881348</t>
+    <t xml:space="preserve">21.9504051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060321807861</t>
   </si>
   <si>
     <t xml:space="preserve">21.3646144866943</t>
@@ -1055,82 +1055,82 @@
     <t xml:space="preserve">21.7746639251709</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7579307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989246368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319786071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223510742188</t>
+    <t xml:space="preserve">21.757926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566631317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
   </si>
   <si>
     <t xml:space="preserve">21.213981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
+    <t xml:space="preserve">21.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324005126953</t>
   </si>
   <si>
     <t xml:space="preserve">21.5570869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3729820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240329742432</t>
+    <t xml:space="preserve">21.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240348815918</t>
   </si>
   <si>
     <t xml:space="preserve">22.1261425018311</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9169292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428737640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.799768447876</t>
+    <t xml:space="preserve">21.9169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2684020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997703552246</t>
   </si>
   <si>
     <t xml:space="preserve">21.4399299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4148235321045</t>
+    <t xml:space="preserve">21.4148216247559</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6407718658447</t>
+    <t xml:space="preserve">21.6407699584961</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345119476318</t>
+    <t xml:space="preserve">21.9671382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
   </si>
   <si>
     <t xml:space="preserve">22.2851390838623</t>
@@ -1139,37 +1139,40 @@
     <t xml:space="preserve">22.8541946411133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370376586914</t>
+    <t xml:space="preserve">22.3771953582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370338439941</t>
   </si>
   <si>
     <t xml:space="preserve">22.728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2642440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805610656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659317016602</t>
+    <t xml:space="preserve">22.5027160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659336090088</t>
   </si>
   <si>
     <t xml:space="preserve">23.0382976531982</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0550327301025</t>
+    <t xml:space="preserve">23.0550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">23.1136150360107</t>
@@ -1178,58 +1181,58 @@
     <t xml:space="preserve">23.7496147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069313049316</t>
+    <t xml:space="preserve">23.7412490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.506929397583</t>
   </si>
   <si>
     <t xml:space="preserve">23.3730373382568</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4818286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5153007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638278961182</t>
+    <t xml:space="preserve">23.4818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638259887695</t>
   </si>
   <si>
     <t xml:space="preserve">20.0842418670654</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361404418945</t>
+    <t xml:space="preserve">20.7871894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361385345459</t>
   </si>
   <si>
     <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3771343231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599773406982</t>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599811553955</t>
   </si>
   <si>
     <t xml:space="preserve">20.5863475799561</t>
@@ -1238,16 +1241,16 @@
     <t xml:space="preserve">20.519401550293</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6532955169678</t>
+    <t xml:space="preserve">20.6532936096191</t>
   </si>
   <si>
     <t xml:space="preserve">20.2516117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6030864715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026626586914</t>
+    <t xml:space="preserve">20.603084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.50266456604</t>
   </si>
   <si>
     <t xml:space="preserve">21.0047702789307</t>
@@ -1259,28 +1262,28 @@
     <t xml:space="preserve">21.2809295654297</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3562431335449</t>
+    <t xml:space="preserve">21.3562469482422</t>
   </si>
   <si>
     <t xml:space="preserve">21.1219272613525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7955589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210815429688</t>
+    <t xml:space="preserve">20.7955570220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9210834503174</t>
   </si>
   <si>
     <t xml:space="preserve">20.7788219451904</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8332462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077198028564</t>
+    <t xml:space="preserve">21.8332424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077178955078</t>
   </si>
   <si>
     <t xml:space="preserve">21.2725601196289</t>
@@ -1292,16 +1295,16 @@
     <t xml:space="preserve">21.3143997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1135559082031</t>
+    <t xml:space="preserve">21.113561630249</t>
   </si>
   <si>
     <t xml:space="preserve">21.339506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269824981689</t>
+    <t xml:space="preserve">21.423189163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269805908203</t>
   </si>
   <si>
     <t xml:space="preserve">21.908561706543</t>
@@ -1310,16 +1313,16 @@
     <t xml:space="preserve">22.5780334472656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930904388428</t>
+    <t xml:space="preserve">22.0424575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930866241455</t>
   </si>
   <si>
     <t xml:space="preserve">22.4274024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604564666748</t>
+    <t xml:space="preserve">22.3604526519775</t>
   </si>
   <si>
     <t xml:space="preserve">21.8583507537842</t>
@@ -1334,34 +1337,34 @@
     <t xml:space="preserve">22.628246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7454051971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119293212891</t>
+    <t xml:space="preserve">22.7454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119312286377</t>
   </si>
   <si>
     <t xml:space="preserve">22.3102436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511878967285</t>
+    <t xml:space="preserve">22.6784553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596126556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.368766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
   </si>
   <si>
     <t xml:space="preserve">20.3352947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3520317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043464660645</t>
+    <t xml:space="preserve">20.352029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043445587158</t>
   </si>
   <si>
     <t xml:space="preserve">20.9545593261719</t>
@@ -1373,7 +1376,7 @@
     <t xml:space="preserve">20.5528736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2348747253418</t>
+    <t xml:space="preserve">20.2348728179932</t>
   </si>
   <si>
     <t xml:space="preserve">20.3185577392578</t>
@@ -1385,46 +1388,46 @@
     <t xml:space="preserve">19.632345199585</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3980293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812961578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.670036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2683486938477</t>
+    <t xml:space="preserve">19.3980331420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541393280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6867713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">19.950345993042</t>
   </si>
   <si>
-    <t xml:space="preserve">20.184663772583</t>
+    <t xml:space="preserve">20.1846656799316</t>
   </si>
   <si>
     <t xml:space="preserve">20.3855056762695</t>
@@ -1433,13 +1436,13 @@
     <t xml:space="preserve">20.7704544067383</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4189796447754</t>
+    <t xml:space="preserve">20.418981552124</t>
   </si>
   <si>
     <t xml:space="preserve">19.8331890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8164539337158</t>
+    <t xml:space="preserve">19.8164520263672</t>
   </si>
   <si>
     <t xml:space="preserve">19.6490840911865</t>
@@ -1448,13 +1451,13 @@
     <t xml:space="preserve">19.9001369476318</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.021505355835</t>
+    <t xml:space="preserve">20.7369785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215091705322</t>
   </si>
   <si>
     <t xml:space="preserve">21.7884578704834</t>
@@ -1466,40 +1469,40 @@
     <t xml:space="preserve">21.457275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5618629455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141529083252</t>
+    <t xml:space="preserve">21.5618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
   </si>
   <si>
     <t xml:space="preserve">21.7361660003662</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7187366485596</t>
+    <t xml:space="preserve">21.7187385559082</t>
   </si>
   <si>
     <t xml:space="preserve">22.4159679412842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0324935913086</t>
+    <t xml:space="preserve">22.03249168396</t>
   </si>
   <si>
     <t xml:space="preserve">22.1893672943115</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0847816467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.997631072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.666446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.352689743042</t>
+    <t xml:space="preserve">22.0847835540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6664447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526916503906</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270004272461</t>
@@ -1520,40 +1523,37 @@
     <t xml:space="preserve">20.7774753570557</t>
   </si>
   <si>
-    <t xml:space="preserve">20.341703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215091705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086597442627</t>
+    <t xml:space="preserve">20.3417091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086578369141</t>
   </si>
   <si>
     <t xml:space="preserve">21.7710266113281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6838760375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747066497803</t>
+    <t xml:space="preserve">21.683874130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747047424316</t>
   </si>
   <si>
     <t xml:space="preserve">21.5792922973633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132453918457</t>
+    <t xml:space="preserve">21.2132434844971</t>
   </si>
   <si>
     <t xml:space="preserve">21.3701229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4398460388184</t>
+    <t xml:space="preserve">21.4398441314697</t>
   </si>
   <si>
     <t xml:space="preserve">20.6031684875488</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">20.7251834869385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0040760040283</t>
+    <t xml:space="preserve">21.004077911377</t>
   </si>
   <si>
     <t xml:space="preserve">21.1609535217285</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">20.7949066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435203552246</t>
+    <t xml:space="preserve">20.9692153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435241699219</t>
   </si>
   <si>
     <t xml:space="preserve">21.2655391693115</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">20.9169216156006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3003997802734</t>
+    <t xml:space="preserve">21.3004016876221</t>
   </si>
   <si>
     <t xml:space="preserve">20.9343547821045</t>
@@ -1595,28 +1595,28 @@
     <t xml:space="preserve">20.6728897094727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5334453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700748443604</t>
+    <t xml:space="preserve">20.5334415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9279079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.270076751709</t>
   </si>
   <si>
     <t xml:space="preserve">24.0893211364746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1939086914062</t>
+    <t xml:space="preserve">24.1939067840576</t>
   </si>
   <si>
     <t xml:space="preserve">24.2636299133301</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5948123931885</t>
+    <t xml:space="preserve">24.5948143005371</t>
   </si>
   <si>
     <t xml:space="preserve">24.5425224304199</t>
@@ -1625,37 +1625,37 @@
     <t xml:space="preserve">24.2113380432129</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8452911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755661010742</t>
+    <t xml:space="preserve">23.8452930450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755699157715</t>
   </si>
   <si>
     <t xml:space="preserve">23.8104286193848</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5141067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067504882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.629674911499</t>
+    <t xml:space="preserve">23.5141048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067543029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6296768188477</t>
   </si>
   <si>
     <t xml:space="preserve">24.507661819458</t>
@@ -1664,10 +1664,10 @@
     <t xml:space="preserve">24.3856430053711</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2810592651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0718898773193</t>
+    <t xml:space="preserve">24.2810611724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.071891784668</t>
   </si>
   <si>
     <t xml:space="preserve">23.8801536560059</t>
@@ -1676,73 +1676,73 @@
     <t xml:space="preserve">23.5315380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5489692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.496675491333</t>
+    <t xml:space="preserve">23.5489654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929973602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4966735839844</t>
   </si>
   <si>
     <t xml:space="preserve">24.1241836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9498767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993961334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984886169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379348754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847373962402</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9324436187744</t>
+    <t xml:space="preserve">23.932445526123</t>
   </si>
   <si>
     <t xml:space="preserve">22.694860458374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3811054229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453372955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058891296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5902767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233203887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333972930908</t>
+    <t xml:space="preserve">22.3811073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.590274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462429046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333992004395</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581829071045</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">20.7077522277832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3765640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939971923828</t>
+    <t xml:space="preserve">20.3765659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939990997314</t>
   </si>
   <si>
     <t xml:space="preserve">19.8710746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196941375732</t>
+    <t xml:space="preserve">20.2719821929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2196922302246</t>
   </si>
   <si>
     <t xml:space="preserve">20.0802478790283</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">20.1325378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2022590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004421234131</t>
+    <t xml:space="preserve">20.202262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004459381104</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876003265381</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">19.4701671600342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5050277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453853607178</t>
+    <t xml:space="preserve">19.5050296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453834533691</t>
   </si>
   <si>
     <t xml:space="preserve">20.5160140991211</t>
@@ -1811,25 +1811,25 @@
     <t xml:space="preserve">20.9517860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4288597106934</t>
+    <t xml:space="preserve">20.6903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.428861618042</t>
   </si>
   <si>
     <t xml:space="preserve">19.9059371948242</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6205997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
+    <t xml:space="preserve">20.6205978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316303253174</t>
   </si>
   <si>
     <t xml:space="preserve">20.1673984527588</t>
@@ -1841,34 +1841,34 @@
     <t xml:space="preserve">18.3023090362549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7729396820068</t>
+    <t xml:space="preserve">18.7729358673096</t>
   </si>
   <si>
     <t xml:space="preserve">18.6683540344238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169677734375</t>
+    <t xml:space="preserve">19.2609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169658660889</t>
   </si>
   <si>
     <t xml:space="preserve">19.2261371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8994903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783809661865</t>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783828735352</t>
   </si>
   <si>
     <t xml:space="preserve">20.8471965789795</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1958160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692615509033</t>
+    <t xml:space="preserve">21.1958122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
@@ -1883,22 +1883,22 @@
     <t xml:space="preserve">19.4527378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0343990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.435302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756622314453</t>
+    <t xml:space="preserve">19.0343971252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756603240967</t>
   </si>
   <si>
     <t xml:space="preserve">20.2371215820312</t>
@@ -1913,61 +1913,61 @@
     <t xml:space="preserve">20.1848297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857391357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.749059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
+    <t xml:space="preserve">19.8362121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
   </si>
   <si>
     <t xml:space="preserve">22.5031223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.049919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8077983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.180290222168</t>
+    <t xml:space="preserve">22.0499210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1802940368652</t>
   </si>
   <si>
     <t xml:space="preserve">18.3371696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.256462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642654418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.681245803833</t>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642673492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6812438964844</t>
   </si>
   <si>
     <t xml:space="preserve">17.021146774292</t>
@@ -1976,34 +1976,34 @@
     <t xml:space="preserve">16.5592308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525680541992</t>
+    <t xml:space="preserve">16.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525699615479</t>
   </si>
   <si>
     <t xml:space="preserve">15.9637022018433</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970287322998</t>
+    <t xml:space="preserve">16.0614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970306396484</t>
   </si>
   <si>
     <t xml:space="preserve">16.2036895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99036693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970462799072</t>
+    <t xml:space="preserve">15.8125991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9903659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970481872559</t>
   </si>
   <si>
     <t xml:space="preserve">15.8214855194092</t>
@@ -2012,31 +2012,31 @@
     <t xml:space="preserve">16.0081443786621</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2214660644531</t>
+    <t xml:space="preserve">16.2214679718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.3103523254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3192405700684</t>
+    <t xml:space="preserve">16.319242477417</t>
   </si>
   <si>
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703639984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281667709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6259393692017</t>
+    <t xml:space="preserve">16.2481346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281648635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.625940322876</t>
   </si>
   <si>
     <t xml:space="preserve">15.688159942627</t>
@@ -2048,22 +2048,22 @@
     <t xml:space="preserve">16.0881423950195</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9370355606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592639923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037090301514</t>
+    <t xml:space="preserve">15.9370374679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326030731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592687606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037099838257</t>
   </si>
   <si>
     <t xml:space="preserve">15.9814786911011</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0170345306396</t>
+    <t xml:space="preserve">16.017032623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.6081628799438</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">15.2792892456055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1370735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415079116821</t>
+    <t xml:space="preserve">15.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415088653564</t>
   </si>
   <si>
     <t xml:space="preserve">15.2615118026733</t>
@@ -2090,64 +2090,64 @@
     <t xml:space="preserve">15.1637382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3859510421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015186309814</t>
+    <t xml:space="preserve">14.9681921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570783615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837411880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015195846558</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770812988281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021523475647</t>
+    <t xml:space="preserve">15.9014835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703824996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148412704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5770998001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215244293213</t>
   </si>
   <si>
     <t xml:space="preserve">15.6792697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7859325408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992727279663</t>
+    <t xml:space="preserve">15.7859334945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659452438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992736816406</t>
   </si>
   <si>
     <t xml:space="preserve">15.8925943374634</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1903114318848</t>
+    <t xml:space="preserve">17.1903133392334</t>
   </si>
   <si>
     <t xml:space="preserve">17.7769508361816</t>
@@ -2165,82 +2165,82 @@
     <t xml:space="preserve">17.5102977752686</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2347507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413959503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125427246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9325466156006</t>
+    <t xml:space="preserve">17.2347526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.741397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6036739349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814981460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459617614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726099014282</t>
+    <t xml:space="preserve">16.6036720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726079940796</t>
   </si>
   <si>
     <t xml:space="preserve">15.2881784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8615293502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437362670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748519897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681764602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
+    <t xml:space="preserve">14.8615303039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992921829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681745529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126167297363</t>
   </si>
   <si>
     <t xml:space="preserve">15.4748363494873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.297064781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437557220459</t>
+    <t xml:space="preserve">15.4837236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437547683716</t>
   </si>
   <si>
     <t xml:space="preserve">14.7459812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6659841537476</t>
+    <t xml:space="preserve">14.6659832000732</t>
   </si>
   <si>
     <t xml:space="preserve">15.4570579528809</t>
@@ -2249,61 +2249,61 @@
     <t xml:space="preserve">15.2526235580444</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6614933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.777042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570413589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192211151123</t>
+    <t xml:space="preserve">15.6614961624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192230224609</t>
   </si>
   <si>
     <t xml:space="preserve">17.1547565460205</t>
   </si>
   <si>
-    <t xml:space="preserve">17.199197769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014465332031</t>
+    <t xml:space="preserve">17.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014484405518</t>
   </si>
   <si>
     <t xml:space="preserve">16.8436622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8969917297363</t>
+    <t xml:space="preserve">16.8969898223877</t>
   </si>
   <si>
     <t xml:space="preserve">16.7281093597412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7636623382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858798980713</t>
+    <t xml:space="preserve">16.7636642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770072937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9858779907227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8169937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.80810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881053924561</t>
   </si>
   <si>
     <t xml:space="preserve">16.9236583709717</t>
@@ -2312,85 +2312,85 @@
     <t xml:space="preserve">16.8614368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7547760009766</t>
+    <t xml:space="preserve">16.7547779083252</t>
   </si>
   <si>
     <t xml:space="preserve">16.9769897460938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7992153167725</t>
+    <t xml:space="preserve">16.7992210388184</t>
   </si>
   <si>
     <t xml:space="preserve">16.3814601898193</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3459072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.417013168335</t>
+    <t xml:space="preserve">16.3459053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.65700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4170112609863</t>
   </si>
   <si>
     <t xml:space="preserve">15.9992561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9459257125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.897084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526411056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32373046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281843185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7148246765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1059188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281492233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9548139572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015565872192</t>
+    <t xml:space="preserve">15.9459266662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904058456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8970851898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526430130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771192550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.292667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237323760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714825630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1059169769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928147315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.95481300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015575408936</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326742172241</t>
+    <t xml:space="preserve">14.1326761245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.7415838241577</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">13.8660221099854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8304691314697</t>
+    <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
     <t xml:space="preserve">13.5904788970947</t>
@@ -2414,31 +2414,31 @@
     <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1594343185425</t>
+    <t xml:space="preserve">12.1594352722168</t>
   </si>
   <si>
     <t xml:space="preserve">11.6705684661865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.297251701355</t>
+    <t xml:space="preserve">11.2972526550293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1595277786255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1105928421021</t>
+    <t xml:space="preserve">11.1105937957764</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3283157348633</t>
+    <t xml:space="preserve">12.328314781189</t>
   </si>
   <si>
     <t xml:space="preserve">12.1683225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5505266189575</t>
+    <t xml:space="preserve">12.5505275726318</t>
   </si>
   <si>
     <t xml:space="preserve">13.9015760421753</t>
@@ -2447,31 +2447,31 @@
     <t xml:space="preserve">14.3104457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881959915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6349201202393</t>
+    <t xml:space="preserve">14.8881969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6349210739136</t>
   </si>
   <si>
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260133743286</t>
+    <t xml:space="preserve">14.0260152816772</t>
   </si>
   <si>
     <t xml:space="preserve">13.5460367202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6438093185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793642044067</t>
+    <t xml:space="preserve">13.6438102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">13.0305051803589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5815896987915</t>
+    <t xml:space="preserve">13.5815906524658</t>
   </si>
   <si>
     <t xml:space="preserve">13.9282398223877</t>
@@ -2486,106 +2486,106 @@
     <t xml:space="preserve">13.3682670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2438278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4571523666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6260318756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9726829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8837985992432</t>
+    <t xml:space="preserve">13.2438287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4571514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.626033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7771368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9726839065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8837976455688</t>
   </si>
   <si>
     <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4882144927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5326585769653</t>
+    <t xml:space="preserve">14.4882154464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326595306396</t>
   </si>
   <si>
     <t xml:space="preserve">14.6570959091187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4793272018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1104068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326206207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081998825073</t>
+    <t xml:space="preserve">14.4793281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326196670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8082008361816</t>
   </si>
   <si>
     <t xml:space="preserve">15.1192960739136</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0304126739502</t>
+    <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
     <t xml:space="preserve">15.7681541442871</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4037294387817</t>
+    <t xml:space="preserve">15.4037265777588</t>
   </si>
   <si>
     <t xml:space="preserve">15.4926128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0792503356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6214485168457</t>
+    <t xml:space="preserve">16.079252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6214504241943</t>
   </si>
   <si>
     <t xml:space="preserve">16.4259014129639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3325290679932</t>
+    <t xml:space="preserve">17.3325271606445</t>
   </si>
   <si>
     <t xml:space="preserve">17.1192035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9414348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2525291442871</t>
+    <t xml:space="preserve">16.9414329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2525310516357</t>
   </si>
   <si>
     <t xml:space="preserve">17.501407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1147117614746</t>
+    <t xml:space="preserve">18.1147136688232</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0879554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.892406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4479846954346</t>
+    <t xml:space="preserve">20.0879535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8924083709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4479827880859</t>
   </si>
   <si>
     <t xml:space="preserve">19.7146377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4434947967529</t>
+    <t xml:space="preserve">20.4434967041016</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790496826172</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">20.7279243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.621265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0123558044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9056930541992</t>
+    <t xml:space="preserve">20.6212635040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0123538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9056949615479</t>
   </si>
   <si>
     <t xml:space="preserve">20.319055557251</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568183898926</t>
+    <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8478736877441</t>
+    <t xml:space="preserve">21.8478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">21.563440322876</t>
@@ -2630,64 +2630,64 @@
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9545364379883</t>
+    <t xml:space="preserve">21.9545345306396</t>
   </si>
   <si>
     <t xml:space="preserve">21.8300952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9900913238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611972808838</t>
+    <t xml:space="preserve">21.9900894165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611953735352</t>
   </si>
   <si>
     <t xml:space="preserve">22.2034091949463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1678562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1323051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9723129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2211856842041</t>
+    <t xml:space="preserve">22.1678581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.132303237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9723091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2211875915527</t>
   </si>
   <si>
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.865650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6523284912109</t>
+    <t xml:space="preserve">21.8656482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6523265838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.8123188018799</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1100368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6077899932861</t>
+    <t xml:space="preserve">23.110034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410629272461</t>
+    <t xml:space="preserve">24.9410591125488</t>
   </si>
   <si>
     <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9943943023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0299472808838</t>
+    <t xml:space="preserve">24.9943923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0299453735352</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
@@ -2696,16 +2696,16 @@
     <t xml:space="preserve">24.887731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8166236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.674409866333</t>
+    <t xml:space="preserve">24.8166217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5321922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744079589844</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7632923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7099609375</t>
+    <t xml:space="preserve">24.7632904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7099628448486</t>
   </si>
   <si>
     <t xml:space="preserve">24.496639251709</t>
@@ -2741,34 +2741,34 @@
     <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454769134521</t>
+    <t xml:space="preserve">25.5454788208008</t>
   </si>
   <si>
     <t xml:space="preserve">26.2921104431152</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5810317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1854476928711</t>
+    <t xml:space="preserve">25.581033706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1854496002197</t>
   </si>
   <si>
     <t xml:space="preserve">27.1809577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5587635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.647647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5765399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2032241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1321182250977</t>
+    <t xml:space="preserve">26.558765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5765419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2032260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
     <t xml:space="preserve">26.1498947143555</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743320465088</t>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
     <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">26.434326171875</t>
+    <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.309886932373</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4521045684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565204620361</t>
+    <t xml:space="preserve">26.4521026611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565185546875</t>
   </si>
   <si>
     <t xml:space="preserve">28.0342540740967</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">27.0387439727783</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1276264190674</t>
+    <t xml:space="preserve">27.1276302337646</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210025787354</t>
@@ -2822,19 +2822,19 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2655353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4077529907227</t>
+    <t xml:space="preserve">24.4255294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4077548980713</t>
   </si>
   <si>
     <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010162353516</t>
+    <t xml:space="preserve">25.9010181427002</t>
   </si>
   <si>
     <t xml:space="preserve">26.1676712036133</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721611022949</t>
+    <t xml:space="preserve">25.1721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">27.0209655761719</t>
@@ -2858,43 +2858,43 @@
     <t xml:space="preserve">25.5988082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8521766662598</t>
+    <t xml:space="preserve">24.8521747589111</t>
   </si>
   <si>
     <t xml:space="preserve">24.5677452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1543846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499687194824</t>
+    <t xml:space="preserve">25.1543865203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499706268311</t>
   </si>
   <si>
     <t xml:space="preserve">24.0877685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3143768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0076808929443</t>
+    <t xml:space="preserve">25.3143787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0076789855957</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">25.101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5144157409668</t>
+    <t xml:space="preserve">25.1010551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5144138336182</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6611213684082</t>
+    <t xml:space="preserve">24.1766548156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6611232757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.38037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7612762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2872886657715</t>
+    <t xml:space="preserve">23.3803730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7612781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2872905731201</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">23.8519687652588</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7250003814697</t>
+    <t xml:space="preserve">23.7250022888184</t>
   </si>
   <si>
     <t xml:space="preserve">23.6887245178223</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2510108947754</t>
+    <t xml:space="preserve">24.251012802124</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">28.1870422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3502864837646</t>
+    <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
     <t xml:space="preserve">28.2777347564697</t>
@@ -2987,10 +2987,10 @@
     <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0371551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3455066680908</t>
+    <t xml:space="preserve">30.0371532440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3455085754395</t>
   </si>
   <si>
     <t xml:space="preserve">30.6357231140137</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">30.8533840179443</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3249835968018</t>
+    <t xml:space="preserve">31.3249816894531</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">29.6199741363525</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8762989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9331035614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7335834503174</t>
+    <t xml:space="preserve">28.8763008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.93310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7335815429688</t>
   </si>
   <si>
     <t xml:space="preserve">28.5860862731934</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">28.8037452697754</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7879962921143</t>
+    <t xml:space="preserve">27.7879981994629</t>
   </si>
   <si>
     <t xml:space="preserve">27.6610279083252</t>
@@ -3041,19 +3041,19 @@
     <t xml:space="preserve">28.3684272766113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4772548675537</t>
+    <t xml:space="preserve">28.4772529602051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8944396972656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3975353240967</t>
+    <t xml:space="preserve">31.3975372314453</t>
   </si>
   <si>
     <t xml:space="preserve">30.3817863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2910976409912</t>
+    <t xml:space="preserve">30.2910957336426</t>
   </si>
   <si>
     <t xml:space="preserve">30.5450325012207</t>
@@ -3074,37 +3074,37 @@
     <t xml:space="preserve">31.5245018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6696071624756</t>
+    <t xml:space="preserve">31.6696090698242</t>
   </si>
   <si>
     <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3431167602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970592498779</t>
+    <t xml:space="preserve">31.3431205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">31.2342891693115</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9235515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3225898742676</t>
+    <t xml:space="preserve">31.9235496520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3225936889648</t>
   </si>
   <si>
     <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1932373046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9211578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2295112609863</t>
+    <t xml:space="preserve">33.1932334899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9211540222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2295150756836</t>
   </si>
   <si>
     <t xml:space="preserve">33.1388168334961</t>
@@ -3116,19 +3116,19 @@
     <t xml:space="preserve">33.4108963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0481300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6853637695312</t>
+    <t xml:space="preserve">33.0481262207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.685359954834</t>
   </si>
   <si>
     <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6128082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1206855773926</t>
+    <t xml:space="preserve">32.6128044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1206817626953</t>
   </si>
   <si>
     <t xml:space="preserve">33.0662651062012</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299911499023</t>
+    <t xml:space="preserve">33.0299873352051</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736625671387</t>
@@ -3155,16 +3155,16 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369049072266</t>
+    <t xml:space="preserve">33.9369087219238</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1569595336914</t>
+    <t xml:space="preserve">32.8667449951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1569633483887</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750984191895</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">32.7397727966309</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5324172973633</t>
+    <t xml:space="preserve">33.532413482666</t>
   </si>
   <si>
     <t xml:space="preserve">33.2746162414551</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140037536621</t>
+    <t xml:space="preserve">33.5140075683594</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273040771484</t>
+    <t xml:space="preserve">33.1273002624512</t>
   </si>
   <si>
     <t xml:space="preserve">33.2377891540527</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789611816406</t>
+    <t xml:space="preserve">35.7789649963379</t>
   </si>
   <si>
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.478702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7917442321777</t>
+    <t xml:space="preserve">36.4787063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">35.4106750488281</t>
   </si>
   <si>
-    <t xml:space="preserve">35.244945526123</t>
+    <t xml:space="preserve">35.2449493408203</t>
   </si>
   <si>
     <t xml:space="preserve">34.766170501709</t>
@@ -3251,28 +3251,28 @@
     <t xml:space="preserve">34.6004486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6372756958008</t>
+    <t xml:space="preserve">34.6372718811035</t>
   </si>
   <si>
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270492553711</t>
+    <t xml:space="preserve">33.8270454406738</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2505760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5636177062988</t>
+    <t xml:space="preserve">34.2505722045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
     <t xml:space="preserve">33.4035148620605</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7165565490723</t>
+    <t xml:space="preserve">33.7165603637695</t>
   </si>
   <si>
     <t xml:space="preserve">34.1032600402832</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">34.6925201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8582496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689895629883</t>
+    <t xml:space="preserve">34.8582458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689933776855</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">34.342643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2930297851562</t>
+    <t xml:space="preserve">33.2930335998535</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
@@ -3332,10 +3332,10 @@
     <t xml:space="preserve">35.9999313354492</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6132354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6684722900391</t>
+    <t xml:space="preserve">35.6132316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6684761047363</t>
   </si>
   <si>
     <t xml:space="preserve">35.5764007568359</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">35.1344604492188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7605476379395</t>
+    <t xml:space="preserve">35.7605438232422</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3371,16 +3371,16 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1288299560547</t>
+    <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3498001098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1656608581543</t>
+    <t xml:space="preserve">36.3498039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.165657043457</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.727819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4700164794922</t>
+    <t xml:space="preserve">31.7278175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
     <t xml:space="preserve">31.3595333099365</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252628326416</t>
+    <t xml:space="preserve">30.9175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252590179443</t>
   </si>
   <si>
     <t xml:space="preserve">30.6045455932617</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2546730041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4996871948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0393333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6158008575439</t>
+    <t xml:space="preserve">30.254674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4996891021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0393314361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3440,13 +3440,13 @@
     <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2418899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5181064605713</t>
+    <t xml:space="preserve">29.2787170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2418880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
     <t xml:space="preserve">30.4756450653076</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">30.7334480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3835735321045</t>
+    <t xml:space="preserve">30.3835754394531</t>
   </si>
   <si>
     <t xml:space="preserve">30.5677165985107</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">30.4940586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1201438903809</t>
+    <t xml:space="preserve">31.1201457977295</t>
   </si>
   <si>
     <t xml:space="preserve">31.2858753204346</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8751335144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2802505493164</t>
+    <t xml:space="preserve">31.875129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2802467346191</t>
   </si>
   <si>
     <t xml:space="preserve">31.488431930542</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5861320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3948307037354</t>
+    <t xml:space="preserve">30.5861339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.394832611084</t>
   </si>
   <si>
     <t xml:space="preserve">27.9897174835205</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">28.4500732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9104309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5605621337891</t>
+    <t xml:space="preserve">28.9104290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
     <t xml:space="preserve">27.8424015045166</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">28.5789756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9656753540039</t>
+    <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
     <t xml:space="preserve">28.8367729187012</t>
@@ -3605,13 +3605,13 @@
     <t xml:space="preserve">25.9825592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0930442810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7800045013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9641456604004</t>
+    <t xml:space="preserve">26.0930461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7800025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.964147567749</t>
   </si>
   <si>
     <t xml:space="preserve">26.3508472442627</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592872619629</t>
+    <t xml:space="preserve">24.8592891693115</t>
   </si>
   <si>
     <t xml:space="preserve">26.7927894592285</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">28.6894588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1682300567627</t>
+    <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
     <t xml:space="preserve">28.4684886932373</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">27.2163181304932</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5534038543701</t>
+    <t xml:space="preserve">26.5534019470215</t>
   </si>
   <si>
     <t xml:space="preserve">25.8720741271973</t>
@@ -3680,10 +3680,10 @@
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091579437256</t>
+    <t xml:space="preserve">25.7984161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091598510742</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677310943604</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7048187255859</t>
+    <t xml:space="preserve">22.7048168182373</t>
   </si>
   <si>
     <t xml:space="preserve">23.754430770874</t>
@@ -3716,10 +3716,10 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388286590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1835899353027</t>
+    <t xml:space="preserve">23.2388305664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1835880279541</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416458129883</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7784729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6863994598389</t>
+    <t xml:space="preserve">22.778470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
     <t xml:space="preserve">22.7232322692871</t>
@@ -3773,10 +3773,10 @@
     <t xml:space="preserve">21.7288589477539</t>
   </si>
   <si>
-    <t xml:space="preserve">20.918628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7897300720215</t>
+    <t xml:space="preserve">20.9186305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
     <t xml:space="preserve">21.2500858306885</t>
@@ -3785,10 +3785,10 @@
     <t xml:space="preserve">21.3974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7160720825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8633861541748</t>
+    <t xml:space="preserve">20.7160739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8633880615234</t>
   </si>
   <si>
     <t xml:space="preserve">21.6736164093018</t>
@@ -3806,13 +3806,13 @@
     <t xml:space="preserve">20.2557163238525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.624002456665</t>
+    <t xml:space="preserve">20.6240005493164</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636428833008</t>
+    <t xml:space="preserve">20.1636447906494</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
@@ -3830,22 +3830,22 @@
     <t xml:space="preserve">20.3050022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9933052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2609825134277</t>
+    <t xml:space="preserve">20.9933071136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2609806060791</t>
   </si>
   <si>
     <t xml:space="preserve">21.796329498291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5860137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1845035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.528657913208</t>
+    <t xml:space="preserve">21.5860157012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1845016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">20.9550685882568</t>
@@ -3863,7 +3863,7 @@
     <t xml:space="preserve">20.132926940918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1578273773193</t>
+    <t xml:space="preserve">19.157829284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.5593376159668</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">18.8710327148438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9034900665283</t>
+    <t xml:space="preserve">19.903491973877</t>
   </si>
   <si>
     <t xml:space="preserve">18.4886417388916</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">18.0202121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0010929107666</t>
+    <t xml:space="preserve">18.001091003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.9150524139404</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">17.4753036499023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9590740203857</t>
+    <t xml:space="preserve">16.9590759277344</t>
   </si>
   <si>
     <t xml:space="preserve">16.8539161682129</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">17.0833530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5039806365967</t>
+    <t xml:space="preserve">17.5039825439453</t>
   </si>
   <si>
     <t xml:space="preserve">17.7907772064209</t>
@@ -3929,7 +3929,7 @@
     <t xml:space="preserve">18.2114067077637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6760578155518</t>
+    <t xml:space="preserve">17.6760597229004</t>
   </si>
   <si>
     <t xml:space="preserve">17.1120319366455</t>
@@ -3938,10 +3938,10 @@
     <t xml:space="preserve">17.3988246917725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6282615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8003368377686</t>
+    <t xml:space="preserve">17.6282596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8003387451172</t>
   </si>
   <si>
     <t xml:space="preserve">17.685619354248</t>
@@ -3983,7 +3983,7 @@
     <t xml:space="preserve">18.2209663391113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3165664672852</t>
+    <t xml:space="preserve">18.3165645599365</t>
   </si>
   <si>
     <t xml:space="preserve">18.4408435821533</t>
@@ -3992,19 +3992,19 @@
     <t xml:space="preserve">18.421724319458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9532928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0775718688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.714298248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8098945617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5804595947266</t>
+    <t xml:space="preserve">17.9532947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0775699615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7143001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8098964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5804615020752</t>
   </si>
   <si>
     <t xml:space="preserve">17.1024703979492</t>
@@ -4025,7 +4025,7 @@
     <t xml:space="preserve">16.3090076446533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5958023071289</t>
+    <t xml:space="preserve">16.5958042144775</t>
   </si>
   <si>
     <t xml:space="preserve">15.6971817016602</t>
@@ -4034,13 +4034,13 @@
     <t xml:space="preserve">15.9074974060059</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8692588806152</t>
+    <t xml:space="preserve">15.8692579269409</t>
   </si>
   <si>
     <t xml:space="preserve">15.8501386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2803287506104</t>
+    <t xml:space="preserve">16.280330657959</t>
   </si>
   <si>
     <t xml:space="preserve">16.6913986206055</t>
@@ -4067,34 +4067,34 @@
     <t xml:space="preserve">14.1867351531982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572992324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1676149368286</t>
+    <t xml:space="preserve">13.9573001861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1676139831543</t>
   </si>
   <si>
     <t xml:space="preserve">14.349250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5213260650635</t>
+    <t xml:space="preserve">14.5213270187378</t>
   </si>
   <si>
     <t xml:space="preserve">13.8808221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4066095352173</t>
+    <t xml:space="preserve">14.406608581543</t>
   </si>
   <si>
     <t xml:space="preserve">14.0815763473511</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4830875396729</t>
+    <t xml:space="preserve">14.4830865859985</t>
   </si>
   <si>
     <t xml:space="preserve">14.0911359786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2440919876099</t>
+    <t xml:space="preserve">14.2440929412842</t>
   </si>
   <si>
     <t xml:space="preserve">13.9095001220703</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">14.0242176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4448490142822</t>
+    <t xml:space="preserve">14.4448480606079</t>
   </si>
   <si>
     <t xml:space="preserve">14.1102561950684</t>
@@ -4124,10 +4124,10 @@
     <t xml:space="preserve">14.7890014648438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1713924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4581861495972</t>
+    <t xml:space="preserve">15.1713933944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4581871032715</t>
   </si>
   <si>
     <t xml:space="preserve">16.2325305938721</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5862426757812</t>
+    <t xml:space="preserve">16.5862445831299</t>
   </si>
   <si>
     <t xml:space="preserve">16.8443584442139</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">19.0239906311035</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4330596923828</t>
+    <t xml:space="preserve">21.4330577850342</t>
   </si>
   <si>
     <t xml:space="preserve">21.6051349639893</t>
@@ -4166,13 +4166,13 @@
     <t xml:space="preserve">19.9799690246582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8652515411377</t>
+    <t xml:space="preserve">19.8652534484863</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579582214355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1271438598633</t>
+    <t xml:space="preserve">21.1271457672119</t>
   </si>
   <si>
     <t xml:space="preserve">20.5535564422607</t>
@@ -4190,16 +4190,16 @@
     <t xml:space="preserve">20.4961986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7065143585205</t>
+    <t xml:space="preserve">20.7065124511719</t>
   </si>
   <si>
     <t xml:space="preserve">20.2858829498291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5726776123047</t>
+    <t xml:space="preserve">20.362361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5726757049561</t>
   </si>
   <si>
     <t xml:space="preserve">21.2418613433838</t>
@@ -4214,34 +4214,34 @@
     <t xml:space="preserve">19.7887744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7696533203125</t>
+    <t xml:space="preserve">19.7696552276611</t>
   </si>
   <si>
     <t xml:space="preserve">20.0373268127441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5153160095215</t>
+    <t xml:space="preserve">20.5153179168701</t>
   </si>
   <si>
     <t xml:space="preserve">20.0564479827881</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9168300628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9741878509521</t>
+    <t xml:space="preserve">20.9168281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9741897583008</t>
   </si>
   <si>
     <t xml:space="preserve">21.1653823852539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3948192596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7523097991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596031188965</t>
+    <t xml:space="preserve">21.3948173522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7523078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596012115479</t>
   </si>
   <si>
     <t xml:space="preserve">21.8919277191162</t>
@@ -4253,7 +4253,7 @@
     <t xml:space="preserve">21.7772102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9492855072021</t>
+    <t xml:space="preserve">21.9492874145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.7007331848145</t>
@@ -4322,7 +4322,7 @@
     <t xml:space="preserve">22.4655151367188</t>
   </si>
   <si>
-    <t xml:space="preserve">21.56689453125</t>
+    <t xml:space="preserve">21.5668964385986</t>
   </si>
   <si>
     <t xml:space="preserve">22.2169609069824</t>
@@ -4343,19 +4343,19 @@
     <t xml:space="preserve">20.343240737915</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1902866363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3814792633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7829933166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8785915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4446220397949</t>
+    <t xml:space="preserve">20.1902847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3814811706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7829914093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.878589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4446201324463</t>
   </si>
   <si>
     <t xml:space="preserve">19.2343063354492</t>
@@ -5043,6 +5043,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.2000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -17206,7 +17209,7 @@
         <v>26.8899993896484</v>
       </c>
       <c r="G455" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17232,7 +17235,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G456" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17258,7 +17261,7 @@
         <v>27.5900001525879</v>
       </c>
       <c r="G457" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17284,7 +17287,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G458" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17310,7 +17313,7 @@
         <v>27.6700000762939</v>
       </c>
       <c r="G459" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17336,7 +17339,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G460" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17362,7 +17365,7 @@
         <v>28.2800006866455</v>
       </c>
       <c r="G461" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17414,7 +17417,7 @@
         <v>27.5300006866455</v>
       </c>
       <c r="G463" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17440,7 +17443,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G464" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17466,7 +17469,7 @@
         <v>27.6200008392334</v>
       </c>
       <c r="G465" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17492,7 +17495,7 @@
         <v>27.5300006866455</v>
       </c>
       <c r="G466" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17544,7 +17547,7 @@
         <v>28.3799991607666</v>
       </c>
       <c r="G468" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17570,7 +17573,7 @@
         <v>28.3700008392334</v>
       </c>
       <c r="G469" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17596,7 +17599,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G470" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17648,7 +17651,7 @@
         <v>28.0900001525879</v>
       </c>
       <c r="G472" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17674,7 +17677,7 @@
         <v>27.9300003051758</v>
       </c>
       <c r="G473" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17700,7 +17703,7 @@
         <v>28.0599994659424</v>
       </c>
       <c r="G474" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17726,7 +17729,7 @@
         <v>27.6100006103516</v>
       </c>
       <c r="G475" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17752,7 +17755,7 @@
         <v>27.2099990844727</v>
       </c>
       <c r="G476" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17778,7 +17781,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G477" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17804,7 +17807,7 @@
         <v>27.7299995422363</v>
       </c>
       <c r="G478" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17830,7 +17833,7 @@
         <v>27.6800003051758</v>
       </c>
       <c r="G479" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17856,7 +17859,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G480" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17882,7 +17885,7 @@
         <v>24</v>
       </c>
       <c r="G481" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17908,7 +17911,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G482" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17934,7 +17937,7 @@
         <v>24.75</v>
       </c>
       <c r="G483" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17960,7 +17963,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G484" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17986,7 +17989,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G485" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18012,7 +18015,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G486" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18038,7 +18041,7 @@
         <v>24.2900009155273</v>
       </c>
       <c r="G487" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18064,7 +18067,7 @@
         <v>24.2099990844727</v>
       </c>
       <c r="G488" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18090,7 +18093,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G489" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18116,7 +18119,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G490" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18142,7 +18145,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G491" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18168,7 +18171,7 @@
         <v>24.6800003051758</v>
       </c>
       <c r="G492" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18194,7 +18197,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G493" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18220,7 +18223,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="G494" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18246,7 +18249,7 @@
         <v>24.5</v>
       </c>
       <c r="G495" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18272,7 +18275,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18298,7 +18301,7 @@
         <v>25.2099990844727</v>
       </c>
       <c r="G497" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18324,7 +18327,7 @@
         <v>25.4300003051758</v>
       </c>
       <c r="G498" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18350,7 +18353,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G499" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18376,7 +18379,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G500" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18402,7 +18405,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G501" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18428,7 +18431,7 @@
         <v>25</v>
       </c>
       <c r="G502" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18454,7 +18457,7 @@
         <v>24.8299999237061</v>
       </c>
       <c r="G503" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18480,7 +18483,7 @@
         <v>26.0900001525879</v>
       </c>
       <c r="G504" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18506,7 +18509,7 @@
         <v>26.2900009155273</v>
       </c>
       <c r="G505" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18532,7 +18535,7 @@
         <v>25.9400005340576</v>
       </c>
       <c r="G506" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18558,7 +18561,7 @@
         <v>25.4200000762939</v>
       </c>
       <c r="G507" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18584,7 +18587,7 @@
         <v>25.7800006866455</v>
       </c>
       <c r="G508" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18636,7 +18639,7 @@
         <v>25.4699993133545</v>
       </c>
       <c r="G510" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18662,7 +18665,7 @@
         <v>25.2299995422363</v>
       </c>
       <c r="G511" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18688,7 +18691,7 @@
         <v>25.5</v>
       </c>
       <c r="G512" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18714,7 +18717,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18766,7 +18769,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G515" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18792,7 +18795,7 @@
         <v>26.1800003051758</v>
       </c>
       <c r="G516" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18818,7 +18821,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G517" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18844,7 +18847,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G518" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18870,7 +18873,7 @@
         <v>26.5200004577637</v>
       </c>
       <c r="G519" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18896,7 +18899,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18922,7 +18925,7 @@
         <v>26.7199993133545</v>
       </c>
       <c r="G521" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18948,7 +18951,7 @@
         <v>26.6800003051758</v>
       </c>
       <c r="G522" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19000,7 +19003,7 @@
         <v>26.1200008392334</v>
       </c>
       <c r="G524" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19026,7 +19029,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G525" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19052,7 +19055,7 @@
         <v>26.2800006866455</v>
       </c>
       <c r="G526" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19104,7 +19107,7 @@
         <v>27.0400009155273</v>
       </c>
       <c r="G528" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19130,7 +19133,7 @@
         <v>26.7199993133545</v>
       </c>
       <c r="G529" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19156,7 +19159,7 @@
         <v>27.1800003051758</v>
       </c>
       <c r="G530" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19182,7 +19185,7 @@
         <v>27.1399993896484</v>
       </c>
       <c r="G531" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19208,7 +19211,7 @@
         <v>26.6599998474121</v>
       </c>
       <c r="G532" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19234,7 +19237,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G533" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19286,7 +19289,7 @@
         <v>26.7199993133545</v>
       </c>
       <c r="G535" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19312,7 +19315,7 @@
         <v>26.4799995422363</v>
       </c>
       <c r="G536" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19364,7 +19367,7 @@
         <v>25.5</v>
       </c>
       <c r="G538" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19390,7 +19393,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G539" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19416,7 +19419,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G540" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19442,7 +19445,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G541" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19468,7 +19471,7 @@
         <v>24.3199996948242</v>
       </c>
       <c r="G542" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19494,7 +19497,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G543" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19520,7 +19523,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G544" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19546,7 +19549,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G545" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19572,7 +19575,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="G546" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19598,7 +19601,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G547" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19624,7 +19627,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G548" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19650,7 +19653,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G549" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19676,7 +19679,7 @@
         <v>24.2800006866455</v>
       </c>
       <c r="G550" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19702,7 +19705,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="G551" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19728,7 +19731,7 @@
         <v>23.4599990844727</v>
       </c>
       <c r="G552" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19754,7 +19757,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G553" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19780,7 +19783,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G554" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19806,7 +19809,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G555" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19832,7 +19835,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G556" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19858,7 +19861,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G557" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19884,7 +19887,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G558" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19910,7 +19913,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G559" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19962,7 +19965,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G561" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20014,7 +20017,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G563" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20040,7 +20043,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G564" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20066,7 +20069,7 @@
         <v>24.6399993896484</v>
       </c>
       <c r="G565" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20092,7 +20095,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G566" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20118,7 +20121,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G567" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20144,7 +20147,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G568" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20170,7 +20173,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G569" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20196,7 +20199,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20222,7 +20225,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G571" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20248,7 +20251,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G572" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20274,7 +20277,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G573" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20300,7 +20303,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G574" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20326,7 +20329,7 @@
         <v>24.5</v>
       </c>
       <c r="G575" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20352,7 +20355,7 @@
         <v>24.3600006103516</v>
       </c>
       <c r="G576" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20378,7 +20381,7 @@
         <v>24.8199996948242</v>
       </c>
       <c r="G577" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20404,7 +20407,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G578" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20430,7 +20433,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G579" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20456,7 +20459,7 @@
         <v>24</v>
       </c>
       <c r="G580" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20482,7 +20485,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20508,7 +20511,7 @@
         <v>23.6800003051758</v>
       </c>
       <c r="G582" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20534,7 +20537,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G583" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20560,7 +20563,7 @@
         <v>23.4799995422363</v>
       </c>
       <c r="G584" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20586,7 +20589,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G585" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20612,7 +20615,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G586" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20638,7 +20641,7 @@
         <v>25.5599994659424</v>
       </c>
       <c r="G587" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20664,7 +20667,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G588" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20690,7 +20693,7 @@
         <v>25</v>
       </c>
       <c r="G589" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20716,7 +20719,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G590" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20742,7 +20745,7 @@
         <v>24.6200008392334</v>
       </c>
       <c r="G591" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20768,7 +20771,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G592" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20794,7 +20797,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20820,7 +20823,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G594" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20846,7 +20849,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G595" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20872,7 +20875,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G596" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20898,7 +20901,7 @@
         <v>25</v>
       </c>
       <c r="G597" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20924,7 +20927,7 @@
         <v>25.7199993133545</v>
       </c>
       <c r="G598" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20950,7 +20953,7 @@
         <v>25.2800006866455</v>
       </c>
       <c r="G599" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20976,7 +20979,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G600" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21002,7 +21005,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G601" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21028,7 +21031,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G602" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21054,7 +21057,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G603" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21080,7 +21083,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G604" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21106,7 +21109,7 @@
         <v>24.8600006103516</v>
       </c>
       <c r="G605" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21132,7 +21135,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G606" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21158,7 +21161,7 @@
         <v>24.5</v>
       </c>
       <c r="G607" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21184,7 +21187,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G608" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21210,7 +21213,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G609" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21236,7 +21239,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G610" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21262,7 +21265,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G611" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21288,7 +21291,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G612" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21314,7 +21317,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G613" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21340,7 +21343,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G614" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21366,7 +21369,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G615" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21418,7 +21421,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G617" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21522,7 +21525,7 @@
         <v>25</v>
       </c>
       <c r="G621" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21548,7 +21551,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21600,7 +21603,7 @@
         <v>25</v>
       </c>
       <c r="G624" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21808,7 +21811,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G632" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21834,7 +21837,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G633" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21990,7 +21993,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G639" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22068,7 +22071,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G642" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22198,7 +22201,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G647" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22224,7 +22227,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G648" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22250,7 +22253,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G649" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22328,7 +22331,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G652" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -24018,7 +24021,7 @@
         <v>25</v>
       </c>
       <c r="G717" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -25396,7 +25399,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G770" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25474,7 +25477,7 @@
         <v>24.5599994659424</v>
       </c>
       <c r="G773" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25552,7 +25555,7 @@
         <v>24.7399997711182</v>
       </c>
       <c r="G776" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25630,7 +25633,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G779" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -26384,7 +26387,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G808" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26696,7 +26699,7 @@
         <v>24.0799999237061</v>
       </c>
       <c r="G820" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26826,7 +26829,7 @@
         <v>23.8400001525879</v>
       </c>
       <c r="G825" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -27086,7 +27089,7 @@
         <v>25</v>
       </c>
       <c r="G835" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -27112,7 +27115,7 @@
         <v>24.8600006103516</v>
       </c>
       <c r="G836" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -27164,7 +27167,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G838" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -61076,7 +61079,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493634259</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>81311</v>
@@ -61097,6 +61100,32 @@
         <v>1676</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6495717593</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>92842</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>32.2200012207031</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>31.4400005340576</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>32.2200012207031</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>31.7999992370605</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4367752075195</t>
+    <t xml:space="preserve">21.4367713928223</t>
   </si>
   <si>
     <t xml:space="preserve">21.5399875640869</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">20.833366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3252372741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.738094329834</t>
+    <t xml:space="preserve">20.6190013885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3252353668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7380962371826</t>
   </si>
   <si>
     <t xml:space="preserve">19.3089752197266</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">18.1815605163574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2768363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7845821380615</t>
+    <t xml:space="preserve">18.276834487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7845840454102</t>
   </si>
   <si>
     <t xml:space="preserve">17.6178512573242</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">18.7849655151367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3479080200195</t>
+    <t xml:space="preserve">17.3479099273682</t>
   </si>
   <si>
     <t xml:space="preserve">17.1494197845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.427303314209</t>
+    <t xml:space="preserve">17.4272994995117</t>
   </si>
   <si>
     <t xml:space="preserve">17.5225772857666</t>
@@ -107,37 +107,37 @@
     <t xml:space="preserve">16.6492290496826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3237056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6329622268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4106578826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9902439117432</t>
+    <t xml:space="preserve">16.3237075805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6329641342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4106559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9902458190918</t>
   </si>
   <si>
     <t xml:space="preserve">15.0295600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3709602355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1172752380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9108486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0696392059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4269199371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0458183288574</t>
+    <t xml:space="preserve">15.37096118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1172771453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.910849571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0696411132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4269218444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0458221435547</t>
   </si>
   <si>
     <t xml:space="preserve">16.5936508178711</t>
@@ -146,121 +146,121 @@
     <t xml:space="preserve">16.6412868499756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522525787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8159561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8874130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2685108184814</t>
+    <t xml:space="preserve">16.2522506713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8159580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8874111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2685127258301</t>
   </si>
   <si>
     <t xml:space="preserve">17.4669990539551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5618915557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8711500167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0378837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7762584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3872203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.942608833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5777721405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743661880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2760696411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6095314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5698337554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.284008026123</t>
+    <t xml:space="preserve">16.5618953704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8711538314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0378818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3872184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9426069259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5777702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2760715484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6095294952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5698318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2840061187744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0140628814697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7838153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8790922164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.00612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6885414123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8870286941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7917547225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1724710464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4185981750488</t>
+    <t xml:space="preserve">15.7838144302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8790912628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061206817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6885442733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8870306015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.704421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7917575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1724729537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4185991287231</t>
   </si>
   <si>
     <t xml:space="preserve">15.4582939147949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4162721633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6194343566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8063507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7982244491577</t>
+    <t xml:space="preserve">15.4162712097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6194372177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8063545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.798225402832</t>
   </si>
   <si>
     <t xml:space="preserve">15.6031847000122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6275625228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5950574874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4894104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1314163208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3427124023438</t>
+    <t xml:space="preserve">15.6275634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5950584411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4894132614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.131420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3427104949951</t>
   </si>
   <si>
     <t xml:space="preserve">16.9115772247314</t>
@@ -269,55 +269,55 @@
     <t xml:space="preserve">16.4321041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7165355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9359569549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.838436126709</t>
+    <t xml:space="preserve">16.7165393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9359588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8384342193604</t>
   </si>
   <si>
     <t xml:space="preserve">17.0497283935547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2122611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0090961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4881496429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5129489898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8055095672607</t>
+    <t xml:space="preserve">17.2122631072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0090980529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4881458282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5129470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8055076599121</t>
   </si>
   <si>
     <t xml:space="preserve">17.4804439544678</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4723148345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5698356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8461437225342</t>
+    <t xml:space="preserve">17.4723167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5698375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8461418151855</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5287818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6750640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7156944274902</t>
+    <t xml:space="preserve">18.5287799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6750621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7156963348389</t>
   </si>
   <si>
     <t xml:space="preserve">18.8375968933105</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">19.2764339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">19.593376159668</t>
+    <t xml:space="preserve">19.5933780670166</t>
   </si>
   <si>
     <t xml:space="preserve">19.2520542144775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1220264434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.057014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8538494110107</t>
+    <t xml:space="preserve">19.1220283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0570163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8538475036621</t>
   </si>
   <si>
     <t xml:space="preserve">19.4470958709717</t>
@@ -356,43 +356,43 @@
     <t xml:space="preserve">18.1387004852295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9924221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2443523406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6913166046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.58567237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.545036315918</t>
+    <t xml:space="preserve">17.9924240112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136386871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2443504333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6913146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5856704711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5450344085693</t>
   </si>
   <si>
     <t xml:space="preserve">18.69944190979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3910503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1883029937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8059310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0659828186035</t>
+    <t xml:space="preserve">17.3910484313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1883068084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.80592918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0659847259521</t>
   </si>
   <si>
     <t xml:space="preserve">17.3747978210449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3422889709473</t>
+    <t xml:space="preserve">17.3422908782959</t>
   </si>
   <si>
     <t xml:space="preserve">16.5783843994141</t>
@@ -401,58 +401,58 @@
     <t xml:space="preserve">16.4564838409424</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2126865386963</t>
+    <t xml:space="preserve">16.2126846313477</t>
   </si>
   <si>
     <t xml:space="preserve">16.4646091461182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0741100311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8790702819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8546886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1228694915771</t>
+    <t xml:space="preserve">17.0741119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8790721893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8546905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1228733062744</t>
   </si>
   <si>
     <t xml:space="preserve">17.2285175323486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2366409301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5617122650146</t>
+    <t xml:space="preserve">17.2366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5617084503174</t>
   </si>
   <si>
     <t xml:space="preserve">17.6429748535156</t>
   </si>
   <si>
-    <t xml:space="preserve">17.594217300415</t>
+    <t xml:space="preserve">17.5942134857178</t>
   </si>
   <si>
     <t xml:space="preserve">17.5210781097412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3662509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9599170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3499965667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1630821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4150104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0574359893799</t>
+    <t xml:space="preserve">18.3662490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9599189758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1630840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4150085449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0574340820312</t>
   </si>
   <si>
     <t xml:space="preserve">18.0655612945557</t>
@@ -461,25 +461,25 @@
     <t xml:space="preserve">18.2524757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8294696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3333225250244</t>
+    <t xml:space="preserve">18.8294677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3333206176758</t>
   </si>
   <si>
     <t xml:space="preserve">19.5039825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4633502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6177520751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8701038360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9269866943359</t>
+    <t xml:space="preserve">19.4633483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6177558898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8701019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9269905090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.666934967041</t>
@@ -488,40 +488,40 @@
     <t xml:space="preserve">18.935115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.642557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4231338500977</t>
+    <t xml:space="preserve">18.6425552368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4231357574463</t>
   </si>
   <si>
     <t xml:space="preserve">18.7400741577148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2606029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3256168365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1061973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1468276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9761695861816</t>
+    <t xml:space="preserve">18.8050918579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2606010437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3256149291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1061935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1468296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.976167678833</t>
   </si>
   <si>
     <t xml:space="preserve">18.154956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8786487579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5373306274414</t>
+    <t xml:space="preserve">17.8786506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.53733253479</t>
   </si>
   <si>
     <t xml:space="preserve">17.3260364532471</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">17.3991775512695</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7486248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.862398147583</t>
+    <t xml:space="preserve">17.7486228942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8623962402344</t>
   </si>
   <si>
     <t xml:space="preserve">18.0086765289307</t>
@@ -545,37 +545,37 @@
     <t xml:space="preserve">18.1874618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2118434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5535850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6267261505127</t>
+    <t xml:space="preserve">18.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5535831451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5454578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6267223358154</t>
   </si>
   <si>
     <t xml:space="preserve">17.5048236846924</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4641933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0168037414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9842967987061</t>
+    <t xml:space="preserve">17.4641895294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0168018341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9842948913574</t>
   </si>
   <si>
     <t xml:space="preserve">17.7811298370361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8298892974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6836109161377</t>
+    <t xml:space="preserve">17.8298931121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6836071014404</t>
   </si>
   <si>
     <t xml:space="preserve">17.9680442810059</t>
@@ -584,37 +584,37 @@
     <t xml:space="preserve">17.9436645507812</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1793403625488</t>
+    <t xml:space="preserve">18.1793365478516</t>
   </si>
   <si>
     <t xml:space="preserve">18.0249290466309</t>
   </si>
   <si>
-    <t xml:space="preserve">17.797384262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6352729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6677780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9522094726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0334758758545</t>
+    <t xml:space="preserve">17.7973823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6352691650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6677761077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9522132873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0334777832031</t>
   </si>
   <si>
     <t xml:space="preserve">16.6840305328369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664043426514</t>
+    <t xml:space="preserve">16.06640625</t>
   </si>
   <si>
     <t xml:space="preserve">15.9688835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7657165527344</t>
+    <t xml:space="preserve">15.765718460083</t>
   </si>
   <si>
     <t xml:space="preserve">17.2203884124756</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">16.781551361084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5946369171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8709449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4316825866699</t>
+    <t xml:space="preserve">16.5946388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8709411621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4316844940186</t>
   </si>
   <si>
     <t xml:space="preserve">17.7892570495605</t>
@@ -638,109 +638,109 @@
     <t xml:space="preserve">17.1716289520264</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9197025299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6596508026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4235591888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2041397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4073028564453</t>
+    <t xml:space="preserve">16.9197044372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6596527099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4235572814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2041358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4073047637939</t>
   </si>
   <si>
     <t xml:space="preserve">17.2691497802734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4885711669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5860919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7567501068115</t>
+    <t xml:space="preserve">17.4885692596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5860900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7567520141602</t>
   </si>
   <si>
     <t xml:space="preserve">18.2037162780762</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1955909729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6506843566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8944816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0163803100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7888355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.610050201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7319488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.634428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3906307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5531635284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.333740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8863525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7482051849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0976467132568</t>
+    <t xml:space="preserve">18.1955871582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6506824493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0163822174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7888374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6100482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7319469451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6344318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3906288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5531616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3337421417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8863544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7482013702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0976505279541</t>
   </si>
   <si>
     <t xml:space="preserve">18.9838771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2601795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9021854400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1784954071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1216087341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3003921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.072847366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1459865570068</t>
+    <t xml:space="preserve">19.260181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9021873474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1784934997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1216049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3003940582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0728492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1459903717041</t>
   </si>
   <si>
     <t xml:space="preserve">19.8778057098389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2516345977783</t>
+    <t xml:space="preserve">20.2516326904297</t>
   </si>
   <si>
     <t xml:space="preserve">20.0647201538086</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">19.9103145599365</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2841396331787</t>
+    <t xml:space="preserve">20.2841415405273</t>
   </si>
   <si>
     <t xml:space="preserve">19.6665134429932</t>
@@ -758,25 +758,25 @@
     <t xml:space="preserve">19.4389686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7152729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0565948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3328990936279</t>
+    <t xml:space="preserve">19.715274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0565929412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3329010009766</t>
   </si>
   <si>
     <t xml:space="preserve">21.056173324585</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830360412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8286228179932</t>
+    <t xml:space="preserve">20.8448810577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8286285400391</t>
   </si>
   <si>
     <t xml:space="preserve">21.8525848388672</t>
@@ -788,82 +788,82 @@
     <t xml:space="preserve">22.1288928985596</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9419803619385</t>
+    <t xml:space="preserve">21.9419784545898</t>
   </si>
   <si>
     <t xml:space="preserve">21.6819267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6331691741943</t>
+    <t xml:space="preserve">21.6331672668457</t>
   </si>
   <si>
     <t xml:space="preserve">21.7550659179688</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1532707214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7957000732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9338531494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8769645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6002368927002</t>
+    <t xml:space="preserve">22.1532726287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7956981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9338512420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8769664764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6002388000488</t>
   </si>
   <si>
     <t xml:space="preserve">22.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2264156341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.104513168335</t>
+    <t xml:space="preserve">22.2264099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1045112609863</t>
   </si>
   <si>
     <t xml:space="preserve">22.3401851654053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1387176513672</t>
+    <t xml:space="preserve">22.5027198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1387195587158</t>
   </si>
   <si>
     <t xml:space="preserve">23.0466690063477</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8876686096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295120239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186683654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584041595459</t>
+    <t xml:space="preserve">22.8876667022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851982116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
   </si>
   <si>
     <t xml:space="preserve">24.0174045562744</t>
@@ -875,19 +875,19 @@
     <t xml:space="preserve">24.0090370178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788772583008</t>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788753509521</t>
   </si>
   <si>
     <t xml:space="preserve">23.004825592041</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">23.5989837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7077713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9086170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266159057617</t>
+    <t xml:space="preserve">23.7077732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266178131104</t>
   </si>
   <si>
     <t xml:space="preserve">24.1345634460449</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">24.15966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6701431274414</t>
+    <t xml:space="preserve">24.6701412200928</t>
   </si>
   <si>
     <t xml:space="preserve">24.7873020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">24.686882019043</t>
+    <t xml:space="preserve">24.6868782043457</t>
   </si>
   <si>
     <t xml:space="preserve">24.8709850311279</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">24.4023532867432</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2935657501221</t>
+    <t xml:space="preserve">24.2935619354248</t>
   </si>
   <si>
     <t xml:space="preserve">24.435827255249</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7203521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9923000335693</t>
+    <t xml:space="preserve">24.7203540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.992301940918</t>
   </si>
   <si>
     <t xml:space="preserve">23.8081932067871</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">24.2600898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2684574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839286804199</t>
   </si>
   <si>
     <t xml:space="preserve">22.8458251953125</t>
@@ -974,43 +974,43 @@
     <t xml:space="preserve">22.962984085083</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0215606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939323425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039855957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
+    <t xml:space="preserve">23.0215644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.393928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700878143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956123352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
   </si>
   <si>
     <t xml:space="preserve">23.7161426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311920166016</t>
+    <t xml:space="preserve">23.3311939239502</t>
   </si>
   <si>
     <t xml:space="preserve">23.6910362243652</t>
   </si>
   <si>
-    <t xml:space="preserve">23.841667175293</t>
+    <t xml:space="preserve">23.8416690826416</t>
   </si>
   <si>
     <t xml:space="preserve">23.6826686859131</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">23.6240882873535</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2475109100342</t>
+    <t xml:space="preserve">23.2475128173828</t>
   </si>
   <si>
     <t xml:space="preserve">22.6868267059326</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">22.1512451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8918209075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416137695312</t>
   </si>
   <si>
     <t xml:space="preserve">21.9755077362061</t>
@@ -1046,13 +1046,13 @@
     <t xml:space="preserve">21.5236110687256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3060302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646106719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746677398682</t>
+    <t xml:space="preserve">21.3060359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
   </si>
   <si>
     <t xml:space="preserve">21.757926940918</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">21.4566650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4817714691162</t>
+    <t xml:space="preserve">21.4817695617676</t>
   </si>
   <si>
     <t xml:space="preserve">21.5319805145264</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">21.4985065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4734020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1554012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324005126953</t>
+    <t xml:space="preserve">21.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553993225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324024200439</t>
   </si>
   <si>
     <t xml:space="preserve">21.5570869445801</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">21.6240329742432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
+    <t xml:space="preserve">22.1261386871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169273376465</t>
   </si>
   <si>
     <t xml:space="preserve">22.268404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1428775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997703552246</t>
+    <t xml:space="preserve">22.1428737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997722625732</t>
   </si>
   <si>
     <t xml:space="preserve">21.4399280548096</t>
@@ -1121,34 +1121,34 @@
     <t xml:space="preserve">21.3478755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6407699584961</t>
+    <t xml:space="preserve">21.6407718658447</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935085296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541965484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
+    <t xml:space="preserve">21.9671382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541927337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370376586914</t>
   </si>
   <si>
     <t xml:space="preserve">22.7286682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2642440795898</t>
+    <t xml:space="preserve">23.2642459869385</t>
   </si>
   <si>
     <t xml:space="preserve">23.0885105133057</t>
@@ -1163,43 +1163,43 @@
     <t xml:space="preserve">23.0968780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6659297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496109008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
+    <t xml:space="preserve">23.6659336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0383014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412490844727</t>
   </si>
   <si>
     <t xml:space="preserve">23.5571422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">23.506929397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.10524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5153007507324</t>
+    <t xml:space="preserve">23.5069313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
   </si>
   <si>
     <t xml:space="preserve">23.2056674957275</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">23.1638259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0842437744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871875762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118721008301</t>
+    <t xml:space="preserve">20.0842418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118759155273</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361366271973</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.377140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.603084564209</t>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.32692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6030883789062</t>
   </si>
   <si>
     <t xml:space="preserve">20.5026626586914</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">21.004768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0968208312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809257507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562450408936</t>
+    <t xml:space="preserve">21.0968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562431335449</t>
   </si>
   <si>
     <t xml:space="preserve">21.1219272613525</t>
@@ -1268,58 +1268,58 @@
     <t xml:space="preserve">20.7955589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
+    <t xml:space="preserve">20.921085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788238525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332443237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077159881592</t>
   </si>
   <si>
     <t xml:space="preserve">21.2725582122803</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5738220214844</t>
+    <t xml:space="preserve">21.573823928833</t>
   </si>
   <si>
     <t xml:space="preserve">21.3144016265869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1135578155518</t>
+    <t xml:space="preserve">21.1135597229004</t>
   </si>
   <si>
     <t xml:space="preserve">21.3395080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4231929779053</t>
+    <t xml:space="preserve">21.4231910705566</t>
   </si>
   <si>
     <t xml:space="preserve">22.3269824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">21.908561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424575805664</t>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780334472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
     <t xml:space="preserve">22.1930866241455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604564666748</t>
+    <t xml:space="preserve">22.4274005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604545593262</t>
   </si>
   <si>
     <t xml:space="preserve">21.8583507537842</t>
@@ -1328,79 +1328,79 @@
     <t xml:space="preserve">22.2600364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9922466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6282482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454071044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119312286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102474212646</t>
+    <t xml:space="preserve">21.992244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
   </si>
   <si>
     <t xml:space="preserve">22.6784572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">22.159610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3520317077637</t>
+    <t xml:space="preserve">22.1596126556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3687686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">20.9043483734131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9545574188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
   </si>
   <si>
     <t xml:space="preserve">20.5528736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2348766326904</t>
+    <t xml:space="preserve">20.2348747253418</t>
   </si>
   <si>
     <t xml:space="preserve">20.3185577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9838180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.632345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787647247314</t>
+    <t xml:space="preserve">19.9838199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6323432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787666320801</t>
   </si>
   <si>
     <t xml:space="preserve">19.3812942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5151901245117</t>
+    <t xml:space="preserve">19.5151863098145</t>
   </si>
   <si>
     <t xml:space="preserve">20.8541374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9880313873291</t>
+    <t xml:space="preserve">20.9880332946777</t>
   </si>
   <si>
     <t xml:space="preserve">21.6072978973389</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">21.0549793243408</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6198177337646</t>
+    <t xml:space="preserve">20.6198234558105</t>
   </si>
   <si>
     <t xml:space="preserve">20.686767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6700305938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.268346786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
+    <t xml:space="preserve">20.6700325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9503479003906</t>
   </si>
   <si>
     <t xml:space="preserve">20.184663772583</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">20.3855075836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7704524993896</t>
+    <t xml:space="preserve">20.770450592041</t>
   </si>
   <si>
     <t xml:space="preserve">20.4189796447754</t>
@@ -1445,22 +1445,22 @@
     <t xml:space="preserve">19.6490821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9001350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897171020508</t>
+    <t xml:space="preserve">19.9001388549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897132873535</t>
   </si>
   <si>
     <t xml:space="preserve">21.0215072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7884616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444297790527</t>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444278717041</t>
   </si>
   <si>
     <t xml:space="preserve">21.4572772979736</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">21.5618591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6141529083252</t>
+    <t xml:space="preserve">21.6141510009766</t>
   </si>
   <si>
     <t xml:space="preserve">21.7361679077148</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">22.0324935913086</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1893653869629</t>
+    <t xml:space="preserve">22.1893672943115</t>
   </si>
   <si>
     <t xml:space="preserve">22.0847835540771</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9976291656494</t>
+    <t xml:space="preserve">21.9976329803467</t>
   </si>
   <si>
     <t xml:space="preserve">21.8756141662598</t>
@@ -1499,40 +1499,40 @@
     <t xml:space="preserve">21.6664447784424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3526935577393</t>
+    <t xml:space="preserve">21.352689743042</t>
   </si>
   <si>
     <t xml:space="preserve">21.5269985198975</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4049854278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1260929107666</t>
+    <t xml:space="preserve">21.4049835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1260890960693</t>
   </si>
   <si>
     <t xml:space="preserve">20.9866428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0563697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774772644043</t>
+    <t xml:space="preserve">21.0563659667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
   </si>
   <si>
     <t xml:space="preserve">20.3417072296143</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1086578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710266113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683874130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.893045425415</t>
+    <t xml:space="preserve">21.1086616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8930435180664</t>
   </si>
   <si>
     <t xml:space="preserve">21.7013053894043</t>
@@ -1544,73 +1544,73 @@
     <t xml:space="preserve">21.5792922973633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132453918457</t>
+    <t xml:space="preserve">21.2132434844971</t>
   </si>
   <si>
     <t xml:space="preserve">21.3701229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4398441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031684875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0040760040283</t>
+    <t xml:space="preserve">21.4398460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040740966797</t>
   </si>
   <si>
     <t xml:space="preserve">21.1609535217285</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8820610046387</t>
+    <t xml:space="preserve">20.8820629119873</t>
   </si>
   <si>
     <t xml:space="preserve">20.7949066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9692153930664</t>
+    <t xml:space="preserve">20.9692115783691</t>
   </si>
   <si>
     <t xml:space="preserve">21.1435222625732</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2655372619629</t>
+    <t xml:space="preserve">21.2655391693115</t>
   </si>
   <si>
     <t xml:space="preserve">20.9169235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3003997802734</t>
+    <t xml:space="preserve">21.3004016876221</t>
   </si>
   <si>
     <t xml:space="preserve">20.9343528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6728916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.270076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893211364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.193904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636299133301</t>
+    <t xml:space="preserve">20.6728897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9279079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700786590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1939086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636280059814</t>
   </si>
   <si>
     <t xml:space="preserve">24.5948143005371</t>
@@ -1622,13 +1622,13 @@
     <t xml:space="preserve">24.2113380432129</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8452911376953</t>
+    <t xml:space="preserve">23.8452892303467</t>
   </si>
   <si>
     <t xml:space="preserve">23.7755699157715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8104286193848</t>
+    <t xml:space="preserve">23.8104305267334</t>
   </si>
   <si>
     <t xml:space="preserve">23.5141048431396</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">23.5838298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9150123596191</t>
+    <t xml:space="preserve">23.9150142669678</t>
   </si>
   <si>
     <t xml:space="preserve">24.1067523956299</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1416168212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461986541748</t>
+    <t xml:space="preserve">24.1416130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2462005615234</t>
   </si>
   <si>
     <t xml:space="preserve">24.4030742645264</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">24.2810611724854</t>
   </si>
   <si>
-    <t xml:space="preserve">24.071891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801536560059</t>
+    <t xml:space="preserve">24.0718898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801517486572</t>
   </si>
   <si>
     <t xml:space="preserve">23.5315380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5489673614502</t>
+    <t xml:space="preserve">23.5489711761475</t>
   </si>
   <si>
     <t xml:space="preserve">23.287504196167</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">23.7929973602295</t>
   </si>
   <si>
-    <t xml:space="preserve">23.496675491333</t>
+    <t xml:space="preserve">23.4966735839844</t>
   </si>
   <si>
     <t xml:space="preserve">24.1241836547852</t>
@@ -1694,46 +1694,46 @@
     <t xml:space="preserve">24.6993980407715</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847373962402</t>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847354888916</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.932445526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.694860458374</t>
+    <t xml:space="preserve">23.9324436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6948623657227</t>
   </si>
   <si>
     <t xml:space="preserve">22.3811073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9453392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058910369873</t>
+    <t xml:space="preserve">21.9453372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058929443359</t>
   </si>
   <si>
     <t xml:space="preserve">22.590274810791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1370735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462429046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233203887939</t>
+    <t xml:space="preserve">22.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462467193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233222961426</t>
   </si>
   <si>
     <t xml:space="preserve">22.2765216827393</t>
@@ -1742,97 +1742,97 @@
     <t xml:space="preserve">22.4333992004395</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765659332275</t>
+    <t xml:space="preserve">21.8581848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765678405762</t>
   </si>
   <si>
     <t xml:space="preserve">19.7664928436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3940010070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.219690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
+    <t xml:space="preserve">20.3939971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802440643311</t>
   </si>
   <si>
     <t xml:space="preserve">20.1325378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.202262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4875984191895</t>
+    <t xml:space="preserve">20.2022590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876022338867</t>
   </si>
   <si>
     <t xml:space="preserve">19.4701671600342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5050296783447</t>
+    <t xml:space="preserve">19.5050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">19.6967697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0453815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160160064697</t>
+    <t xml:space="preserve">20.0453834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160121917725</t>
   </si>
   <si>
     <t xml:space="preserve">20.4985828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7426128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903247833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059391021729</t>
+    <t xml:space="preserve">20.7426147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4288597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
   </si>
   <si>
     <t xml:space="preserve">20.6205978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4811534881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894134521484</t>
+    <t xml:space="preserve">20.4811515808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894153594971</t>
   </si>
   <si>
     <t xml:space="preserve">19.7316284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1673965454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132934570312</t>
+    <t xml:space="preserve">20.1673984527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.313289642334</t>
   </si>
   <si>
     <t xml:space="preserve">18.3023071289062</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2609996795654</t>
+    <t xml:space="preserve">19.2609977722168</t>
   </si>
   <si>
     <t xml:space="preserve">19.0169677734375</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">21.1783828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8471965789795</t>
+    <t xml:space="preserve">20.8472003936768</t>
   </si>
   <si>
     <t xml:space="preserve">21.1958122253418</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0692596435547</t>
+    <t xml:space="preserve">19.0692615509033</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9995346069336</t>
+    <t xml:space="preserve">18.9995365142822</t>
   </si>
   <si>
     <t xml:space="preserve">19.2087078094482</t>
@@ -1880,10 +1880,10 @@
     <t xml:space="preserve">19.4527378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0344009399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389827728271</t>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389846801758</t>
   </si>
   <si>
     <t xml:space="preserve">19.3307228088379</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">19.9756603240967</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2371234893799</t>
+    <t xml:space="preserve">20.2371196746826</t>
   </si>
   <si>
     <t xml:space="preserve">20.0976734161377</t>
@@ -1907,37 +1907,37 @@
     <t xml:space="preserve">19.7839221954346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1848297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857391357422</t>
+    <t xml:space="preserve">20.1848316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362159729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.0389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.864631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499229431152</t>
+    <t xml:space="preserve">19.5921821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.749059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.049919128418</t>
   </si>
   <si>
     <t xml:space="preserve">20.0279521942139</t>
@@ -1946,106 +1946,106 @@
     <t xml:space="preserve">18.8077964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068908691406</t>
+    <t xml:space="preserve">18.4068927764893</t>
   </si>
   <si>
     <t xml:space="preserve">18.1802921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3371696472168</t>
+    <t xml:space="preserve">18.3371677398682</t>
   </si>
   <si>
     <t xml:space="preserve">17.8665390014648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2564582824707</t>
+    <t xml:space="preserve">17.2564601898193</t>
   </si>
   <si>
     <t xml:space="preserve">16.8642692565918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6812438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.021146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525699615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614757537842</t>
+    <t xml:space="preserve">16.681245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0211448669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436817169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637012481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
     <t xml:space="preserve">16.0970287322998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2036895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903659820557</t>
+    <t xml:space="preserve">16.2036914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125982284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9903688430786</t>
   </si>
   <si>
     <t xml:space="preserve">15.6970481872559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8214874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214698791504</t>
+    <t xml:space="preserve">15.8214855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214660644531</t>
   </si>
   <si>
     <t xml:space="preserve">16.3103542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.319242477417</t>
+    <t xml:space="preserve">16.3192405700684</t>
   </si>
   <si>
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481327056885</t>
+    <t xml:space="preserve">16.2481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7059354782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281648635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881580352783</t>
+    <t xml:space="preserve">15.7059373855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688159942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0881423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
   </si>
   <si>
     <t xml:space="preserve">15.7326030731201</t>
@@ -2054,19 +2054,19 @@
     <t xml:space="preserve">15.7592668533325</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8037118911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814805984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770627975464</t>
+    <t xml:space="preserve">15.8037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814777374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770599365234</t>
   </si>
   <si>
     <t xml:space="preserve">15.2348461151123</t>
@@ -2078,49 +2078,49 @@
     <t xml:space="preserve">15.13707447052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3415088653564</t>
+    <t xml:space="preserve">15.3415079116821</t>
   </si>
   <si>
     <t xml:space="preserve">15.2615118026733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1637382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681940078735</t>
+    <t xml:space="preserve">15.1637392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681930541992</t>
   </si>
   <si>
     <t xml:space="preserve">14.959303855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570783615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3859519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837411880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015214920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770803451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703824996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437187194824</t>
+    <t xml:space="preserve">15.0659666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3859510421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837421417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015186309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437158584595</t>
   </si>
   <si>
     <t xml:space="preserve">15.3148431777954</t>
@@ -2129,58 +2129,58 @@
     <t xml:space="preserve">15.1548500061035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5770998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792678833008</t>
+    <t xml:space="preserve">14.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792697906494</t>
   </si>
   <si>
     <t xml:space="preserve">15.7859325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4659471511841</t>
+    <t xml:space="preserve">15.4659490585327</t>
   </si>
   <si>
     <t xml:space="preserve">15.5992736816406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8925943374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881191253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903133392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347545623779</t>
+    <t xml:space="preserve">15.8925952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.776948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347526550293</t>
   </si>
   <si>
     <t xml:space="preserve">17.7413959503174</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2880878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125408172607</t>
+    <t xml:space="preserve">17.2880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125427246094</t>
   </si>
   <si>
     <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036720275879</t>
+    <t xml:space="preserve">16.6125583648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036758422852</t>
   </si>
   <si>
     <t xml:space="preserve">16.0525856018066</t>
@@ -2189,52 +2189,52 @@
     <t xml:space="preserve">15.5814971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1459636688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881774902344</t>
+    <t xml:space="preserve">15.1459646224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.288179397583</t>
   </si>
   <si>
     <t xml:space="preserve">14.8615303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7370920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437334060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681745529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4126167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
+    <t xml:space="preserve">14.7370910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437372207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748529434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992921829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.412615776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748344421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
   </si>
   <si>
     <t xml:space="preserve">15.2970657348633</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8437538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459802627563</t>
+    <t xml:space="preserve">14.8437557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.745982170105</t>
   </si>
   <si>
     <t xml:space="preserve">14.6659841537476</t>
@@ -2243,43 +2243,43 @@
     <t xml:space="preserve">15.4570579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2526254653931</t>
+    <t xml:space="preserve">15.2526235580444</t>
   </si>
   <si>
     <t xml:space="preserve">15.6614942550659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7770442962646</t>
+    <t xml:space="preserve">15.7770433425903</t>
   </si>
   <si>
     <t xml:space="preserve">15.8570404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2125797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1992015838623</t>
+    <t xml:space="preserve">16.2125778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970092773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1991996765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.7014465332031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281093597412</t>
+    <t xml:space="preserve">16.8436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281131744385</t>
   </si>
   <si>
     <t xml:space="preserve">16.7636642456055</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">16.5770053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.985876083374</t>
+    <t xml:space="preserve">16.9858798980713</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592113494873</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">16.80810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9236583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547760009766</t>
+    <t xml:space="preserve">16.8881053924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.923656463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547740936279</t>
   </si>
   <si>
     <t xml:space="preserve">16.9769878387451</t>
@@ -2318,49 +2318,49 @@
     <t xml:space="preserve">16.7992191314697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3814601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
+    <t xml:space="preserve">16.3814582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459072113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.65700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4170112609863</t>
+    <t xml:space="preserve">16.417013168335</t>
   </si>
   <si>
     <t xml:space="preserve">15.9992542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9459247589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.750376701355</t>
+    <t xml:space="preserve">15.9459266662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503795623779</t>
   </si>
   <si>
     <t xml:space="preserve">15.1904039382935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8970851898193</t>
+    <t xml:space="preserve">14.8970861434937</t>
   </si>
   <si>
     <t xml:space="preserve">14.8526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1771192550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32373046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281843185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
+    <t xml:space="preserve">14.1771183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926683425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237333297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7148246765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236934661865</t>
@@ -2369,100 +2369,100 @@
     <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325855255127</t>
+    <t xml:space="preserve">16.1325836181641</t>
   </si>
   <si>
     <t xml:space="preserve">16.2836856842041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.928147315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9548149108887</t>
+    <t xml:space="preserve">15.9281463623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9548139572144</t>
   </si>
   <si>
     <t xml:space="preserve">14.3015565872192</t>
   </si>
   <si>
-    <t xml:space="preserve">13.954906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1326761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415838241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8660221099854</t>
+    <t xml:space="preserve">13.9549055099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1326751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415828704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.866021156311</t>
   </si>
   <si>
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5904788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3060474395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1638326644897</t>
+    <t xml:space="preserve">13.5904779434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3060483932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1638317108154</t>
   </si>
   <si>
     <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1594343185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6705684661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2972526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1595277786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1105947494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1416568756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.328314781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1683225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5505275726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.901575088501</t>
+    <t xml:space="preserve">12.1594333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6705675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2972536087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1595268249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1105937957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1416578292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3283157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1683216094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5505266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9015760421753</t>
   </si>
   <si>
     <t xml:space="preserve">14.3104457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6349210739136</t>
+    <t xml:space="preserve">14.8881978988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6349201202393</t>
   </si>
   <si>
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260143280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5460357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6438112258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793632507324</t>
+    <t xml:space="preserve">14.0260124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5460367202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6438102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793642044067</t>
   </si>
   <si>
     <t xml:space="preserve">13.0305042266846</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">13.9282417297363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9993486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1948947906494</t>
+    <t xml:space="preserve">13.9993495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1948957443237</t>
   </si>
   <si>
     <t xml:space="preserve">13.3682670593262</t>
@@ -2489,43 +2489,43 @@
     <t xml:space="preserve">13.4571514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6260328292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9726848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8837985992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3993320465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5326585769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6570959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1104078292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326215744019</t>
+    <t xml:space="preserve">13.6260318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7771377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9726839065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8837976455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3993310928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.532657623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6570949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793262481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.110408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326196670532</t>
   </si>
   <si>
     <t xml:space="preserve">14.8081998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192979812622</t>
+    <t xml:space="preserve">15.1192951202393</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304126739502</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">15.4037294387817</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4926147460938</t>
+    <t xml:space="preserve">15.4926128387451</t>
   </si>
   <si>
     <t xml:space="preserve">16.079252243042</t>
@@ -2546,16 +2546,16 @@
     <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259014129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325290679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414348602295</t>
+    <t xml:space="preserve">16.4259033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">17.2525310516357</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">17.501407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1147136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2168846130371</t>
+    <t xml:space="preserve">18.1147117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2168827056885</t>
   </si>
   <si>
     <t xml:space="preserve">20.0879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8924083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4479827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7146377563477</t>
+    <t xml:space="preserve">19.892406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4479866027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7146396636963</t>
   </si>
   <si>
     <t xml:space="preserve">20.4434947967529</t>
@@ -2588,58 +2588,58 @@
     <t xml:space="preserve">20.4790477752686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9234733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7279224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.621265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0123558044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9056949615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.319055557251</t>
+    <t xml:space="preserve">20.923469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7279262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6212635040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.012357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9056930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3190536499023</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568164825439</t>
+    <t xml:space="preserve">20.6568183898926</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8478717803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.563440322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7412090301514</t>
+    <t xml:space="preserve">21.8478736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5634422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.954532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8300971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034111022949</t>
+    <t xml:space="preserve">21.9545345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8300952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034091949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.1678581237793</t>
@@ -2648,73 +2648,73 @@
     <t xml:space="preserve">22.132303237915</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9723091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2211894989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7945404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8656482696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6523265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8123188018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.110034942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6077919006348</t>
+    <t xml:space="preserve">21.9723110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2211875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7945423126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.865650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6523284912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8123207092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1100368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6077880859375</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.834400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9943923950195</t>
+    <t xml:space="preserve">24.9410610198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8344020843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
     <t xml:space="preserve">25.0299453735352</t>
   </si>
   <si>
-    <t xml:space="preserve">24.585521697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.887731552124</t>
+    <t xml:space="preserve">24.5855236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8877296447754</t>
   </si>
   <si>
     <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5321922302246</t>
+    <t xml:space="preserve">24.5321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">24.6033000946045</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6744060516357</t>
+    <t xml:space="preserve">24.674409866333</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6921882629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4433078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455158233643</t>
+    <t xml:space="preserve">24.6921863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4433097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455139160156</t>
   </si>
   <si>
     <t xml:space="preserve">24.7632923126221</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4966373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7810668945312</t>
+    <t xml:space="preserve">24.496639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
     <t xml:space="preserve">24.1410999298096</t>
@@ -2735,64 +2735,64 @@
     <t xml:space="preserve">25.012170791626</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9232883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5454807281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2921104431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.581033706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1854476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1809577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5587673187256</t>
+    <t xml:space="preserve">24.9232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5454788208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2921123504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5810356140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1854457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1809558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5587635040283</t>
   </si>
   <si>
     <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5765399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2032260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.132116317749</t>
+    <t xml:space="preserve">26.5765438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2032222747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1321182250977</t>
   </si>
   <si>
     <t xml:space="preserve">26.1498947143555</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8832416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743339538574</t>
+    <t xml:space="preserve">25.8832397460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743320465088</t>
   </si>
   <si>
     <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4343242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5232086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4521026611328</t>
+    <t xml:space="preserve">26.4343280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3098850250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5232105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4521045684814</t>
   </si>
   <si>
     <t xml:space="preserve">27.0565185546875</t>
@@ -2801,28 +2801,28 @@
     <t xml:space="preserve">28.034252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9098129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1454029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0387439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.127628326416</t>
+    <t xml:space="preserve">27.9098110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1454048156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0387420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1276264190674</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210025787354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0254573822021</t>
+    <t xml:space="preserve">26.0254554748535</t>
   </si>
   <si>
     <t xml:space="preserve">24.4255313873291</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2655372619629</t>
+    <t xml:space="preserve">24.2655353546143</t>
   </si>
   <si>
     <t xml:space="preserve">24.4077529907227</t>
@@ -2831,10 +2831,10 @@
     <t xml:space="preserve">24.4610843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1676712036133</t>
+    <t xml:space="preserve">25.9010162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1676692962646</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
@@ -2846,61 +2846,61 @@
     <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209655761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5988063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8521766662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677452087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1543884277344</t>
+    <t xml:space="preserve">25.1721611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5988082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8521785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1543865203857</t>
   </si>
   <si>
     <t xml:space="preserve">24.5499687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0877704620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143787384033</t>
+    <t xml:space="preserve">24.0877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143768310547</t>
   </si>
   <si>
     <t xml:space="preserve">26.0076789855957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1010551452637</t>
+    <t xml:space="preserve">25.3321533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.101053237915</t>
   </si>
   <si>
     <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1766548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6611213684082</t>
+    <t xml:space="preserve">24.3366432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1766529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6611232757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2833137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1965980529785</t>
+    <t xml:space="preserve">24.2833156585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1965999603271</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
@@ -2912,22 +2912,22 @@
     <t xml:space="preserve">23.5617542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7975540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.38037109375</t>
+    <t xml:space="preserve">23.7975521087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3803730010986</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2872924804688</t>
+    <t xml:space="preserve">24.2872905731201</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8519668579102</t>
+    <t xml:space="preserve">23.8519687652588</t>
   </si>
   <si>
     <t xml:space="preserve">23.7250003814697</t>
@@ -2936,25 +2936,25 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989860534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2896785736084</t>
+    <t xml:space="preserve">23.1989879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.289680480957</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2510147094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6295299530029</t>
+    <t xml:space="preserve">24.251012802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6295318603516</t>
   </si>
   <si>
     <t xml:space="preserve">26.4457569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6452808380127</t>
+    <t xml:space="preserve">26.6452789306641</t>
   </si>
   <si>
     <t xml:space="preserve">27.3164005279541</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8629417419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5340595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1870422363281</t>
+    <t xml:space="preserve">26.8629398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5340614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1870403289795</t>
   </si>
   <si>
     <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2777328491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1689033508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3478965759277</t>
+    <t xml:space="preserve">28.2777366638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1689014434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
     <t xml:space="preserve">30.0371551513672</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4724769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3273677825928</t>
+    <t xml:space="preserve">30.8533821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249797821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4724750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3273696899414</t>
   </si>
   <si>
     <t xml:space="preserve">30.0008811950684</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6199741363525</t>
+    <t xml:space="preserve">29.6199722290039</t>
   </si>
   <si>
     <t xml:space="preserve">28.8763008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.93310546875</t>
+    <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
     <t xml:space="preserve">27.7335815429688</t>
@@ -3023,7 +3023,7 @@
     <t xml:space="preserve">28.5860862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7698612213135</t>
+    <t xml:space="preserve">27.7698593139648</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">27.7879981994629</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6610298156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684253692627</t>
+    <t xml:space="preserve">27.6610279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684272766113</t>
   </si>
   <si>
     <t xml:space="preserve">28.4772548675537</t>
@@ -3044,55 +3044,55 @@
     <t xml:space="preserve">28.8944396972656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3975372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3817844390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2910938262939</t>
+    <t xml:space="preserve">31.397533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3817882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2910976409912</t>
   </si>
   <si>
     <t xml:space="preserve">30.5450325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1278495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5631694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1774864196777</t>
+    <t xml:space="preserve">30.1278514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5631713867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1774826049805</t>
   </si>
   <si>
     <t xml:space="preserve">32.0505180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5245018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421627044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3431243896484</t>
+    <t xml:space="preserve">31.5245037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7421646118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3431186676025</t>
   </si>
   <si>
     <t xml:space="preserve">31.5970573425293</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2342891693115</t>
+    <t xml:space="preserve">31.2342929840088</t>
   </si>
   <si>
     <t xml:space="preserve">31.9235496520996</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3225936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9574356079102</t>
+    <t xml:space="preserve">32.3225898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9574394226074</t>
   </si>
   <si>
     <t xml:space="preserve">33.1932334899902</t>
@@ -3113,34 +3113,34 @@
     <t xml:space="preserve">33.4108963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0481262207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.685359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7941856384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6128082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.120677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0662612915039</t>
+    <t xml:space="preserve">33.0481224060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.794189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6128044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1206817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0662651062012</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1025466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9937133789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299873352051</t>
+    <t xml:space="preserve">33.1025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299835205078</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736663818359</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369087219238</t>
+    <t xml:space="preserve">33.9369049072266</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
@@ -3161,16 +3161,16 @@
     <t xml:space="preserve">32.8667449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1750984191895</t>
+    <t xml:space="preserve">33.1569633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1750946044922</t>
   </si>
   <si>
     <t xml:space="preserve">32.9755744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8304710388184</t>
+    <t xml:space="preserve">32.8304672241211</t>
   </si>
   <si>
     <t xml:space="preserve">32.7397727966309</t>
@@ -3185,28 +3185,28 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140075683594</t>
+    <t xml:space="preserve">33.5140037536621</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6613159179688</t>
+    <t xml:space="preserve">33.6429023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.661319732666</t>
   </si>
   <si>
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664291381836</t>
+    <t xml:space="preserve">33.1273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664329528809</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3218,31 +3218,31 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789649963379</t>
+    <t xml:space="preserve">35.7789611816406</t>
   </si>
   <si>
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4787063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.791748046875</t>
+    <t xml:space="preserve">36.478702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7917442321777</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4106750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2449493408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.766170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3610572814941</t>
+    <t xml:space="preserve">35.4106712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.244945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7661743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3610610961914</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270454406738</t>
+    <t xml:space="preserve">33.8270492553711</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4035148620605</t>
+    <t xml:space="preserve">33.4035186767578</t>
   </si>
   <si>
     <t xml:space="preserve">33.7165603637695</t>
@@ -3275,40 +3275,40 @@
     <t xml:space="preserve">34.1032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6925201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689933776855</t>
+    <t xml:space="preserve">34.6925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5380439758301</t>
+    <t xml:space="preserve">32.5380477905273</t>
   </si>
   <si>
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298645019531</t>
+    <t xml:space="preserve">33.3298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.342643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2930335998535</t>
+    <t xml:space="preserve">34.3426475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2930297851562</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843292236328</t>
+    <t xml:space="preserve">35.4843330383301</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">35.5395736694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8157920837402</t>
+    <t xml:space="preserve">35.815788269043</t>
   </si>
   <si>
     <t xml:space="preserve">35.8526153564453</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">35.5948181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9999313354492</t>
+    <t xml:space="preserve">35.999927520752</t>
   </si>
   <si>
     <t xml:space="preserve">35.6132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6684761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5764007568359</t>
+    <t xml:space="preserve">35.6684722900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5764045715332</t>
   </si>
   <si>
     <t xml:space="preserve">35.3922576904297</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">35.0608062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1344604492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7605438232422</t>
+    <t xml:space="preserve">35.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7605476379395</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">34.6188583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9503173828125</t>
+    <t xml:space="preserve">34.9503135681152</t>
   </si>
   <si>
     <t xml:space="preserve">34.9871444702148</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.128833770752</t>
+    <t xml:space="preserve">36.1288299560547</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.165657043457</t>
+    <t xml:space="preserve">36.1656608581543</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595333099365</t>
+    <t xml:space="preserve">31.3595352172852</t>
   </si>
   <si>
     <t xml:space="preserve">30.8255176544189</t>
@@ -3404,19 +3404,19 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252590179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045455932617</t>
+    <t xml:space="preserve">30.9175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045475006104</t>
   </si>
   <si>
     <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996891021729</t>
+    <t xml:space="preserve">29.4996871948242</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393314361572</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7759017944336</t>
+    <t xml:space="preserve">29.7759037017822</t>
   </si>
   <si>
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840888977051</t>
+    <t xml:space="preserve">28.9840869903564</t>
   </si>
   <si>
     <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2787170410156</t>
+    <t xml:space="preserve">29.278715133667</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3446,13 +3446,13 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4756450653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334480285645</t>
+    <t xml:space="preserve">30.475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">30.3835754394531</t>
@@ -3464,13 +3464,13 @@
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940586090088</t>
+    <t xml:space="preserve">31.2306289672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940605163574</t>
   </si>
   <si>
     <t xml:space="preserve">31.1201457977295</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674598693848</t>
+    <t xml:space="preserve">31.2674617767334</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
@@ -3491,22 +3491,22 @@
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147758483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5861339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.394832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9897174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7503318786621</t>
+    <t xml:space="preserve">31.4147720336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5861301422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3948307037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9897155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7503299713135</t>
   </si>
   <si>
     <t xml:space="preserve">28.4500732421875</t>
@@ -3518,13 +3518,13 @@
     <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8424015045166</t>
+    <t xml:space="preserve">27.8424034118652</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291030883789</t>
+    <t xml:space="preserve">28.2291011810303</t>
   </si>
   <si>
     <t xml:space="preserve">26.8848609924316</t>
@@ -3539,22 +3539,22 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925308227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2531452178955</t>
+    <t xml:space="preserve">27.4925327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2531471252441</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3027610778809</t>
+    <t xml:space="preserve">28.3027591705322</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976459503174</t>
+    <t xml:space="preserve">27.8976421356201</t>
   </si>
   <si>
     <t xml:space="preserve">27.4372882843018</t>
@@ -3575,28 +3575,28 @@
     <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1370296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1314029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0209159851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789756774902</t>
+    <t xml:space="preserve">28.1370315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1314010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0209178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8367729187012</t>
+    <t xml:space="preserve">28.8367748260498</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477752685547</t>
+    <t xml:space="preserve">27.5477733612061</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3605,13 +3605,13 @@
     <t xml:space="preserve">26.0930461883545</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.964147567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3508472442627</t>
+    <t xml:space="preserve">25.7800006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9641456604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3508453369141</t>
   </si>
   <si>
     <t xml:space="preserve">25.5958595275879</t>
@@ -3620,13 +3620,13 @@
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927894592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5846004486084</t>
+    <t xml:space="preserve">24.8592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.584602355957</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4684886932373</t>
+    <t xml:space="preserve">28.4684867858887</t>
   </si>
   <si>
     <t xml:space="preserve">28.0817890167236</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526336669922</t>
+    <t xml:space="preserve">28.6526317596436</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3653,16 +3653,16 @@
     <t xml:space="preserve">27.5109443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.044958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3395881652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2163181304932</t>
+    <t xml:space="preserve">28.0449600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3395900726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344749450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2163162231445</t>
   </si>
   <si>
     <t xml:space="preserve">26.5534019470215</t>
@@ -3671,34 +3671,34 @@
     <t xml:space="preserve">25.8720741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3140163421631</t>
+    <t xml:space="preserve">26.3140182495117</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091598510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677310943604</t>
+    <t xml:space="preserve">25.7984180450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091579437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3677291870117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623611450195</t>
+    <t xml:space="preserve">22.281286239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623592376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393459320068</t>
+    <t xml:space="preserve">21.8393440246582</t>
   </si>
   <si>
     <t xml:space="preserve">23.3124866485596</t>
@@ -3731,34 +3731,34 @@
     <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9754028320312</t>
+    <t xml:space="preserve">23.9754047393799</t>
   </si>
   <si>
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.778470993042</t>
+    <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232322692871</t>
+    <t xml:space="preserve">22.7232303619385</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.857759475708</t>
+    <t xml:space="preserve">22.2997035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8577575683594</t>
   </si>
   <si>
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419044494629</t>
+    <t xml:space="preserve">22.0419025421143</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288589477539</t>
+    <t xml:space="preserve">21.7288608551025</t>
   </si>
   <si>
     <t xml:space="preserve">20.9186305999756</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500858306885</t>
+    <t xml:space="preserve">21.2500877380371</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158172607422</t>
+    <t xml:space="preserve">21.4158153533936</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3800,22 +3800,22 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557163238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6240005493164</t>
+    <t xml:space="preserve">20.2557144165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.624002456665</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636447906494</t>
+    <t xml:space="preserve">20.1636428833008</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135173797607</t>
+    <t xml:space="preserve">20.5135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1681">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,43 +44,43 @@
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4367752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5399875640869</t>
+    <t xml:space="preserve">21.4367733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5399856567383</t>
   </si>
   <si>
     <t xml:space="preserve">21.0397968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.833366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6189994812012</t>
+    <t xml:space="preserve">20.8333683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6189975738525</t>
   </si>
   <si>
     <t xml:space="preserve">20.3252372741699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.738094329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089733123779</t>
+    <t xml:space="preserve">20.7380924224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089752197266</t>
   </si>
   <si>
     <t xml:space="preserve">18.3879871368408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1815567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.276834487915</t>
+    <t xml:space="preserve">18.1815586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2768363952637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7845821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6178531646729</t>
+    <t xml:space="preserve">17.6178512573242</t>
   </si>
   <si>
     <t xml:space="preserve">18.7849655151367</t>
@@ -92,46 +92,46 @@
     <t xml:space="preserve">17.1494197845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.427303314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5225791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3876075744629</t>
+    <t xml:space="preserve">17.4273052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.522575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3876037597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.8238983154297</t>
   </si>
   <si>
-    <t xml:space="preserve">16.649227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3237037658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6329669952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4106588363647</t>
+    <t xml:space="preserve">16.6492252349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3237056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6329660415649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4106597900391</t>
   </si>
   <si>
     <t xml:space="preserve">15.9902448654175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0295600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3709621429443</t>
+    <t xml:space="preserve">15.0295581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.37096118927</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172771453857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9108457565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0696411132812</t>
+    <t xml:space="preserve">15.9108514785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0696392059326</t>
   </si>
   <si>
     <t xml:space="preserve">16.4269199371338</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">16.6412868499756</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2522506713867</t>
+    <t xml:space="preserve">16.2522468566895</t>
   </si>
   <si>
     <t xml:space="preserve">16.8159561157227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8874130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2685127258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4670009613037</t>
+    <t xml:space="preserve">16.8874111175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2685089111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4669990539551</t>
   </si>
   <si>
     <t xml:space="preserve">16.5618934631348</t>
@@ -167,130 +167,130 @@
     <t xml:space="preserve">15.8711528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0378799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7762622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3872203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.942608833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5777702331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2760677337646</t>
+    <t xml:space="preserve">16.0378856658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7762584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3872222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9426078796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5777721405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743642807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2760696411133</t>
   </si>
   <si>
     <t xml:space="preserve">16.6095294952393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6730442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5698337554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2840099334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0140628814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7838163375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.879093170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.00612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6885433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8870286941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7917566299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1724739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4185991287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4582948684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4162721633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6194381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8063507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6031847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6275663375854</t>
+    <t xml:space="preserve">16.6730480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5698280334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.284008026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0140647888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7838144302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8790941238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0061225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6885423660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8870315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044229507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7917556762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1724691390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4185972213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4582967758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4162731170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6194372177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8063516616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7982244491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6031856536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6275634765625</t>
   </si>
   <si>
     <t xml:space="preserve">15.5950574874878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.489408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1314182281494</t>
+    <t xml:space="preserve">15.4894104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.131420135498</t>
   </si>
   <si>
     <t xml:space="preserve">16.3427104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9115772247314</t>
+    <t xml:space="preserve">16.9115753173828</t>
   </si>
   <si>
     <t xml:space="preserve">16.4321041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7165355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9359569549561</t>
+    <t xml:space="preserve">16.7165374755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9359588623047</t>
   </si>
   <si>
     <t xml:space="preserve">16.8384380340576</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0497283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2122669219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0090961456299</t>
+    <t xml:space="preserve">17.049732208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2122650146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0090980529785</t>
   </si>
   <si>
     <t xml:space="preserve">18.4881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5129489898682</t>
+    <t xml:space="preserve">17.5129508972168</t>
   </si>
   <si>
     <t xml:space="preserve">17.8055095672607</t>
@@ -299,37 +299,37 @@
     <t xml:space="preserve">17.4804439544678</t>
   </si>
   <si>
-    <t xml:space="preserve">17.472318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5698394775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8461399078369</t>
+    <t xml:space="preserve">17.4723167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5698356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8461437225342</t>
   </si>
   <si>
     <t xml:space="preserve">18.0411834716797</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5287799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6750621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7156963348389</t>
+    <t xml:space="preserve">18.5287818908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6750640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7156944274902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8375968933105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2764377593994</t>
+    <t xml:space="preserve">19.2764339447021</t>
   </si>
   <si>
     <t xml:space="preserve">19.593376159668</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2520561218262</t>
+    <t xml:space="preserve">19.2520580291748</t>
   </si>
   <si>
     <t xml:space="preserve">19.1220283508301</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">19.057014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8538513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.447093963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6340084075928</t>
+    <t xml:space="preserve">18.8538475036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4470958709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6340065002441</t>
   </si>
   <si>
     <t xml:space="preserve">19.2439289093018</t>
@@ -362,112 +362,112 @@
     <t xml:space="preserve">17.8136367797852</t>
   </si>
   <si>
-    <t xml:space="preserve">18.244348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.691312789917</t>
+    <t xml:space="preserve">18.2443504333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6913146972656</t>
   </si>
   <si>
     <t xml:space="preserve">18.5856704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.545036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6994380950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3910503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1883068084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8059310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0659828186035</t>
+    <t xml:space="preserve">18.5450344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.69944190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3910522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1883029937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.80592918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0659847259521</t>
   </si>
   <si>
     <t xml:space="preserve">17.3747959136963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3422908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5783824920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4564838409424</t>
+    <t xml:space="preserve">17.3422946929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5783843994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.456485748291</t>
   </si>
   <si>
     <t xml:space="preserve">16.2126846313477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4646110534668</t>
+    <t xml:space="preserve">16.4646091461182</t>
   </si>
   <si>
     <t xml:space="preserve">17.0741100311279</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8790683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8546886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1228713989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.228515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.236644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5617122650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6429767608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.594217300415</t>
+    <t xml:space="preserve">16.8790702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8546867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1228675842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2285175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.561710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6429748535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5942192077637</t>
   </si>
   <si>
     <t xml:space="preserve">17.5210742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3662509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9599170684814</t>
+    <t xml:space="preserve">18.3662490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9599151611328</t>
   </si>
   <si>
     <t xml:space="preserve">18.3499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1630821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4150085449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0574321746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0655632019043</t>
+    <t xml:space="preserve">18.1630840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4150104522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0574378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0655612945557</t>
   </si>
   <si>
     <t xml:space="preserve">18.2524738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8294677734375</t>
+    <t xml:space="preserve">18.8294696807861</t>
   </si>
   <si>
     <t xml:space="preserve">19.3333225250244</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5039825439453</t>
+    <t xml:space="preserve">19.5039806365967</t>
   </si>
   <si>
     <t xml:space="preserve">19.4633483886719</t>
@@ -476,49 +476,49 @@
     <t xml:space="preserve">19.6177539825439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8701019287109</t>
+    <t xml:space="preserve">18.8701000213623</t>
   </si>
   <si>
     <t xml:space="preserve">18.9269905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.666934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.935115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.642557144165</t>
+    <t xml:space="preserve">18.6669330596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9351119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6425552368164</t>
   </si>
   <si>
     <t xml:space="preserve">18.4231376647949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7400741577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8050880432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2606010437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3256149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1061973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1468276977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9761695861816</t>
+    <t xml:space="preserve">18.7400760650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8050861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2606029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3256130218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1061992645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1468296051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9761734008789</t>
   </si>
   <si>
     <t xml:space="preserve">18.154956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8786487579346</t>
+    <t xml:space="preserve">17.8786468505859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5373287200928</t>
@@ -527,37 +527,37 @@
     <t xml:space="preserve">17.3260364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3991794586182</t>
+    <t xml:space="preserve">17.3991775512695</t>
   </si>
   <si>
     <t xml:space="preserve">17.7486228942871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8623962402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.008674621582</t>
+    <t xml:space="preserve">17.8623943328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0086765289307</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242412567139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1874618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2118434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5535831451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6267242431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5048236846924</t>
+    <t xml:space="preserve">18.1874599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.211841583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5535850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6267204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5048274993896</t>
   </si>
   <si>
     <t xml:space="preserve">17.4641914367676</t>
@@ -566,22 +566,22 @@
     <t xml:space="preserve">18.0168018341064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9842948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7811279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829891204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6836109161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9680423736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9436645507812</t>
+    <t xml:space="preserve">17.9842929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7811298370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8298892974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6836090087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9680442810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9436626434326</t>
   </si>
   <si>
     <t xml:space="preserve">18.1793365478516</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">18.0249309539795</t>
   </si>
   <si>
-    <t xml:space="preserve">17.797384262085</t>
+    <t xml:space="preserve">17.7973804473877</t>
   </si>
   <si>
     <t xml:space="preserve">16.6352710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6677761077881</t>
+    <t xml:space="preserve">16.6677780151367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9522132873535</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">17.0334777832031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6840286254883</t>
+    <t xml:space="preserve">16.6840324401855</t>
   </si>
   <si>
     <t xml:space="preserve">16.0664043426514</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9688844680786</t>
+    <t xml:space="preserve">15.9688835144043</t>
   </si>
   <si>
     <t xml:space="preserve">15.765718460083</t>
@@ -626,82 +626,82 @@
     <t xml:space="preserve">16.5946369171143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8709449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4316844940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7892532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.171630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9197063446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6596527099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4235572814941</t>
+    <t xml:space="preserve">16.870943069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4316825866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7892551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1716289520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9197044372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6596488952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4235591888428</t>
   </si>
   <si>
     <t xml:space="preserve">17.204137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4073009490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2691516876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4885711669922</t>
+    <t xml:space="preserve">17.4073047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2691497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4885692596436</t>
   </si>
   <si>
     <t xml:space="preserve">17.5860900878906</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7567481994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2037162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1955909729004</t>
+    <t xml:space="preserve">17.7567501068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2037143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1955871582031</t>
   </si>
   <si>
     <t xml:space="preserve">18.6506824493408</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8944816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0163822174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7888336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6100482940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7319469451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6344318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3906307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5531635284424</t>
+    <t xml:space="preserve">18.8944835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01637840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7888374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.610050201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7319488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.634428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3906269073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5531597137451</t>
   </si>
   <si>
     <t xml:space="preserve">18.3337440490723</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068832397461</t>
+    <t xml:space="preserve">18.4068813323975</t>
   </si>
   <si>
     <t xml:space="preserve">18.8863544464111</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">19.0976486206055</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9838752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260181427002</t>
+    <t xml:space="preserve">18.9838771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2601795196533</t>
   </si>
   <si>
     <t xml:space="preserve">19.9021873474121</t>
@@ -728,22 +728,22 @@
     <t xml:space="preserve">20.1216087341309</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3003959655762</t>
+    <t xml:space="preserve">20.3003921508789</t>
   </si>
   <si>
     <t xml:space="preserve">20.072847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1459865570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8778095245361</t>
+    <t xml:space="preserve">20.1459884643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8778057098389</t>
   </si>
   <si>
     <t xml:space="preserve">20.2516326904297</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0647201538086</t>
+    <t xml:space="preserve">20.0647220611572</t>
   </si>
   <si>
     <t xml:space="preserve">19.9103145599365</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">20.2841396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6665134429932</t>
+    <t xml:space="preserve">19.6665153503418</t>
   </si>
   <si>
     <t xml:space="preserve">19.4389667510986</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7152729034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0565948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3329010009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.056173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8448810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830303192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8286266326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8525867462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.511266708374</t>
+    <t xml:space="preserve">19.7152767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0565967559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8286247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8525848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5112648010254</t>
   </si>
   <si>
     <t xml:space="preserve">22.1288909912109</t>
@@ -794,46 +794,46 @@
     <t xml:space="preserve">21.6819267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6331653594971</t>
+    <t xml:space="preserve">21.6331672668457</t>
   </si>
   <si>
     <t xml:space="preserve">21.7550659179688</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1532726287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7957019805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9338531494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8769664764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6002388000488</t>
+    <t xml:space="preserve">22.1532745361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7956981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9338512420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8769645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6002368927002</t>
   </si>
   <si>
     <t xml:space="preserve">22.3320579528809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2264137268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1045112609863</t>
+    <t xml:space="preserve">22.226411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1045150756836</t>
   </si>
   <si>
     <t xml:space="preserve">22.3401851654053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1387195587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.046667098999</t>
+    <t xml:space="preserve">22.5027179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1387233734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466690063477</t>
   </si>
   <si>
     <t xml:space="preserve">22.8876705169678</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">22.9295101165771</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7621383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
+    <t xml:space="preserve">22.7621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060913085938</t>
   </si>
   <si>
     <t xml:space="preserve">23.4316139221191</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8751430511475</t>
+    <t xml:space="preserve">23.8751411437988</t>
   </si>
   <si>
     <t xml:space="preserve">24.3186683654785</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">24.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0174045562744</t>
+    <t xml:space="preserve">23.8584079742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
   </si>
   <si>
     <t xml:space="preserve">24.4525623321533</t>
@@ -875,16 +875,16 @@
     <t xml:space="preserve">24.0090351104736</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
+    <t xml:space="preserve">23.8835105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517242431641</t>
   </si>
   <si>
     <t xml:space="preserve">22.7788753509521</t>
@@ -896,43 +896,43 @@
     <t xml:space="preserve">23.5989837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7077732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.908618927002</t>
+    <t xml:space="preserve">23.7077713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086170196533</t>
   </si>
   <si>
     <t xml:space="preserve">24.2266178131104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1345653533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1596698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701412200928</t>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596717834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701431274414</t>
   </si>
   <si>
     <t xml:space="preserve">24.7873020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6868801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789325714111</t>
+    <t xml:space="preserve">24.686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
   </si>
   <si>
     <t xml:space="preserve">24.4023532867432</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2935676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4358310699463</t>
+    <t xml:space="preserve">24.2935638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.435827255249</t>
   </si>
   <si>
     <t xml:space="preserve">24.7203540802002</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">23.9923000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8081951141357</t>
+    <t xml:space="preserve">23.808198928833</t>
   </si>
   <si>
     <t xml:space="preserve">23.7663516998291</t>
@@ -953,67 +953,67 @@
     <t xml:space="preserve">24.8458824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3939838409424</t>
+    <t xml:space="preserve">24.393985748291</t>
   </si>
   <si>
     <t xml:space="preserve">24.2600898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2684593200684</t>
+    <t xml:space="preserve">24.2684574127197</t>
   </si>
   <si>
     <t xml:space="preserve">24.1847743988037</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9839286804199</t>
+    <t xml:space="preserve">23.9839324951172</t>
   </si>
   <si>
     <t xml:space="preserve">22.8458232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215606689453</t>
+    <t xml:space="preserve">22.962984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215587615967</t>
   </si>
   <si>
     <t xml:space="preserve">22.4776134490967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529289245605</t>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
   </si>
   <si>
     <t xml:space="preserve">22.7035598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6700878143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
+    <t xml:space="preserve">22.6700859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956161499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.490198135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910343170166</t>
   </si>
   <si>
     <t xml:space="preserve">23.8416690826416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6826686859131</t>
+    <t xml:space="preserve">23.6826667785645</t>
   </si>
   <si>
     <t xml:space="preserve">23.4985618591309</t>
@@ -1022,19 +1022,19 @@
     <t xml:space="preserve">23.6240901947021</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2475109100342</t>
+    <t xml:space="preserve">23.2475090026855</t>
   </si>
   <si>
     <t xml:space="preserve">22.686824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1512470245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416137695312</t>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
   </si>
   <si>
     <t xml:space="preserve">21.9755077362061</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">21.9504051208496</t>
   </si>
   <si>
-    <t xml:space="preserve">21.523609161377</t>
+    <t xml:space="preserve">21.5236148834229</t>
   </si>
   <si>
     <t xml:space="preserve">21.3060321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3646125793457</t>
+    <t xml:space="preserve">21.3646144866943</t>
   </si>
   <si>
     <t xml:space="preserve">21.7746658325195</t>
@@ -1061,25 +1061,25 @@
     <t xml:space="preserve">21.5989284515381</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4566650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817714691162</t>
+    <t xml:space="preserve">21.4566631317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817695617676</t>
   </si>
   <si>
     <t xml:space="preserve">21.5319805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734020233154</t>
+    <t xml:space="preserve">21.4985065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734001159668</t>
   </si>
   <si>
     <t xml:space="preserve">21.2223510742188</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2139835357666</t>
+    <t xml:space="preserve">21.2139778137207</t>
   </si>
   <si>
     <t xml:space="preserve">21.1554012298584</t>
@@ -1091,70 +1091,70 @@
     <t xml:space="preserve">21.5570850372314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3729820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240310668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261405944824</t>
+    <t xml:space="preserve">21.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240329742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261425018311</t>
   </si>
   <si>
     <t xml:space="preserve">21.9169292449951</t>
   </si>
   <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428775787354</t>
+    <t xml:space="preserve">22.2684059143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428737640381</t>
   </si>
   <si>
     <t xml:space="preserve">21.7997703552246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4399280548096</t>
+    <t xml:space="preserve">21.4399299621582</t>
   </si>
   <si>
     <t xml:space="preserve">21.4148235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3478755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935047149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671382904053</t>
+    <t xml:space="preserve">21.3478775024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671401977539</t>
   </si>
   <si>
     <t xml:space="preserve">22.1345081329346</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2851371765137</t>
+    <t xml:space="preserve">22.2851428985596</t>
   </si>
   <si>
     <t xml:space="preserve">22.8541927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
+    <t xml:space="preserve">22.3771934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370338439941</t>
   </si>
   <si>
     <t xml:space="preserve">22.728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2642478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0885105133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
+    <t xml:space="preserve">23.2642421722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
   </si>
   <si>
     <t xml:space="preserve">23.1554565429688</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">23.6659317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136169433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571441650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.506929397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
+    <t xml:space="preserve">23.0382976531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412509918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5069313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730373382568</t>
   </si>
   <si>
     <t xml:space="preserve">23.4818248748779</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1052474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152969360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056694030762</t>
+    <t xml:space="preserve">23.10524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056655883789</t>
   </si>
   <si>
     <t xml:space="preserve">23.1638259887695</t>
@@ -1217,58 +1217,58 @@
     <t xml:space="preserve">20.7118740081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5361385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4608249664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532955169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516098022461</t>
+    <t xml:space="preserve">20.5361366271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.460823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516136169434</t>
   </si>
   <si>
     <t xml:space="preserve">20.603084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5026607513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047664642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968208312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219291687012</t>
+    <t xml:space="preserve">20.5026626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809257507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562450408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219272613525</t>
   </si>
   <si>
     <t xml:space="preserve">20.7955589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.921085357666</t>
+    <t xml:space="preserve">20.9210872650146</t>
   </si>
   <si>
     <t xml:space="preserve">20.7788219451904</t>
@@ -1277,28 +1277,28 @@
     <t xml:space="preserve">21.8332443237305</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
+    <t xml:space="preserve">22.0006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135578155518</t>
   </si>
   <si>
     <t xml:space="preserve">21.3395080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4231929779053</t>
+    <t xml:space="preserve">21.4231910705566</t>
   </si>
   <si>
     <t xml:space="preserve">22.3269805908203</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">22.5780334472656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0424537658691</t>
+    <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
     <t xml:space="preserve">22.1930866241455</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">22.4274024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583507537842</t>
+    <t xml:space="preserve">22.3604526519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583526611328</t>
   </si>
   <si>
     <t xml:space="preserve">22.2600345611572</t>
@@ -1334,43 +1334,43 @@
     <t xml:space="preserve">22.628246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7454013824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.310245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.368766784668</t>
+    <t xml:space="preserve">22.7454051971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119331359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3102436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596126556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3687705993652</t>
   </si>
   <si>
     <t xml:space="preserve">20.1511898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3352928161621</t>
+    <t xml:space="preserve">20.3352966308594</t>
   </si>
   <si>
     <t xml:space="preserve">20.3520317077637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9043502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528755187988</t>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528717041016</t>
   </si>
   <si>
     <t xml:space="preserve">20.2348728179932</t>
@@ -1379,31 +1379,31 @@
     <t xml:space="preserve">20.3185596466064</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9838180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6323432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980293273926</t>
+    <t xml:space="preserve">19.9838218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.632345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980331420898</t>
   </si>
   <si>
     <t xml:space="preserve">18.7787666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072940826416</t>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072978973389</t>
   </si>
   <si>
     <t xml:space="preserve">21.0549793243408</t>
@@ -1415,43 +1415,43 @@
     <t xml:space="preserve">20.686767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6700325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2683448791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1846675872803</t>
+    <t xml:space="preserve">20.6700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.268346786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9503479003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
   </si>
   <si>
     <t xml:space="preserve">20.3855056762695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7704524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189777374268</t>
+    <t xml:space="preserve">20.770450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
   </si>
   <si>
     <t xml:space="preserve">19.8331890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8164520263672</t>
+    <t xml:space="preserve">19.8164539337158</t>
   </si>
   <si>
     <t xml:space="preserve">19.6490821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9001350402832</t>
+    <t xml:space="preserve">19.9001388549805</t>
   </si>
   <si>
     <t xml:space="preserve">20.7369804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3897151947021</t>
+    <t xml:space="preserve">21.3897171020508</t>
   </si>
   <si>
     <t xml:space="preserve">21.0215072631836</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">21.5618591308594</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6141510009766</t>
+    <t xml:space="preserve">21.6141529083252</t>
   </si>
   <si>
     <t xml:space="preserve">21.7361660003662</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">21.9976291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8756141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3526916503906</t>
+    <t xml:space="preserve">21.8756160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6664447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.352689743042</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270004272461</t>
@@ -1508,19 +1508,19 @@
     <t xml:space="preserve">21.4049816131592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1260929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.986644744873</t>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9866466522217</t>
   </si>
   <si>
     <t xml:space="preserve">21.0563678741455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417053222656</t>
+    <t xml:space="preserve">20.7774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
   </si>
   <si>
     <t xml:space="preserve">21.1086597442627</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">21.683874130249</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8930473327637</t>
+    <t xml:space="preserve">21.893045425415</t>
   </si>
   <si>
     <t xml:space="preserve">21.7013053894043</t>
@@ -1553,16 +1553,16 @@
     <t xml:space="preserve">21.4398460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6031665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
+    <t xml:space="preserve">20.6031684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251853942871</t>
   </si>
   <si>
     <t xml:space="preserve">21.004077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1609535217285</t>
+    <t xml:space="preserve">21.1609554290771</t>
   </si>
   <si>
     <t xml:space="preserve">20.8820610046387</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">20.6728897094727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5334434509277</t>
+    <t xml:space="preserve">20.5334453582764</t>
   </si>
   <si>
     <t xml:space="preserve">21.927906036377</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">24.5948143005371</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113342285156</t>
+    <t xml:space="preserve">24.5425224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113361358643</t>
   </si>
   <si>
     <t xml:space="preserve">23.8452930450439</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7755680084229</t>
+    <t xml:space="preserve">23.7755699157715</t>
   </si>
   <si>
     <t xml:space="preserve">23.8104305267334</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">23.5141048431396</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5838260650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150161743164</t>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
   </si>
   <si>
     <t xml:space="preserve">24.1067543029785</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">24.2461967468262</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4030723571777</t>
+    <t xml:space="preserve">24.4030742645264</t>
   </si>
   <si>
     <t xml:space="preserve">24.6296768188477</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">24.5076599121094</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3856449127197</t>
+    <t xml:space="preserve">24.3856430053711</t>
   </si>
   <si>
     <t xml:space="preserve">24.2810611724854</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">23.5315361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5489673614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
+    <t xml:space="preserve">23.5489692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">23.7929973602295</t>
@@ -1685,25 +1685,25 @@
     <t xml:space="preserve">23.496675491333</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1241855621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498767852783</t>
+    <t xml:space="preserve">24.1241836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
   </si>
   <si>
     <t xml:space="preserve">24.6993999481201</t>
   </si>
   <si>
-    <t xml:space="preserve">24.298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379367828369</t>
+    <t xml:space="preserve">24.2984886169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379386901855</t>
   </si>
   <si>
     <t xml:space="preserve">23.9847393035889</t>
   </si>
   <si>
-    <t xml:space="preserve">23.82785987854</t>
+    <t xml:space="preserve">23.8278617858887</t>
   </si>
   <si>
     <t xml:space="preserve">23.932445526123</t>
@@ -1712,25 +1712,25 @@
     <t xml:space="preserve">22.694860458374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3811073303223</t>
+    <t xml:space="preserve">22.3811092376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9453372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5967216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058891296387</t>
+    <t xml:space="preserve">21.5967235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058910369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.5902767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.137077331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462448120117</t>
+    <t xml:space="preserve">22.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462429046631</t>
   </si>
   <si>
     <t xml:space="preserve">21.8233222961426</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">21.8581829071045</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7077522277832</t>
+    <t xml:space="preserve">20.7077541351318</t>
   </si>
   <si>
     <t xml:space="preserve">20.3765678405762</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">19.8710746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2719841003418</t>
+    <t xml:space="preserve">20.2719860076904</t>
   </si>
   <si>
     <t xml:space="preserve">20.2196922302246</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">19.6096153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">19.400447845459</t>
+    <t xml:space="preserve">19.4004459381104</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876003265381</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">19.4701671600342</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5050277709961</t>
+    <t xml:space="preserve">19.5050296783447</t>
   </si>
   <si>
     <t xml:space="preserve">19.6967697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0453834533691</t>
+    <t xml:space="preserve">20.0453815460205</t>
   </si>
   <si>
     <t xml:space="preserve">20.5160160064697</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4985828399658</t>
+    <t xml:space="preserve">20.4985847473145</t>
   </si>
   <si>
     <t xml:space="preserve">20.7426109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9517841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903228759766</t>
+    <t xml:space="preserve">20.9517860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
   </si>
   <si>
     <t xml:space="preserve">20.4288597106934</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">19.9059371948242</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6205997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
+    <t xml:space="preserve">20.6205978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811496734619</t>
   </si>
   <si>
     <t xml:space="preserve">20.2894153594971</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">19.2261371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8994941711426</t>
+    <t xml:space="preserve">20.8994922637939</t>
   </si>
   <si>
     <t xml:space="preserve">21.1783847808838</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">21.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0692596435547</t>
+    <t xml:space="preserve">19.0692615509033</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527359008789</t>
+    <t xml:space="preserve">18.9995384216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527378082275</t>
   </si>
   <si>
     <t xml:space="preserve">19.0343990325928</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">19.4353065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976734161377</t>
+    <t xml:space="preserve">19.975658416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371196746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
   </si>
   <si>
     <t xml:space="preserve">19.7839221954346</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">19.7490615844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.864631652832</t>
+    <t xml:space="preserve">20.8646297454834</t>
   </si>
   <si>
     <t xml:space="preserve">21.0912322998047</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">22.5031223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.049919128418</t>
+    <t xml:space="preserve">22.0499210357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.0279521942139</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">18.8077983856201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802921295166</t>
+    <t xml:space="preserve">18.4068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1802940368652</t>
   </si>
   <si>
     <t xml:space="preserve">18.3371696472168</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">17.2564582824707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8642692565918</t>
+    <t xml:space="preserve">16.8642673492432</t>
   </si>
   <si>
     <t xml:space="preserve">16.6812438964844</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0970287322998</t>
+    <t xml:space="preserve">16.0970306396484</t>
   </si>
   <si>
     <t xml:space="preserve">16.2036895751953</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">15.8125972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.99036693573</t>
+    <t xml:space="preserve">15.9903650283813</t>
   </si>
   <si>
     <t xml:space="preserve">15.6970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8214883804321</t>
+    <t xml:space="preserve">15.8214864730835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0081443786621</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">16.3103542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3192405700684</t>
+    <t xml:space="preserve">16.319242477417</t>
   </si>
   <si>
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481346130371</t>
+    <t xml:space="preserve">16.2481327056885</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703620910645</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">15.7059364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5281667709351</t>
+    <t xml:space="preserve">15.5281648635864</t>
   </si>
   <si>
     <t xml:space="preserve">15.6259422302246</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">15.6881580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0348110198975</t>
+    <t xml:space="preserve">16.0348091125488</t>
   </si>
   <si>
     <t xml:space="preserve">16.0881423950195</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">15.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9814786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0170345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081628799438</t>
+    <t xml:space="preserve">15.9814805984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081609725952</t>
   </si>
   <si>
     <t xml:space="preserve">15.3770618438721</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">15.2348461151123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2792892456055</t>
+    <t xml:space="preserve">15.2792901992798</t>
   </si>
   <si>
     <t xml:space="preserve">15.1370754241943</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">15.3415088653564</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2615127563477</t>
+    <t xml:space="preserve">15.2615118026733</t>
   </si>
   <si>
     <t xml:space="preserve">15.1637401580811</t>
@@ -2093,19 +2093,19 @@
     <t xml:space="preserve">14.959303855896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0659656524658</t>
+    <t xml:space="preserve">15.0659666061401</t>
   </si>
   <si>
     <t xml:space="preserve">15.0570783615112</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3859510421753</t>
+    <t xml:space="preserve">15.385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837411880493</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1015195846558</t>
+    <t xml:space="preserve">15.1015205383301</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770812988281</t>
@@ -2117,16 +2117,16 @@
     <t xml:space="preserve">16.1592483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6703815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548500061035</t>
+    <t xml:space="preserve">15.6703834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437158584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548490524292</t>
   </si>
   <si>
     <t xml:space="preserve">14.5770998001099</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">15.6792707443237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7859306335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992736816406</t>
+    <t xml:space="preserve">15.7859325408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992727279663</t>
   </si>
   <si>
     <t xml:space="preserve">15.8925933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4881191253662</t>
+    <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
     <t xml:space="preserve">17.1903133392334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7769508361816</t>
+    <t xml:space="preserve">17.776948928833</t>
   </si>
   <si>
     <t xml:space="preserve">17.5102977752686</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">17.741397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2880859375</t>
+    <t xml:space="preserve">17.2880840301514</t>
   </si>
   <si>
     <t xml:space="preserve">17.0125408172607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9325428009033</t>
+    <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125602722168</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">15.5814990997314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1459608078003</t>
+    <t xml:space="preserve">15.1459617614746</t>
   </si>
   <si>
     <t xml:space="preserve">15.5726079940796</t>
   </si>
   <si>
-    <t xml:space="preserve">15.288179397583</t>
+    <t xml:space="preserve">15.2881784439087</t>
   </si>
   <si>
     <t xml:space="preserve">14.8615293502808</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">15.0748538970947</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1815156936646</t>
+    <t xml:space="preserve">15.1815147399902</t>
   </si>
   <si>
     <t xml:space="preserve">15.1992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3681735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4126176834106</t>
+    <t xml:space="preserve">15.3681755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.412615776062</t>
   </si>
   <si>
     <t xml:space="preserve">15.4748363494873</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">14.8437547683716</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7459812164307</t>
+    <t xml:space="preserve">14.7459802627563</t>
   </si>
   <si>
     <t xml:space="preserve">14.6659841537476</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">15.4570569992065</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2526245117188</t>
+    <t xml:space="preserve">15.2526254653931</t>
   </si>
   <si>
     <t xml:space="preserve">15.6614933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.777045249939</t>
+    <t xml:space="preserve">15.7770433425903</t>
   </si>
   <si>
     <t xml:space="preserve">15.8570394515991</t>
@@ -2261,13 +2261,13 @@
     <t xml:space="preserve">16.4970092773438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7192211151123</t>
+    <t xml:space="preserve">16.7192230224609</t>
   </si>
   <si>
     <t xml:space="preserve">17.1547565460205</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1991996765137</t>
+    <t xml:space="preserve">17.199197769165</t>
   </si>
   <si>
     <t xml:space="preserve">16.7014465332031</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">16.8436603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281131744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
+    <t xml:space="preserve">16.8969898223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636661529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.5770072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9858779907227</t>
+    <t xml:space="preserve">16.985876083374</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592113494873</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">16.7547760009766</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9769878387451</t>
+    <t xml:space="preserve">16.9769897460938</t>
   </si>
   <si>
     <t xml:space="preserve">16.7992172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3814601898193</t>
+    <t xml:space="preserve">16.3814582824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.3459053039551</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">16.65700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
+    <t xml:space="preserve">16.4170150756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
   </si>
   <si>
     <t xml:space="preserve">15.7503776550293</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">14.1771173477173</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32373046875</t>
+    <t xml:space="preserve">14.292667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237323760986</t>
   </si>
   <si>
     <t xml:space="preserve">15.1281852722168</t>
@@ -2369,13 +2369,13 @@
     <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325836181641</t>
+    <t xml:space="preserve">16.1325817108154</t>
   </si>
   <si>
     <t xml:space="preserve">16.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">15.928147315979</t>
+    <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
     <t xml:space="preserve">15.9548149108887</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">13.954906463623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415828704834</t>
+    <t xml:space="preserve">14.1326761245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415838241577</t>
   </si>
   <si>
     <t xml:space="preserve">13.8660230636597</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">13.3060474395752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1638336181641</t>
+    <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
     <t xml:space="preserve">12.8882894515991</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">12.1594343185425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6705684661865</t>
+    <t xml:space="preserve">11.6705675125122</t>
   </si>
   <si>
     <t xml:space="preserve">11.2972526550293</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">13.901575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3104467391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881959915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6349210739136</t>
+    <t xml:space="preserve">14.3104457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6349220275879</t>
   </si>
   <si>
     <t xml:space="preserve">14.0793447494507</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">14.0260143280029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5460348129272</t>
+    <t xml:space="preserve">13.5460357666016</t>
   </si>
   <si>
     <t xml:space="preserve">13.6438102722168</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">13.6793642044067</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0305051803589</t>
+    <t xml:space="preserve">13.0305042266846</t>
   </si>
   <si>
     <t xml:space="preserve">13.5815896987915</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">13.2438287734985</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4571523666382</t>
+    <t xml:space="preserve">13.4571514129639</t>
   </si>
   <si>
     <t xml:space="preserve">13.6260318756104</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">13.9726839065552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8837995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3993310928345</t>
+    <t xml:space="preserve">13.8837985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3993301391602</t>
   </si>
   <si>
     <t xml:space="preserve">14.4882135391235</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1104078292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326206207275</t>
+    <t xml:space="preserve">15.1104068756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326196670532</t>
   </si>
   <si>
     <t xml:space="preserve">14.8082008361816</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7681531906128</t>
+    <t xml:space="preserve">15.7681550979614</t>
   </si>
   <si>
     <t xml:space="preserve">15.4037284851074</t>
@@ -2546,25 +2546,25 @@
     <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325290679932</t>
+    <t xml:space="preserve">16.4259014129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325271606445</t>
   </si>
   <si>
     <t xml:space="preserve">17.1192035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9414348602295</t>
+    <t xml:space="preserve">16.9414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">17.2525329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147155761719</t>
+    <t xml:space="preserve">17.5014057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147136688232</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">19.8924083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4479846954346</t>
+    <t xml:space="preserve">19.4479827880859</t>
   </si>
   <si>
     <t xml:space="preserve">19.7146377563477</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">20.9234714508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7279243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6212673187256</t>
+    <t xml:space="preserve">20.7279262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.621265411377</t>
   </si>
   <si>
     <t xml:space="preserve">21.0123558044434</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568164825439</t>
+    <t xml:space="preserve">20.6568183898926</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8478698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5634422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7767639160156</t>
+    <t xml:space="preserve">21.8478717803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5634441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7412090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7767658233643</t>
   </si>
   <si>
     <t xml:space="preserve">21.9545364379883</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">22.2034130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1678562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1323051452637</t>
+    <t xml:space="preserve">22.1678581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.132303237915</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723091125488</t>
@@ -2657,10 +2657,10 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.865650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6523265838623</t>
+    <t xml:space="preserve">21.8656520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6523284912109</t>
   </si>
   <si>
     <t xml:space="preserve">21.8123188018799</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299472808838</t>
+    <t xml:space="preserve">25.0299453735352</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
@@ -2696,19 +2696,19 @@
     <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5321922302246</t>
+    <t xml:space="preserve">24.5321941375732</t>
   </si>
   <si>
     <t xml:space="preserve">24.6033020019531</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6744060516357</t>
+    <t xml:space="preserve">24.6744079589844</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6921882629395</t>
+    <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
     <t xml:space="preserve">24.4433078765869</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7632923126221</t>
+    <t xml:space="preserve">24.7632942199707</t>
   </si>
   <si>
     <t xml:space="preserve">24.7099609375</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">24.7810668945312</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1410999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.012170791626</t>
+    <t xml:space="preserve">24.1411018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0121688842773</t>
   </si>
   <si>
     <t xml:space="preserve">24.9232864379883</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">25.5454807281494</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2921104431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5810317993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1854476928711</t>
+    <t xml:space="preserve">26.2921085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.581033706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1854496002197</t>
   </si>
   <si>
     <t xml:space="preserve">27.1809577941895</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">26.558765411377</t>
   </si>
   <si>
-    <t xml:space="preserve">26.647647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5765419006348</t>
+    <t xml:space="preserve">26.6476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5765438079834</t>
   </si>
   <si>
     <t xml:space="preserve">26.2032260894775</t>
@@ -2783,13 +2783,13 @@
     <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4343242645264</t>
+    <t xml:space="preserve">26.434326171875</t>
   </si>
   <si>
     <t xml:space="preserve">26.309886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5232105255127</t>
+    <t xml:space="preserve">26.5232086181641</t>
   </si>
   <si>
     <t xml:space="preserve">26.4521045684814</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">27.1454048156738</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0387420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.127628326416</t>
+    <t xml:space="preserve">27.0387439727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1276264190674</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210006713867</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255313873291</t>
+    <t xml:space="preserve">24.4255294799805</t>
   </si>
   <si>
     <t xml:space="preserve">24.2655372619629</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">24.407751083374</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4610843658447</t>
+    <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010181427002</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">26.1676712036133</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6654262542725</t>
+    <t xml:space="preserve">26.6654281616211</t>
   </si>
   <si>
     <t xml:space="preserve">26.736536026001</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">24.3366432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766548156738</t>
+    <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
@@ -5052,6 +5052,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.2400016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1599998474121</t>
   </si>
 </sst>
 </file>
@@ -61189,7 +61192,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6495023148</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>48003</v>
@@ -61210,6 +61213,32 @@
         <v>1679</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6494328704</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>81752</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>32.1599998474121</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>31.5400009155273</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>31.9400005340576</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>32.1599998474121</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1688">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6273212432861</t>
+    <t xml:space="preserve">21.6273231506348</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4367713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5399875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0397968292236</t>
+    <t xml:space="preserve">21.4367752075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5399837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039794921875</t>
   </si>
   <si>
     <t xml:space="preserve">20.8333683013916</t>
@@ -62,43 +62,43 @@
     <t xml:space="preserve">20.3252391815186</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7380962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3089752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3879890441895</t>
+    <t xml:space="preserve">20.738094329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3089771270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3879871368408</t>
   </si>
   <si>
     <t xml:space="preserve">18.1815586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2768325805664</t>
+    <t xml:space="preserve">18.2768363952637</t>
   </si>
   <si>
     <t xml:space="preserve">17.7845840454102</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6178512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7849655151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3479080200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1494197845459</t>
+    <t xml:space="preserve">17.6178531646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7849636077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3479061126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1494178771973</t>
   </si>
   <si>
     <t xml:space="preserve">17.427303314209</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5225791931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3876056671143</t>
+    <t xml:space="preserve">17.5225772857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3876037597656</t>
   </si>
   <si>
     <t xml:space="preserve">16.8238983154297</t>
@@ -113,55 +113,55 @@
     <t xml:space="preserve">15.6329641342163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4106569290161</t>
+    <t xml:space="preserve">15.4106578826904</t>
   </si>
   <si>
     <t xml:space="preserve">15.9902439117432</t>
   </si>
   <si>
-    <t xml:space="preserve">15.02956199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3709621429443</t>
+    <t xml:space="preserve">15.0295600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3709602355957</t>
   </si>
   <si>
     <t xml:space="preserve">16.1172771453857</t>
   </si>
   <si>
-    <t xml:space="preserve">15.910852432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0696411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4269199371338</t>
+    <t xml:space="preserve">15.9108505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0696392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4269180297852</t>
   </si>
   <si>
     <t xml:space="preserve">16.0458202362061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5936489105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6412868499756</t>
+    <t xml:space="preserve">16.5936508178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6412887573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.2522487640381</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8159599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8874168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2685127258301</t>
+    <t xml:space="preserve">16.8159561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8874130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2685108184814</t>
   </si>
   <si>
     <t xml:space="preserve">17.4669990539551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5618915557861</t>
+    <t xml:space="preserve">16.5618934631348</t>
   </si>
   <si>
     <t xml:space="preserve">15.8711519241333</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">16.0378818511963</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7762584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3872241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.942608833313</t>
+    <t xml:space="preserve">16.7762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3872203826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9426069259644</t>
   </si>
   <si>
     <t xml:space="preserve">16.5777721405029</t>
@@ -185,58 +185,58 @@
     <t xml:space="preserve">15.9743661880493</t>
   </si>
   <si>
-    <t xml:space="preserve">16.276065826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6095294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6730480194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5698356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.284008026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0140609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7838163375854</t>
+    <t xml:space="preserve">16.2760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6095314025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6730461120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5698318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2840099334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0140628814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7838182449341</t>
   </si>
   <si>
     <t xml:space="preserve">15.8790903091431</t>
   </si>
   <si>
-    <t xml:space="preserve">16.00612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6885423660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8870334625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7044191360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7917575836182</t>
+    <t xml:space="preserve">16.0061225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6885442733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8870277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7044229507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7917556762695</t>
   </si>
   <si>
     <t xml:space="preserve">15.1724729537964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4185953140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4582958221436</t>
+    <t xml:space="preserve">15.4185972213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4582948684692</t>
   </si>
   <si>
     <t xml:space="preserve">15.4162731170654</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6194372177124</t>
+    <t xml:space="preserve">15.6194353103638</t>
   </si>
   <si>
     <t xml:space="preserve">15.8063526153564</t>
@@ -245,43 +245,43 @@
     <t xml:space="preserve">15.7982244491577</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6031866073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6275634765625</t>
+    <t xml:space="preserve">15.6031837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6275653839111</t>
   </si>
   <si>
     <t xml:space="preserve">15.5950584411621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4894104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1314182281494</t>
+    <t xml:space="preserve">15.4894113540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.131420135498</t>
   </si>
   <si>
     <t xml:space="preserve">16.3427104949951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9115791320801</t>
+    <t xml:space="preserve">16.9115772247314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4321041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7165355682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9359588623047</t>
+    <t xml:space="preserve">16.7165393829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9359569549561</t>
   </si>
   <si>
     <t xml:space="preserve">16.8384342193604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0497303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2122669219971</t>
+    <t xml:space="preserve">17.0497264862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2122650146484</t>
   </si>
   <si>
     <t xml:space="preserve">17.0090961456299</t>
@@ -290,43 +290,43 @@
     <t xml:space="preserve">18.488151550293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5129508972168</t>
+    <t xml:space="preserve">17.5129489898682</t>
   </si>
   <si>
     <t xml:space="preserve">17.8055114746094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4804439544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.472318649292</t>
+    <t xml:space="preserve">17.4804420471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4723167419434</t>
   </si>
   <si>
     <t xml:space="preserve">17.5698375701904</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8461418151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0411853790283</t>
+    <t xml:space="preserve">17.8461437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0411834716797</t>
   </si>
   <si>
     <t xml:space="preserve">18.5287818908691</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6750621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7156963348389</t>
+    <t xml:space="preserve">18.6750602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7156944274902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8375949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2764339447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5933780670166</t>
+    <t xml:space="preserve">19.2764358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.593376159668</t>
   </si>
   <si>
     <t xml:space="preserve">19.2520542144775</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve">19.1220283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0570125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8538494110107</t>
+    <t xml:space="preserve">19.057014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8538513183594</t>
   </si>
   <si>
     <t xml:space="preserve">19.447093963623</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">19.6340084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2439289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6019229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1387004852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9924201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2443523406982</t>
+    <t xml:space="preserve">19.2439270019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.601921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1387023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9924221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136348724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.244348526001</t>
   </si>
   <si>
     <t xml:space="preserve">18.6913146972656</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">18.5856685638428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.545036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.69944190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3910484313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1883068084717</t>
+    <t xml:space="preserve">18.5450344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6994400024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3910503387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1883029937744</t>
   </si>
   <si>
     <t xml:space="preserve">16.8059310913086</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">17.3747959136963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3422908782959</t>
+    <t xml:space="preserve">17.3422889709473</t>
   </si>
   <si>
     <t xml:space="preserve">16.5783843994141</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">16.4564819335938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.212682723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4646129608154</t>
+    <t xml:space="preserve">16.2126865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4646110534668</t>
   </si>
   <si>
     <t xml:space="preserve">17.0741100311279</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8790721893311</t>
+    <t xml:space="preserve">16.8790702819824</t>
   </si>
   <si>
     <t xml:space="preserve">16.8546905517578</t>
@@ -419,34 +419,34 @@
     <t xml:space="preserve">17.1228713989258</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2285175323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.236644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.561710357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6429786682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5942153930664</t>
+    <t xml:space="preserve">17.228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5617122650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6429767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">17.5210762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3662509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9599170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1630802154541</t>
+    <t xml:space="preserve">18.3662490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9599151611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3499965667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1630821228027</t>
   </si>
   <si>
     <t xml:space="preserve">18.4150085449219</t>
@@ -455,70 +455,70 @@
     <t xml:space="preserve">18.0574340820312</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0655612945557</t>
+    <t xml:space="preserve">18.0655632019043</t>
   </si>
   <si>
     <t xml:space="preserve">18.2524757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8294696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3333206176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.503978729248</t>
+    <t xml:space="preserve">18.8294677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3333225250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5039806365967</t>
   </si>
   <si>
     <t xml:space="preserve">19.4633483886719</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6177520751953</t>
+    <t xml:space="preserve">19.6177539825439</t>
   </si>
   <si>
     <t xml:space="preserve">18.8701000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9269866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6669330596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9351177215576</t>
+    <t xml:space="preserve">18.9269905090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.666934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.935115814209</t>
   </si>
   <si>
     <t xml:space="preserve">18.642557144165</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4231357574463</t>
+    <t xml:space="preserve">18.4231376647949</t>
   </si>
   <si>
     <t xml:space="preserve">18.7400741577148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8050899505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2606029510498</t>
+    <t xml:space="preserve">18.8050880432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2606010437012</t>
   </si>
   <si>
     <t xml:space="preserve">18.3256149291992</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1061954498291</t>
+    <t xml:space="preserve">18.1061973571777</t>
   </si>
   <si>
     <t xml:space="preserve">18.1468296051025</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9761714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.154956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8786506652832</t>
+    <t xml:space="preserve">17.9761695861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1549549102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8786487579346</t>
   </si>
   <si>
     <t xml:space="preserve">17.5373287200928</t>
@@ -527,79 +527,79 @@
     <t xml:space="preserve">17.3260364532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3991775512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7486248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8623943328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0086765289307</t>
+    <t xml:space="preserve">17.3991756439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7486228942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8623962402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.008674621582</t>
   </si>
   <si>
     <t xml:space="preserve">17.7242431640625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.187463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.211841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6267242431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.504825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4641876220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0168018341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9842948913574</t>
+    <t xml:space="preserve">18.1874618530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2118434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5535850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6267223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5048274993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4641895294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0168037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9842967987061</t>
   </si>
   <si>
     <t xml:space="preserve">17.7811298370361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8298892974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6836109161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9680442810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9436626434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1793346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0249271392822</t>
+    <t xml:space="preserve">17.8298873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6836128234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9680423736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9436645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1793365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0249309539795</t>
   </si>
   <si>
     <t xml:space="preserve">17.7973823547363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6352729797363</t>
+    <t xml:space="preserve">16.6352691650391</t>
   </si>
   <si>
     <t xml:space="preserve">16.6677761077881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9522113800049</t>
+    <t xml:space="preserve">16.9522132873535</t>
   </si>
   <si>
     <t xml:space="preserve">17.0334758758545</t>
@@ -608,31 +608,31 @@
     <t xml:space="preserve">16.6840305328369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0664024353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9688844680786</t>
+    <t xml:space="preserve">16.0664043426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9688806533813</t>
   </si>
   <si>
     <t xml:space="preserve">15.7657165527344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2203884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.781551361084</t>
+    <t xml:space="preserve">17.2203903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7815532684326</t>
   </si>
   <si>
     <t xml:space="preserve">16.5946388244629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8709449768066</t>
+    <t xml:space="preserve">16.870943069458</t>
   </si>
   <si>
     <t xml:space="preserve">17.4316844940186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7892551422119</t>
+    <t xml:space="preserve">17.7892570495605</t>
   </si>
   <si>
     <t xml:space="preserve">17.1716289520264</t>
@@ -641,88 +641,88 @@
     <t xml:space="preserve">16.9197044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">16.659646987915</t>
+    <t xml:space="preserve">16.6596508026123</t>
   </si>
   <si>
     <t xml:space="preserve">17.4235572814941</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2041358947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4073028564453</t>
+    <t xml:space="preserve">17.204137802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4073009490967</t>
   </si>
   <si>
     <t xml:space="preserve">17.2691497802734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4885730743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.586088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7567501068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2037181854248</t>
+    <t xml:space="preserve">17.4885692596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5860900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7567481994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2037162780762</t>
   </si>
   <si>
     <t xml:space="preserve">18.1955871582031</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6506805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8944797515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0163803100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7888374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6100463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7319469451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.634428024292</t>
+    <t xml:space="preserve">18.6506843566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8944835662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0163822174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.78883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6100482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7319488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6344261169434</t>
   </si>
   <si>
     <t xml:space="preserve">18.3906269073486</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5531635284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.333740234375</t>
+    <t xml:space="preserve">18.553165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3337383270264</t>
   </si>
   <si>
     <t xml:space="preserve">18.4068832397461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8863525390625</t>
+    <t xml:space="preserve">18.8863544464111</t>
   </si>
   <si>
     <t xml:space="preserve">18.7482013702393</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0976486206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9838771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260181427002</t>
+    <t xml:space="preserve">19.0976467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9838752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2601833343506</t>
   </si>
   <si>
     <t xml:space="preserve">19.9021873474121</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1784934997559</t>
+    <t xml:space="preserve">20.1784954071045</t>
   </si>
   <si>
     <t xml:space="preserve">20.1216068267822</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">20.3003921508789</t>
   </si>
   <si>
-    <t xml:space="preserve">20.072847366333</t>
+    <t xml:space="preserve">20.0728492736816</t>
   </si>
   <si>
     <t xml:space="preserve">20.1459884643555</t>
@@ -740,70 +740,70 @@
     <t xml:space="preserve">19.8778095245361</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2516345977783</t>
+    <t xml:space="preserve">20.2516326904297</t>
   </si>
   <si>
     <t xml:space="preserve">20.0647201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9103145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2841377258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6665172576904</t>
+    <t xml:space="preserve">19.9103126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2841396331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6665153503418</t>
   </si>
   <si>
     <t xml:space="preserve">19.4389686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7152767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0565929412842</t>
+    <t xml:space="preserve">19.715274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0565948486328</t>
   </si>
   <si>
     <t xml:space="preserve">20.3329010009766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0561752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.844877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9830322265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8286266326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8525829315186</t>
+    <t xml:space="preserve">21.056173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8448810577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9830341339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8286247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8525848388672</t>
   </si>
   <si>
     <t xml:space="preserve">21.5112648010254</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1288890838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9419765472412</t>
+    <t xml:space="preserve">22.1288909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9419784545898</t>
   </si>
   <si>
     <t xml:space="preserve">21.6819248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6331691741943</t>
+    <t xml:space="preserve">21.6331672668457</t>
   </si>
   <si>
     <t xml:space="preserve">21.7550678253174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1532726287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7956981658936</t>
+    <t xml:space="preserve">22.1532745361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7956962585449</t>
   </si>
   <si>
     <t xml:space="preserve">21.9338550567627</t>
@@ -812,355 +812,355 @@
     <t xml:space="preserve">21.8769645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6002368927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3320560455322</t>
+    <t xml:space="preserve">22.6002349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3320579528809</t>
   </si>
   <si>
     <t xml:space="preserve">22.2264137268066</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1045169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3401851654053</t>
+    <t xml:space="preserve">22.104513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3401832580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.502721786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1387195587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.046667098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8876667022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713535308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186683654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0048217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.908618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.15966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868801116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789325714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9923000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.393928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035579681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700878143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956161499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512432098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755058288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.757926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.213981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.155403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324005126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2684020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286682128906</t>
   </si>
   <si>
     <t xml:space="preserve">22.5027198791504</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1387214660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8876667022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295101165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186683654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0174083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.908618927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.15966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.686882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4358291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203559875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.992301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847724914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.962984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901924133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826686859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.686824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.950403213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646144866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566669464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240329742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261425018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2684020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148197174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407718658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370376586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
     <t xml:space="preserve">23.2642459869385</t>
   </si>
   <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805610656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554565429688</t>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">23.0968799591064</t>
@@ -1169,52 +1169,52 @@
     <t xml:space="preserve">23.6659317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571403503418</t>
+    <t xml:space="preserve">23.0383014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136169433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571422576904</t>
   </si>
   <si>
     <t xml:space="preserve">23.5069313049316</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818248748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052494049072</t>
+    <t xml:space="preserve">23.3730335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052474975586</t>
   </si>
   <si>
     <t xml:space="preserve">22.7705078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5153007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638259887695</t>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638298034668</t>
   </si>
   <si>
     <t xml:space="preserve">20.0842418670654</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7871913909912</t>
+    <t xml:space="preserve">20.7871894836426</t>
   </si>
   <si>
     <t xml:space="preserve">20.7118759155273</t>
@@ -1226,28 +1226,28 @@
     <t xml:space="preserve">20.4608211517334</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3771343231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269290924072</t>
+    <t xml:space="preserve">20.3771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.32692527771</t>
   </si>
   <si>
     <t xml:space="preserve">20.2599773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5863494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6030864715576</t>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5194034576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.603084564209</t>
   </si>
   <si>
     <t xml:space="preserve">20.5026607513428</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">21.0968208312988</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2809276580811</t>
+    <t xml:space="preserve">21.2809295654297</t>
   </si>
   <si>
     <t xml:space="preserve">21.3562431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1219291687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955570220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210834503174</t>
+    <t xml:space="preserve">21.1219272613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921085357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.7788238525391</t>
@@ -1280,55 +1280,55 @@
     <t xml:space="preserve">21.8332462310791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725620269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.573823928833</t>
+    <t xml:space="preserve">22.0006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5738220214844</t>
   </si>
   <si>
     <t xml:space="preserve">21.3143997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1135578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3395080566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.908561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780334472656</t>
+    <t xml:space="preserve">21.1135597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780353546143</t>
   </si>
   <si>
     <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1930923461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274044036865</t>
+    <t xml:space="preserve">22.1930866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
   </si>
   <si>
     <t xml:space="preserve">22.3604545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8583526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600364685059</t>
+    <t xml:space="preserve">21.8583507537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600345611572</t>
   </si>
   <si>
     <t xml:space="preserve">21.9922466278076</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">22.7119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">22.310245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784572601318</t>
+    <t xml:space="preserve">22.3102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784591674805</t>
   </si>
   <si>
     <t xml:space="preserve">22.1596126556396</t>
@@ -1355,55 +1355,55 @@
     <t xml:space="preserve">20.3687686920166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1511878967285</t>
+    <t xml:space="preserve">20.1511898040771</t>
   </si>
   <si>
     <t xml:space="preserve">20.3352947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043464660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545612335205</t>
+    <t xml:space="preserve">20.3520317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
   </si>
   <si>
     <t xml:space="preserve">20.5696105957031</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5528717041016</t>
+    <t xml:space="preserve">20.5528736114502</t>
   </si>
   <si>
     <t xml:space="preserve">20.2348747253418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3185596466064</t>
+    <t xml:space="preserve">20.3185577392578</t>
   </si>
   <si>
     <t xml:space="preserve">19.9838199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6323471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
+    <t xml:space="preserve">19.632345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787685394287</t>
   </si>
   <si>
     <t xml:space="preserve">19.3812942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
+    <t xml:space="preserve">19.5151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
   </si>
   <si>
     <t xml:space="preserve">21.6072978973389</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">21.0549793243408</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6198177337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.686767578125</t>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6867656707764</t>
   </si>
   <si>
     <t xml:space="preserve">20.6700344085693</t>
@@ -1424,28 +1424,28 @@
     <t xml:space="preserve">20.268346786499</t>
   </si>
   <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.184663772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855075836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.770450592041</t>
+    <t xml:space="preserve">19.9503479003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1846618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704524993896</t>
   </si>
   <si>
     <t xml:space="preserve">20.4189796447754</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8331871032715</t>
+    <t xml:space="preserve">19.8331890106201</t>
   </si>
   <si>
     <t xml:space="preserve">19.8164520263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6490840911865</t>
+    <t xml:space="preserve">19.6490821838379</t>
   </si>
   <si>
     <t xml:space="preserve">19.9001369476318</t>
@@ -1454,31 +1454,31 @@
     <t xml:space="preserve">20.7369804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3897190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444297790527</t>
+    <t xml:space="preserve">21.3897151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215091705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7884616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444278717041</t>
   </si>
   <si>
     <t xml:space="preserve">21.457275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141510009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
+    <t xml:space="preserve">21.5618572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187366485596</t>
   </si>
   <si>
     <t xml:space="preserve">22.4159679412842</t>
@@ -1487,25 +1487,25 @@
     <t xml:space="preserve">22.0324935913086</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1893672943115</t>
+    <t xml:space="preserve">22.1893653869629</t>
   </si>
   <si>
     <t xml:space="preserve">22.0847835540771</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9976329803467</t>
+    <t xml:space="preserve">21.9976291656494</t>
   </si>
   <si>
     <t xml:space="preserve">21.8756122589111</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6664447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.352689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5269985198975</t>
+    <t xml:space="preserve">21.6664428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526878356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270004272461</t>
   </si>
   <si>
     <t xml:space="preserve">21.4049835205078</t>
@@ -1514,52 +1514,52 @@
     <t xml:space="preserve">21.126091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.986644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3417053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0215091705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710266113281</t>
+    <t xml:space="preserve">21.021505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
   </si>
   <si>
     <t xml:space="preserve">21.6838760375977</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747047424316</t>
+    <t xml:space="preserve">21.8930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747066497803</t>
   </si>
   <si>
     <t xml:space="preserve">21.5792922973633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701229095459</t>
+    <t xml:space="preserve">21.2132453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701248168945</t>
   </si>
   <si>
     <t xml:space="preserve">21.4398460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6031703948975</t>
+    <t xml:space="preserve">20.6031684875488</t>
   </si>
   <si>
     <t xml:space="preserve">20.7251834869385</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">21.0040760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1609554290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820610046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949047088623</t>
+    <t xml:space="preserve">21.1609535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.88205909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
   </si>
   <si>
     <t xml:space="preserve">20.9692134857178</t>
@@ -1583,19 +1583,19 @@
     <t xml:space="preserve">21.1435222625732</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2655391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3004016876221</t>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169235229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003997802734</t>
   </si>
   <si>
     <t xml:space="preserve">20.9343509674072</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6728897094727</t>
+    <t xml:space="preserve">20.6728935241699</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334453582764</t>
@@ -1604,58 +1604,58 @@
     <t xml:space="preserve">21.927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2003536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700786590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939086914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
+    <t xml:space="preserve">23.2003517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.089319229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.193904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425224304199</t>
   </si>
   <si>
     <t xml:space="preserve">24.2113380432129</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8452892303467</t>
+    <t xml:space="preserve">23.8452911376953</t>
   </si>
   <si>
     <t xml:space="preserve">23.7755680084229</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8104305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141048431396</t>
+    <t xml:space="preserve">23.8104267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141067504883</t>
   </si>
   <si>
     <t xml:space="preserve">23.5838279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416130065918</t>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067485809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416149139404</t>
   </si>
   <si>
     <t xml:space="preserve">24.2461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4030742645264</t>
+    <t xml:space="preserve">24.403076171875</t>
   </si>
   <si>
     <t xml:space="preserve">24.629674911499</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">24.2810592651367</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0718898773193</t>
+    <t xml:space="preserve">24.071891784668</t>
   </si>
   <si>
     <t xml:space="preserve">23.8801517486572</t>
@@ -1679,34 +1679,34 @@
     <t xml:space="preserve">23.5315380096436</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5489692687988</t>
+    <t xml:space="preserve">23.5489673614502</t>
   </si>
   <si>
     <t xml:space="preserve">23.2875061035156</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7929954528809</t>
+    <t xml:space="preserve">23.7929973602295</t>
   </si>
   <si>
     <t xml:space="preserve">23.4966735839844</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993961334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847373962402</t>
+    <t xml:space="preserve">24.1241874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984886169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379405975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847393035889</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
@@ -1715,40 +1715,40 @@
     <t xml:space="preserve">23.9324436187744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6948623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811073303223</t>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811054229736</t>
   </si>
   <si>
     <t xml:space="preserve">21.9453372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5967216491699</t>
+    <t xml:space="preserve">21.5967235565186</t>
   </si>
   <si>
     <t xml:space="preserve">21.8058910369873</t>
   </si>
   <si>
-    <t xml:space="preserve">22.590274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.137077331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462467193604</t>
+    <t xml:space="preserve">22.5902767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462448120117</t>
   </si>
   <si>
     <t xml:space="preserve">21.8233222961426</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2765235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581848144531</t>
+    <t xml:space="preserve">22.2765197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581829071045</t>
   </si>
   <si>
     <t xml:space="preserve">20.7077522277832</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">19.7664928436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3939990997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710746765137</t>
+    <t xml:space="preserve">20.3940010070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710765838623</t>
   </si>
   <si>
     <t xml:space="preserve">20.2719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
+    <t xml:space="preserve">20.2196941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802478790283</t>
   </si>
   <si>
     <t xml:space="preserve">20.1325378417969</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">20.2022590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6096134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876022338867</t>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876003265381</t>
   </si>
   <si>
     <t xml:space="preserve">19.4701671600342</t>
@@ -1799,28 +1799,28 @@
     <t xml:space="preserve">19.6967697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0453853607178</t>
+    <t xml:space="preserve">20.0453834533691</t>
   </si>
   <si>
     <t xml:space="preserve">20.5160121917725</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4985828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
+    <t xml:space="preserve">20.4985847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4288597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059391021729</t>
   </si>
   <si>
     <t xml:space="preserve">20.6205978393555</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">20.2894153594971</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7316284179688</t>
+    <t xml:space="preserve">19.7316265106201</t>
   </si>
   <si>
     <t xml:space="preserve">20.1673984527588</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">19.3132915496826</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3023090362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729377746582</t>
+    <t xml:space="preserve">18.3023071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729396820068</t>
   </si>
   <si>
     <t xml:space="preserve">18.6683502197266</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">19.2609977722168</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0169677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994884490967</t>
+    <t xml:space="preserve">19.0169658660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261390686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994903564453</t>
   </si>
   <si>
     <t xml:space="preserve">21.1783828735352</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">21.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.069263458252</t>
+    <t xml:space="preserve">19.0692615509033</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">18.9995365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2087097167969</t>
+    <t xml:space="preserve">19.2087059020996</t>
   </si>
   <si>
     <t xml:space="preserve">19.4527378082275</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">19.3307228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5573215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353046417236</t>
+    <t xml:space="preserve">19.5573234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353065490723</t>
   </si>
   <si>
     <t xml:space="preserve">19.9756603240967</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">20.0976734161377</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7839202880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362159729004</t>
+    <t xml:space="preserve">19.7839221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
   </si>
   <si>
     <t xml:space="preserve">20.1499710083008</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">20.5857372283936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0389366149902</t>
+    <t xml:space="preserve">21.0389347076416</t>
   </si>
   <si>
     <t xml:space="preserve">19.5921821594238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7490577697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
+    <t xml:space="preserve">19.749059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.864631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
   </si>
   <si>
     <t xml:space="preserve">22.5031223297119</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">22.049919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0279521942139</t>
+    <t xml:space="preserve">20.0279502868652</t>
   </si>
   <si>
     <t xml:space="preserve">18.8077964782715</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">17.8665370941162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.256462097168</t>
+    <t xml:space="preserve">17.2564601898193</t>
   </si>
   <si>
     <t xml:space="preserve">16.8642673492432</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">16.681245803833</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0211448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.559232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436817169189</t>
+    <t xml:space="preserve">17.021146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4703464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436779022217</t>
   </si>
   <si>
     <t xml:space="preserve">16.4525680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637012481689</t>
+    <t xml:space="preserve">15.9636993408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.0614738464355</t>
@@ -1997,88 +1997,88 @@
     <t xml:space="preserve">16.0970287322998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2036914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903688430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214855194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214660644531</t>
+    <t xml:space="preserve">16.2036895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99036693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214864730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214679718018</t>
   </si>
   <si>
     <t xml:space="preserve">16.3103542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3192405700684</t>
+    <t xml:space="preserve">16.319242477417</t>
   </si>
   <si>
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059373855591</t>
+    <t xml:space="preserve">16.2481327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703639984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059354782104</t>
   </si>
   <si>
     <t xml:space="preserve">15.5281658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6259393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688159942627</t>
+    <t xml:space="preserve">15.625940322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881589889526</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0881404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370355606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814777374268</t>
+    <t xml:space="preserve">16.0881423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370374679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814805984497</t>
   </si>
   <si>
     <t xml:space="preserve">16.0170345306396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6081628799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770599365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792892456055</t>
+    <t xml:space="preserve">15.6081619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.234845161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792882919312</t>
   </si>
   <si>
     <t xml:space="preserve">15.13707447052</t>
@@ -2090,28 +2090,28 @@
     <t xml:space="preserve">15.2615118026733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
+    <t xml:space="preserve">15.1637401580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681940078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593048095703</t>
   </si>
   <si>
     <t xml:space="preserve">15.0659666061401</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0570764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3859510421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015186309814</t>
+    <t xml:space="preserve">15.0570783615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837411880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015205383301</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770812988281</t>
@@ -2123,34 +2123,34 @@
     <t xml:space="preserve">16.1592483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6703805923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437158584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148431777954</t>
+    <t xml:space="preserve">15.6703824996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148441314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.1548500061035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792697906494</t>
+    <t xml:space="preserve">14.5770998001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792707443237</t>
   </si>
   <si>
     <t xml:space="preserve">15.7859325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4659490585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992736816406</t>
+    <t xml:space="preserve">15.4659461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992727279663</t>
   </si>
   <si>
     <t xml:space="preserve">15.8925952911377</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1903095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.776948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
+    <t xml:space="preserve">17.1903114318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102958679199</t>
   </si>
   <si>
     <t xml:space="preserve">17.2347526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7413959503174</t>
+    <t xml:space="preserve">17.7413997650146</t>
   </si>
   <si>
     <t xml:space="preserve">17.2880859375</t>
@@ -2180,76 +2180,76 @@
     <t xml:space="preserve">17.0125427246094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125583648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
+    <t xml:space="preserve">16.9325428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.052583694458</t>
   </si>
   <si>
     <t xml:space="preserve">15.5814971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1459646224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.288179397583</t>
+    <t xml:space="preserve">15.1459627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2881784439087</t>
   </si>
   <si>
     <t xml:space="preserve">14.8615303039551</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7370910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437372207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748529434204</t>
+    <t xml:space="preserve">14.7370920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437353134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748538970947</t>
   </si>
   <si>
     <t xml:space="preserve">15.1815156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1992921829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748344421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837236404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.745982170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526235580444</t>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681735992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748373031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570569992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526245117188</t>
   </si>
   <si>
     <t xml:space="preserve">15.6614942550659</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">15.7770433425903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8570404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970092773438</t>
+    <t xml:space="preserve">15.8570375442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970111846924</t>
   </si>
   <si>
     <t xml:space="preserve">16.7192211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547584533691</t>
+    <t xml:space="preserve">17.1547565460205</t>
   </si>
   <si>
     <t xml:space="preserve">17.1991996765137</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">16.7014465332031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8436603546143</t>
+    <t xml:space="preserve">16.8436584472656</t>
   </si>
   <si>
     <t xml:space="preserve">16.8969917297363</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7281131744385</t>
+    <t xml:space="preserve">16.7281112670898</t>
   </si>
   <si>
     <t xml:space="preserve">16.7636642456055</t>
@@ -2294,34 +2294,34 @@
     <t xml:space="preserve">16.5770053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9858798980713</t>
+    <t xml:space="preserve">16.985876083374</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.80810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881053924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547740936279</t>
+    <t xml:space="preserve">16.8169975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547760009766</t>
   </si>
   <si>
     <t xml:space="preserve">16.9769878387451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7992191314697</t>
+    <t xml:space="preserve">16.7992172241211</t>
   </si>
   <si>
     <t xml:space="preserve">16.3814582824707</t>
@@ -2330,25 +2330,25 @@
     <t xml:space="preserve">16.3459072113037</t>
   </si>
   <si>
-    <t xml:space="preserve">16.65700340271</t>
+    <t xml:space="preserve">16.6570014953613</t>
   </si>
   <si>
     <t xml:space="preserve">16.417013168335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9992542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503795623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904039382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8970861434937</t>
+    <t xml:space="preserve">15.9992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8970851898193</t>
   </si>
   <si>
     <t xml:space="preserve">14.8526420593262</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">14.1771183013916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237333297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7148246765137</t>
+    <t xml:space="preserve">14.2926692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.32373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281843185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714825630188</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236934661865</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836856842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9548139572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015565872192</t>
+    <t xml:space="preserve">16.1325817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928147315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9548149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015575408936</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
@@ -2399,70 +2399,70 @@
     <t xml:space="preserve">13.7415828704834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.866021156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8304681777954</t>
+    <t xml:space="preserve">13.8660230636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8304691314697</t>
   </si>
   <si>
     <t xml:space="preserve">13.5904779434204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3060483932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1638317108154</t>
+    <t xml:space="preserve">13.3060474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
     <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1594333648682</t>
+    <t xml:space="preserve">12.1594343185425</t>
   </si>
   <si>
     <t xml:space="preserve">11.6705675125122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2972536087036</t>
+    <t xml:space="preserve">11.2972526550293</t>
   </si>
   <si>
     <t xml:space="preserve">10.1595268249512</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1105937957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1416578292847</t>
+    <t xml:space="preserve">11.1105947494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.141655921936</t>
   </si>
   <si>
     <t xml:space="preserve">12.3283157348633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1683216094971</t>
+    <t xml:space="preserve">12.1683225631714</t>
   </si>
   <si>
     <t xml:space="preserve">12.5505266189575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9015760421753</t>
+    <t xml:space="preserve">13.901575088501</t>
   </si>
   <si>
     <t xml:space="preserve">14.3104457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881978988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6349201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0793447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0260124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5460367202759</t>
+    <t xml:space="preserve">14.8881969451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6349210739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.079345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0260152816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5460348129272</t>
   </si>
   <si>
     <t xml:space="preserve">13.6438102722168</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">13.6793642044067</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0305042266846</t>
+    <t xml:space="preserve">13.0305051803589</t>
   </si>
   <si>
     <t xml:space="preserve">13.5815896987915</t>
@@ -2480,64 +2480,64 @@
     <t xml:space="preserve">13.9282417297363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9993495941162</t>
+    <t xml:space="preserve">13.9993486404419</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948957443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438278198242</t>
+    <t xml:space="preserve">13.3682680130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438287734985</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6260318756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771377563477</t>
+    <t xml:space="preserve">13.6260328292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.777135848999</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726839065552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8837976455688</t>
+    <t xml:space="preserve">13.8837985992432</t>
   </si>
   <si>
     <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4882144927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793262481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.110408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326196670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1192951202393</t>
+    <t xml:space="preserve">14.4882135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6570959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793272018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8082008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1192979812622</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7681541442871</t>
+    <t xml:space="preserve">15.7681550979614</t>
   </si>
   <si>
     <t xml:space="preserve">15.4037294387817</t>
@@ -2546,34 +2546,34 @@
     <t xml:space="preserve">15.4926128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.079252243042</t>
+    <t xml:space="preserve">16.0792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414329528809</t>
+    <t xml:space="preserve">16.4259014129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414348602295</t>
   </si>
   <si>
     <t xml:space="preserve">17.2525310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2168827056885</t>
+    <t xml:space="preserve">17.5014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
     <t xml:space="preserve">20.0879554748535</t>
@@ -2582,31 +2582,31 @@
     <t xml:space="preserve">19.892406463623</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4479866027832</t>
+    <t xml:space="preserve">19.4479846954346</t>
   </si>
   <si>
     <t xml:space="preserve">19.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4434947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790477752686</t>
+    <t xml:space="preserve">20.4434928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790496826172</t>
   </si>
   <si>
     <t xml:space="preserve">20.923469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7279262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6212635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.012357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9056930541992</t>
+    <t xml:space="preserve">20.7279243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.621265411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0123558044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9056949615479</t>
   </si>
   <si>
     <t xml:space="preserve">20.3190536499023</t>
@@ -2615,13 +2615,13 @@
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568183898926</t>
+    <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8478736877441</t>
+    <t xml:space="preserve">21.8478717803955</t>
   </si>
   <si>
     <t xml:space="preserve">21.5634422302246</t>
@@ -2630,73 +2630,73 @@
     <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7767639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9545345306396</t>
+    <t xml:space="preserve">21.776762008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9545364379883</t>
   </si>
   <si>
     <t xml:space="preserve">21.8300952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9900875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034091949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1678581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.132303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9723110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2211875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7945423126221</t>
+    <t xml:space="preserve">21.9900856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1678562164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1323051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9723091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2211894989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7945442199707</t>
   </si>
   <si>
     <t xml:space="preserve">21.865650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6523284912109</t>
+    <t xml:space="preserve">21.6523265838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.8123207092285</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1100368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6077880859375</t>
+    <t xml:space="preserve">23.1100330352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8344020843506</t>
+    <t xml:space="preserve">24.9410629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5855236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8877296447754</t>
+    <t xml:space="preserve">25.0299472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5855197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.887731552124</t>
   </si>
   <si>
     <t xml:space="preserve">24.8166236877441</t>
@@ -2705,10 +2705,10 @@
     <t xml:space="preserve">24.5321941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.674409866333</t>
+    <t xml:space="preserve">24.6033039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
@@ -2717,10 +2717,10 @@
     <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4433097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455139160156</t>
+    <t xml:space="preserve">24.4433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
     <t xml:space="preserve">24.7632923126221</t>
@@ -2729,31 +2729,31 @@
     <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.496639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7810688018799</t>
+    <t xml:space="preserve">24.4966373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7810668945312</t>
   </si>
   <si>
     <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
-    <t xml:space="preserve">25.012170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9232864379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5454788208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2921123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5810356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1854457855225</t>
+    <t xml:space="preserve">25.0121688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9232883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5454807281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2921104431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5810317993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1854496002197</t>
   </si>
   <si>
     <t xml:space="preserve">27.1809558868408</t>
@@ -2765,34 +2765,34 @@
     <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5765438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2032222747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1498947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8832397460938</t>
+    <t xml:space="preserve">26.5765399932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2032260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.132116317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1498928070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
     <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2743320465088</t>
+    <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
     <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4343280792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3098850250244</t>
+    <t xml:space="preserve">26.4343242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.309886932373</t>
   </si>
   <si>
     <t xml:space="preserve">26.5232105255127</t>
@@ -2801,10 +2801,10 @@
     <t xml:space="preserve">26.4521045684814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.034252166748</t>
+    <t xml:space="preserve">27.0565204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0342502593994</t>
   </si>
   <si>
     <t xml:space="preserve">27.9098110198975</t>
@@ -2816,64 +2816,64 @@
     <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1276264190674</t>
+    <t xml:space="preserve">27.127628326416</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210025787354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0254554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4255313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2655353546143</t>
+    <t xml:space="preserve">26.0254573822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4255294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
     <t xml:space="preserve">24.4077529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4610843658447</t>
+    <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1676692962646</t>
+    <t xml:space="preserve">26.1676731109619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7365341186523</t>
+    <t xml:space="preserve">26.736536026001</t>
   </si>
   <si>
     <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721611022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209636688232</t>
+    <t xml:space="preserve">25.1721630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209655761719</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8521785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677471160889</t>
+    <t xml:space="preserve">24.8521747589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677433013916</t>
   </si>
   <si>
     <t xml:space="preserve">25.1543865203857</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5499687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0877685546875</t>
+    <t xml:space="preserve">24.5499706268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0877704620361</t>
   </si>
   <si>
     <t xml:space="preserve">25.3143768310547</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">26.0076789855957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3321533203125</t>
+    <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
     <t xml:space="preserve">25.101053237915</t>
@@ -2891,22 +2891,22 @@
     <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3366432189941</t>
+    <t xml:space="preserve">24.3366451263428</t>
   </si>
   <si>
     <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6611232757568</t>
+    <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2833156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1965999603271</t>
+    <t xml:space="preserve">24.2833118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1965980529785</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
@@ -2918,22 +2918,22 @@
     <t xml:space="preserve">23.5617542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7975521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3803730010986</t>
+    <t xml:space="preserve">23.7975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.38037109375</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2872905731201</t>
+    <t xml:space="preserve">24.2872924804688</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8519687652588</t>
+    <t xml:space="preserve">23.8519668579102</t>
   </si>
   <si>
     <t xml:space="preserve">23.7250003814697</t>
@@ -2945,46 +2945,46 @@
     <t xml:space="preserve">23.1989879608154</t>
   </si>
   <si>
-    <t xml:space="preserve">23.289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4347858428955</t>
+    <t xml:space="preserve">23.2896785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4347877502441</t>
   </si>
   <si>
     <t xml:space="preserve">24.251012802124</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6295318603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4457569122314</t>
+    <t xml:space="preserve">25.6295299530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4457588195801</t>
   </si>
   <si>
     <t xml:space="preserve">26.6452789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3164005279541</t>
+    <t xml:space="preserve">27.3163986206055</t>
   </si>
   <si>
     <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8629398345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5340614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1870403289795</t>
+    <t xml:space="preserve">26.8629417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5340595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1870422363281</t>
   </si>
   <si>
     <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2777366638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1689014434814</t>
+    <t xml:space="preserve">28.2777347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
     <t xml:space="preserve">29.3478984832764</t>
@@ -2999,10 +2999,10 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249797821045</t>
+    <t xml:space="preserve">30.853385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249816894531</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724750518799</t>
@@ -3017,34 +3017,34 @@
     <t xml:space="preserve">29.6199722290039</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8763008117676</t>
+    <t xml:space="preserve">28.8762989044189</t>
   </si>
   <si>
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5860862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7698593139648</t>
+    <t xml:space="preserve">27.7335796356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5860843658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7879981994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6610279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4772548675537</t>
+    <t xml:space="preserve">27.7879962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6610298156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4772529602051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8944396972656</t>
@@ -3053,46 +3053,46 @@
     <t xml:space="preserve">31.397533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2910976409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5450325012207</t>
+    <t xml:space="preserve">30.3817863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2910938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5450344085693</t>
   </si>
   <si>
     <t xml:space="preserve">30.1278514862061</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5631713867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1774826049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0505180358887</t>
+    <t xml:space="preserve">30.5631694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1774864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0505142211914</t>
   </si>
   <si>
     <t xml:space="preserve">31.5245037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6696071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421646118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3431186676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235496520996</t>
+    <t xml:space="preserve">31.6696090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.742166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.923547744751</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225898742676</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">32.9211578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2295112609863</t>
+    <t xml:space="preserve">33.2295150756836</t>
   </si>
   <si>
     <t xml:space="preserve">33.1388206481934</t>
@@ -3119,16 +3119,16 @@
     <t xml:space="preserve">33.4108963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0481224060059</t>
+    <t xml:space="preserve">33.0481262207031</t>
   </si>
   <si>
     <t xml:space="preserve">32.6853637695312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.794189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6128044128418</t>
+    <t xml:space="preserve">32.7941932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
     <t xml:space="preserve">33.1206817626953</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9937171936035</t>
+    <t xml:space="preserve">33.1025428771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299835205078</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">33.7736663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9550437927246</t>
+    <t xml:space="preserve">33.9550476074219</t>
   </si>
   <si>
     <t xml:space="preserve">33.2113723754883</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">32.8667449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1750946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9755744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8304672241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7397727966309</t>
+    <t xml:space="preserve">33.1569557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1750984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8304710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7397766113281</t>
   </si>
   <si>
     <t xml:space="preserve">33.532413482666</t>
@@ -3191,28 +3191,28 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140037536621</t>
+    <t xml:space="preserve">33.5140075683594</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.661319732666</t>
+    <t xml:space="preserve">33.6429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6613159179688</t>
   </si>
   <si>
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273040771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664329528809</t>
+    <t xml:space="preserve">33.1273002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664291381836</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3224,31 +3224,31 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789611816406</t>
+    <t xml:space="preserve">35.7789649963379</t>
   </si>
   <si>
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.478702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7917442321777</t>
+    <t xml:space="preserve">36.4787063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4106712341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.244945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7661743164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3610610961914</t>
+    <t xml:space="preserve">35.4106750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2449493408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.766170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3610572814941</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270492553711</t>
+    <t xml:space="preserve">33.8270454406738</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4035186767578</t>
+    <t xml:space="preserve">33.4035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">33.7165603637695</t>
@@ -3281,40 +3281,40 @@
     <t xml:space="preserve">34.1032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6925163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689895629883</t>
+    <t xml:space="preserve">34.6925201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689933776855</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5380477905273</t>
+    <t xml:space="preserve">32.5380439758301</t>
   </si>
   <si>
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298606872559</t>
+    <t xml:space="preserve">33.3298645019531</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3426475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2930297851562</t>
+    <t xml:space="preserve">34.342643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2930335998535</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843330383301</t>
+    <t xml:space="preserve">35.4843292236328</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">35.5395736694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.815788269043</t>
+    <t xml:space="preserve">35.8157920837402</t>
   </si>
   <si>
     <t xml:space="preserve">35.8526153564453</t>
@@ -3332,16 +3332,16 @@
     <t xml:space="preserve">35.5948181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.999927520752</t>
+    <t xml:space="preserve">35.9999313354492</t>
   </si>
   <si>
     <t xml:space="preserve">35.6132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6684722900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5764045715332</t>
+    <t xml:space="preserve">35.6684761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5764007568359</t>
   </si>
   <si>
     <t xml:space="preserve">35.3922576904297</t>
@@ -3350,10 +3350,10 @@
     <t xml:space="preserve">35.0608062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7605476379395</t>
+    <t xml:space="preserve">35.1344604492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7605438232422</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">34.6188583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9503135681152</t>
+    <t xml:space="preserve">34.9503173828125</t>
   </si>
   <si>
     <t xml:space="preserve">34.9871444702148</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1288299560547</t>
+    <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1656608581543</t>
+    <t xml:space="preserve">36.165657043457</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595352172852</t>
+    <t xml:space="preserve">31.3595333099365</t>
   </si>
   <si>
     <t xml:space="preserve">30.8255176544189</t>
@@ -3410,19 +3410,19 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045475006104</t>
+    <t xml:space="preserve">30.9175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045455932617</t>
   </si>
   <si>
     <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996871948242</t>
+    <t xml:space="preserve">29.4996891021729</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393314361572</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7759037017822</t>
+    <t xml:space="preserve">29.7759017944336</t>
   </si>
   <si>
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840869903564</t>
+    <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278715133667</t>
+    <t xml:space="preserve">29.2787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.475643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334461212158</t>
+    <t xml:space="preserve">30.4756450653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334480285645</t>
   </si>
   <si>
     <t xml:space="preserve">30.3835754394531</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940605163574</t>
+    <t xml:space="preserve">31.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940586090088</t>
   </si>
   <si>
     <t xml:space="preserve">31.1201457977295</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674617767334</t>
+    <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
@@ -3497,22 +3497,22 @@
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147720336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5861301422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3948307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9897155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7503299713135</t>
+    <t xml:space="preserve">31.4147758483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5861339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.394832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9897174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7503318786621</t>
   </si>
   <si>
     <t xml:space="preserve">28.4500732421875</t>
@@ -3524,13 +3524,13 @@
     <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8424034118652</t>
+    <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291011810303</t>
+    <t xml:space="preserve">28.2291030883789</t>
   </si>
   <si>
     <t xml:space="preserve">26.8848609924316</t>
@@ -3545,22 +3545,22 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2531471252441</t>
+    <t xml:space="preserve">27.4925308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2531452178955</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3027591705322</t>
+    <t xml:space="preserve">28.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976421356201</t>
+    <t xml:space="preserve">27.8976459503174</t>
   </si>
   <si>
     <t xml:space="preserve">27.4372882843018</t>
@@ -3581,28 +3581,28 @@
     <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1370315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1314010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0209178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789737701416</t>
+    <t xml:space="preserve">28.1370296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1314029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789756774902</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8367748260498</t>
+    <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477733612061</t>
+    <t xml:space="preserve">27.5477752685547</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3611,13 +3611,13 @@
     <t xml:space="preserve">26.0930461883545</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7800006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9641456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3508453369141</t>
+    <t xml:space="preserve">25.7800025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.964147567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3508472442627</t>
   </si>
   <si>
     <t xml:space="preserve">25.5958595275879</t>
@@ -3626,13 +3626,13 @@
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.584602355957</t>
+    <t xml:space="preserve">24.8592891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4684867858887</t>
+    <t xml:space="preserve">28.4684886932373</t>
   </si>
   <si>
     <t xml:space="preserve">28.0817890167236</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526317596436</t>
+    <t xml:space="preserve">28.6526336669922</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">27.5109443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0449600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344749450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2163162231445</t>
+    <t xml:space="preserve">28.044958114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3395881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344730377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2163181304932</t>
   </si>
   <si>
     <t xml:space="preserve">26.5534019470215</t>
@@ -3677,34 +3677,34 @@
     <t xml:space="preserve">25.8720741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3140182495117</t>
+    <t xml:space="preserve">26.3140163421631</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091579437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677291870117</t>
+    <t xml:space="preserve">25.7984161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091598510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3677310943604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.281286239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623592376709</t>
+    <t xml:space="preserve">22.2812881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623611450195</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393440246582</t>
+    <t xml:space="preserve">21.8393459320068</t>
   </si>
   <si>
     <t xml:space="preserve">23.3124866485596</t>
@@ -3737,34 +3737,34 @@
     <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9754047393799</t>
+    <t xml:space="preserve">23.9754028320312</t>
   </si>
   <si>
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7784729003906</t>
+    <t xml:space="preserve">22.778470993042</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232303619385</t>
+    <t xml:space="preserve">22.7232322692871</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2997035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8577575683594</t>
+    <t xml:space="preserve">22.2997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.857759475708</t>
   </si>
   <si>
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419025421143</t>
+    <t xml:space="preserve">22.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288608551025</t>
+    <t xml:space="preserve">21.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">20.9186305999756</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500877380371</t>
+    <t xml:space="preserve">21.2500858306885</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158153533936</t>
+    <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3806,22 +3806,22 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557144165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.624002456665</t>
+    <t xml:space="preserve">20.2557163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6240005493164</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636428833008</t>
+    <t xml:space="preserve">20.1636447906494</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135154724121</t>
+    <t xml:space="preserve">20.5135173797607</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5073,6 +5073,9 @@
   </si>
   <si>
     <t xml:space="preserve">30.9799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
   </si>
 </sst>
 </file>
@@ -61340,7 +61343,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493287037</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>115675</v>
@@ -61361,6 +61364,32 @@
         <v>1686</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6496064815</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>92741</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>30.9599990844727</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>31.0200004577637</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>32</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,22 +47,22 @@
     <t xml:space="preserve">20.8097400665283</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9099292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4243717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2239837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0158843994141</t>
+    <t xml:space="preserve">20.90993309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.424373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2239818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0158863067627</t>
   </si>
   <si>
     <t xml:space="preserve">19.7307147979736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1314945220947</t>
+    <t xml:space="preserve">20.131498336792</t>
   </si>
   <si>
     <t xml:space="preserve">18.7441787719727</t>
@@ -71,2326 +71,2326 @@
     <t xml:space="preserve">17.8501300811768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6497421264648</t>
+    <t xml:space="preserve">17.6497402191162</t>
   </si>
   <si>
     <t xml:space="preserve">17.7422275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2643737792969</t>
+    <t xml:space="preserve">17.2643756866455</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354927062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6477890014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9175472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0100345611572</t>
+    <t xml:space="preserve">18.2354965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6477909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9175491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0100326538086</t>
   </si>
   <si>
     <t xml:space="preserve">16.8790092468262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1622295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8462295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598903656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225219726562</t>
+    <t xml:space="preserve">16.3317852020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1622257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.846227645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598913192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225229263306</t>
   </si>
   <si>
     <t xml:space="preserve">14.589940071106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9213533401489</t>
+    <t xml:space="preserve">14.9213542938232</t>
   </si>
   <si>
     <t xml:space="preserve">15.6458396911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4454536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464273452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.576473236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15452003479</t>
+    <t xml:space="preserve">15.4454517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995941162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5764751434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545219421387</t>
   </si>
   <si>
     <t xml:space="preserve">15.7768650054932</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3240833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3934478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7633972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9560852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069156646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928649902344</t>
+    <t xml:space="preserve">16.3240852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3934497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7633991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687704086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.907886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762783050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928630828857</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071086883545</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999830245972</t>
+    <t xml:space="preserve">15.7999849319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456466674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223279953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450580596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298406600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286691665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675960540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467866897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1704521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388940811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363388061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595640182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646802902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514579772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4405746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5510196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7087993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473648071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868068695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865867614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7125911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889209747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4995880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782577514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925796508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7106952667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.042028427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8823547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7147874832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665733337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384567260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830121994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.574686050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3853511810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245750427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.048023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1269111633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795764923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8290328979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9334812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181419372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812522888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1919212341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5765819549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.616024017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556900024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0243549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8192443847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.481912612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2058010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554718017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.040132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9928016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533538818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.489803314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582481384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.261022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424705505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802406311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563503265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964546203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017890930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045635223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.716682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693496704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247951507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.913911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7009105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640209197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716857910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392539978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840324401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6968154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.588264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.706600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.477819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699325561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3692684173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0477199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187229156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8445053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713535308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186683654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.908618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873058319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358310699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9923000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508823394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700878143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.841667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475128173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6868267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236110687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.757926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566669464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.213981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.155403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324024200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240348815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261386871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554546356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968761444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382995605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136169433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.741247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5069332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705059051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5153007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4608211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.32692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.519401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.603084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5026626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.004768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562469482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219272613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332443237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780334472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930885314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9922466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119312286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596126556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.368766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185558319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6323432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.854133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072978973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.686767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.950345993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164520263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001369476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.021505355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7884616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4572772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847835540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4049854278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5792903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609516143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.88205909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169235229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1939067840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948123931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452892303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067523956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6296768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5076580047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856449127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810611724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0718936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2875061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.496675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.82785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.590274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462467193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233242034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2022609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004459381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701671600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811515808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1673984527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132877349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683521270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8472003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307228088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573253631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756622314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371234893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0499229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.180290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3371677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665351867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.256462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0211448669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592288970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4703464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637012481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8126001358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99036693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214679718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703639984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688157081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370374679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415079116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637392044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3859519958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015195846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770803451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703824996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437158584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.679271697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659452438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.599271774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903114318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.741397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.932544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.288179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437353134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126138687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748344421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437547683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770433425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1992015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014446258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636661529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9858779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881015777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.381462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.65700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.417013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992542266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459266662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8970851898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526411056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926683425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237314224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281843185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7148265838623</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456457138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3221340179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5379390716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296447753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223279953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450580596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298387527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286729812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061340332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625604629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.146785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388969421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.036337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595659255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646821975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4405727386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5510177612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.708797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115737915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.284688949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868068695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682510375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865867614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7125911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889247894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5627021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4995918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597019195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925777435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.710693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.042028427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025844573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1524753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8823528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.738452911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830121994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245769500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1269111633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085773468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345798492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8132514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786960601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.933479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0439262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209182739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842506408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1919193267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.726469039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5765819549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6160278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2058029174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0401306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111354827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9928035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533538818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4898071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.261022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083591461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.148681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352382659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964546203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017900466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045635223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166881561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9217967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2689113616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247951507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9139080047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7009086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770202636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712493896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392559051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840267181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526935577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339195251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.696813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200416564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5882663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402713775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3692722320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820495605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0477180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052757263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.939172744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8445053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713497161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295101165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9086170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345615386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.15966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4358291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203559875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.992301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.962984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826667785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475128173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.686824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918209075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9504013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985065460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223510742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1554050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240310668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407718658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0382976531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069351196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361404418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.460823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.32692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6030864715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562450408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219253540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332443237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.573823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9085597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780334472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9922466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454013824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119312286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596126556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043464660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545593261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696086883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838199615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6323471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2683486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9503479003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1846618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7704524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444297790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324935913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.352689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4049835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.126091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.021505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683874130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8930473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0040760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609516143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820571899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169235229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728897094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113380432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.514102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838260650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6296768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810611724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.071891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801517486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4966735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.82785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.932445526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6948642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453372955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5902767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.202262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160121917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205959320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673984527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683502197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2609996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8472003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0518321990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0343990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.097677230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031242370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8077983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068908691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3371677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.021146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525661468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125991821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214864730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214679718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.319242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281648635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6259384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881589889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0881404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592649459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0170345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081628799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770618438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792901992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.13707447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415079116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9593048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837421417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015195846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703824996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148412704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5771007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792707443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859315872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659452438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.599271774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925924301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413959503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9325428009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459627151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881774902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748344421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837255477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.297064781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459802627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659851074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570569992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7770442962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570413589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1991996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459247589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8970851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237314224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281843185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.1059169769287</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325817108154</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.928147315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.95481300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9549045562744</t>
+    <t xml:space="preserve">16.2836856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9281482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9548139572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
     <t xml:space="preserve">14.1326742172241</t>
@@ -2399,10 +2399,10 @@
     <t xml:space="preserve">13.7415828704834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8660221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8304691314697</t>
+    <t xml:space="preserve">13.866021156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
     <t xml:space="preserve">13.5904788970947</t>
@@ -2414,13 +2414,13 @@
     <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1594343185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6705684661865</t>
+    <t xml:space="preserve">12.8882894515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1594333648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6705675125122</t>
   </si>
   <si>
     <t xml:space="preserve">11.2972526550293</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">11.1105937957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1416578292847</t>
+    <t xml:space="preserve">12.1416568756104</t>
   </si>
   <si>
     <t xml:space="preserve">12.3283157348633</t>
@@ -2441,16 +2441,16 @@
     <t xml:space="preserve">12.1683225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5505266189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.901575088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3104467391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881969451904</t>
+    <t xml:space="preserve">12.5505275726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9015760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3104457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881959915161</t>
   </si>
   <si>
     <t xml:space="preserve">13.6349210739136</t>
@@ -2468,46 +2468,46 @@
     <t xml:space="preserve">13.6438102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6793651580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0305061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5815906524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9282417297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9993495941162</t>
+    <t xml:space="preserve">13.6793642044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0305051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5815896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.928240776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9993476867676</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948957443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682680130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4571514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.626033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9726829528809</t>
+    <t xml:space="preserve">13.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4571523666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6260328292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7771377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9726839065552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8837976455688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3993320465088</t>
+    <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
     <t xml:space="preserve">14.4882144927979</t>
@@ -2516,22 +2516,22 @@
     <t xml:space="preserve">14.532657623291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.657096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793272018433</t>
+    <t xml:space="preserve">14.6570949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793262481689</t>
   </si>
   <si>
     <t xml:space="preserve">15.1104068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326206207275</t>
+    <t xml:space="preserve">15.3326196670532</t>
   </si>
   <si>
     <t xml:space="preserve">14.8081998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192960739136</t>
+    <t xml:space="preserve">15.1192951202393</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304117202759</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">15.7681560516357</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4037275314331</t>
+    <t xml:space="preserve">15.4037256240845</t>
   </si>
   <si>
     <t xml:space="preserve">15.4926147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">16.079252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6214485168457</t>
+    <t xml:space="preserve">16.0792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6214504241943</t>
   </si>
   <si>
     <t xml:space="preserve">16.4259033203125</t>
@@ -2564,13 +2564,13 @@
     <t xml:space="preserve">16.9414348602295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2525291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147117614746</t>
+    <t xml:space="preserve">17.2525329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.114709854126</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168865203857</t>
@@ -2579,31 +2579,31 @@
     <t xml:space="preserve">20.0879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8924083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4479827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7146377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4434928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790477752686</t>
+    <t xml:space="preserve">19.892406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4479846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7146396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790496826172</t>
   </si>
   <si>
     <t xml:space="preserve">20.9234714508057</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7279243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6212635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.012357711792</t>
+    <t xml:space="preserve">20.7279224395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.621265411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0123538970947</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056949615479</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568145751953</t>
+    <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989952087402</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">21.8478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.563440322876</t>
+    <t xml:space="preserve">21.5634422302246</t>
   </si>
   <si>
     <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.776762008667</t>
+    <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
     <t xml:space="preserve">21.9545345306396</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8300952911377</t>
+    <t xml:space="preserve">21.8300971984863</t>
   </si>
   <si>
     <t xml:space="preserve">21.9900875091553</t>
@@ -2645,13 +2645,13 @@
     <t xml:space="preserve">22.0611953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2034130096436</t>
+    <t xml:space="preserve">22.2034111022949</t>
   </si>
   <si>
     <t xml:space="preserve">22.1678581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.132303237915</t>
+    <t xml:space="preserve">22.1323013305664</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723110198975</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.865650177002</t>
+    <t xml:space="preserve">21.8656482696533</t>
   </si>
   <si>
     <t xml:space="preserve">21.6523265838623</t>
@@ -2678,16 +2678,16 @@
     <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9988861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9410629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8344020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9943943023682</t>
+    <t xml:space="preserve">23.9988822937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9410610198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8344039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9943923950195</t>
   </si>
   <si>
     <t xml:space="preserve">25.0299453735352</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.887731552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8166217803955</t>
+    <t xml:space="preserve">24.8877296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
     <t xml:space="preserve">24.5321922302246</t>
@@ -2717,16 +2717,16 @@
     <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4433059692383</t>
+    <t xml:space="preserve">24.4433078765869</t>
   </si>
   <si>
     <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7632942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7099590301514</t>
+    <t xml:space="preserve">24.7632923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
     <t xml:space="preserve">24.4966373443604</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1410999298096</t>
+    <t xml:space="preserve">24.1410980224609</t>
   </si>
   <si>
     <t xml:space="preserve">25.0121688842773</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454807281494</t>
+    <t xml:space="preserve">25.5454788208008</t>
   </si>
   <si>
     <t xml:space="preserve">26.2921085357666</t>
@@ -2753,25 +2753,25 @@
     <t xml:space="preserve">25.5810317993164</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1854496002197</t>
+    <t xml:space="preserve">26.1854476928711</t>
   </si>
   <si>
     <t xml:space="preserve">27.1809577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5587635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6476459503174</t>
+    <t xml:space="preserve">26.558765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
     <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2032260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1321182250977</t>
+    <t xml:space="preserve">26.2032241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
     <t xml:space="preserve">26.1498928070068</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765769958496</t>
+    <t xml:space="preserve">25.9543514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
     <t xml:space="preserve">26.4343242645264</t>
@@ -2801,19 +2801,19 @@
     <t xml:space="preserve">26.4521045684814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0565204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.034252166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9098091125488</t>
+    <t xml:space="preserve">27.0565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0342502593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9098110198975</t>
   </si>
   <si>
     <t xml:space="preserve">27.1454048156738</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0387420654297</t>
+    <t xml:space="preserve">27.0387401580811</t>
   </si>
   <si>
     <t xml:space="preserve">27.1276264190674</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2655391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4077529907227</t>
+    <t xml:space="preserve">24.4255294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4077548980713</t>
   </si>
   <si>
     <t xml:space="preserve">24.4610843658447</t>
@@ -2840,19 +2840,19 @@
     <t xml:space="preserve">25.9010162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1676731109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6654262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.736536026001</t>
+    <t xml:space="preserve">26.1676712036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6654281616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7365341186523</t>
   </si>
   <si>
     <t xml:space="preserve">25.4032649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721591949463</t>
+    <t xml:space="preserve">25.1721611022949</t>
   </si>
   <si>
     <t xml:space="preserve">27.0209655761719</t>
@@ -2867,10 +2867,10 @@
     <t xml:space="preserve">24.5677471160889</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1543846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499687194824</t>
+    <t xml:space="preserve">25.1543827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499725341797</t>
   </si>
   <si>
     <t xml:space="preserve">24.0877685546875</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">25.3143749237061</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">26.0076770782471</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">25.101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5144138336182</t>
+    <t xml:space="preserve">25.1010551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366451263428</t>
@@ -2900,16 +2900,16 @@
     <t xml:space="preserve">23.6611232757568</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1588764190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2833156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1965980529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3779792785645</t>
+    <t xml:space="preserve">24.1588745117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2833137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1965999603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3779811859131</t>
   </si>
   <si>
     <t xml:space="preserve">23.6705856323242</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.38037109375</t>
+    <t xml:space="preserve">23.3803730010986</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612800598145</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">24.2872924804688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7794151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8519668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7249984741211</t>
+    <t xml:space="preserve">23.7794132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8519687652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7250003814697</t>
   </si>
   <si>
     <t xml:space="preserve">23.6887245178223</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">23.289680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4347877502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.251012802124</t>
+    <t xml:space="preserve">23.4347858428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2510108947754</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">27.3163986206055</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5522003173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8629417419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5340595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1870403289795</t>
+    <t xml:space="preserve">27.5521984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8629398345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5340614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1870422363281</t>
   </si>
   <si>
     <t xml:space="preserve">28.3502883911133</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">28.2777347564697</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1689033508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3478984832764</t>
+    <t xml:space="preserve">28.1689014434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.347900390625</t>
   </si>
   <si>
     <t xml:space="preserve">30.0371570587158</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">30.3455085754395</t>
   </si>
   <si>
-    <t xml:space="preserve">30.635721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249855041504</t>
+    <t xml:space="preserve">30.6357231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.853385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249835968018</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5860862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7698612213135</t>
+    <t xml:space="preserve">27.7335834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.586088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7698593139648</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">27.7879962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6610279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684253692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4772529602051</t>
+    <t xml:space="preserve">27.6610298156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
     <t xml:space="preserve">28.8944396972656</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">30.5450325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1278495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5631694793701</t>
+    <t xml:space="preserve">30.1278476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">32.1774864196777</t>
@@ -3074,31 +3074,31 @@
     <t xml:space="preserve">32.0505180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5244998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696090698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421627044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3431243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970592498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.923547744751</t>
+    <t xml:space="preserve">31.5245037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7421646118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9235515594482</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225936889648</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9574394226074</t>
+    <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
     <t xml:space="preserve">33.1932334899902</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">33.1388206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8486061096191</t>
+    <t xml:space="preserve">32.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">32.6853637695312</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7941932678223</t>
+    <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">32.6128082275391</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">33.1206817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0662689208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9393005371094</t>
+    <t xml:space="preserve">33.0662651062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
     <t xml:space="preserve">33.1025428771973</t>
@@ -3152,22 +3152,22 @@
     <t xml:space="preserve">33.7736663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9550476074219</t>
+    <t xml:space="preserve">33.9550437927246</t>
   </si>
   <si>
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369087219238</t>
+    <t xml:space="preserve">33.9369049072266</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1569557189941</t>
+    <t xml:space="preserve">32.8667449951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750946044922</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">32.8304672241211</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7397727966309</t>
+    <t xml:space="preserve">32.7397689819336</t>
   </si>
   <si>
     <t xml:space="preserve">33.532413482666</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">33.6429023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6613159179688</t>
+    <t xml:space="preserve">33.661319732666</t>
   </si>
   <si>
     <t xml:space="preserve">33.1088905334473</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">33.2377853393555</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0664291381836</t>
+    <t xml:space="preserve">34.0664329528809</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3224,16 +3224,16 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4971199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4787063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.791748046875</t>
+    <t xml:space="preserve">35.7789611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4971160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.478702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7917442321777</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">34.7661743164062</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3610572814941</t>
+    <t xml:space="preserve">34.3610610961914</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270454406738</t>
+    <t xml:space="preserve">33.8270492553711</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4035148620605</t>
+    <t xml:space="preserve">33.4035186767578</t>
   </si>
   <si>
     <t xml:space="preserve">33.7165603637695</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">34.8582496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2689933776855</t>
+    <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.342643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2930335998535</t>
+    <t xml:space="preserve">34.3426475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2930297851562</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">35.5395736694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8157920837402</t>
+    <t xml:space="preserve">35.815788269043</t>
   </si>
   <si>
     <t xml:space="preserve">35.8526153564453</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">35.6132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6684761047363</t>
+    <t xml:space="preserve">35.6684722900391</t>
   </si>
   <si>
     <t xml:space="preserve">35.5764045715332</t>
@@ -3347,13 +3347,13 @@
     <t xml:space="preserve">35.3922576904297</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0608024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1344604492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7605438232422</t>
+    <t xml:space="preserve">35.0608062744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7605476379395</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">34.6188583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9503173828125</t>
+    <t xml:space="preserve">34.9503135681152</t>
   </si>
   <si>
     <t xml:space="preserve">34.9871444702148</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.128833770752</t>
+    <t xml:space="preserve">36.1288299560547</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
@@ -3389,19 +3389,19 @@
     <t xml:space="preserve">36.5891876220703</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7973785400391</t>
+    <t xml:space="preserve">35.7973747253418</t>
   </si>
   <si>
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278137207031</t>
+    <t xml:space="preserve">31.7278175354004</t>
   </si>
   <si>
     <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595333099365</t>
+    <t xml:space="preserve">31.3595352172852</t>
   </si>
   <si>
     <t xml:space="preserve">30.8255176544189</t>
@@ -3410,37 +3410,37 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175891876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045455932617</t>
+    <t xml:space="preserve">30.9175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045475006104</t>
   </si>
   <si>
     <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996891021729</t>
+    <t xml:space="preserve">29.4996871948242</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6158008575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7759017944336</t>
+    <t xml:space="preserve">28.6158027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7759037017822</t>
   </si>
   <si>
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.818359375</t>
+    <t xml:space="preserve">28.9840869903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
     <t xml:space="preserve">29.278715133667</t>
@@ -3467,10 +3467,10 @@
     <t xml:space="preserve">30.5677165985107</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1017303466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2306308746338</t>
+    <t xml:space="preserve">31.1017322540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2306289672852</t>
   </si>
   <si>
     <t xml:space="preserve">31.0649070739746</t>
@@ -3482,10 +3482,10 @@
     <t xml:space="preserve">31.1201457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2858734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674598693848</t>
+    <t xml:space="preserve">31.2858753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674617767334</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
@@ -3497,16 +3497,16 @@
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147758483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5861320495605</t>
+    <t xml:space="preserve">31.4147720336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5861301422119</t>
   </si>
   <si>
     <t xml:space="preserve">28.3948307037354</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9897174835205</t>
+    <t xml:space="preserve">27.9897155761719</t>
   </si>
   <si>
     <t xml:space="preserve">28.1002025604248</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291030883789</t>
+    <t xml:space="preserve">28.2291011810303</t>
   </si>
   <si>
     <t xml:space="preserve">26.8848609924316</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">27.5661888122559</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2347297668457</t>
+    <t xml:space="preserve">27.2347316741943</t>
   </si>
   <si>
     <t xml:space="preserve">28.0081310272217</t>
@@ -3548,28 +3548,28 @@
     <t xml:space="preserve">27.4925327301025</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2531452178955</t>
+    <t xml:space="preserve">27.2531471252441</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3027610778809</t>
+    <t xml:space="preserve">28.3027591705322</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4372863769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6030139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9713039398193</t>
+    <t xml:space="preserve">27.8976421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4372882843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6030158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9713020324707</t>
   </si>
   <si>
     <t xml:space="preserve">28.3764171600342</t>
@@ -3590,19 +3590,19 @@
     <t xml:space="preserve">29.0209178924561</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5789756774902</t>
+    <t xml:space="preserve">28.5789737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8367729187012</t>
+    <t xml:space="preserve">28.8367748260498</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477752685547</t>
+    <t xml:space="preserve">27.5477733612061</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3611,28 +3611,28 @@
     <t xml:space="preserve">26.0930461883545</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.964147567749</t>
+    <t xml:space="preserve">25.7800006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9641456604004</t>
   </si>
   <si>
     <t xml:space="preserve">26.3508453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5958576202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1355037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8592891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927894592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5846004486084</t>
+    <t xml:space="preserve">25.5958595275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1355018615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.584602355957</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3641,16 +3641,16 @@
     <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4684886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.081787109375</t>
+    <t xml:space="preserve">28.4684867858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0817890167236</t>
   </si>
   <si>
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526336669922</t>
+    <t xml:space="preserve">28.6526317596436</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">28.3395900726318</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9344730377197</t>
+    <t xml:space="preserve">27.9344749450684</t>
   </si>
   <si>
     <t xml:space="preserve">27.2163162231445</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">25.7984180450439</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2091598510742</t>
+    <t xml:space="preserve">25.2091579437256</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677291870117</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812881469727</t>
+    <t xml:space="preserve">22.281286239624</t>
   </si>
   <si>
     <t xml:space="preserve">23.6623592376709</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7048149108887</t>
+    <t xml:space="preserve">22.7048168182373</t>
   </si>
   <si>
     <t xml:space="preserve">23.754430770874</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388286590576</t>
+    <t xml:space="preserve">23.2388305664062</t>
   </si>
   <si>
     <t xml:space="preserve">23.1835880279541</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">22.7416458129883</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4470176696777</t>
+    <t xml:space="preserve">22.4470157623291</t>
   </si>
   <si>
     <t xml:space="preserve">22.391773223877</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">21.8577575683594</t>
   </si>
   <si>
-    <t xml:space="preserve">22.097146987915</t>
+    <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.0419025421143</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288589477539</t>
+    <t xml:space="preserve">21.7288608551025</t>
   </si>
   <si>
     <t xml:space="preserve">20.9186305999756</t>
@@ -3785,7 +3785,7 @@
     <t xml:space="preserve">21.2500877380371</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3973999023438</t>
+    <t xml:space="preserve">21.3974018096924</t>
   </si>
   <si>
     <t xml:space="preserve">20.7160739898682</t>
@@ -3797,16 +3797,16 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9002151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0163288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2557163238525</t>
+    <t xml:space="preserve">21.4158153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9002170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0163307189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2557144165039</t>
   </si>
   <si>
     <t xml:space="preserve">20.624002456665</t>
@@ -3815,13 +3815,13 @@
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636447906494</t>
+    <t xml:space="preserve">20.1636428833008</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135173797607</t>
+    <t xml:space="preserve">20.5135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5094,6 +5094,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.2999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6399993896484</t>
   </si>
 </sst>
 </file>
@@ -21417,7 +21420,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G615" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21443,7 +21446,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G616" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21495,7 +21498,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G618" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21521,7 +21524,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G619" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21547,7 +21550,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G620" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21625,7 +21628,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G623" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21677,7 +21680,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21703,7 +21706,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G626" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21729,7 +21732,7 @@
         <v>24.6399993896484</v>
       </c>
       <c r="G627" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21755,7 +21758,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G628" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21781,7 +21784,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G629" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21807,7 +21810,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G630" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21833,7 +21836,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G631" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21911,7 +21914,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G634" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21937,7 +21940,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G635" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21963,7 +21966,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21989,7 +21992,7 @@
         <v>24.2800006866455</v>
       </c>
       <c r="G637" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22015,7 +22018,7 @@
         <v>23.9599990844727</v>
       </c>
       <c r="G638" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22067,7 +22070,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G640" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22093,7 +22096,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G641" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22145,7 +22148,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G643" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22171,7 +22174,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22197,7 +22200,7 @@
         <v>24</v>
       </c>
       <c r="G645" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22223,7 +22226,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G646" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22327,7 +22330,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G650" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22353,7 +22356,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G651" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22405,7 +22408,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G653" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22431,7 +22434,7 @@
         <v>23.7199993133545</v>
       </c>
       <c r="G654" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22457,7 +22460,7 @@
         <v>23.5599994659424</v>
       </c>
       <c r="G655" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22483,7 +22486,7 @@
         <v>24</v>
       </c>
       <c r="G656" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22509,7 +22512,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G657" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22535,7 +22538,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G658" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22561,7 +22564,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G659" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22587,7 +22590,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G660" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22613,7 +22616,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G661" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22639,7 +22642,7 @@
         <v>27.6399993896484</v>
       </c>
       <c r="G662" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22665,7 +22668,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G663" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22691,7 +22694,7 @@
         <v>27.8400001525879</v>
       </c>
       <c r="G664" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22717,7 +22720,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G665" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22743,7 +22746,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G666" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22769,7 +22772,7 @@
         <v>27.7800006866455</v>
       </c>
       <c r="G667" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22795,7 +22798,7 @@
         <v>27.3600006103516</v>
       </c>
       <c r="G668" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22821,7 +22824,7 @@
         <v>27.2800006866455</v>
       </c>
       <c r="G669" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22847,7 +22850,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G670" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22873,7 +22876,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G671" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22899,7 +22902,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22925,7 +22928,7 @@
         <v>27.4400005340576</v>
       </c>
       <c r="G673" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22951,7 +22954,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G674" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22977,7 +22980,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G675" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23003,7 +23006,7 @@
         <v>27.8400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23029,7 +23032,7 @@
         <v>27.8199996948242</v>
       </c>
       <c r="G677" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23055,7 +23058,7 @@
         <v>28</v>
       </c>
       <c r="G678" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23081,7 +23084,7 @@
         <v>28.2600002288818</v>
       </c>
       <c r="G679" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23107,7 +23110,7 @@
         <v>28.1200008392334</v>
       </c>
       <c r="G680" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23133,7 +23136,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G681" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23159,7 +23162,7 @@
         <v>27.9799995422363</v>
       </c>
       <c r="G682" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23185,7 +23188,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G683" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23211,7 +23214,7 @@
         <v>27.6200008392334</v>
       </c>
       <c r="G684" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23237,7 +23240,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23263,7 +23266,7 @@
         <v>27</v>
       </c>
       <c r="G686" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23289,7 +23292,7 @@
         <v>27.0200004577637</v>
       </c>
       <c r="G687" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23315,7 +23318,7 @@
         <v>26.7199993133545</v>
       </c>
       <c r="G688" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23341,7 +23344,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23367,7 +23370,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G690" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23393,7 +23396,7 @@
         <v>27.6399993896484</v>
       </c>
       <c r="G691" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23419,7 +23422,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G692" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23445,7 +23448,7 @@
         <v>27.6800003051758</v>
       </c>
       <c r="G693" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23471,7 +23474,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G694" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23497,7 +23500,7 @@
         <v>27.4799995422363</v>
       </c>
       <c r="G695" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23523,7 +23526,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G696" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23549,7 +23552,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="G697" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23575,7 +23578,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G698" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23601,7 +23604,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G699" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23627,7 +23630,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G700" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23653,7 +23656,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G701" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23679,7 +23682,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G702" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23705,7 +23708,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G703" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23731,7 +23734,7 @@
         <v>27.4599990844727</v>
       </c>
       <c r="G704" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23757,7 +23760,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G705" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23783,7 +23786,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G706" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23809,7 +23812,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G707" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23835,7 +23838,7 @@
         <v>25.1800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23861,7 +23864,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G709" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23887,7 +23890,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G710" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23913,7 +23916,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G711" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23939,7 +23942,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G712" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23965,7 +23968,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G713" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23991,7 +23994,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24017,7 +24020,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G715" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24043,7 +24046,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G716" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24095,7 +24098,7 @@
         <v>25.5599994659424</v>
       </c>
       <c r="G718" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24121,7 +24124,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G719" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24147,7 +24150,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G720" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -24173,7 +24176,7 @@
         <v>23.7600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -24199,7 +24202,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G722" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -24225,7 +24228,7 @@
         <v>22.6800003051758</v>
       </c>
       <c r="G723" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -24251,7 +24254,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -24277,7 +24280,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G725" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24303,7 +24306,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G726" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24329,7 +24332,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -24355,7 +24358,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G728" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24381,7 +24384,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24407,7 +24410,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G730" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -24433,7 +24436,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G731" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -24459,7 +24462,7 @@
         <v>22.5</v>
       </c>
       <c r="G732" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -24485,7 +24488,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G733" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24511,7 +24514,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G734" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24537,7 +24540,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G735" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24563,7 +24566,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G736" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24589,7 +24592,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G737" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24615,7 +24618,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24641,7 +24644,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24667,7 +24670,7 @@
         <v>23</v>
       </c>
       <c r="G740" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24693,7 +24696,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G741" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24719,7 +24722,7 @@
         <v>23.5200004577637</v>
       </c>
       <c r="G742" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24745,7 +24748,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G743" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24771,7 +24774,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G744" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24797,7 +24800,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G745" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24823,7 +24826,7 @@
         <v>24</v>
       </c>
       <c r="G746" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24849,7 +24852,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24875,7 +24878,7 @@
         <v>24.0400009155273</v>
       </c>
       <c r="G748" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24901,7 +24904,7 @@
         <v>23.7399997711182</v>
       </c>
       <c r="G749" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24927,7 +24930,7 @@
         <v>23.4400005340576</v>
       </c>
       <c r="G750" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24953,7 +24956,7 @@
         <v>23.4400005340576</v>
       </c>
       <c r="G751" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24979,7 +24982,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -25005,7 +25008,7 @@
         <v>22.8400001525879</v>
       </c>
       <c r="G753" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -25031,7 +25034,7 @@
         <v>23.6599998474121</v>
       </c>
       <c r="G754" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -25057,7 +25060,7 @@
         <v>23.5</v>
       </c>
       <c r="G755" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -25083,7 +25086,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G756" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -25109,7 +25112,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G757" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -25135,7 +25138,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G758" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -25161,7 +25164,7 @@
         <v>22.1599998474121</v>
       </c>
       <c r="G759" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -25187,7 +25190,7 @@
         <v>21</v>
       </c>
       <c r="G760" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -25213,7 +25216,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G761" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -25239,7 +25242,7 @@
         <v>21.4200000762939</v>
       </c>
       <c r="G762" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -25265,7 +25268,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G763" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -25291,7 +25294,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G764" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -25317,7 +25320,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G765" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -25343,7 +25346,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G766" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -25369,7 +25372,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G767" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -25395,7 +25398,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G768" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -25421,7 +25424,7 @@
         <v>23.9799995422363</v>
       </c>
       <c r="G769" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -25447,7 +25450,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G770" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25473,7 +25476,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G771" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -25499,7 +25502,7 @@
         <v>23.9200000762939</v>
       </c>
       <c r="G772" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25551,7 +25554,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G774" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -25577,7 +25580,7 @@
         <v>24.2800006866455</v>
       </c>
       <c r="G775" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -25629,7 +25632,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G777" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -25655,7 +25658,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G778" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -25707,7 +25710,7 @@
         <v>24.3199996948242</v>
       </c>
       <c r="G780" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25733,7 +25736,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G781" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25759,7 +25762,7 @@
         <v>22.1599998474121</v>
       </c>
       <c r="G782" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25785,7 +25788,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25811,7 +25814,7 @@
         <v>21.8600006103516</v>
       </c>
       <c r="G784" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25837,7 +25840,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G785" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25863,7 +25866,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G786" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25889,7 +25892,7 @@
         <v>21.8799991607666</v>
       </c>
       <c r="G787" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25915,7 +25918,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G788" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25941,7 +25944,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G789" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25967,7 +25970,7 @@
         <v>21.8400001525879</v>
       </c>
       <c r="G790" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25993,7 +25996,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G791" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -26019,7 +26022,7 @@
         <v>21.9599990844727</v>
       </c>
       <c r="G792" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -26045,7 +26048,7 @@
         <v>22.1800003051758</v>
       </c>
       <c r="G793" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -26071,7 +26074,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G794" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -26097,7 +26100,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G795" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -26123,7 +26126,7 @@
         <v>22.9200000762939</v>
       </c>
       <c r="G796" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -26149,7 +26152,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G797" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -26175,7 +26178,7 @@
         <v>23.2199993133545</v>
       </c>
       <c r="G798" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -26201,7 +26204,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G799" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -26227,7 +26230,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G800" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -26253,7 +26256,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G801" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26279,7 +26282,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G802" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -26305,7 +26308,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G803" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -26331,7 +26334,7 @@
         <v>23.1200008392334</v>
       </c>
       <c r="G804" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -26357,7 +26360,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G805" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -26383,7 +26386,7 @@
         <v>23.6200008392334</v>
       </c>
       <c r="G806" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -26409,7 +26412,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G807" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -26461,7 +26464,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G809" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -26487,7 +26490,7 @@
         <v>23.5</v>
       </c>
       <c r="G810" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -26513,7 +26516,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G811" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26539,7 +26542,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G812" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26565,7 +26568,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G813" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26591,7 +26594,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G814" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26617,7 +26620,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G815" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26643,7 +26646,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G816" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26669,7 +26672,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G817" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26695,7 +26698,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G818" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26721,7 +26724,7 @@
         <v>23.5200004577637</v>
       </c>
       <c r="G819" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26773,7 +26776,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G821" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26799,7 +26802,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G822" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26825,7 +26828,7 @@
         <v>23.9400005340576</v>
       </c>
       <c r="G823" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26851,7 +26854,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G824" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26903,7 +26906,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G826" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26929,7 +26932,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G827" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26955,7 +26958,7 @@
         <v>24.2800006866455</v>
       </c>
       <c r="G828" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26981,7 +26984,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G829" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -27007,7 +27010,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G830" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -27033,7 +27036,7 @@
         <v>24</v>
       </c>
       <c r="G831" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -27059,7 +27062,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G832" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -27085,7 +27088,7 @@
         <v>25.8199996948242</v>
       </c>
       <c r="G833" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -27111,7 +27114,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G834" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -27189,7 +27192,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G837" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -27241,7 +27244,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G839" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -27267,7 +27270,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G840" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -27293,7 +27296,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G841" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -27319,7 +27322,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G842" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -27345,7 +27348,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G843" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -27371,7 +27374,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G844" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -27397,7 +27400,7 @@
         <v>22.9799995422363</v>
       </c>
       <c r="G845" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -27423,7 +27426,7 @@
         <v>22.8400001525879</v>
       </c>
       <c r="G846" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -27449,7 +27452,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G847" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27475,7 +27478,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G848" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27501,7 +27504,7 @@
         <v>21.1200008392334</v>
       </c>
       <c r="G849" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27527,7 +27530,7 @@
         <v>20.8600006103516</v>
       </c>
       <c r="G850" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27553,7 +27556,7 @@
         <v>21.0400009155273</v>
       </c>
       <c r="G851" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27579,7 +27582,7 @@
         <v>20.5</v>
       </c>
       <c r="G852" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27605,7 +27608,7 @@
         <v>20.5</v>
       </c>
       <c r="G853" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27631,7 +27634,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G854" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27657,7 +27660,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G855" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27683,7 +27686,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G856" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27709,7 +27712,7 @@
         <v>19.5300006866455</v>
       </c>
       <c r="G857" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27735,7 +27738,7 @@
         <v>19</v>
       </c>
       <c r="G858" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27761,7 +27764,7 @@
         <v>18.5300006866455</v>
       </c>
       <c r="G859" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27787,7 +27790,7 @@
         <v>18.5</v>
       </c>
       <c r="G860" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27813,7 +27816,7 @@
         <v>18.5100002288818</v>
       </c>
       <c r="G861" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27839,7 +27842,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G862" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27865,7 +27868,7 @@
         <v>18.0699996948242</v>
       </c>
       <c r="G863" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27891,7 +27894,7 @@
         <v>18.1100006103516</v>
       </c>
       <c r="G864" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27917,7 +27920,7 @@
         <v>18.2299995422363</v>
       </c>
       <c r="G865" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27943,7 +27946,7 @@
         <v>17.7900009155273</v>
       </c>
       <c r="G866" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27969,7 +27972,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G867" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27995,7 +27998,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G868" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -28021,7 +28024,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G869" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -28047,7 +28050,7 @@
         <v>18.0100002288818</v>
       </c>
       <c r="G870" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -28073,7 +28076,7 @@
         <v>18.25</v>
       </c>
       <c r="G871" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -28099,7 +28102,7 @@
         <v>18.3500003814697</v>
       </c>
       <c r="G872" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -28125,7 +28128,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G873" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -28151,7 +28154,7 @@
         <v>18.3400001525879</v>
       </c>
       <c r="G874" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -28177,7 +28180,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G875" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28203,7 +28206,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G876" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28229,7 +28232,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -28255,7 +28258,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G878" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -28281,7 +28284,7 @@
         <v>17.4699993133545</v>
       </c>
       <c r="G879" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28307,7 +28310,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G880" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -28333,7 +28336,7 @@
         <v>17.6499996185303</v>
       </c>
       <c r="G881" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -28359,7 +28362,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G882" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -28385,7 +28388,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G883" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -28411,7 +28414,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G884" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -28437,7 +28440,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G885" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -28463,7 +28466,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G886" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28489,7 +28492,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G887" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28515,7 +28518,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G888" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -28541,7 +28544,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G889" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -28567,7 +28570,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G890" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -28593,7 +28596,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G891" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -28619,7 +28622,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G892" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -28645,7 +28648,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G893" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -28671,7 +28674,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G894" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28697,7 +28700,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G895" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28723,7 +28726,7 @@
         <v>17.1900005340576</v>
       </c>
       <c r="G896" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28749,7 +28752,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G897" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28775,7 +28778,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G898" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28801,7 +28804,7 @@
         <v>17.2600002288818</v>
       </c>
       <c r="G899" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28827,7 +28830,7 @@
         <v>17.1700000762939</v>
       </c>
       <c r="G900" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28853,7 +28856,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G901" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28879,7 +28882,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G902" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28905,7 +28908,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G903" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28931,7 +28934,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28957,7 +28960,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G905" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28983,7 +28986,7 @@
         <v>17.3099994659424</v>
       </c>
       <c r="G906" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29009,7 +29012,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G907" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29035,7 +29038,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G908" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29061,7 +29064,7 @@
         <v>16.8500003814697</v>
       </c>
       <c r="G909" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29087,7 +29090,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G910" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -29113,7 +29116,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G911" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29139,7 +29142,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G912" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29165,7 +29168,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G913" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29191,7 +29194,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G914" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29217,7 +29220,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G915" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29243,7 +29246,7 @@
         <v>17.7900009155273</v>
       </c>
       <c r="G916" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29269,7 +29272,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G917" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29295,7 +29298,7 @@
         <v>17.2299995422363</v>
       </c>
       <c r="G918" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29321,7 +29324,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G919" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29347,7 +29350,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G920" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29373,7 +29376,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29399,7 +29402,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29425,7 +29428,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G923" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -29451,7 +29454,7 @@
         <v>17.3099994659424</v>
       </c>
       <c r="G924" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29477,7 +29480,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G925" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29503,7 +29506,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G926" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29529,7 +29532,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G927" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29555,7 +29558,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G928" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29581,7 +29584,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G929" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29607,7 +29610,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G930" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29633,7 +29636,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G931" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29659,7 +29662,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G932" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29685,7 +29688,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="G933" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29711,7 +29714,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G934" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29737,7 +29740,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G935" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29763,7 +29766,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29789,7 +29792,7 @@
         <v>18.5</v>
       </c>
       <c r="G937" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29815,7 +29818,7 @@
         <v>19.3400001525879</v>
       </c>
       <c r="G938" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29841,7 +29844,7 @@
         <v>20</v>
       </c>
       <c r="G939" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29867,7 +29870,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G940" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29893,7 +29896,7 @@
         <v>19.3899993896484</v>
       </c>
       <c r="G941" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29919,7 +29922,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G942" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29945,7 +29948,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G943" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29971,7 +29974,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G944" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29997,7 +30000,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G945" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30023,7 +30026,7 @@
         <v>18.6900005340576</v>
       </c>
       <c r="G946" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30049,7 +30052,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G947" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30075,7 +30078,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G948" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30101,7 +30104,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G949" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30127,7 +30130,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G950" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30153,7 +30156,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G951" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30179,7 +30182,7 @@
         <v>17.5200004577637</v>
       </c>
       <c r="G952" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30205,7 +30208,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G953" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30231,7 +30234,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G954" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30257,7 +30260,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G955" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30283,7 +30286,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G956" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30309,7 +30312,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G957" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30335,7 +30338,7 @@
         <v>17.1499996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30361,7 +30364,7 @@
         <v>16.9599990844727</v>
       </c>
       <c r="G959" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30387,7 +30390,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G960" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30413,7 +30416,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G961" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30439,7 +30442,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G962" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30465,7 +30468,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G963" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30491,7 +30494,7 @@
         <v>17.2900009155273</v>
       </c>
       <c r="G964" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30517,7 +30520,7 @@
         <v>17.3400001525879</v>
       </c>
       <c r="G965" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30543,7 +30546,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G966" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30569,7 +30572,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G967" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30595,7 +30598,7 @@
         <v>17.1900005340576</v>
       </c>
       <c r="G968" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30621,7 +30624,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G969" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30647,7 +30650,7 @@
         <v>17.2000007629395</v>
       </c>
       <c r="G970" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30673,7 +30676,7 @@
         <v>16.9500007629395</v>
       </c>
       <c r="G971" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30699,7 +30702,7 @@
         <v>17.2099990844727</v>
       </c>
       <c r="G972" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30725,7 +30728,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G973" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30751,7 +30754,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G974" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30777,7 +30780,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G975" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30803,7 +30806,7 @@
         <v>16.5</v>
       </c>
       <c r="G976" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30829,7 +30832,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30855,7 +30858,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G978" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30881,7 +30884,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G979" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30907,7 +30910,7 @@
         <v>17.1599998474121</v>
       </c>
       <c r="G980" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30933,7 +30936,7 @@
         <v>17.0599994659424</v>
       </c>
       <c r="G981" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30959,7 +30962,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G982" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30985,7 +30988,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G983" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31011,7 +31014,7 @@
         <v>17.6200008392334</v>
       </c>
       <c r="G984" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31037,7 +31040,7 @@
         <v>18.3600006103516</v>
       </c>
       <c r="G985" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -31063,7 +31066,7 @@
         <v>17.75</v>
       </c>
       <c r="G986" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31089,7 +31092,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G987" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -31115,7 +31118,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G988" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31141,7 +31144,7 @@
         <v>17.8899993896484</v>
       </c>
       <c r="G989" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31167,7 +31170,7 @@
         <v>18.2399997711182</v>
       </c>
       <c r="G990" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31193,7 +31196,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G991" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31219,7 +31222,7 @@
         <v>18.0400009155273</v>
       </c>
       <c r="G992" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31245,7 +31248,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G993" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31271,7 +31274,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G994" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31297,7 +31300,7 @@
         <v>18.8099994659424</v>
       </c>
       <c r="G995" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31323,7 +31326,7 @@
         <v>19.2999992370605</v>
       </c>
       <c r="G996" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31349,7 +31352,7 @@
         <v>19.3500003814697</v>
       </c>
       <c r="G997" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31375,7 +31378,7 @@
         <v>18.7900009155273</v>
       </c>
       <c r="G998" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31401,7 +31404,7 @@
         <v>18.9500007629395</v>
       </c>
       <c r="G999" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31427,7 +31430,7 @@
         <v>19.0100002288818</v>
       </c>
       <c r="G1000" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31453,7 +31456,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1001" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -31479,7 +31482,7 @@
         <v>19.0100002288818</v>
       </c>
       <c r="G1002" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31505,7 +31508,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1003" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31531,7 +31534,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G1004" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -31557,7 +31560,7 @@
         <v>18.6499996185303</v>
       </c>
       <c r="G1005" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31583,7 +31586,7 @@
         <v>19.1100006103516</v>
       </c>
       <c r="G1006" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31609,7 +31612,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1007" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31635,7 +31638,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G1008" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31661,7 +31664,7 @@
         <v>18.9099998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31687,7 +31690,7 @@
         <v>19</v>
       </c>
       <c r="G1010" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31713,7 +31716,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G1011" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31739,7 +31742,7 @@
         <v>19.0499992370605</v>
       </c>
       <c r="G1012" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31765,7 +31768,7 @@
         <v>19.0799999237061</v>
       </c>
       <c r="G1013" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31791,7 +31794,7 @@
         <v>18.9699993133545</v>
       </c>
       <c r="G1014" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31817,7 +31820,7 @@
         <v>18.8500003814697</v>
       </c>
       <c r="G1015" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31843,7 +31846,7 @@
         <v>19.1000003814697</v>
       </c>
       <c r="G1016" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31869,7 +31872,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G1017" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31895,7 +31898,7 @@
         <v>18.5499992370605</v>
       </c>
       <c r="G1018" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31921,7 +31924,7 @@
         <v>18.4300003051758</v>
       </c>
       <c r="G1019" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31947,7 +31950,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G1020" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31973,7 +31976,7 @@
         <v>18.7900009155273</v>
       </c>
       <c r="G1021" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31999,7 +32002,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1022" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32025,7 +32028,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G1023" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32051,7 +32054,7 @@
         <v>18.0200004577637</v>
       </c>
       <c r="G1024" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32077,7 +32080,7 @@
         <v>18</v>
       </c>
       <c r="G1025" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32103,7 +32106,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1026" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32129,7 +32132,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G1027" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32155,7 +32158,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1028" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32181,7 +32184,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1029" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32207,7 +32210,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1030" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32233,7 +32236,7 @@
         <v>16.7199993133545</v>
       </c>
       <c r="G1031" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32259,7 +32262,7 @@
         <v>16.7099990844727</v>
       </c>
       <c r="G1032" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32285,7 +32288,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32311,7 +32314,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1034" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32337,7 +32340,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1035" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32363,7 +32366,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1036" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32389,7 +32392,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1037" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32415,7 +32418,7 @@
         <v>17.3099994659424</v>
       </c>
       <c r="G1038" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -32441,7 +32444,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G1039" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -32467,7 +32470,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G1040" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32493,7 +32496,7 @@
         <v>18</v>
       </c>
       <c r="G1041" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32519,7 +32522,7 @@
         <v>17.7800006866455</v>
       </c>
       <c r="G1042" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32545,7 +32548,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1043" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32571,7 +32574,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1044" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32649,7 +32652,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1047" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32753,7 +32756,7 @@
         <v>17.7900009155273</v>
       </c>
       <c r="G1051" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32779,7 +32782,7 @@
         <v>17.4200000762939</v>
       </c>
       <c r="G1052" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -34053,7 +34056,7 @@
         <v>16.5</v>
       </c>
       <c r="G1101" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -34261,7 +34264,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1109" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -34287,7 +34290,7 @@
         <v>17.8400001525879</v>
       </c>
       <c r="G1110" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -34391,7 +34394,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G1114" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -61543,7 +61546,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6496180556</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>178880</v>
@@ -61564,6 +61567,32 @@
         <v>1693</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.649537037</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>242712</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>31.7999992370605</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>29.6399993896484</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>31.7399997711182</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>29.6399993896484</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1696">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947147369385</t>
+    <t xml:space="preserve">20.9947109222412</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
@@ -47,43 +47,43 @@
     <t xml:space="preserve">20.8097400665283</t>
   </si>
   <si>
-    <t xml:space="preserve">20.90993309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.424373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2239818572998</t>
+    <t xml:space="preserve">20.9099311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4243717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">20.0158863067627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7307147979736</t>
+    <t xml:space="preserve">19.7307167053223</t>
   </si>
   <si>
     <t xml:space="preserve">20.131498336792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7441787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8501300811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6497402191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7422275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2643756866455</t>
+    <t xml:space="preserve">18.744176864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8501319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6497421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7422294616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2643775939941</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354965209961</t>
+    <t xml:space="preserve">18.2354984283447</t>
   </si>
   <si>
     <t xml:space="preserve">16.8404731750488</t>
@@ -95,31 +95,31 @@
     <t xml:space="preserve">16.9175491333008</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0100326538086</t>
+    <t xml:space="preserve">17.0100364685059</t>
   </si>
   <si>
     <t xml:space="preserve">16.8790092468262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317852020264</t>
+    <t xml:space="preserve">16.3317890167236</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846227645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756925582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598913192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225229263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.589940071106</t>
+    <t xml:space="preserve">15.8462295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225210189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5899381637573</t>
   </si>
   <si>
     <t xml:space="preserve">14.9213542938232</t>
@@ -128,22 +128,22 @@
     <t xml:space="preserve">15.6458396911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4454517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764751434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1545219421387</t>
+    <t xml:space="preserve">15.4454526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5764713287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545238494873</t>
   </si>
   <si>
     <t xml:space="preserve">15.7768650054932</t>
@@ -152,31 +152,31 @@
     <t xml:space="preserve">16.3240852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3934497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0774478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687704086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.907886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762783050537</t>
+    <t xml:space="preserve">16.3934516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7633972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.077449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078874588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762811660767</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928630828857</t>
@@ -185,91 +185,91 @@
     <t xml:space="preserve">15.5071086883545</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999849319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236915588379</t>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
     <t xml:space="preserve">16.1853523254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0851593017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076953887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456466674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3221349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146184921265</t>
+    <t xml:space="preserve">16.0851554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456457138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221311569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146194458008</t>
   </si>
   <si>
     <t xml:space="preserve">15.5379371643066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2296466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223279953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450580596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298406600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286691665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625642776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361206054688</t>
+    <t xml:space="preserve">15.2296447753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061311721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653415679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.162561416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440074920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361215591431</t>
   </si>
   <si>
     <t xml:space="preserve">15.1467866897583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1704521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388940811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0363388061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646802902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275676727295</t>
+    <t xml:space="preserve">15.170449256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1389007568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363397598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595659255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646783828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514560699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275695800781</t>
   </si>
   <si>
     <t xml:space="preserve">16.4405746459961</t>
@@ -281,31 +281,31 @@
     <t xml:space="preserve">16.5510196685791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7087993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473648071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612407684326</t>
+    <t xml:space="preserve">16.708797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473628997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.284688949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612445831299</t>
   </si>
   <si>
     <t xml:space="preserve">17.0559120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241367340088</t>
+    <t xml:space="preserve">17.3241386413574</t>
   </si>
   <si>
     <t xml:space="preserve">17.5134696960449</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">17.9868068695068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1288089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682548522949</t>
+    <t xml:space="preserve">18.1288070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682529449463</t>
   </si>
   <si>
     <t xml:space="preserve">18.2865867614746</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">18.7125911712646</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0202598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889209747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5627040863037</t>
+    <t xml:space="preserve">19.0202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627021789551</t>
   </si>
   <si>
     <t xml:space="preserve">18.4995880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3023681640625</t>
+    <t xml:space="preserve">18.3023662567139</t>
   </si>
   <si>
     <t xml:space="preserve">18.8782577514648</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0597038269043</t>
+    <t xml:space="preserve">19.0597057342529</t>
   </si>
   <si>
     <t xml:space="preserve">18.6810359954834</t>
@@ -353,52 +353,52 @@
     <t xml:space="preserve">18.0578098297119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6081352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7106952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.042028427124</t>
+    <t xml:space="preserve">17.6081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925777435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.710693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0420303344727</t>
   </si>
   <si>
     <t xml:space="preserve">18.0025863647461</t>
   </si>
   <si>
-    <t xml:space="preserve">18.152473449707</t>
+    <t xml:space="preserve">18.1524753570557</t>
   </si>
   <si>
     <t xml:space="preserve">16.8823547363281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7147874832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665733337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751253128052</t>
+    <t xml:space="preserve">15.714789390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8350219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751234054565</t>
   </si>
   <si>
     <t xml:space="preserve">15.7384567260742</t>
@@ -407,25 +407,25 @@
     <t xml:space="preserve">15.9830121994019</t>
   </si>
   <si>
-    <t xml:space="preserve">16.574686050415</t>
+    <t xml:space="preserve">16.5746841430664</t>
   </si>
   <si>
     <t xml:space="preserve">16.3853511810303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3616828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245750427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.048023223877</t>
+    <t xml:space="preserve">16.3616790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245769500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324657440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0480213165283</t>
   </si>
   <si>
     <t xml:space="preserve">17.1269111633301</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">17.0085773468018</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8290328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345817565918</t>
+    <t xml:space="preserve">17.8290271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345836639404</t>
   </si>
   <si>
     <t xml:space="preserve">17.8132495880127</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">17.8763618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185821533203</t>
+    <t xml:space="preserve">17.5292453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371360778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185802459717</t>
   </si>
   <si>
     <t xml:space="preserve">18.2786979675293</t>
@@ -473,67 +473,67 @@
     <t xml:space="preserve">18.8940353393555</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0439262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812522888184</t>
+    <t xml:space="preserve">19.043924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.381254196167</t>
   </si>
   <si>
     <t xml:space="preserve">18.0972537994385</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8842525482178</t>
+    <t xml:space="preserve">17.8842506408691</t>
   </si>
   <si>
     <t xml:space="preserve">18.1919212341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2550296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895832061768</t>
+    <t xml:space="preserve">18.2550315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264671325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895851135254</t>
   </si>
   <si>
     <t xml:space="preserve">17.5765819549561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.616024017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503593444824</t>
+    <t xml:space="preserve">17.6160259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503612518311</t>
   </si>
   <si>
     <t xml:space="preserve">17.6239166259766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3556900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192443847656</t>
+    <t xml:space="preserve">17.35569190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.024356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819242477417</t>
   </si>
   <si>
     <t xml:space="preserve">16.8902435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2294673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399124145508</t>
+    <t xml:space="preserve">17.2294635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
   </si>
   <si>
     <t xml:space="preserve">17.481912612915</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">17.6554718017578</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.040132522583</t>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0401344299316</t>
   </si>
   <si>
     <t xml:space="preserve">17.0322437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1111335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9928016662598</t>
+    <t xml:space="preserve">17.1111354827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927997589111</t>
   </si>
   <si>
     <t xml:space="preserve">16.9533538818359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.489803314209</t>
+    <t xml:space="preserve">17.4898071289062</t>
   </si>
   <si>
     <t xml:space="preserve">17.4582481384277</t>
@@ -572,22 +572,22 @@
     <t xml:space="preserve">17.261022567749</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976940155029</t>
+    <t xml:space="preserve">17.3083610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188022613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976921081543</t>
   </si>
   <si>
     <t xml:space="preserve">17.2768001556396</t>
@@ -596,175 +596,175 @@
     <t xml:space="preserve">16.148681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1802406311035</t>
+    <t xml:space="preserve">16.1802368164062</t>
   </si>
   <si>
     <t xml:space="preserve">16.4563503265381</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960163116455</t>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960182189941</t>
   </si>
   <si>
     <t xml:space="preserve">15.5964546203613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5017890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045635223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.716682434082</t>
+    <t xml:space="preserve">15.5017900466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045644760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166862487793</t>
   </si>
   <si>
     <t xml:space="preserve">16.2906837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9217987060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693496704102</t>
+    <t xml:space="preserve">16.1092357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.377462387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9218006134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2689113616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693515777588</t>
   </si>
   <si>
     <t xml:space="preserve">16.4247951507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1723461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.913911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7009105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640209197998</t>
+    <t xml:space="preserve">16.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139080047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7009086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981342315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640171051025</t>
   </si>
   <si>
     <t xml:space="preserve">16.9770202636719</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0716857910156</t>
+    <t xml:space="preserve">17.0716876983643</t>
   </si>
   <si>
     <t xml:space="preserve">17.2373580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6712493896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051406860352</t>
+    <t xml:space="preserve">17.6712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051445007324</t>
   </si>
   <si>
     <t xml:space="preserve">18.3418102264404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4601459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392539978027</t>
+    <t xml:space="preserve">18.4601421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392578125</t>
   </si>
   <si>
     <t xml:space="preserve">18.0656967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1840324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526935577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974739074707</t>
+    <t xml:space="preserve">18.1840305328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
   </si>
   <si>
     <t xml:space="preserve">17.8684711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3339214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390319824219</t>
+    <t xml:space="preserve">18.3339195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390338897705</t>
   </si>
   <si>
     <t xml:space="preserve">18.4285888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6968154907227</t>
+    <t xml:space="preserve">18.696813583374</t>
   </si>
   <si>
     <t xml:space="preserve">19.3200397491455</t>
   </si>
   <si>
-    <t xml:space="preserve">19.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.706600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.485710144043</t>
+    <t xml:space="preserve">19.5882625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857082366943</t>
   </si>
   <si>
     <t xml:space="preserve">19.5567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2963733673096</t>
+    <t xml:space="preserve">19.2963752746582</t>
   </si>
   <si>
     <t xml:space="preserve">19.6592636108398</t>
   </si>
   <si>
-    <t xml:space="preserve">19.477819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703708648682</t>
+    <t xml:space="preserve">19.4778175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703727722168</t>
   </si>
   <si>
     <t xml:space="preserve">19.1385936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4699325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381572723389</t>
   </si>
   <si>
     <t xml:space="preserve">20.4402713775635</t>
@@ -773,52 +773,52 @@
     <t xml:space="preserve">20.2351589202881</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3692684173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193775177002</t>
+    <t xml:space="preserve">20.369270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193794250488</t>
   </si>
   <si>
     <t xml:space="preserve">21.2133865356445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8820533752441</t>
+    <t xml:space="preserve">20.8820495605469</t>
   </si>
   <si>
     <t xml:space="preserve">21.4816131591797</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3001689910889</t>
+    <t xml:space="preserve">21.3001670837402</t>
   </si>
   <si>
     <t xml:space="preserve">21.0477199554443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0003890991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187229156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9391708374023</t>
+    <t xml:space="preserve">21.0003871917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.505277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581649780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922801971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9391689300537</t>
   </si>
   <si>
     <t xml:space="preserve">21.6788368225098</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5762786865234</t>
+    <t xml:space="preserve">21.5762825012207</t>
   </si>
   <si>
     <t xml:space="preserve">21.4579448699951</t>
@@ -830,43 +830,43 @@
     <t xml:space="preserve">21.8445053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4619026184082</t>
+    <t xml:space="preserve">22.4619007110596</t>
   </si>
   <si>
     <t xml:space="preserve">22.3725433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2181930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295082092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060874938965</t>
+    <t xml:space="preserve">22.2181949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060894012451</t>
   </si>
   <si>
     <t xml:space="preserve">23.4316139221191</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8751411437988</t>
+    <t xml:space="preserve">23.8751449584961</t>
   </si>
   <si>
     <t xml:space="preserve">24.3186683654785</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2851963043213</t>
+    <t xml:space="preserve">24.2851943969727</t>
   </si>
   <si>
     <t xml:space="preserve">23.8584060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">24.017406463623</t>
+    <t xml:space="preserve">24.0174045562744</t>
   </si>
   <si>
     <t xml:space="preserve">24.452564239502</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">24.0090389251709</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650897979736</t>
+    <t xml:space="preserve">23.8835105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.465087890625</t>
   </si>
   <si>
     <t xml:space="preserve">24.2517223358154</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">22.7788772583008</t>
   </si>
   <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.908618927002</t>
+    <t xml:space="preserve">23.0048236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086170196533</t>
   </si>
   <si>
     <t xml:space="preserve">24.2266159057617</t>
@@ -908,19 +908,19 @@
     <t xml:space="preserve">24.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1596698760986</t>
+    <t xml:space="preserve">24.15966796875</t>
   </si>
   <si>
     <t xml:space="preserve">24.6701431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7873058319092</t>
+    <t xml:space="preserve">24.7873020172119</t>
   </si>
   <si>
     <t xml:space="preserve">24.6868782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8709869384766</t>
+    <t xml:space="preserve">24.8709850311279</t>
   </si>
   <si>
     <t xml:space="preserve">24.7789344787598</t>
@@ -935,31 +935,31 @@
     <t xml:space="preserve">24.4358310699463</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7203559875488</t>
+    <t xml:space="preserve">24.7203540802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.9923000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8081932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508823394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
+    <t xml:space="preserve">23.8081951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939819335938</t>
   </si>
   <si>
     <t xml:space="preserve">24.2600898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2684593200684</t>
+    <t xml:space="preserve">24.268461227417</t>
   </si>
   <si>
     <t xml:space="preserve">24.1847743988037</t>
@@ -971,22 +971,22 @@
     <t xml:space="preserve">22.8458251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035617828369</t>
+    <t xml:space="preserve">22.962984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.393928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035598754883</t>
   </si>
   <si>
     <t xml:space="preserve">22.6700878143311</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">22.8039836883545</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
+    <t xml:space="preserve">22.7956161499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901962280273</t>
   </si>
   <si>
     <t xml:space="preserve">23.7161426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.841667175293</t>
+    <t xml:space="preserve">23.3311920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416709899902</t>
   </si>
   <si>
     <t xml:space="preserve">23.6826686859131</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">23.6240882873535</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2475128173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6868267059326</t>
+    <t xml:space="preserve">23.2475090026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6868209838867</t>
   </si>
   <si>
     <t xml:space="preserve">22.1512451171875</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">21.8918228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8416118621826</t>
+    <t xml:space="preserve">21.841609954834</t>
   </si>
   <si>
     <t xml:space="preserve">21.9755077362061</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">21.950403213501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
+    <t xml:space="preserve">21.5236148834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060302734375</t>
   </si>
   <si>
     <t xml:space="preserve">21.3646125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7746658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.757926940918</t>
+    <t xml:space="preserve">21.7746677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579288482666</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989284515381</t>
@@ -1064,25 +1064,25 @@
     <t xml:space="preserve">21.4566669464111</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4817733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319786071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734001159668</t>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734020233154</t>
   </si>
   <si>
     <t xml:space="preserve">21.2223491668701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
+    <t xml:space="preserve">21.2139797210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1553993225098</t>
   </si>
   <si>
     <t xml:space="preserve">21.6324024200439</t>
@@ -1091,31 +1091,31 @@
     <t xml:space="preserve">21.5570869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3729782104492</t>
+    <t xml:space="preserve">21.3729820251465</t>
   </si>
   <si>
     <t xml:space="preserve">21.6240348815918</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1261386871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428775787354</t>
+    <t xml:space="preserve">22.1261405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2684020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428756713867</t>
   </si>
   <si>
     <t xml:space="preserve">21.7997703552246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4399280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148235321045</t>
+    <t xml:space="preserve">21.4399299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148197174072</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
@@ -1124,70 +1124,70 @@
     <t xml:space="preserve">21.6407718658447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
+    <t xml:space="preserve">22.2935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541927337646</t>
   </si>
   <si>
     <t xml:space="preserve">22.3771915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7370357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027160644531</t>
+    <t xml:space="preserve">22.7370376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027198791504</t>
   </si>
   <si>
     <t xml:space="preserve">23.2642459869385</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0885105133057</t>
+    <t xml:space="preserve">23.088508605957</t>
   </si>
   <si>
     <t xml:space="preserve">23.1805629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1554546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968761444092</t>
+    <t xml:space="preserve">23.1554584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968780517578</t>
   </si>
   <si>
     <t xml:space="preserve">23.6659317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550365447998</t>
+    <t xml:space="preserve">23.0382976531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550384521484</t>
   </si>
   <si>
     <t xml:space="preserve">23.1136169433594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571403503418</t>
+    <t xml:space="preserve">23.0466690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571422576904</t>
   </si>
   <si>
     <t xml:space="preserve">23.5069332122803</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">23.3730354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4818248748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052474975586</t>
+    <t xml:space="preserve">23.4818267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.10524559021</t>
   </si>
   <si>
     <t xml:space="preserve">22.7705059051514</t>
@@ -1208,10 +1208,10 @@
     <t xml:space="preserve">23.5153007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638240814209</t>
+    <t xml:space="preserve">23.2056655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638278961182</t>
   </si>
   <si>
     <t xml:space="preserve">20.0842418670654</t>
@@ -1220,28 +1220,28 @@
     <t xml:space="preserve">20.7871894836426</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7118721008301</t>
+    <t xml:space="preserve">20.7118759155273</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361385345459</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4608211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.32692527771</t>
+    <t xml:space="preserve">20.4608192443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269271850586</t>
   </si>
   <si>
     <t xml:space="preserve">20.2599773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5863475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
+    <t xml:space="preserve">20.5863456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193996429443</t>
   </si>
   <si>
     <t xml:space="preserve">20.6532936096191</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">20.2516136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.603084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004768371582</t>
+    <t xml:space="preserve">20.6030864715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.50266456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
   </si>
   <si>
     <t xml:space="preserve">21.0968227386475</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">21.2809276580811</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3562469482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219272613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955589294434</t>
+    <t xml:space="preserve">21.3562450408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219253540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.795560836792</t>
   </si>
   <si>
     <t xml:space="preserve">20.921085357666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7788219451904</t>
+    <t xml:space="preserve">20.7788200378418</t>
   </si>
   <si>
     <t xml:space="preserve">21.8332443237305</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006160736084</t>
+    <t xml:space="preserve">22.0006122589111</t>
   </si>
   <si>
     <t xml:space="preserve">21.7077178955078</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">21.2725601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">21.573823928833</t>
+    <t xml:space="preserve">21.5738220214844</t>
   </si>
   <si>
     <t xml:space="preserve">21.3143997192383</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">21.1135578155518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3395080566406</t>
+    <t xml:space="preserve">21.339506149292</t>
   </si>
   <si>
     <t xml:space="preserve">21.4231910705566</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">21.9085578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5780334472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930885314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604564666748</t>
+    <t xml:space="preserve">22.5780353546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604545593262</t>
   </si>
   <si>
     <t xml:space="preserve">21.8583526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9922466278076</t>
+    <t xml:space="preserve">22.2600326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992244720459</t>
   </si>
   <si>
     <t xml:space="preserve">22.628246307373</t>
@@ -1355,79 +1355,79 @@
     <t xml:space="preserve">22.1596126556396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.368766784668</t>
+    <t xml:space="preserve">20.3687705993652</t>
   </si>
   <si>
     <t xml:space="preserve">20.1511898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3352947235107</t>
+    <t xml:space="preserve">20.3352966308594</t>
   </si>
   <si>
     <t xml:space="preserve">20.3520317077637</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9043483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696086883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528755187988</t>
+    <t xml:space="preserve">20.9043464660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528736114502</t>
   </si>
   <si>
     <t xml:space="preserve">20.2348728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3185558319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838180541992</t>
+    <t xml:space="preserve">20.3185577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838218688965</t>
   </si>
   <si>
     <t xml:space="preserve">19.6323432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3980312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787685394287</t>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787666320801</t>
   </si>
   <si>
     <t xml:space="preserve">19.3812923431396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.854133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
+    <t xml:space="preserve">19.5151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880294799805</t>
   </si>
   <si>
     <t xml:space="preserve">21.6072978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0549774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.686767578125</t>
+    <t xml:space="preserve">21.0549793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6867694854736</t>
   </si>
   <si>
     <t xml:space="preserve">20.6700344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2683486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
+    <t xml:space="preserve">20.268346786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9503479003906</t>
   </si>
   <si>
     <t xml:space="preserve">20.184663772583</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">20.3855056762695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7704544067383</t>
+    <t xml:space="preserve">20.7704524993896</t>
   </si>
   <si>
     <t xml:space="preserve">20.4189796447754</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">19.8331909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490821838379</t>
+    <t xml:space="preserve">19.8164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490840911865</t>
   </si>
   <si>
     <t xml:space="preserve">19.9001369476318</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">21.3897171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">21.021505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7884616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444278717041</t>
+    <t xml:space="preserve">21.0215072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444297790527</t>
   </si>
   <si>
     <t xml:space="preserve">21.4572772979736</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">21.7187347412109</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4159679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.03249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756141662598</t>
+    <t xml:space="preserve">22.4159698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0324897766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893653869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847854614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756160736084</t>
   </si>
   <si>
     <t xml:space="preserve">21.666446685791</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">21.5270004272461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4049854278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.126091003418</t>
+    <t xml:space="preserve">21.4049835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1260929107666</t>
   </si>
   <si>
     <t xml:space="preserve">20.9866466522217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3417072296143</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1086616516113</t>
+    <t xml:space="preserve">21.1086597442627</t>
   </si>
   <si>
     <t xml:space="preserve">21.7710285186768</t>
@@ -1538,46 +1538,46 @@
     <t xml:space="preserve">21.6838760375977</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8930473327637</t>
+    <t xml:space="preserve">21.893045425415</t>
   </si>
   <si>
     <t xml:space="preserve">21.7013053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4747085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031665802002</t>
+    <t xml:space="preserve">21.4747047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.579288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031684875488</t>
   </si>
   <si>
     <t xml:space="preserve">20.7251834869385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0040740966797</t>
+    <t xml:space="preserve">21.0040760040283</t>
   </si>
   <si>
     <t xml:space="preserve">21.1609516143799</t>
   </si>
   <si>
-    <t xml:space="preserve">20.88205909729</t>
+    <t xml:space="preserve">20.8820610046387</t>
   </si>
   <si>
     <t xml:space="preserve">20.7949085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9692134857178</t>
+    <t xml:space="preserve">20.9692153930664</t>
   </si>
   <si>
     <t xml:space="preserve">21.1435222625732</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">21.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9169235229492</t>
+    <t xml:space="preserve">20.9169216156006</t>
   </si>
   <si>
     <t xml:space="preserve">21.3003978729248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728897094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334453582764</t>
+    <t xml:space="preserve">20.9343547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334434509277</t>
   </si>
   <si>
     <t xml:space="preserve">21.927906036377</t>
@@ -1610,40 +1610,40 @@
     <t xml:space="preserve">23.2700748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0893211364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755699157715</t>
+    <t xml:space="preserve">24.0893230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.193904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636280059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113361358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452930450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755680084229</t>
   </si>
   <si>
     <t xml:space="preserve">23.8104305267334</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5141048431396</t>
+    <t xml:space="preserve">23.5141067504883</t>
   </si>
   <si>
     <t xml:space="preserve">23.5838279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9150142669678</t>
+    <t xml:space="preserve">23.9150161743164</t>
   </si>
   <si>
     <t xml:space="preserve">24.1067523956299</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">24.6296768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5076580047607</t>
+    <t xml:space="preserve">24.507661819458</t>
   </si>
   <si>
     <t xml:space="preserve">24.3856449127197</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">24.0718936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8801517486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
+    <t xml:space="preserve">23.8801536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489673614502</t>
   </si>
   <si>
     <t xml:space="preserve">23.2875061035156</t>
@@ -1688,31 +1688,31 @@
     <t xml:space="preserve">23.7929992675781</t>
   </si>
   <si>
-    <t xml:space="preserve">23.496675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
+    <t xml:space="preserve">23.4966735839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241855621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984886169434</t>
   </si>
   <si>
     <t xml:space="preserve">24.4379367828369</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9847354888916</t>
+    <t xml:space="preserve">23.9847373962402</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.932445526123</t>
+    <t xml:space="preserve">23.9324436187744</t>
   </si>
   <si>
     <t xml:space="preserve">22.694860458374</t>
@@ -1721,37 +1721,37 @@
     <t xml:space="preserve">22.3811073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9453392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967216491699</t>
+    <t xml:space="preserve">21.9453372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967235565186</t>
   </si>
   <si>
     <t xml:space="preserve">21.8058929443359</t>
   </si>
   <si>
-    <t xml:space="preserve">22.590274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370735168457</t>
+    <t xml:space="preserve">22.5902767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370754241943</t>
   </si>
   <si>
     <t xml:space="preserve">22.3462467193604</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8233242034912</t>
+    <t xml:space="preserve">21.8233222961426</t>
   </si>
   <si>
     <t xml:space="preserve">22.2765216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4333972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077522277832</t>
+    <t xml:space="preserve">22.4333992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077541351318</t>
   </si>
   <si>
     <t xml:space="preserve">20.3765678405762</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">19.8710746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2719860076904</t>
+    <t xml:space="preserve">20.2719841003418</t>
   </si>
   <si>
     <t xml:space="preserve">20.2196922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0802478790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
+    <t xml:space="preserve">20.0802440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2022590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096134185791</t>
   </si>
   <si>
     <t xml:space="preserve">19.4004459381104</t>
@@ -1790,37 +1790,37 @@
     <t xml:space="preserve">19.4876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4701671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050296783447</t>
+    <t xml:space="preserve">19.4701690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">19.6967697143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
+    <t xml:space="preserve">20.0453815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
   </si>
   <si>
     <t xml:space="preserve">20.4985828399658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7426128387451</t>
+    <t xml:space="preserve">20.7426147460938</t>
   </si>
   <si>
     <t xml:space="preserve">20.9517841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6903228759766</t>
+    <t xml:space="preserve">20.6903209686279</t>
   </si>
   <si>
     <t xml:space="preserve">20.428861618042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9059352874756</t>
+    <t xml:space="preserve">19.9059371948242</t>
   </si>
   <si>
     <t xml:space="preserve">20.6205978393555</t>
@@ -1829,28 +1829,28 @@
     <t xml:space="preserve">20.4811515808105</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673984527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132877349854</t>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1673965454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132915496826</t>
   </si>
   <si>
     <t xml:space="preserve">18.3023071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7729377746582</t>
+    <t xml:space="preserve">18.7729396820068</t>
   </si>
   <si>
     <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2609996795654</t>
+    <t xml:space="preserve">19.2610015869141</t>
   </si>
   <si>
     <t xml:space="preserve">19.0169677734375</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">20.8994922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1783828735352</t>
+    <t xml:space="preserve">21.1783847808838</t>
   </si>
   <si>
     <t xml:space="preserve">20.8472003936768</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">21.1958141326904</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0692596435547</t>
+    <t xml:space="preserve">19.0692615509033</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9995365142822</t>
+    <t xml:space="preserve">18.9995346069336</t>
   </si>
   <si>
     <t xml:space="preserve">19.2087078094482</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">19.1389846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3307228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573253631592</t>
+    <t xml:space="preserve">19.3307209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573234558105</t>
   </si>
   <si>
     <t xml:space="preserve">19.4353065490723</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9756622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371234893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976753234863</t>
+    <t xml:space="preserve">19.9756603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.097677230835</t>
   </si>
   <si>
     <t xml:space="preserve">19.7839221954346</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">19.5921840667725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7490615844727</t>
+    <t xml:space="preserve">19.749059677124</t>
   </si>
   <si>
     <t xml:space="preserve">20.8646297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031242370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499229431152</t>
+    <t xml:space="preserve">21.0912322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0499210357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.0279521942139</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">18.8077983856201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068927764893</t>
+    <t xml:space="preserve">18.4068908691406</t>
   </si>
   <si>
     <t xml:space="preserve">18.180290222168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3371677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.256462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642711639404</t>
+    <t xml:space="preserve">18.3371658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642673492432</t>
   </si>
   <si>
     <t xml:space="preserve">16.6812438964844</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">16.4525680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637012481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614757537842</t>
+    <t xml:space="preserve">15.9636993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
     <t xml:space="preserve">16.0970306396484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2036914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8126001358032</t>
+    <t xml:space="preserve">16.2036895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125972747803</t>
   </si>
   <si>
     <t xml:space="preserve">15.99036693573</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">15.6970481872559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8214855194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081443786621</t>
+    <t xml:space="preserve">15.8214845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081462860107</t>
   </si>
   <si>
     <t xml:space="preserve">16.2214679718018</t>
@@ -2030,22 +2030,22 @@
     <t xml:space="preserve">16.2481346130371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0703639984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059354782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6259393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688157081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348091125488</t>
+    <t xml:space="preserve">16.0703620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059373855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281667709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
     <t xml:space="preserve">16.0881404876709</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">15.7326011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7592668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081609725952</t>
+    <t xml:space="preserve">15.7592678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814805984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081619262695</t>
   </si>
   <si>
     <t xml:space="preserve">15.3770618438721</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">15.2348470687866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2792892456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1370735168457</t>
+    <t xml:space="preserve">15.2792901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370754241943</t>
   </si>
   <si>
     <t xml:space="preserve">15.3415079116821</t>
@@ -2090,31 +2090,31 @@
     <t xml:space="preserve">15.2615118026733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9593048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
+    <t xml:space="preserve">15.1637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659666061401</t>
   </si>
   <si>
     <t xml:space="preserve">15.0570764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3859519958496</t>
+    <t xml:space="preserve">15.385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837430953979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1015195846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770803451538</t>
+    <t xml:space="preserve">15.1015205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770822525024</t>
   </si>
   <si>
     <t xml:space="preserve">15.9014806747437</t>
@@ -2123,52 +2123,52 @@
     <t xml:space="preserve">16.1592483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6703824996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437158584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148431777954</t>
+    <t xml:space="preserve">15.6703815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148441314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.1548500061035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5770988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.679271697998</t>
+    <t xml:space="preserve">14.5771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792707443237</t>
   </si>
   <si>
     <t xml:space="preserve">15.7859344482422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4659452438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.599271774292</t>
+    <t xml:space="preserve">15.4659461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992746353149</t>
   </si>
   <si>
     <t xml:space="preserve">15.8925933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4881210327148</t>
+    <t xml:space="preserve">16.4881229400635</t>
   </si>
   <si>
     <t xml:space="preserve">17.1903114318848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347545623779</t>
+    <t xml:space="preserve">17.776948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102958679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347526550293</t>
   </si>
   <si>
     <t xml:space="preserve">17.741397857666</t>
@@ -2183,25 +2183,25 @@
     <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036739349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814990997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459627151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.288179397583</t>
+    <t xml:space="preserve">16.6125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2881784439087</t>
   </si>
   <si>
     <t xml:space="preserve">14.8615312576294</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">15.2437353134155</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0748538970947</t>
+    <t xml:space="preserve">15.0748529434204</t>
   </si>
   <si>
     <t xml:space="preserve">15.1815147399902</t>
@@ -2222,31 +2222,31 @@
     <t xml:space="preserve">15.1992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4126138687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748344421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837236404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437547683716</t>
+    <t xml:space="preserve">15.3681745529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.474835395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.297064781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.7459812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570579528809</t>
+    <t xml:space="preserve">14.6659851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570589065552</t>
   </si>
   <si>
     <t xml:space="preserve">15.2526235580444</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">15.6614942550659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7770433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570404052734</t>
+    <t xml:space="preserve">15.777045249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570394515991</t>
   </si>
   <si>
     <t xml:space="preserve">16.2125797271729</t>
@@ -2270,31 +2270,31 @@
     <t xml:space="preserve">16.7192211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1992015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014446258545</t>
+    <t xml:space="preserve">17.1547565460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014465332031</t>
   </si>
   <si>
     <t xml:space="preserve">16.8436603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8969917297363</t>
+    <t xml:space="preserve">16.896993637085</t>
   </si>
   <si>
     <t xml:space="preserve">16.7281093597412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7636661529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858779907227</t>
+    <t xml:space="preserve">16.7636642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770072937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.985876083374</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592094421387</t>
@@ -2303,46 +2303,46 @@
     <t xml:space="preserve">16.8169956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881015777588</t>
+    <t xml:space="preserve">16.80810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881034851074</t>
   </si>
   <si>
     <t xml:space="preserve">16.9236583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8614349365234</t>
+    <t xml:space="preserve">16.8614368438721</t>
   </si>
   <si>
     <t xml:space="preserve">16.7547760009766</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9769878387451</t>
+    <t xml:space="preserve">16.9769897460938</t>
   </si>
   <si>
     <t xml:space="preserve">16.7992172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.381462097168</t>
+    <t xml:space="preserve">16.3814582824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.3459072113037</t>
   </si>
   <si>
-    <t xml:space="preserve">16.65700340271</t>
+    <t xml:space="preserve">16.6570014953613</t>
   </si>
   <si>
     <t xml:space="preserve">16.417013168335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9992542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503776550293</t>
+    <t xml:space="preserve">15.9992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503757476807</t>
   </si>
   <si>
     <t xml:space="preserve">15.1904048919678</t>
@@ -2366,13 +2366,13 @@
     <t xml:space="preserve">15.1281843185425</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7148265838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1059169769287</t>
+    <t xml:space="preserve">15.714825630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325817108154</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">16.2836856842041</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281482696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9548139572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015575408936</t>
+    <t xml:space="preserve">15.9281492233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.95481300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015565872192</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">14.1326742172241</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7415828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.866021156311</t>
+    <t xml:space="preserve">13.7415819168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8660230636597</t>
   </si>
   <si>
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5904788970947</t>
+    <t xml:space="preserve">13.5904779434204</t>
   </si>
   <si>
     <t xml:space="preserve">13.3060474395752</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1594333648682</t>
+    <t xml:space="preserve">12.1594343185425</t>
   </si>
   <si>
     <t xml:space="preserve">11.6705675125122</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">11.2972526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1595268249512</t>
+    <t xml:space="preserve">10.1595277786255</t>
   </si>
   <si>
     <t xml:space="preserve">11.1105937957764</t>
@@ -2435,133 +2435,133 @@
     <t xml:space="preserve">12.1416568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3283157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1683225631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5505275726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9015760421753</t>
+    <t xml:space="preserve">12.328314781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1683216094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5505266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.901575088501</t>
   </si>
   <si>
     <t xml:space="preserve">14.3104457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881959915161</t>
+    <t xml:space="preserve">14.8881969451904</t>
   </si>
   <si>
     <t xml:space="preserve">13.6349210739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0793447494507</t>
+    <t xml:space="preserve">14.079345703125</t>
   </si>
   <si>
     <t xml:space="preserve">14.0260133743286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5460367202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6438102722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793642044067</t>
+    <t xml:space="preserve">13.5460357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6438112258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793651580811</t>
   </si>
   <si>
     <t xml:space="preserve">13.0305051803589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5815896987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.928240776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9993476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1948957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3682670593262</t>
+    <t xml:space="preserve">13.5815906524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9282417297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9993495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1948947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3682680130005</t>
   </si>
   <si>
     <t xml:space="preserve">13.2438287734985</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4571523666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6260328292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9726839065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8837976455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3993310928345</t>
+    <t xml:space="preserve">13.4571514129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6260318756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.777135848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9726829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8837985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3993301391602</t>
   </si>
   <si>
     <t xml:space="preserve">14.4882144927979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.532657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6570949554443</t>
+    <t xml:space="preserve">14.5326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.657096862793</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793262481689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1104068756104</t>
+    <t xml:space="preserve">15.1104078292847</t>
   </si>
   <si>
     <t xml:space="preserve">15.3326196670532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8081998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1192951202393</t>
+    <t xml:space="preserve">14.8082008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1192970275879</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7681560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0792541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6214504241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4259033203125</t>
+    <t xml:space="preserve">15.7681570053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6214485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4259014129639</t>
   </si>
   <si>
     <t xml:space="preserve">17.3325271606445</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414348602295</t>
+    <t xml:space="preserve">17.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414329528809</t>
   </si>
   <si>
     <t xml:space="preserve">17.2525329589844</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">17.5014095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.114709854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2168865203857</t>
+    <t xml:space="preserve">18.1147136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
     <t xml:space="preserve">20.0879554748535</t>
@@ -2588,28 +2588,28 @@
     <t xml:space="preserve">19.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4434947967529</t>
+    <t xml:space="preserve">20.4434928894043</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790496826172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9234714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7279224395752</t>
+    <t xml:space="preserve">20.923469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7279243469238</t>
   </si>
   <si>
     <t xml:space="preserve">20.621265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0123538970947</t>
+    <t xml:space="preserve">21.0123558044434</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3190536499023</t>
+    <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
@@ -2633,16 +2633,16 @@
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9545345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8300971984863</t>
+    <t xml:space="preserve">21.9545364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8300933837891</t>
   </si>
   <si>
     <t xml:space="preserve">21.9900875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0611953735352</t>
+    <t xml:space="preserve">22.0611934661865</t>
   </si>
   <si>
     <t xml:space="preserve">22.2034111022949</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">22.1678581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1323013305664</t>
+    <t xml:space="preserve">22.132303237915</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723110198975</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8656482696533</t>
+    <t xml:space="preserve">21.865650177002</t>
   </si>
   <si>
     <t xml:space="preserve">21.6523265838623</t>
@@ -2675,22 +2675,22 @@
     <t xml:space="preserve">23.110034942627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6077919006348</t>
+    <t xml:space="preserve">23.6077899932861</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988822937012</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8344039916992</t>
+    <t xml:space="preserve">24.9410629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299453735352</t>
+    <t xml:space="preserve">25.0299472808838</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">24.8877296447754</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8166236877441</t>
+    <t xml:space="preserve">24.8166217803955</t>
   </si>
   <si>
     <t xml:space="preserve">24.5321922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6744079589844</t>
+    <t xml:space="preserve">24.6033020019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6921863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4433078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7632923126221</t>
+    <t xml:space="preserve">24.6921882629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7632942199707</t>
   </si>
   <si>
     <t xml:space="preserve">24.7099609375</t>
@@ -2735,31 +2735,31 @@
     <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1410980224609</t>
+    <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
     <t xml:space="preserve">25.0121688842773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9232864379883</t>
+    <t xml:space="preserve">24.9232883453369</t>
   </si>
   <si>
     <t xml:space="preserve">25.5454788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2921085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5810317993164</t>
+    <t xml:space="preserve">26.2921104431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.581033706665</t>
   </si>
   <si>
     <t xml:space="preserve">26.1854476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1809577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.558765411377</t>
+    <t xml:space="preserve">27.1809558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5587635040283</t>
   </si>
   <si>
     <t xml:space="preserve">26.6476497650146</t>
@@ -2774,13 +2774,13 @@
     <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1498928070068</t>
+    <t xml:space="preserve">26.1498947143555</t>
   </si>
   <si>
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543514251709</t>
+    <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
     <t xml:space="preserve">26.2743320465088</t>
@@ -2792,16 +2792,16 @@
     <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5232124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4521045684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565185546875</t>
+    <t xml:space="preserve">26.3098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5232105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4521026611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565204620361</t>
   </si>
   <si>
     <t xml:space="preserve">28.0342502593994</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">27.1454048156738</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0387401580811</t>
+    <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
     <t xml:space="preserve">27.1276264190674</t>
@@ -2825,58 +2825,58 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255294799805</t>
+    <t xml:space="preserve">24.4255275726318</t>
   </si>
   <si>
     <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4077548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4610843658447</t>
+    <t xml:space="preserve">24.4077529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1676712036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6654281616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7365341186523</t>
+    <t xml:space="preserve">26.1676750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6654262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.736536026001</t>
   </si>
   <si>
     <t xml:space="preserve">25.4032649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721611022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209655761719</t>
+    <t xml:space="preserve">25.1721630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988101959229</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8521747589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1543827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499725341797</t>
+    <t xml:space="preserve">24.8521766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677452087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499706268311</t>
   </si>
   <si>
     <t xml:space="preserve">24.0877685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3143749237061</t>
+    <t xml:space="preserve">25.3143768310547</t>
   </si>
   <si>
     <t xml:space="preserve">26.0076770782471</t>
@@ -2885,22 +2885,22 @@
     <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1010551452637</t>
+    <t xml:space="preserve">25.101053237915</t>
   </si>
   <si>
     <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3366451263428</t>
+    <t xml:space="preserve">24.3366432189941</t>
   </si>
   <si>
     <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6611232757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1588745117188</t>
+    <t xml:space="preserve">23.6611213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
     <t xml:space="preserve">24.2833137512207</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">24.3779811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6705856323242</t>
+    <t xml:space="preserve">23.6705837249756</t>
   </si>
   <si>
     <t xml:space="preserve">23.5617542266846</t>
@@ -2921,16 +2921,16 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3803730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7612800598145</t>
+    <t xml:space="preserve">23.38037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
     <t xml:space="preserve">24.2872924804688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7794132232666</t>
+    <t xml:space="preserve">23.7794151306152</t>
   </si>
   <si>
     <t xml:space="preserve">23.8519687652588</t>
@@ -2969,10 +2969,10 @@
     <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8629398345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5340614318848</t>
+    <t xml:space="preserve">26.8629417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5340595245361</t>
   </si>
   <si>
     <t xml:space="preserve">28.1870422363281</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">28.2777347564697</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1689014434814</t>
+    <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
     <t xml:space="preserve">29.347900390625</t>
@@ -2999,10 +2999,10 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.853385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249835968018</t>
+    <t xml:space="preserve">30.8533840179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249855041504</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.586088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7698593139648</t>
+    <t xml:space="preserve">27.7335815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5860862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
@@ -3041,13 +3041,13 @@
     <t xml:space="preserve">27.6610298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3684272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4772548675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8944396972656</t>
+    <t xml:space="preserve">28.3684253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4772529602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.894437789917</t>
   </si>
   <si>
     <t xml:space="preserve">31.397533416748</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">30.5631713867188</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1774864196777</t>
+    <t xml:space="preserve">32.177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">32.0505180358887</t>
@@ -3077,31 +3077,31 @@
     <t xml:space="preserve">31.5245037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6696071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421646118164</t>
+    <t xml:space="preserve">31.6696090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
     <t xml:space="preserve">31.3431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342891693115</t>
+    <t xml:space="preserve">31.5970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342910766602</t>
   </si>
   <si>
     <t xml:space="preserve">31.9235515594482</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3225936889648</t>
+    <t xml:space="preserve">32.3225898742676</t>
   </si>
   <si>
     <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1932334899902</t>
+    <t xml:space="preserve">33.1932373046875</t>
   </si>
   <si>
     <t xml:space="preserve">32.9211578369141</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">33.9369049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2657890319824</t>
+    <t xml:space="preserve">33.2657852172852</t>
   </si>
   <si>
     <t xml:space="preserve">32.8667449951172</t>
@@ -3170,16 +3170,16 @@
     <t xml:space="preserve">33.1569595336914</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1750946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9755744934082</t>
+    <t xml:space="preserve">33.1750984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9755706787109</t>
   </si>
   <si>
     <t xml:space="preserve">32.8304672241211</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7397689819336</t>
+    <t xml:space="preserve">32.7397727966309</t>
   </si>
   <si>
     <t xml:space="preserve">33.532413482666</t>
@@ -5097,6 +5097,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6599998474121</t>
   </si>
 </sst>
 </file>
@@ -61572,7 +61575,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.649537037</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>242712</v>
@@ -61593,6 +61596,32 @@
         <v>1694</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.649525463</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>114052</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>30.0400009155273</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>29.3999996185303</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>29.6399993896484</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>29.6599998474121</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1703">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947147369385</t>
+    <t xml:space="preserve">20.9947128295898</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">20.8097381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9099349975586</t>
+    <t xml:space="preserve">20.9099311828613</t>
   </si>
   <si>
     <t xml:space="preserve">20.424373626709</t>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">20.2239837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0158824920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7307167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.131498336792</t>
+    <t xml:space="preserve">20.0158843994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.730712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1314964294434</t>
   </si>
   <si>
     <t xml:space="preserve">18.744176864624</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">17.6497402191162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7422294616699</t>
+    <t xml:space="preserve">17.7422275543213</t>
   </si>
   <si>
     <t xml:space="preserve">17.2643756866455</t>
@@ -89,37 +89,37 @@
     <t xml:space="preserve">16.8404731750488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6477890014648</t>
+    <t xml:space="preserve">16.6477909088135</t>
   </si>
   <si>
     <t xml:space="preserve">16.9175472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0100345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8790111541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3317909240723</t>
+    <t xml:space="preserve">17.0100364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8790073394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3317890167236</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846230506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598894119263</t>
+    <t xml:space="preserve">15.8462295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598903656006</t>
   </si>
   <si>
     <t xml:space="preserve">15.5225219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5899362564087</t>
+    <t xml:space="preserve">14.5899410247803</t>
   </si>
   <si>
     <t xml:space="preserve">14.9213523864746</t>
@@ -128,70 +128,70 @@
     <t xml:space="preserve">15.6458387374878</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4454498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464235305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764741897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082801818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1545219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7768621444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3240833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3934497833252</t>
+    <t xml:space="preserve">15.4454507827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995988845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464254379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5764713287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545257568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7768602371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3240814208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3934516906738</t>
   </si>
   <si>
     <t xml:space="preserve">16.7633991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069137573242</t>
+    <t xml:space="preserve">16.9560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069128036499</t>
   </si>
   <si>
     <t xml:space="preserve">15.5687675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2855453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.907886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999820709229</t>
+    <t xml:space="preserve">16.2855472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.092866897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071115493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999858856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853504180908</t>
+    <t xml:space="preserve">16.1853523254395</t>
   </si>
   <si>
     <t xml:space="preserve">16.0851573944092</t>
@@ -200,22 +200,22 @@
     <t xml:space="preserve">15.8076934814453</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5456447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32213306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5379362106323</t>
+    <t xml:space="preserve">15.5456438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146223068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.537938117981</t>
   </si>
   <si>
     <t xml:space="preserve">15.2296447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4223279953003</t>
+    <t xml:space="preserve">15.4223289489746</t>
   </si>
   <si>
     <t xml:space="preserve">15.245059967041</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">15.0061330795288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9653367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625623703003</t>
+    <t xml:space="preserve">14.9653396606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625633239746</t>
   </si>
   <si>
     <t xml:space="preserve">15.3440084457397</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">15.3361196517944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.146785736084</t>
+    <t xml:space="preserve">15.1467876434326</t>
   </si>
   <si>
     <t xml:space="preserve">15.1704511642456</t>
@@ -263,34 +263,34 @@
     <t xml:space="preserve">15.8646812438965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4169082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514598846436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275714874268</t>
+    <t xml:space="preserve">16.4169044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514560699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275695800781</t>
   </si>
   <si>
     <t xml:space="preserve">16.4405746459961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3459033966064</t>
+    <t xml:space="preserve">16.3459053039551</t>
   </si>
   <si>
     <t xml:space="preserve">16.5510196685791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.708797454834</t>
+    <t xml:space="preserve">16.7088012695312</t>
   </si>
   <si>
     <t xml:space="preserve">16.5115737915039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
+    <t xml:space="preserve">17.9473609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006866455078</t>
   </si>
   <si>
     <t xml:space="preserve">17.2846908569336</t>
@@ -299,28 +299,28 @@
     <t xml:space="preserve">16.9691314697266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9612426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559139251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134716033936</t>
+    <t xml:space="preserve">16.9612445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559101104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134696960449</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868049621582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1288108825684</t>
+    <t xml:space="preserve">18.1288089752197</t>
   </si>
   <si>
     <t xml:space="preserve">18.1682548522949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2865886688232</t>
+    <t xml:space="preserve">18.2865867614746</t>
   </si>
   <si>
     <t xml:space="preserve">18.712589263916</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">18.5627021789551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4995880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023662567139</t>
+    <t xml:space="preserve">18.4995861053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023624420166</t>
   </si>
   <si>
     <t xml:space="preserve">18.8782596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.057804107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661331176758</t>
+    <t xml:space="preserve">19.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466136932373</t>
   </si>
   <si>
     <t xml:space="preserve">17.2925796508789</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">17.710693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1445865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025844573975</t>
+    <t xml:space="preserve">18.1445846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.042028427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025825500488</t>
   </si>
   <si>
     <t xml:space="preserve">18.1524753570557</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">16.8823547363281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7147912979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667953491211</t>
+    <t xml:space="preserve">15.714789390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667972564697</t>
   </si>
   <si>
     <t xml:space="preserve">16.8665752410889</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">16.0934600830078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9751214981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384576797485</t>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384557723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.9830141067505</t>
@@ -410,61 +410,61 @@
     <t xml:space="preserve">16.574686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3853492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245769500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480194091797</t>
+    <t xml:space="preserve">16.3853511810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245750427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324619293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.048023223877</t>
   </si>
   <si>
     <t xml:space="preserve">17.1269111633301</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0795803070068</t>
+    <t xml:space="preserve">17.0795783996582</t>
   </si>
   <si>
     <t xml:space="preserve">17.0085754394531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8290271759033</t>
+    <t xml:space="preserve">17.829029083252</t>
   </si>
   <si>
     <t xml:space="preserve">17.4345798492432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8132476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318054199219</t>
+    <t xml:space="preserve">17.8132514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318035125732</t>
   </si>
   <si>
     <t xml:space="preserve">17.8763618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786998748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678146362305</t>
+    <t xml:space="preserve">17.5292491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371341705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678108215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.9334812164307</t>
@@ -479,82 +479,82 @@
     <t xml:space="preserve">18.3181419372559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3733654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.120922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842487335205</t>
+    <t xml:space="preserve">18.3733673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812522888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842525482178</t>
   </si>
   <si>
     <t xml:space="preserve">18.1919193267822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2550277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
+    <t xml:space="preserve">18.255033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264747619629</t>
   </si>
   <si>
     <t xml:space="preserve">17.7895832061768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5765800476074</t>
+    <t xml:space="preserve">17.5765819549561</t>
   </si>
   <si>
     <t xml:space="preserve">17.6160278320312</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239185333252</t>
+    <t xml:space="preserve">17.4503574371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239166259766</t>
   </si>
   <si>
     <t xml:space="preserve">17.35569190979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0243530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192443847656</t>
+    <t xml:space="preserve">17.024356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8192405700684</t>
   </si>
   <si>
     <t xml:space="preserve">16.8902435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.229471206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0401306152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111316680908</t>
+    <t xml:space="preserve">17.2294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4819145202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2058029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0401344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111354827881</t>
   </si>
   <si>
     <t xml:space="preserve">16.9928016662598</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">16.9533538818359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4898014068604</t>
+    <t xml:space="preserve">17.4898052215576</t>
   </si>
   <si>
     <t xml:space="preserve">17.4582462310791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.261022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083591461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663570404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424724578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188022613525</t>
+    <t xml:space="preserve">17.2610206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424705505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188003540039</t>
   </si>
   <si>
     <t xml:space="preserve">17.6475830078125</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">17.2768020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802368164062</t>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802387237549</t>
   </si>
   <si>
     <t xml:space="preserve">16.4563503265381</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">16.5352401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.59645652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045644760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
+    <t xml:space="preserve">16.1960163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964574813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017881393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166843414307</t>
   </si>
   <si>
     <t xml:space="preserve">16.2906837463379</t>
@@ -626,43 +626,43 @@
     <t xml:space="preserve">16.1092376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3774642944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.921802520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2689151763916</t>
+    <t xml:space="preserve">16.3774604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2689113616943</t>
   </si>
   <si>
     <t xml:space="preserve">16.6693515777588</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4247932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723442077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.913911819458</t>
+    <t xml:space="preserve">16.4247970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139099121094</t>
   </si>
   <si>
     <t xml:space="preserve">16.70090675354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8981323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770202636719</t>
+    <t xml:space="preserve">16.8981304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640209197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770240783691</t>
   </si>
   <si>
     <t xml:space="preserve">17.0716896057129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2373561859131</t>
+    <t xml:space="preserve">17.2373580932617</t>
   </si>
   <si>
     <t xml:space="preserve">17.6712493896484</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">17.6633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1051425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392539978027</t>
+    <t xml:space="preserve">18.1051406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392520904541</t>
   </si>
   <si>
     <t xml:space="preserve">18.0656967163086</t>
@@ -689,124 +689,124 @@
     <t xml:space="preserve">18.1840305328369</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0893630981445</t>
+    <t xml:space="preserve">18.0893650054932</t>
   </si>
   <si>
     <t xml:space="preserve">17.8526935577393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684749603271</t>
+    <t xml:space="preserve">18.01047706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974700927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684730529785</t>
   </si>
   <si>
     <t xml:space="preserve">18.3339214324951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1998081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285869598389</t>
+    <t xml:space="preserve">18.1998043060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390357971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285907745361</t>
   </si>
   <si>
     <t xml:space="preserve">18.6968116760254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3200416564941</t>
+    <t xml:space="preserve">19.3200397491455</t>
   </si>
   <si>
     <t xml:space="preserve">19.588264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5330429077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857082366943</t>
+    <t xml:space="preserve">19.5330410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857063293457</t>
   </si>
   <si>
     <t xml:space="preserve">19.5567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2963733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279304504395</t>
+    <t xml:space="preserve">19.2963695526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592674255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.477819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
   </si>
   <si>
     <t xml:space="preserve">19.6908187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0912590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
+    <t xml:space="preserve">19.0912609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385917663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381572723389</t>
   </si>
   <si>
     <t xml:space="preserve">20.4402732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2351570129395</t>
+    <t xml:space="preserve">20.2351589202881</t>
   </si>
   <si>
     <t xml:space="preserve">20.369270324707</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820514678955</t>
+    <t xml:space="preserve">20.2193775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133846282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820476531982</t>
   </si>
   <si>
     <t xml:space="preserve">21.4816112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3001670837402</t>
+    <t xml:space="preserve">21.3001651763916</t>
   </si>
   <si>
     <t xml:space="preserve">21.0477199554443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581649780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922782897949</t>
+    <t xml:space="preserve">21.0003852844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.118724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052814483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922744750977</t>
   </si>
   <si>
     <t xml:space="preserve">21.2370567321777</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">21.9391708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6788330078125</t>
+    <t xml:space="preserve">21.6788368225098</t>
   </si>
   <si>
     <t xml:space="preserve">21.5762805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4579429626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.84450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181949615479</t>
+    <t xml:space="preserve">21.4579467773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8445053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619007110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181930541992</t>
   </si>
   <si>
     <t xml:space="preserve">22.9713535308838</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">22.7621402740479</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3060894012451</t>
+    <t xml:space="preserve">23.3060874938965</t>
   </si>
   <si>
     <t xml:space="preserve">23.4316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8751430511475</t>
+    <t xml:space="preserve">23.8751411437988</t>
   </si>
   <si>
     <t xml:space="preserve">24.3186683654785</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">24.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8584022521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
+    <t xml:space="preserve">23.8584079742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0174045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4525623321533</t>
   </si>
   <si>
     <t xml:space="preserve">24.0090370178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8835124969482</t>
+    <t xml:space="preserve">23.8835105895996</t>
   </si>
   <si>
     <t xml:space="preserve">23.5906162261963</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">24.2517204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7788772583008</t>
+    <t xml:space="preserve">22.7788753509521</t>
   </si>
   <si>
     <t xml:space="preserve">23.004825592041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5989818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077732086182</t>
+    <t xml:space="preserve">23.5989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077713012695</t>
   </si>
   <si>
     <t xml:space="preserve">23.9086151123047</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2266178131104</t>
+    <t xml:space="preserve">24.226619720459</t>
   </si>
   <si>
     <t xml:space="preserve">24.1345634460449</t>
@@ -911,19 +911,19 @@
     <t xml:space="preserve">24.1596698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6701431274414</t>
+    <t xml:space="preserve">24.67014503479</t>
   </si>
   <si>
     <t xml:space="preserve">24.7873020172119</t>
   </si>
   <si>
-    <t xml:space="preserve">24.686882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789344787598</t>
+    <t xml:space="preserve">24.6868782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789325714111</t>
   </si>
   <si>
     <t xml:space="preserve">24.4023551940918</t>
@@ -935,25 +935,25 @@
     <t xml:space="preserve">24.435827255249</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7203540802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.992301940918</t>
+    <t xml:space="preserve">24.7203559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9923000335693</t>
   </si>
   <si>
     <t xml:space="preserve">23.8081951141357</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458786010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.393985748291</t>
+    <t xml:space="preserve">23.7663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508766174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
   </si>
   <si>
     <t xml:space="preserve">24.2600898742676</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">24.2684574127197</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1847705841064</t>
+    <t xml:space="preserve">24.1847724914551</t>
   </si>
   <si>
     <t xml:space="preserve">23.9839324951172</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.962984085083</t>
+    <t xml:space="preserve">22.8458213806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">23.0215625762939</t>
@@ -980,82 +980,82 @@
     <t xml:space="preserve">22.4776153564453</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3939304351807</t>
+    <t xml:space="preserve">22.393928527832</t>
   </si>
   <si>
     <t xml:space="preserve">22.5529308319092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7035598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700878143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039855957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161445617676</t>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161426544189</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6910381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.841667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826667785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475070953369</t>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416690826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826705932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985637664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475109100342</t>
   </si>
   <si>
     <t xml:space="preserve">22.686824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1512451171875</t>
+    <t xml:space="preserve">22.1512432098389</t>
   </si>
   <si>
     <t xml:space="preserve">21.8918228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755058288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236148834229</t>
+    <t xml:space="preserve">21.8416137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236110687256</t>
   </si>
   <si>
     <t xml:space="preserve">21.3060321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
+    <t xml:space="preserve">21.3646144866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.757926940918</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989284515381</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">21.4566631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.531982421875</t>
+    <t xml:space="preserve">21.4817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319843292236</t>
   </si>
   <si>
     <t xml:space="preserve">21.4985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4734039306641</t>
+    <t xml:space="preserve">21.4734001159668</t>
   </si>
   <si>
     <t xml:space="preserve">21.2223491668701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2139797210693</t>
+    <t xml:space="preserve">21.213981628418</t>
   </si>
   <si>
     <t xml:space="preserve">21.1554012298584</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">21.3729801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6240310668945</t>
+    <t xml:space="preserve">21.6240329742432</t>
   </si>
   <si>
     <t xml:space="preserve">22.1261405944824</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">22.268404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1428775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399299621582</t>
+    <t xml:space="preserve">22.1428756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399318695068</t>
   </si>
   <si>
     <t xml:space="preserve">21.4148216247559</t>
@@ -1121,58 +1121,58 @@
     <t xml:space="preserve">21.3478755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6407680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771934509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370338439941</t>
+    <t xml:space="preserve">21.6407699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345119476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541927337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370376586914</t>
   </si>
   <si>
     <t xml:space="preserve">22.728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642459869385</t>
+    <t xml:space="preserve">22.5027179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642440795898</t>
   </si>
   <si>
     <t xml:space="preserve">23.088508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1805648803711</t>
+    <t xml:space="preserve">23.1805610656738</t>
   </si>
   <si>
     <t xml:space="preserve">23.1554565429688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0968799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659317016602</t>
+    <t xml:space="preserve">23.0968780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659336090088</t>
   </si>
   <si>
     <t xml:space="preserve">23.0383014678955</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0550365447998</t>
+    <t xml:space="preserve">23.0550346374512</t>
   </si>
   <si>
     <t xml:space="preserve">23.1136150360107</t>
@@ -1184,28 +1184,28 @@
     <t xml:space="preserve">23.7496166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7412509918213</t>
+    <t xml:space="preserve">23.7412490844727</t>
   </si>
   <si>
     <t xml:space="preserve">23.5571422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5069332122803</t>
+    <t xml:space="preserve">23.5069313049316</t>
   </si>
   <si>
     <t xml:space="preserve">23.3730354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4818267822266</t>
+    <t xml:space="preserve">23.4818248748779</t>
   </si>
   <si>
     <t xml:space="preserve">23.10524559021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152988433838</t>
+    <t xml:space="preserve">22.7705097198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5153026580811</t>
   </si>
   <si>
     <t xml:space="preserve">23.2056674957275</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">23.1638259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0842399597168</t>
+    <t xml:space="preserve">20.0842418670654</t>
   </si>
   <si>
     <t xml:space="preserve">20.7871913909912</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7118740081787</t>
+    <t xml:space="preserve">20.7118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361385345459</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3771381378174</t>
+    <t xml:space="preserve">20.3771362304688</t>
   </si>
   <si>
     <t xml:space="preserve">20.3269271850586</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">20.2599773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5863513946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193996429443</t>
+    <t xml:space="preserve">20.5863494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.519401550293</t>
   </si>
   <si>
     <t xml:space="preserve">20.6532936096191</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2516136169434</t>
+    <t xml:space="preserve">20.2516117095947</t>
   </si>
   <si>
     <t xml:space="preserve">20.603084564209</t>
@@ -1256,37 +1256,37 @@
     <t xml:space="preserve">20.5026664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">21.004768371582</t>
+    <t xml:space="preserve">21.0047702789307</t>
   </si>
   <si>
     <t xml:space="preserve">21.0968227386475</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2809257507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219272613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955570220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788200378418</t>
+    <t xml:space="preserve">21.2809295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562450408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219253540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9210872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788219451904</t>
   </si>
   <si>
     <t xml:space="preserve">21.8332443237305</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077159881592</t>
+    <t xml:space="preserve">22.0006122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077198028564</t>
   </si>
   <si>
     <t xml:space="preserve">21.2725601196289</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">21.573823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
+    <t xml:space="preserve">21.3144016265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135578155518</t>
   </si>
   <si>
     <t xml:space="preserve">21.339506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269786834717</t>
+    <t xml:space="preserve">21.4231929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269824981689</t>
   </si>
   <si>
     <t xml:space="preserve">21.9085597991943</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">22.5780334472656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0424556732178</t>
+    <t xml:space="preserve">22.0424575805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.1930885314941</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">22.3604564666748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8583526611328</t>
+    <t xml:space="preserve">21.8583507537842</t>
   </si>
   <si>
     <t xml:space="preserve">22.2600345611572</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">22.628246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7454051971436</t>
+    <t xml:space="preserve">22.7454013824463</t>
   </si>
   <si>
     <t xml:space="preserve">22.7119312286377</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">22.310245513916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6784572601318</t>
+    <t xml:space="preserve">22.6784553527832</t>
   </si>
   <si>
     <t xml:space="preserve">22.1596126556396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.368766784668</t>
+    <t xml:space="preserve">20.3687705993652</t>
   </si>
   <si>
     <t xml:space="preserve">20.1511898040771</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">20.3352947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043483734131</t>
+    <t xml:space="preserve">20.3520336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043464660645</t>
   </si>
   <si>
     <t xml:space="preserve">20.9545593261719</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348728179932</t>
+    <t xml:space="preserve">20.5696125030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348747253418</t>
   </si>
   <si>
     <t xml:space="preserve">20.3185577392578</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">19.9838199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6323471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072959899902</t>
+    <t xml:space="preserve">19.632345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541393280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072998046875</t>
   </si>
   <si>
     <t xml:space="preserve">21.0549774169922</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">20.6198215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.686767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700325012207</t>
+    <t xml:space="preserve">20.6867694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700344085693</t>
   </si>
   <si>
     <t xml:space="preserve">20.268346786499</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">20.1846618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3855056762695</t>
+    <t xml:space="preserve">20.3855037689209</t>
   </si>
   <si>
     <t xml:space="preserve">20.7704524993896</t>
@@ -1445,34 +1445,34 @@
     <t xml:space="preserve">19.8331890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001388549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897151947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
+    <t xml:space="preserve">19.8164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001369476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.021505355835</t>
   </si>
   <si>
     <t xml:space="preserve">21.7884616851807</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.457275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618572235107</t>
+    <t xml:space="preserve">21.5444316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4572772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.561861038208</t>
   </si>
   <si>
     <t xml:space="preserve">21.6141529083252</t>
@@ -1481,28 +1481,28 @@
     <t xml:space="preserve">21.7361679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324897766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893653869629</t>
+    <t xml:space="preserve">21.7187404632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
   </si>
   <si>
     <t xml:space="preserve">22.0847835540771</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9976291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664428710938</t>
+    <t xml:space="preserve">21.9976272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.666446685791</t>
   </si>
   <si>
     <t xml:space="preserve">21.3526935577393</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">21.5270004272461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4049854278564</t>
+    <t xml:space="preserve">21.4049835205078</t>
   </si>
   <si>
     <t xml:space="preserve">21.126091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417072296143</t>
+    <t xml:space="preserve">20.986644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.341703414917</t>
   </si>
   <si>
     <t xml:space="preserve">21.1086597442627</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">21.683874130249</t>
   </si>
   <si>
-    <t xml:space="preserve">21.893045425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013072967529</t>
+    <t xml:space="preserve">21.8930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013092041016</t>
   </si>
   <si>
     <t xml:space="preserve">21.4747066497803</t>
@@ -1550,37 +1550,37 @@
     <t xml:space="preserve">21.5792903900146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132434844971</t>
+    <t xml:space="preserve">21.2132453918457</t>
   </si>
   <si>
     <t xml:space="preserve">21.3701229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.439847946167</t>
+    <t xml:space="preserve">21.4398460388184</t>
   </si>
   <si>
     <t xml:space="preserve">20.6031646728516</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7251853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609535217285</t>
+    <t xml:space="preserve">20.7251834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609516143799</t>
   </si>
   <si>
     <t xml:space="preserve">20.88205909729</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7949085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435241699219</t>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435203552246</t>
   </si>
   <si>
     <t xml:space="preserve">21.2655372619629</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">20.9169216156006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728916168213</t>
+    <t xml:space="preserve">21.3003997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728897094727</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334434509277</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">21.9279041290283</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2003517150879</t>
+    <t xml:space="preserve">23.2003536224365</t>
   </si>
   <si>
     <t xml:space="preserve">23.270076751709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636280059814</t>
+    <t xml:space="preserve">24.0893211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1939086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
   </si>
   <si>
     <t xml:space="preserve">24.5948123931885</t>
@@ -1625,28 +1625,28 @@
     <t xml:space="preserve">24.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2113361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452930450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838279724121</t>
+    <t xml:space="preserve">24.2113380432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755680084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104267120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838298797607</t>
   </si>
   <si>
     <t xml:space="preserve">23.9150142669678</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1067543029785</t>
+    <t xml:space="preserve">24.1067523956299</t>
   </si>
   <si>
     <t xml:space="preserve">24.1416149139404</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">24.403076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.629674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076599121094</t>
+    <t xml:space="preserve">24.6296768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.507661819458</t>
   </si>
   <si>
     <t xml:space="preserve">24.3856430053711</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">24.2810611724854</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0718936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801517486572</t>
+    <t xml:space="preserve">24.0718898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801536560059</t>
   </si>
   <si>
     <t xml:space="preserve">23.5315361022949</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">23.2875080108643</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7929973602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4966716766357</t>
+    <t xml:space="preserve">23.7929954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4966735839844</t>
   </si>
   <si>
     <t xml:space="preserve">24.1241836547852</t>
@@ -1697,55 +1697,55 @@
     <t xml:space="preserve">23.9498748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379405975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.82785987854</t>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8278617858887</t>
   </si>
   <si>
     <t xml:space="preserve">23.9324436187744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.694860458374</t>
+    <t xml:space="preserve">22.6948623657227</t>
   </si>
   <si>
     <t xml:space="preserve">22.3811054229736</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9453372955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058929443359</t>
+    <t xml:space="preserve">21.9453353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058910369873</t>
   </si>
   <si>
     <t xml:space="preserve">22.5902767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.137077331543</t>
+    <t xml:space="preserve">22.1370754241943</t>
   </si>
   <si>
     <t xml:space="preserve">22.3462448120117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8233203887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333972930908</t>
+    <t xml:space="preserve">21.8233222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333992004395</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581829071045</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">20.7077522277832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3765697479248</t>
+    <t xml:space="preserve">20.3765659332275</t>
   </si>
   <si>
     <t xml:space="preserve">19.7664909362793</t>
@@ -1772,34 +1772,34 @@
     <t xml:space="preserve">20.2196922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0802478790283</t>
+    <t xml:space="preserve">20.0802459716797</t>
   </si>
   <si>
     <t xml:space="preserve">20.1325378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
+    <t xml:space="preserve">20.202262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004440307617</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4701690673828</t>
+    <t xml:space="preserve">19.4701671600342</t>
   </si>
   <si>
     <t xml:space="preserve">19.5050296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6967678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453834533691</t>
+    <t xml:space="preserve">19.6967697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453853607178</t>
   </si>
   <si>
     <t xml:space="preserve">20.5160140991211</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">20.4985809326172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4288597106934</t>
   </si>
   <si>
     <t xml:space="preserve">19.9059371948242</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">20.6205978393555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4811534881592</t>
+    <t xml:space="preserve">20.4811515808105</t>
   </si>
   <si>
     <t xml:space="preserve">20.2894153594971</t>
@@ -1835,19 +1835,19 @@
     <t xml:space="preserve">19.7316284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1673965454102</t>
+    <t xml:space="preserve">20.1674003601074</t>
   </si>
   <si>
     <t xml:space="preserve">19.3132934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3023052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683521270752</t>
+    <t xml:space="preserve">18.3023071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683540344238</t>
   </si>
   <si>
     <t xml:space="preserve">19.2609996795654</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">20.8994903564453</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1783828735352</t>
+    <t xml:space="preserve">21.1783847808838</t>
   </si>
   <si>
     <t xml:space="preserve">20.8471984863281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692577362061</t>
+    <t xml:space="preserve">21.1958160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
@@ -1883,49 +1883,49 @@
     <t xml:space="preserve">19.2087078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4527378082275</t>
+    <t xml:space="preserve">19.4527359008789</t>
   </si>
   <si>
     <t xml:space="preserve">19.0343990325928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1389865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307209014893</t>
+    <t xml:space="preserve">19.1389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307228088379</t>
   </si>
   <si>
     <t xml:space="preserve">19.5573215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4353046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.097677230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389385223389</t>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848278045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362159729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389366149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.5921821594238</t>
@@ -1940,16 +1940,16 @@
     <t xml:space="preserve">21.0912322998047</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5031223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8078002929688</t>
+    <t xml:space="preserve">22.5031242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.049919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077983856201</t>
   </si>
   <si>
     <t xml:space="preserve">18.4068927764893</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">18.3371696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8665351867676</t>
+    <t xml:space="preserve">17.8665370941162</t>
   </si>
   <si>
     <t xml:space="preserve">17.2564601898193</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">16.8642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6812438964844</t>
+    <t xml:space="preserve">16.681245803833</t>
   </si>
   <si>
     <t xml:space="preserve">17.0211448669434</t>
@@ -1979,46 +1979,46 @@
     <t xml:space="preserve">16.5592288970947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4703464508057</t>
+    <t xml:space="preserve">16.470344543457</t>
   </si>
   <si>
     <t xml:space="preserve">16.4436798095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4525680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
+    <t xml:space="preserve">16.4525661468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637022018433</t>
   </si>
   <si>
     <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036895751953</t>
+    <t xml:space="preserve">16.0970268249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036914825439</t>
   </si>
   <si>
     <t xml:space="preserve">15.8125972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9903678894043</t>
+    <t xml:space="preserve">15.99036693573</t>
   </si>
   <si>
     <t xml:space="preserve">15.6970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8214845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103523254395</t>
+    <t xml:space="preserve">15.8214855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214679718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103542327881</t>
   </si>
   <si>
     <t xml:space="preserve">16.319242477417</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481365203857</t>
+    <t xml:space="preserve">16.2481327056885</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703639984131</t>
@@ -2036,43 +2036,43 @@
     <t xml:space="preserve">15.7059364318848</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5281667709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881589889526</t>
+    <t xml:space="preserve">15.5281658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688159942627</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0881423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
   </si>
   <si>
     <t xml:space="preserve">15.7326030731201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7592649459839</t>
+    <t xml:space="preserve">15.7592658996582</t>
   </si>
   <si>
     <t xml:space="preserve">15.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9814777374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770618438721</t>
+    <t xml:space="preserve">15.9814767837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081609725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770627975464</t>
   </si>
   <si>
     <t xml:space="preserve">15.2348461151123</t>
@@ -2084,34 +2084,34 @@
     <t xml:space="preserve">15.1370725631714</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3415079116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615118026733</t>
+    <t xml:space="preserve">15.3415069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615127563477</t>
   </si>
   <si>
     <t xml:space="preserve">15.1637392044067</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
+    <t xml:space="preserve">14.9681911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659656524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3859510421753</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837430953979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1015195846558</t>
+    <t xml:space="preserve">15.1015186309814</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770812988281</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">16.1592483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6703824996948</t>
+    <t xml:space="preserve">15.6703815460205</t>
   </si>
   <si>
     <t xml:space="preserve">15.6437177658081</t>
@@ -2132,19 +2132,19 @@
     <t xml:space="preserve">15.3148422241211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1548500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215215682983</t>
+    <t xml:space="preserve">15.1548490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215225219727</t>
   </si>
   <si>
     <t xml:space="preserve">15.6792697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7859334945679</t>
+    <t xml:space="preserve">15.7859325408936</t>
   </si>
   <si>
     <t xml:space="preserve">15.4659471511841</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">15.5992727279663</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8925924301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881191253662</t>
+    <t xml:space="preserve">15.8925943374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
     <t xml:space="preserve">17.1903114318848</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">17.5102996826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2347545623779</t>
+    <t xml:space="preserve">17.2347526550293</t>
   </si>
   <si>
     <t xml:space="preserve">17.7413940429688</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">17.2880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0125389099121</t>
+    <t xml:space="preserve">17.0125408172607</t>
   </si>
   <si>
     <t xml:space="preserve">16.932544708252</t>
@@ -2186,37 +2186,37 @@
     <t xml:space="preserve">16.6125621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6036758422852</t>
+    <t xml:space="preserve">16.6036739349365</t>
   </si>
   <si>
     <t xml:space="preserve">16.0525856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5814971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459646224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726089477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881784439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615293502808</t>
+    <t xml:space="preserve">15.5814962387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.288179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615283966064</t>
   </si>
   <si>
     <t xml:space="preserve">14.7370920181274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2437343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815147399902</t>
+    <t xml:space="preserve">15.2437353134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.074854850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
   </si>
   <si>
     <t xml:space="preserve">15.1992931365967</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">15.3681755065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4126176834106</t>
+    <t xml:space="preserve">15.412615776062</t>
   </si>
   <si>
     <t xml:space="preserve">15.474835395813</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">15.4837245941162</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2970657348633</t>
+    <t xml:space="preserve">15.2970638275146</t>
   </si>
   <si>
     <t xml:space="preserve">14.8437557220459</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">14.6659851074219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4570589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614923477173</t>
+    <t xml:space="preserve">15.4570579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614942550659</t>
   </si>
   <si>
     <t xml:space="preserve">15.7770442962646</t>
@@ -2261,46 +2261,46 @@
     <t xml:space="preserve">15.8570394515991</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2125797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
+    <t xml:space="preserve">16.2125778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970092773438</t>
   </si>
   <si>
     <t xml:space="preserve">16.7192211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1992015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
+    <t xml:space="preserve">17.1547565460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.199197769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436584472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969898223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636661529541</t>
   </si>
   <si>
     <t xml:space="preserve">16.5770053863525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9858798980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
+    <t xml:space="preserve">16.9858779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169937133789</t>
   </si>
   <si>
     <t xml:space="preserve">16.8081073760986</t>
@@ -2309,73 +2309,73 @@
     <t xml:space="preserve">16.8881034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.923656463623</t>
+    <t xml:space="preserve">16.9236583709717</t>
   </si>
   <si>
     <t xml:space="preserve">16.8614368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7547760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4170112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.750376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904039382935</t>
+    <t xml:space="preserve">16.7547740936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3814601898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.417013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992542266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459257125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503795623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904058456421</t>
   </si>
   <si>
     <t xml:space="preserve">14.8970851898193</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8526420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
+    <t xml:space="preserve">14.8526411056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771192550659</t>
   </si>
   <si>
     <t xml:space="preserve">14.2926683425903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3237323760986</t>
+    <t xml:space="preserve">15.32373046875</t>
   </si>
   <si>
     <t xml:space="preserve">15.1281852722168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.714825630188</t>
+    <t xml:space="preserve">15.7148246765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1059188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325817108154</t>
+    <t xml:space="preserve">16.105920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325836181641</t>
   </si>
   <si>
     <t xml:space="preserve">16.2836875915527</t>
@@ -2384,28 +2384,28 @@
     <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015575408936</t>
+    <t xml:space="preserve">15.9548139572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015565872192</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8660221099854</t>
+    <t xml:space="preserve">14.1326751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415838241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.866021156311</t>
   </si>
   <si>
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.590479850769</t>
+    <t xml:space="preserve">13.5904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">13.3060483932495</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">13.1638317108154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882894515991</t>
+    <t xml:space="preserve">12.8882904052734</t>
   </si>
   <si>
     <t xml:space="preserve">12.1594352722168</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">11.6705684661865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2972536087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1595287322998</t>
+    <t xml:space="preserve">11.297251701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1595268249512</t>
   </si>
   <si>
     <t xml:space="preserve">11.1105937957764</t>
@@ -2438,37 +2438,37 @@
     <t xml:space="preserve">12.3283157348633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1683216094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5505275726318</t>
+    <t xml:space="preserve">12.1683235168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5505266189575</t>
   </si>
   <si>
     <t xml:space="preserve">13.901575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3104467391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8881978988647</t>
+    <t xml:space="preserve">14.3104457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8881969451904</t>
   </si>
   <si>
     <t xml:space="preserve">13.6349210739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0793447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0260124206543</t>
+    <t xml:space="preserve">14.079345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0260143280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.5460367202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6438112258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793651580811</t>
+    <t xml:space="preserve">13.6438093185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793632507324</t>
   </si>
   <si>
     <t xml:space="preserve">13.0305051803589</t>
@@ -2477,25 +2477,25 @@
     <t xml:space="preserve">13.5815896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.928240776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9993486404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1948957443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438278198242</t>
+    <t xml:space="preserve">13.9282417297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9993495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1948947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3682680130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438268661499</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571523666382</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6260328292847</t>
+    <t xml:space="preserve">13.6260318756104</t>
   </si>
   <si>
     <t xml:space="preserve">13.7771377563477</t>
@@ -2507,37 +2507,37 @@
     <t xml:space="preserve">13.8837985992432</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3993320465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882154464722</t>
+    <t xml:space="preserve">14.3993310928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882144927979</t>
   </si>
   <si>
     <t xml:space="preserve">14.532657623291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.65709400177</t>
+    <t xml:space="preserve">14.6570959091187</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326196670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1192960739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304117202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7681560516357</t>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8082008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1192970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7681541442871</t>
   </si>
   <si>
     <t xml:space="preserve">15.4037294387817</t>
@@ -2552,22 +2552,22 @@
     <t xml:space="preserve">16.6214504241943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259033203125</t>
+    <t xml:space="preserve">16.4259014129639</t>
   </si>
   <si>
     <t xml:space="preserve">17.3325290679932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1192016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414310455322</t>
+    <t xml:space="preserve">17.1192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414348602295</t>
   </si>
   <si>
     <t xml:space="preserve">17.2525310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.501407623291</t>
+    <t xml:space="preserve">17.5014057159424</t>
   </si>
   <si>
     <t xml:space="preserve">18.1147117614746</t>
@@ -2579,43 +2579,43 @@
     <t xml:space="preserve">20.0879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8924083709717</t>
+    <t xml:space="preserve">19.892406463623</t>
   </si>
   <si>
     <t xml:space="preserve">19.4479827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7146377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4434909820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790458679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.923469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7279243469238</t>
+    <t xml:space="preserve">19.7146396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790477752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9234714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7279262542725</t>
   </si>
   <si>
     <t xml:space="preserve">20.6212635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0123558044434</t>
+    <t xml:space="preserve">21.012357711792</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3190574645996</t>
+    <t xml:space="preserve">20.3190536499023</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568145751953</t>
+    <t xml:space="preserve">20.6568183898926</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989933013916</t>
@@ -2624,37 +2624,37 @@
     <t xml:space="preserve">21.8478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5634422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7412071228027</t>
+    <t xml:space="preserve">21.563440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9545345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8300952911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611934661865</t>
+    <t xml:space="preserve">21.9545364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8300971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900894165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611972808838</t>
   </si>
   <si>
     <t xml:space="preserve">22.2034111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1678581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.132303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9723110198975</t>
+    <t xml:space="preserve">22.1678562164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1323051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9723129272461</t>
   </si>
   <si>
     <t xml:space="preserve">22.2211875915527</t>
@@ -2663,16 +2663,16 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.865650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6523265838623</t>
+    <t xml:space="preserve">21.8656482696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6523284912109</t>
   </si>
   <si>
     <t xml:space="preserve">21.8123188018799</t>
   </si>
   <si>
-    <t xml:space="preserve">23.110034942627</t>
+    <t xml:space="preserve">23.1100368499756</t>
   </si>
   <si>
     <t xml:space="preserve">23.6077899932861</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410629272461</t>
+    <t xml:space="preserve">24.9410610198975</t>
   </si>
   <si>
     <t xml:space="preserve">24.8344020843506</t>
@@ -2690,28 +2690,28 @@
     <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299453735352</t>
+    <t xml:space="preserve">25.0299472808838</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.887731552124</t>
+    <t xml:space="preserve">24.8877296447754</t>
   </si>
   <si>
     <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6744079589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8699531555176</t>
+    <t xml:space="preserve">24.5321922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.674409866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8699512481689</t>
   </si>
   <si>
     <t xml:space="preserve">24.6921863555908</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">24.7632942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7099590301514</t>
+    <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
     <t xml:space="preserve">24.4966373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7810668945312</t>
+    <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
     <t xml:space="preserve">24.1410980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">25.012170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9232845306396</t>
+    <t xml:space="preserve">25.0121688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5454769134521</t>
@@ -2756,70 +2756,70 @@
     <t xml:space="preserve">26.1854457855225</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1809597015381</t>
+    <t xml:space="preserve">27.1809577941895</t>
   </si>
   <si>
     <t xml:space="preserve">26.5587635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6476459503174</t>
+    <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
     <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2032260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1321182250977</t>
+    <t xml:space="preserve">26.2032241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
     <t xml:space="preserve">26.1498947143555</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8832416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.434326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3098888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5232124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4521064758301</t>
+    <t xml:space="preserve">25.8832397460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4343280792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.309886932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5232105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4521045684814</t>
   </si>
   <si>
     <t xml:space="preserve">27.0565204620361</t>
   </si>
   <si>
-    <t xml:space="preserve">28.034252166748</t>
+    <t xml:space="preserve">28.0342540740967</t>
   </si>
   <si>
     <t xml:space="preserve">27.9098110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1454048156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0387420654297</t>
+    <t xml:space="preserve">27.1454029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0387439727783</t>
   </si>
   <si>
     <t xml:space="preserve">27.127628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2210025787354</t>
+    <t xml:space="preserve">26.2210006713867</t>
   </si>
   <si>
     <t xml:space="preserve">26.0254573822021</t>
@@ -2828,13 +2828,13 @@
     <t xml:space="preserve">24.4255294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2655353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4077491760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4610843658447</t>
+    <t xml:space="preserve">24.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4077529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010162353516</t>
@@ -2846,58 +2846,58 @@
     <t xml:space="preserve">26.6654262542725</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7365341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4032611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1721630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209636688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5988063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8521766662598</t>
+    <t xml:space="preserve">26.736536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.403263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1721611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209655761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5988082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8521785736084</t>
   </si>
   <si>
     <t xml:space="preserve">24.5677433013916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1543865203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143768310547</t>
+    <t xml:space="preserve">25.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499706268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143787384033</t>
   </si>
   <si>
     <t xml:space="preserve">26.0076789855957</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1010551452637</t>
+    <t xml:space="preserve">25.3321571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.101053237915</t>
   </si>
   <si>
     <t xml:space="preserve">24.5144138336182</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3366432189941</t>
+    <t xml:space="preserve">24.3366470336914</t>
   </si>
   <si>
     <t xml:space="preserve">24.1766548156738</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6611213684082</t>
+    <t xml:space="preserve">23.6611232757568</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">24.2833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1965999603271</t>
+    <t xml:space="preserve">24.1965980529785</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">23.5617542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7975540161133</t>
+    <t xml:space="preserve">23.7975559234619</t>
   </si>
   <si>
     <t xml:space="preserve">23.3803730010986</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7612781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2872924804688</t>
+    <t xml:space="preserve">23.7612762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2872905731201</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794132232666</t>
@@ -2942,10 +2942,10 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289680480957</t>
+    <t xml:space="preserve">23.1989860534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">24.251012802124</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6295318603516</t>
+    <t xml:space="preserve">25.6295299530029</t>
   </si>
   <si>
     <t xml:space="preserve">26.4457569122314</t>
@@ -2966,28 +2966,28 @@
     <t xml:space="preserve">27.3164005279541</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5521965026855</t>
+    <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
     <t xml:space="preserve">26.8629398345947</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5340614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1870422363281</t>
+    <t xml:space="preserve">27.5340595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1870403289795</t>
   </si>
   <si>
     <t xml:space="preserve">28.3502864837646</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2777366638184</t>
+    <t xml:space="preserve">28.2777347564697</t>
   </si>
   <si>
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.347900390625</t>
+    <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
     <t xml:space="preserve">30.0371551513672</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533821105957</t>
+    <t xml:space="preserve">30.8533840179443</t>
   </si>
   <si>
     <t xml:space="preserve">31.3249835968018</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4724788665771</t>
+    <t xml:space="preserve">30.4724769592285</t>
   </si>
   <si>
     <t xml:space="preserve">30.3273677825928</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">28.586088180542</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7698593139648</t>
+    <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">28.3684253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4772548675537</t>
+    <t xml:space="preserve">28.4772567749023</t>
   </si>
   <si>
     <t xml:space="preserve">28.8944396972656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.397533416748</t>
+    <t xml:space="preserve">31.3975353240967</t>
   </si>
   <si>
     <t xml:space="preserve">30.3817882537842</t>
@@ -3065,46 +3065,46 @@
     <t xml:space="preserve">30.1278495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5631694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1774864196777</t>
+    <t xml:space="preserve">30.5631675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">32.0505180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5245037078857</t>
+    <t xml:space="preserve">31.5245018005371</t>
   </si>
   <si>
     <t xml:space="preserve">31.6696071624756</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7421607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235496520996</t>
+    <t xml:space="preserve">31.7421627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3431205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9235515594482</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9574356079102</t>
+    <t xml:space="preserve">32.9574394226074</t>
   </si>
   <si>
     <t xml:space="preserve">33.1932334899902</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9211578369141</t>
+    <t xml:space="preserve">32.9211616516113</t>
   </si>
   <si>
     <t xml:space="preserve">33.2295112609863</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">32.8486061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4108963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0481262207031</t>
+    <t xml:space="preserve">33.4108924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0481300354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.685359954834</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6128044128418</t>
+    <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
     <t xml:space="preserve">33.1206817626953</t>
@@ -3146,7 +3146,7 @@
     <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299873352051</t>
+    <t xml:space="preserve">33.0299911499023</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736663818359</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">33.9550437927246</t>
   </si>
   <si>
-    <t xml:space="preserve">33.211368560791</t>
+    <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
     <t xml:space="preserve">33.9369049072266</t>
@@ -3164,16 +3164,16 @@
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1569633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1750946044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9755744934082</t>
+    <t xml:space="preserve">32.8667488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1569595336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1750984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9755706787109</t>
   </si>
   <si>
     <t xml:space="preserve">32.8304710388184</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">33.2746162414551</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1457138061523</t>
+    <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
     <t xml:space="preserve">33.5140037536621</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429023742676</t>
+    <t xml:space="preserve">33.6429061889648</t>
   </si>
   <si>
     <t xml:space="preserve">33.661319732666</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">33.10888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377891540527</t>
+    <t xml:space="preserve">33.1273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377853393555</t>
   </si>
   <si>
     <t xml:space="preserve">34.0664329528809</t>
@@ -3227,10 +3227,10 @@
     <t xml:space="preserve">35.7789611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4971160888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4786987304688</t>
+    <t xml:space="preserve">36.4971199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.478702545166</t>
   </si>
   <si>
     <t xml:space="preserve">36.7917442321777</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">34.766170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3610610961914</t>
+    <t xml:space="preserve">34.3610572814941</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6372718811035</t>
+    <t xml:space="preserve">34.6372756958008</t>
   </si>
   <si>
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4347152709961</t>
+    <t xml:space="preserve">33.8270454406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4347190856934</t>
   </si>
   <si>
     <t xml:space="preserve">34.2505760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5636215209961</t>
+    <t xml:space="preserve">34.5636177062988</t>
   </si>
   <si>
     <t xml:space="preserve">33.4035148620605</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">33.7165565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6925201416016</t>
+    <t xml:space="preserve">34.1032638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6925163269043</t>
   </si>
   <si>
     <t xml:space="preserve">34.8582496643066</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5876579284668</t>
+    <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
     <t xml:space="preserve">32.5380439758301</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">33.3298606872559</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5452041625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3426475524902</t>
+    <t xml:space="preserve">34.5452003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.342643737793</t>
   </si>
   <si>
     <t xml:space="preserve">33.2930297851562</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">35.4843330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">35.318603515625</t>
+    <t xml:space="preserve">35.3186073303223</t>
   </si>
   <si>
     <t xml:space="preserve">35.5395736694336</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">35.8157920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8526191711426</t>
+    <t xml:space="preserve">35.8526153564453</t>
   </si>
   <si>
     <t xml:space="preserve">35.5948181152344</t>
@@ -3353,10 +3353,10 @@
     <t xml:space="preserve">35.1344604492188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7605438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.981517791748</t>
+    <t xml:space="preserve">35.7605476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9815216064453</t>
   </si>
   <si>
     <t xml:space="preserve">34.3242301940918</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6444320678711</t>
+    <t xml:space="preserve">36.6444358825684</t>
   </si>
   <si>
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.165657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5891914367676</t>
+    <t xml:space="preserve">36.1656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5891876220703</t>
   </si>
   <si>
     <t xml:space="preserve">35.7973747253418</t>
@@ -3395,28 +3395,28 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4700145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8255138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8807601928711</t>
+    <t xml:space="preserve">31.7278156280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4700164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595294952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8255157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8807621002197</t>
   </si>
   <si>
     <t xml:space="preserve">30.9175910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.604549407959</t>
+    <t xml:space="preserve">31.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045475006104</t>
   </si>
   <si>
     <t xml:space="preserve">30.2546730041504</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">29.4996891021729</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0393333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6158027648926</t>
+    <t xml:space="preserve">29.0393314361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6158008575439</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840869903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8183574676514</t>
+    <t xml:space="preserve">28.9840888977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.818359375</t>
   </si>
   <si>
     <t xml:space="preserve">29.278715133667</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">30.475643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3835754394531</t>
+    <t xml:space="preserve">30.3467445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3835735321045</t>
   </si>
   <si>
     <t xml:space="preserve">30.5677185058594</t>
@@ -3476,28 +3476,28 @@
     <t xml:space="preserve">31.0649070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4940605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1201457977295</t>
+    <t xml:space="preserve">30.4940586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1201438903809</t>
   </si>
   <si>
     <t xml:space="preserve">31.2858715057373</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674617767334</t>
+    <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2802467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.488431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4147720336914</t>
+    <t xml:space="preserve">32.2802505493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4884338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
     <t xml:space="preserve">30.5861320495605</t>
@@ -3521,22 +3521,22 @@
     <t xml:space="preserve">28.9104309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5605583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8424034118652</t>
+    <t xml:space="preserve">28.5605602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.884859085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5661869049072</t>
+    <t xml:space="preserve">28.2291030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8848609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5661888122559</t>
   </si>
   <si>
     <t xml:space="preserve">27.2347316741943</t>
@@ -3545,31 +3545,31 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925327301025</t>
+    <t xml:space="preserve">27.4925308227539</t>
   </si>
   <si>
     <t xml:space="preserve">27.2531471252441</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5293598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3027591705322</t>
+    <t xml:space="preserve">27.5293579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4372863769531</t>
+    <t xml:space="preserve">27.8976459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4372882843018</t>
   </si>
   <si>
     <t xml:space="preserve">27.6030158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9713001251221</t>
+    <t xml:space="preserve">27.9713020324707</t>
   </si>
   <si>
     <t xml:space="preserve">28.3764171600342</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">28.2106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5237312316895</t>
+    <t xml:space="preserve">28.5237331390381</t>
   </si>
   <si>
     <t xml:space="preserve">28.1370296478271</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">28.5789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9656734466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8367748260498</t>
+    <t xml:space="preserve">28.9656753540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421466827393</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477733612061</t>
+    <t xml:space="preserve">27.5477752685547</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">28.6894588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1682319641113</t>
+    <t xml:space="preserve">29.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">28.4684886932373</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526298522949</t>
+    <t xml:space="preserve">28.6526317596436</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">27.9344749450684</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2163162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5534019470215</t>
+    <t xml:space="preserve">27.2163181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5534038543701</t>
   </si>
   <si>
     <t xml:space="preserve">25.8720741271973</t>
@@ -3683,31 +3683,31 @@
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
+    <t xml:space="preserve">25.7984180450439</t>
   </si>
   <si>
     <t xml:space="preserve">25.2091579437256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3677291870117</t>
+    <t xml:space="preserve">23.3677310943604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623611450195</t>
+    <t xml:space="preserve">22.2812900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623592376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682445526123</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3124885559082</t>
+    <t xml:space="preserve">21.8393459320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
     <t xml:space="preserve">22.7048168182373</t>
@@ -3719,10 +3719,10 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1835861206055</t>
+    <t xml:space="preserve">23.2388286590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1835880279541</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416458129883</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864013671875</t>
+    <t xml:space="preserve">22.6863994598389</t>
   </si>
   <si>
     <t xml:space="preserve">22.7232303619385</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">21.857759475708</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0971431732178</t>
+    <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.0419025421143</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135154724121</t>
+    <t xml:space="preserve">20.5135173797607</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5118,6 +5118,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.7399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5799999237061</t>
   </si>
 </sst>
 </file>
@@ -61801,7 +61804,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6494675926</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>99938</v>
@@ -61822,6 +61825,32 @@
         <v>1677</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6495138889</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>105767</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>32.4599990844727</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>31.5599994659424</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>32.4599990844727</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>31.5799999237061</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1704">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947128295898</t>
+    <t xml:space="preserve">20.9947109222412</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
@@ -53,103 +53,103 @@
     <t xml:space="preserve">20.424373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2239837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0158843994141</t>
+    <t xml:space="preserve">20.2239818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0158863067627</t>
   </si>
   <si>
     <t xml:space="preserve">19.730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1314964294434</t>
+    <t xml:space="preserve">20.1314945220947</t>
   </si>
   <si>
     <t xml:space="preserve">18.744176864624</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8501281738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6497402191162</t>
+    <t xml:space="preserve">17.8501319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6497440338135</t>
   </si>
   <si>
     <t xml:space="preserve">17.7422275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2643756866455</t>
+    <t xml:space="preserve">17.2643737792969</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404731750488</t>
+    <t xml:space="preserve">18.2354946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404769897461</t>
   </si>
   <si>
     <t xml:space="preserve">16.6477909088135</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9175472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0100364685059</t>
+    <t xml:space="preserve">16.9175453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0100326538086</t>
   </si>
   <si>
     <t xml:space="preserve">16.8790073394775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317890167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1622295379639</t>
+    <t xml:space="preserve">16.3317928314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1622276306152</t>
   </si>
   <si>
     <t xml:space="preserve">15.8462295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1756992340088</t>
+    <t xml:space="preserve">15.1756944656372</t>
   </si>
   <si>
     <t xml:space="preserve">14.9598903656006</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5225219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213523864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6458387374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454507827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995988845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464254379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764713287354</t>
+    <t xml:space="preserve">15.5225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5899381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213542938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6458377838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454498291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.576473236084</t>
   </si>
   <si>
     <t xml:space="preserve">16.1082782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1545257568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7768602371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3240814208984</t>
+    <t xml:space="preserve">16.1545238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7768650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3240852355957</t>
   </si>
   <si>
     <t xml:space="preserve">16.3934516906738</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">16.7633991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0774517059326</t>
+    <t xml:space="preserve">16.9560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.077449798584</t>
   </si>
   <si>
     <t xml:space="preserve">15.4069128036499</t>
@@ -173,52 +173,52 @@
     <t xml:space="preserve">16.2855472564697</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9078903198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.476282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.092866897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071115493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999858856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1853523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3221340179443</t>
+    <t xml:space="preserve">15.9078884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762783050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928630828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071077346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853504180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076944351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456466674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221311569214</t>
   </si>
   <si>
     <t xml:space="preserve">15.4146223068237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.537938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296447753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.245059967041</t>
+    <t xml:space="preserve">15.5379409790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296438217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223279953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450609207153</t>
   </si>
   <si>
     <t xml:space="preserve">15.3298397064209</t>
@@ -227,34 +227,34 @@
     <t xml:space="preserve">14.7286701202393</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9675960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061330795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653396606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625633239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440084457397</t>
+    <t xml:space="preserve">14.9675970077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061340332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.162561416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440113067627</t>
   </si>
   <si>
     <t xml:space="preserve">15.3361196517944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1467876434326</t>
+    <t xml:space="preserve">15.146785736084</t>
   </si>
   <si>
     <t xml:space="preserve">15.1704511642456</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1388969421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.036337852478</t>
+    <t xml:space="preserve">15.1388959884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363397598267</t>
   </si>
   <si>
     <t xml:space="preserve">15.6595659255981</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">16.4169044494629</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9514560699463</t>
+    <t xml:space="preserve">15.951455116272</t>
   </si>
   <si>
     <t xml:space="preserve">16.2275695800781</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4405746459961</t>
+    <t xml:space="preserve">16.4405727386475</t>
   </si>
   <si>
     <t xml:space="preserve">16.3459053039551</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">16.5510196685791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088012695312</t>
+    <t xml:space="preserve">16.708797454834</t>
   </si>
   <si>
     <t xml:space="preserve">16.5115737915039</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">17.0006866455078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2846908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612445831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559101104736</t>
+    <t xml:space="preserve">17.284688949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612464904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559120178223</t>
   </si>
   <si>
     <t xml:space="preserve">17.3241367340088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5134696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868049621582</t>
+    <t xml:space="preserve">17.5134677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868068695068</t>
   </si>
   <si>
     <t xml:space="preserve">18.1288089752197</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">18.712589263916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0202598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889247894287</t>
+    <t xml:space="preserve">19.0202579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889228820801</t>
   </si>
   <si>
     <t xml:space="preserve">18.5627021789551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4995861053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023624420166</t>
+    <t xml:space="preserve">18.4995918273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023643493652</t>
   </si>
   <si>
     <t xml:space="preserve">18.8782596588135</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">19.0597038269043</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6810359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578098297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081390380859</t>
+    <t xml:space="preserve">18.6810340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081409454346</t>
   </si>
   <si>
     <t xml:space="preserve">17.466136932373</t>
@@ -368,46 +368,46 @@
     <t xml:space="preserve">18.1445846557617</t>
   </si>
   <si>
-    <t xml:space="preserve">18.042028427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025825500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1524753570557</t>
+    <t xml:space="preserve">18.0420303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524772644043</t>
   </si>
   <si>
     <t xml:space="preserve">16.8823547363281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665752410889</t>
+    <t xml:space="preserve">15.7147932052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665771484375</t>
   </si>
   <si>
     <t xml:space="preserve">16.8350219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0934600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830141067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.574686050415</t>
+    <t xml:space="preserve">16.0934562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384576797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830131530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746822357178</t>
   </si>
   <si>
     <t xml:space="preserve">16.3853511810303</t>
@@ -419,64 +419,64 @@
     <t xml:space="preserve">16.6220188140869</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7245750427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324619293213</t>
+    <t xml:space="preserve">16.724573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">17.048023223877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1269111633301</t>
+    <t xml:space="preserve">17.1269092559814</t>
   </si>
   <si>
     <t xml:space="preserve">17.0795783996582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0085754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345798492432</t>
+    <t xml:space="preserve">17.0085773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8290271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345817565918</t>
   </si>
   <si>
     <t xml:space="preserve">17.8132514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6318035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292491912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371341705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9334812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940353393555</t>
+    <t xml:space="preserve">17.6318054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371360778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185821533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786998748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.933479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940334320068</t>
   </si>
   <si>
     <t xml:space="preserve">19.0439262390137</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3181419372559</t>
+    <t xml:space="preserve">18.3181438446045</t>
   </si>
   <si>
     <t xml:space="preserve">18.3733673095703</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">18.1209182739258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812522888184</t>
+    <t xml:space="preserve">18.381254196167</t>
   </si>
   <si>
     <t xml:space="preserve">18.0972537994385</t>
@@ -509,79 +509,79 @@
     <t xml:space="preserve">17.5765819549561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6160278320312</t>
+    <t xml:space="preserve">17.616024017334</t>
   </si>
   <si>
     <t xml:space="preserve">17.4503574371338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6239166259766</t>
+    <t xml:space="preserve">17.6239185333252</t>
   </si>
   <si>
     <t xml:space="preserve">17.35569190979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.024356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399124145508</t>
+    <t xml:space="preserve">17.0243549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.339916229248</t>
   </si>
   <si>
     <t xml:space="preserve">17.4819145202637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2058029174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554698944092</t>
+    <t xml:space="preserve">17.2058010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554737091064</t>
   </si>
   <si>
     <t xml:space="preserve">17.6791362762451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0401344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322456359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111354827881</t>
+    <t xml:space="preserve">17.0401306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111316680908</t>
   </si>
   <si>
     <t xml:space="preserve">16.9928016662598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9533538818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4898052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2610206604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083572387695</t>
+    <t xml:space="preserve">16.9533557891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4898014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582481384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2610244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083591461182</t>
   </si>
   <si>
     <t xml:space="preserve">17.1663551330566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4424705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188003540039</t>
+    <t xml:space="preserve">17.4424686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188022613525</t>
   </si>
   <si>
     <t xml:space="preserve">17.6475830078125</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">17.2768020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">16.148681640625</t>
+    <t xml:space="preserve">16.1486835479736</t>
   </si>
   <si>
     <t xml:space="preserve">16.1802387237549</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">16.4563503265381</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960163116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964574813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166843414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092376708984</t>
+    <t xml:space="preserve">16.5352420806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.596453666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017862319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045663833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092357635498</t>
   </si>
   <si>
     <t xml:space="preserve">16.3774604797363</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">16.9217987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2689113616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247970581055</t>
+    <t xml:space="preserve">17.2689094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693496704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247932434082</t>
   </si>
   <si>
     <t xml:space="preserve">16.1723461151123</t>
@@ -647,43 +647,43 @@
     <t xml:space="preserve">16.9139099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.70090675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640209197998</t>
+    <t xml:space="preserve">16.7009086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640190124512</t>
   </si>
   <si>
     <t xml:space="preserve">16.9770240783691</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0716896057129</t>
+    <t xml:space="preserve">17.0716876983643</t>
   </si>
   <si>
     <t xml:space="preserve">17.2373580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6712493896484</t>
+    <t xml:space="preserve">17.6712474822998</t>
   </si>
   <si>
     <t xml:space="preserve">17.6633586883545</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1051406860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392520904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656967163086</t>
+    <t xml:space="preserve">18.1051425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392539978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06569480896</t>
   </si>
   <si>
     <t xml:space="preserve">18.1840305328369</t>
@@ -692,52 +692,52 @@
     <t xml:space="preserve">18.0893650054932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8526935577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01047706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974700927734</t>
+    <t xml:space="preserve">17.8526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
   </si>
   <si>
     <t xml:space="preserve">17.8684730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3339214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998043060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390357971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968116760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857063293457</t>
+    <t xml:space="preserve">18.3339195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390338897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6968154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5882625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330429077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065944671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857082366943</t>
   </si>
   <si>
     <t xml:space="preserve">19.5567092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2963695526123</t>
+    <t xml:space="preserve">19.2963733673096</t>
   </si>
   <si>
     <t xml:space="preserve">19.6592674255371</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">19.477819442749</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3279285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703708648682</t>
+    <t xml:space="preserve">19.3279304504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703689575195</t>
   </si>
   <si>
     <t xml:space="preserve">19.1385917663574</t>
@@ -764,10 +764,10 @@
     <t xml:space="preserve">19.4699306488037</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7381572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402732849121</t>
+    <t xml:space="preserve">19.7381534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402713775635</t>
   </si>
   <si>
     <t xml:space="preserve">20.2351589202881</t>
@@ -776,61 +776,61 @@
     <t xml:space="preserve">20.369270324707</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2193775177002</t>
+    <t xml:space="preserve">20.2193832397461</t>
   </si>
   <si>
     <t xml:space="preserve">21.2133846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8820476531982</t>
+    <t xml:space="preserve">20.8820514678955</t>
   </si>
   <si>
     <t xml:space="preserve">21.4816112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3001651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0477199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003852844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.118724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052814483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922744750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370567321777</t>
+    <t xml:space="preserve">21.300163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003871917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581649780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370548248291</t>
   </si>
   <si>
     <t xml:space="preserve">21.9391708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6788368225098</t>
+    <t xml:space="preserve">21.6788349151611</t>
   </si>
   <si>
     <t xml:space="preserve">21.5762805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4579467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867237091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8445053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619007110596</t>
+    <t xml:space="preserve">21.4579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8445014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619026184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.3725433349609</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">22.2181930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295101165771</t>
+    <t xml:space="preserve">22.9713497161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
   </si>
   <si>
     <t xml:space="preserve">22.7621402740479</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3060874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751411437988</t>
+    <t xml:space="preserve">23.3060894012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751449584961</t>
   </si>
   <si>
     <t xml:space="preserve">24.3186683654785</t>
@@ -863,28 +863,28 @@
     <t xml:space="preserve">24.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8584079742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0174045562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4525623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650897979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
+    <t xml:space="preserve">23.8584041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4525661468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090389251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.465087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
   </si>
   <si>
     <t xml:space="preserve">22.7788753509521</t>
@@ -896,43 +896,43 @@
     <t xml:space="preserve">23.5989837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7077713012695</t>
+    <t xml:space="preserve">23.7077732086182</t>
   </si>
   <si>
     <t xml:space="preserve">23.9086151123047</t>
   </si>
   <si>
-    <t xml:space="preserve">24.226619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
+    <t xml:space="preserve">24.2266178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345653533936</t>
   </si>
   <si>
     <t xml:space="preserve">24.1596698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">24.67014503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868782043457</t>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.686882019043</t>
   </si>
   <si>
     <t xml:space="preserve">24.8709850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.435827255249</t>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
   </si>
   <si>
     <t xml:space="preserve">24.7203559875488</t>
@@ -941,52 +941,52 @@
     <t xml:space="preserve">23.9923000335693</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8081951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508766174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
+    <t xml:space="preserve">23.8081970214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458824157715</t>
   </si>
   <si>
     <t xml:space="preserve">24.3939838409424</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847724914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458213806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9629821777344</t>
+    <t xml:space="preserve">24.2600917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.962984085083</t>
   </si>
   <si>
     <t xml:space="preserve">23.0215625762939</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393928527832</t>
+    <t xml:space="preserve">22.4776134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
   </si>
   <si>
     <t xml:space="preserve">22.5529308319092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7035617828369</t>
+    <t xml:space="preserve">22.7035579681396</t>
   </si>
   <si>
     <t xml:space="preserve">22.6700859069824</t>
@@ -998,28 +998,28 @@
     <t xml:space="preserve">22.7956142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4901924133301</t>
+    <t xml:space="preserve">23.4901943206787</t>
   </si>
   <si>
     <t xml:space="preserve">23.7161426544189</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826705932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240901947021</t>
+    <t xml:space="preserve">23.3311958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.841667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826667785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240882873535</t>
   </si>
   <si>
     <t xml:space="preserve">23.2475109100342</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">22.686824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.89182472229</t>
   </si>
   <si>
     <t xml:space="preserve">21.8416137695312</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">21.9755077362061</t>
   </si>
   <si>
-    <t xml:space="preserve">21.950403213501</t>
+    <t xml:space="preserve">21.9504051208496</t>
   </si>
   <si>
     <t xml:space="preserve">21.5236110687256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646144866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.757926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989284515381</t>
+    <t xml:space="preserve">21.3060340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989265441895</t>
   </si>
   <si>
     <t xml:space="preserve">21.4566631317139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319843292236</t>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319805145264</t>
   </si>
   <si>
     <t xml:space="preserve">21.4985084533691</t>
@@ -1091,31 +1091,31 @@
     <t xml:space="preserve">21.5570869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240329742432</t>
+    <t xml:space="preserve">21.3729839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240310668945</t>
   </si>
   <si>
     <t xml:space="preserve">22.1261405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9169273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
+    <t xml:space="preserve">21.9169292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2684059143066</t>
   </si>
   <si>
     <t xml:space="preserve">22.1428756713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.799768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148216247559</t>
+    <t xml:space="preserve">21.7997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
@@ -1124,40 +1124,40 @@
     <t xml:space="preserve">21.6407699584961</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345119476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
+    <t xml:space="preserve">22.2935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671421051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">22.8541927337646</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370376586914</t>
+    <t xml:space="preserve">22.3771934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370338439941</t>
   </si>
   <si>
     <t xml:space="preserve">22.728666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805610656738</t>
+    <t xml:space="preserve">22.5027160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805648803711</t>
   </si>
   <si>
     <t xml:space="preserve">23.1554565429688</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">23.0968780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6659336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0383014678955</t>
+    <t xml:space="preserve">23.6659317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382995605469</t>
   </si>
   <si>
     <t xml:space="preserve">23.0550346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1136150360107</t>
+    <t xml:space="preserve">23.1136169433594</t>
   </si>
   <si>
     <t xml:space="preserve">23.0466690063477</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7496166229248</t>
+    <t xml:space="preserve">23.7496128082275</t>
   </si>
   <si>
     <t xml:space="preserve">23.7412490844727</t>
@@ -1190,61 +1190,61 @@
     <t xml:space="preserve">23.5571422576904</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5069313049316</t>
+    <t xml:space="preserve">23.506929397583</t>
   </si>
   <si>
     <t xml:space="preserve">23.3730354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4818248748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.10524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5153026580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056674957275</t>
+    <t xml:space="preserve">23.4818229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056694030762</t>
   </si>
   <si>
     <t xml:space="preserve">23.1638259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0842418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118721008301</t>
+    <t xml:space="preserve">20.0842399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361385345459</t>
   </si>
   <si>
-    <t xml:space="preserve">20.460823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771362304688</t>
+    <t xml:space="preserve">20.4608211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.377140045166</t>
   </si>
   <si>
     <t xml:space="preserve">20.3269271850586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2599773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532936096191</t>
+    <t xml:space="preserve">20.2599792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532955169678</t>
   </si>
   <si>
     <t xml:space="preserve">20.2516117095947</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">20.603084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5026664733887</t>
+    <t xml:space="preserve">20.5026626586914</t>
   </si>
   <si>
     <t xml:space="preserve">21.0047702789307</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">21.3562450408936</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1219253540039</t>
+    <t xml:space="preserve">21.1219291687012</t>
   </si>
   <si>
     <t xml:space="preserve">20.7955589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9210872650146</t>
+    <t xml:space="preserve">20.921085357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.7788219451904</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">21.8332443237305</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077198028564</t>
+    <t xml:space="preserve">22.0006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077178955078</t>
   </si>
   <si>
     <t xml:space="preserve">21.2725601196289</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">21.3144016265869</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1135578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231929779053</t>
+    <t xml:space="preserve">21.1135597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231910705566</t>
   </si>
   <si>
     <t xml:space="preserve">22.3269824981689</t>
@@ -1313,10 +1313,10 @@
     <t xml:space="preserve">21.9085597991943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5780334472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424575805664</t>
+    <t xml:space="preserve">22.578031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
     <t xml:space="preserve">22.1930885314941</t>
@@ -1325,19 +1325,19 @@
     <t xml:space="preserve">22.4274024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583507537842</t>
+    <t xml:space="preserve">22.3604545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583526611328</t>
   </si>
   <si>
     <t xml:space="preserve">22.2600345611572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.992244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
+    <t xml:space="preserve">21.9922466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6282444000244</t>
   </si>
   <si>
     <t xml:space="preserve">22.7454013824463</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">22.310245513916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6784553527832</t>
+    <t xml:space="preserve">22.6784572601318</t>
   </si>
   <si>
     <t xml:space="preserve">22.1596126556396</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3687705993652</t>
+    <t xml:space="preserve">20.368766784668</t>
   </si>
   <si>
     <t xml:space="preserve">20.1511898040771</t>
@@ -1364,61 +1364,61 @@
     <t xml:space="preserve">20.3352947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3520336151123</t>
+    <t xml:space="preserve">20.352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">20.9043464660645</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9545593261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696125030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
+    <t xml:space="preserve">20.9545612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185596466064</t>
   </si>
   <si>
     <t xml:space="preserve">19.9838199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.632345199585</t>
+    <t xml:space="preserve">19.6323432922363</t>
   </si>
   <si>
     <t xml:space="preserve">19.3980312347412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812923431396</t>
+    <t xml:space="preserve">18.7787647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812942504883</t>
   </si>
   <si>
     <t xml:space="preserve">19.5151901245117</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8541393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867694854736</t>
+    <t xml:space="preserve">20.8541355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198177337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.686767578125</t>
   </si>
   <si>
     <t xml:space="preserve">20.6700344085693</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">19.950345993042</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1846618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855037689209</t>
+    <t xml:space="preserve">20.184663772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855075836182</t>
   </si>
   <si>
     <t xml:space="preserve">20.7704524993896</t>
@@ -1442,70 +1442,70 @@
     <t xml:space="preserve">20.4189796447754</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8331890106201</t>
+    <t xml:space="preserve">19.8331909179688</t>
   </si>
   <si>
     <t xml:space="preserve">19.8164539337158</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
+    <t xml:space="preserve">19.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001350402832</t>
   </si>
   <si>
     <t xml:space="preserve">20.7369804382324</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3897171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.021505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7884616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.561861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141529083252</t>
+    <t xml:space="preserve">21.3897190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.457275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
   </si>
   <si>
     <t xml:space="preserve">21.7361679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7187404632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159660339355</t>
+    <t xml:space="preserve">21.7187385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
   </si>
   <si>
     <t xml:space="preserve">22.03249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1893672943115</t>
+    <t xml:space="preserve">22.1893692016602</t>
   </si>
   <si>
     <t xml:space="preserve">22.0847835540771</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9976272583008</t>
+    <t xml:space="preserve">21.997631072998</t>
   </si>
   <si>
     <t xml:space="preserve">21.8756141662598</t>
   </si>
   <si>
-    <t xml:space="preserve">21.666446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3526935577393</t>
+    <t xml:space="preserve">21.6664447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526916503906</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270004272461</t>
@@ -1517,49 +1517,49 @@
     <t xml:space="preserve">21.126091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.986644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.341703414917</t>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
   </si>
   <si>
     <t xml:space="preserve">21.1086597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7710285186768</t>
+    <t xml:space="preserve">21.7710266113281</t>
   </si>
   <si>
     <t xml:space="preserve">21.683874130249</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792903900146</t>
+    <t xml:space="preserve">21.8930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.474702835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5792922973633</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031646728516</t>
+    <t xml:space="preserve">21.3701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031665802002</t>
   </si>
   <si>
     <t xml:space="preserve">20.7251834869385</t>
@@ -1568,40 +1568,40 @@
     <t xml:space="preserve">21.0040760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1609516143799</t>
+    <t xml:space="preserve">21.1609535217285</t>
   </si>
   <si>
     <t xml:space="preserve">20.88205909729</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435203552246</t>
+    <t xml:space="preserve">20.7949085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">21.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003997802734</t>
+    <t xml:space="preserve">20.916919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003978729248</t>
   </si>
   <si>
     <t xml:space="preserve">20.9343547821045</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6728897094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9279041290283</t>
+    <t xml:space="preserve">20.6728916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.533447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9279079437256</t>
   </si>
   <si>
     <t xml:space="preserve">23.2003536224365</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">24.0893211364746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1939086914062</t>
+    <t xml:space="preserve">24.1939067840576</t>
   </si>
   <si>
     <t xml:space="preserve">24.2636299133301</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">24.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2113380432129</t>
+    <t xml:space="preserve">24.2113361358643</t>
   </si>
   <si>
     <t xml:space="preserve">23.8452911376953</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">23.7755680084229</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8104267120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150142669678</t>
+    <t xml:space="preserve">23.8104305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150161743164</t>
   </si>
   <si>
     <t xml:space="preserve">24.1067523956299</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">24.1416149139404</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2461986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6296768188477</t>
+    <t xml:space="preserve">24.2461967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.629674911499</t>
   </si>
   <si>
     <t xml:space="preserve">24.507661819458</t>
@@ -1670,22 +1670,22 @@
     <t xml:space="preserve">24.2810611724854</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0718898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801536560059</t>
+    <t xml:space="preserve">24.071891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801517486572</t>
   </si>
   <si>
     <t xml:space="preserve">23.5315361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5489673614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929954528809</t>
+    <t xml:space="preserve">23.5489692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2875061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929992675781</t>
   </si>
   <si>
     <t xml:space="preserve">23.4966735839844</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">24.1241836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9498748779297</t>
+    <t xml:space="preserve">23.9498767852783</t>
   </si>
   <si>
     <t xml:space="preserve">24.6993980407715</t>
@@ -1706,16 +1706,16 @@
     <t xml:space="preserve">24.4379367828369</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9847373962402</t>
+    <t xml:space="preserve">23.9847393035889</t>
   </si>
   <si>
     <t xml:space="preserve">23.8278617858887</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6948623657227</t>
+    <t xml:space="preserve">23.9324474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
   </si>
   <si>
     <t xml:space="preserve">22.3811054229736</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">21.9453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5967235565186</t>
+    <t xml:space="preserve">21.5967216491699</t>
   </si>
   <si>
     <t xml:space="preserve">21.8058910369873</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">22.1370754241943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3462448120117</t>
+    <t xml:space="preserve">22.3462429046631</t>
   </si>
   <si>
     <t xml:space="preserve">21.8233222961426</t>
@@ -1745,94 +1745,94 @@
     <t xml:space="preserve">22.2765216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4333992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
+    <t xml:space="preserve">22.4334011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077560424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.871072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719802856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.219690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802440643311</t>
   </si>
   <si>
     <t xml:space="preserve">20.1325378417969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.202262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096134185791</t>
+    <t xml:space="preserve">20.2022590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
   </si>
   <si>
     <t xml:space="preserve">19.4004440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453853607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985809326172</t>
+    <t xml:space="preserve">19.4876022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985847473145</t>
   </si>
   <si>
     <t xml:space="preserve">20.7426128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9517860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205978393555</t>
+    <t xml:space="preserve">20.9517841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205997467041</t>
   </si>
   <si>
     <t xml:space="preserve">20.4811515808105</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316303253174</t>
   </si>
   <si>
     <t xml:space="preserve">20.1674003601074</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">18.3023071289062</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7729377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683540344238</t>
+    <t xml:space="preserve">18.7729396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
     <t xml:space="preserve">19.2609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0169677734375</t>
+    <t xml:space="preserve">19.0169658660889</t>
   </si>
   <si>
     <t xml:space="preserve">19.2261371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8994903564453</t>
+    <t xml:space="preserve">20.8994922637939</t>
   </si>
   <si>
     <t xml:space="preserve">21.1783847808838</t>
@@ -1868,34 +1868,34 @@
     <t xml:space="preserve">20.8471984863281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1958160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692596435547</t>
+    <t xml:space="preserve">21.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692577362061</t>
   </si>
   <si>
     <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9995365142822</t>
+    <t xml:space="preserve">18.9995346069336</t>
   </si>
   <si>
     <t xml:space="preserve">19.2087078094482</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4527359008789</t>
+    <t xml:space="preserve">19.4527397155762</t>
   </si>
   <si>
     <t xml:space="preserve">19.0343990325928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1389827728271</t>
+    <t xml:space="preserve">19.1389846801758</t>
   </si>
   <si>
     <t xml:space="preserve">19.3307228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5573215484619</t>
+    <t xml:space="preserve">19.5573234558105</t>
   </si>
   <si>
     <t xml:space="preserve">19.4353065490723</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">19.9756603240967</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2371215820312</t>
+    <t xml:space="preserve">20.2371196746826</t>
   </si>
   <si>
     <t xml:space="preserve">20.0976753234863</t>
@@ -1913,70 +1913,70 @@
     <t xml:space="preserve">19.7839241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1848278045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857391357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921821594238</t>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
   </si>
   <si>
     <t xml:space="preserve">19.7490615844727</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031242370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.049919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279521942139</t>
+    <t xml:space="preserve">20.864631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0499210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279541015625</t>
   </si>
   <si>
     <t xml:space="preserve">18.8077983856201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068927764893</t>
+    <t xml:space="preserve">18.4068908691406</t>
   </si>
   <si>
     <t xml:space="preserve">18.1802921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3371696472168</t>
+    <t xml:space="preserve">18.3371658325195</t>
   </si>
   <si>
     <t xml:space="preserve">17.8665370941162</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0211448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592288970947</t>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642654418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.021146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.559232711792</t>
   </si>
   <si>
     <t xml:space="preserve">16.470344543457</t>
@@ -1988,28 +1988,28 @@
     <t xml:space="preserve">16.4525661468506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637022018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970268249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036914825439</t>
+    <t xml:space="preserve">15.9637031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036895751953</t>
   </si>
   <si>
     <t xml:space="preserve">15.8125972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.99036693573</t>
+    <t xml:space="preserve">15.9903650283813</t>
   </si>
   <si>
     <t xml:space="preserve">15.6970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8214855194092</t>
+    <t xml:space="preserve">15.8214864730835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0081443786621</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">16.2214679718018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3103542327881</t>
+    <t xml:space="preserve">16.3103523254395</t>
   </si>
   <si>
     <t xml:space="preserve">16.319242477417</t>
@@ -2027,22 +2027,22 @@
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481327056885</t>
+    <t xml:space="preserve">16.2481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703639984131</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7059364318848</t>
+    <t xml:space="preserve">15.7059354782104</t>
   </si>
   <si>
     <t xml:space="preserve">15.5281658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6259384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688159942627</t>
+    <t xml:space="preserve">15.6259412765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881589889526</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348110198975</t>
@@ -2054,61 +2054,61 @@
     <t xml:space="preserve">15.9370355606079</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7326030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0170345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081609725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770627975464</t>
+    <t xml:space="preserve">15.7326021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
   </si>
   <si>
     <t xml:space="preserve">15.2348461151123</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2792882919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1370725631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415069580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615127563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9593029022217</t>
+    <t xml:space="preserve">15.2792901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415088653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959303855896</t>
   </si>
   <si>
     <t xml:space="preserve">15.0659656524658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0570764541626</t>
+    <t xml:space="preserve">15.0570793151855</t>
   </si>
   <si>
     <t xml:space="preserve">15.3859510421753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0837430953979</t>
+    <t xml:space="preserve">15.0837411880493</t>
   </si>
   <si>
     <t xml:space="preserve">15.1015186309814</t>
@@ -2117,61 +2117,61 @@
     <t xml:space="preserve">14.9770812988281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9014806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
+    <t xml:space="preserve">15.9014825820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592502593994</t>
   </si>
   <si>
     <t xml:space="preserve">15.6703815460205</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6437177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548490524292</t>
+    <t xml:space="preserve">15.6437187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548509597778</t>
   </si>
   <si>
     <t xml:space="preserve">14.5770988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0215225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859325408936</t>
+    <t xml:space="preserve">15.021523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792707443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859344482422</t>
   </si>
   <si>
     <t xml:space="preserve">15.4659471511841</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5992727279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925943374634</t>
+    <t xml:space="preserve">15.5992736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925933837891</t>
   </si>
   <si>
     <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1903114318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413940429688</t>
+    <t xml:space="preserve">17.1903133392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.776948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.741397857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.2880859375</t>
@@ -2180,31 +2180,31 @@
     <t xml:space="preserve">17.0125408172607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036739349365</t>
+    <t xml:space="preserve">16.9325428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036720275879</t>
   </si>
   <si>
     <t xml:space="preserve">16.0525856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5814962387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459627151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.288179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615283966064</t>
+    <t xml:space="preserve">15.5814971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459617614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726089477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2881803512573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615303039551</t>
   </si>
   <si>
     <t xml:space="preserve">14.7370920181274</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">15.2437353134155</t>
   </si>
   <si>
-    <t xml:space="preserve">15.074854850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815156936646</t>
+    <t xml:space="preserve">15.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815147399902</t>
   </si>
   <si>
     <t xml:space="preserve">15.1992931365967</t>
@@ -2225,25 +2225,25 @@
     <t xml:space="preserve">15.3681755065918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474835395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659851074219</t>
+    <t xml:space="preserve">15.4126167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437547683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459802627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659832000732</t>
   </si>
   <si>
     <t xml:space="preserve">15.4570579528809</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">15.6614942550659</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7770442962646</t>
+    <t xml:space="preserve">15.7770433425903</t>
   </si>
   <si>
     <t xml:space="preserve">15.8570394515991</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">16.2125778198242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4970092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192211151123</t>
+    <t xml:space="preserve">16.4970111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192230224609</t>
   </si>
   <si>
     <t xml:space="preserve">17.1547565460205</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">16.7014465332031</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8436584472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969898223877</t>
+    <t xml:space="preserve">16.8436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969917297363</t>
   </si>
   <si>
     <t xml:space="preserve">16.7281112670898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7636661529541</t>
+    <t xml:space="preserve">16.7636623382568</t>
   </si>
   <si>
     <t xml:space="preserve">16.5770053863525</t>
@@ -2300,28 +2300,28 @@
     <t xml:space="preserve">16.9592113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8169937133789</t>
+    <t xml:space="preserve">16.8169975280762</t>
   </si>
   <si>
     <t xml:space="preserve">16.8081073760986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9236583709717</t>
+    <t xml:space="preserve">16.8881053924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.923656463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.8614368438721</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7547740936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992172241211</t>
+    <t xml:space="preserve">16.7547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992191314697</t>
   </si>
   <si>
     <t xml:space="preserve">16.3814601898193</t>
@@ -2330,19 +2330,19 @@
     <t xml:space="preserve">16.3459072113037</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459257125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503795623779</t>
+    <t xml:space="preserve">16.65700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4170150756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459266662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503786087036</t>
   </si>
   <si>
     <t xml:space="preserve">15.1904058456421</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">14.8970851898193</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8526411056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771192550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32373046875</t>
+    <t xml:space="preserve">14.8526420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771173477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.292667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237314224243</t>
   </si>
   <si>
     <t xml:space="preserve">15.1281852722168</t>
@@ -2372,61 +2372,61 @@
     <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.105920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836875915527</t>
+    <t xml:space="preserve">16.1059169769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836856842041</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548139572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015565872192</t>
+    <t xml:space="preserve">15.95481300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015575408936</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326751708984</t>
+    <t xml:space="preserve">14.1326742172241</t>
   </si>
   <si>
     <t xml:space="preserve">13.7415838241577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.866021156311</t>
+    <t xml:space="preserve">13.8660221099854</t>
   </si>
   <si>
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5904788970947</t>
+    <t xml:space="preserve">13.5904779434204</t>
   </si>
   <si>
     <t xml:space="preserve">13.3060483932495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1638317108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8882904052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1594352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6705684661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.297251701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1595268249512</t>
+    <t xml:space="preserve">13.1638326644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8882894515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1594343185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6705675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1595277786255</t>
   </si>
   <si>
     <t xml:space="preserve">11.1105937957764</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">12.1416568756104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3283157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1683235168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5505266189575</t>
+    <t xml:space="preserve">12.328314781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1683216094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5505275726318</t>
   </si>
   <si>
     <t xml:space="preserve">13.901575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3104457855225</t>
+    <t xml:space="preserve">14.3104467391968</t>
   </si>
   <si>
     <t xml:space="preserve">14.8881969451904</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6349210739136</t>
+    <t xml:space="preserve">13.6349220275879</t>
   </si>
   <si>
     <t xml:space="preserve">14.079345703125</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">13.5460367202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6438093185425</t>
+    <t xml:space="preserve">13.6438102722168</t>
   </si>
   <si>
     <t xml:space="preserve">13.6793632507324</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">13.5815896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9282417297363</t>
+    <t xml:space="preserve">13.928240776062</t>
   </si>
   <si>
     <t xml:space="preserve">13.9993495941162</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">14.1948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682680130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438268661499</t>
+    <t xml:space="preserve">13.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438278198242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571523666382</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">13.6260318756104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7771377563477</t>
+    <t xml:space="preserve">13.7771368026733</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726829528809</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4882144927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532657623291</t>
+    <t xml:space="preserve">14.4882135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326595306396</t>
   </si>
   <si>
     <t xml:space="preserve">14.6570959091187</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1104078292847</t>
+    <t xml:space="preserve">15.110408782959</t>
   </si>
   <si>
     <t xml:space="preserve">15.3326206207275</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">14.8082008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7681541442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079252243042</t>
+    <t xml:space="preserve">15.1192960739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304107666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7681550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0792541503906</t>
   </si>
   <si>
     <t xml:space="preserve">16.6214504241943</t>
@@ -2555,31 +2555,31 @@
     <t xml:space="preserve">16.4259014129639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3325290679932</t>
+    <t xml:space="preserve">17.3325271606445</t>
   </si>
   <si>
     <t xml:space="preserve">17.1192035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9414348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2525310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5014057159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147117614746</t>
+    <t xml:space="preserve">16.9414329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2525329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147136688232</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0879554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.892406463623</t>
+    <t xml:space="preserve">20.0879535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8924083709717</t>
   </si>
   <si>
     <t xml:space="preserve">19.4479827880859</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">19.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4434947967529</t>
+    <t xml:space="preserve">20.4434928894043</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790477752686</t>
@@ -2603,55 +2603,55 @@
     <t xml:space="preserve">20.6212635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.012357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9056930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3190536499023</t>
+    <t xml:space="preserve">21.0123558044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9056949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989933013916</t>
+    <t xml:space="preserve">20.6568164825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989952087402</t>
   </si>
   <si>
     <t xml:space="preserve">21.8478717803955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.563440322876</t>
+    <t xml:space="preserve">21.5634422302246</t>
   </si>
   <si>
     <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7767639160156</t>
+    <t xml:space="preserve">21.7767658233643</t>
   </si>
   <si>
     <t xml:space="preserve">21.9545364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8300971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034111022949</t>
+    <t xml:space="preserve">21.8300952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034091949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.1678562164307</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1323051452637</t>
+    <t xml:space="preserve">22.132303237915</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723129272461</t>
@@ -2663,31 +2663,31 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8656482696533</t>
+    <t xml:space="preserve">21.865650177002</t>
   </si>
   <si>
     <t xml:space="preserve">21.6523284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8123188018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1100368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6077899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9988842010498</t>
+    <t xml:space="preserve">21.8123207092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1100330352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6077919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9988822937012</t>
   </si>
   <si>
     <t xml:space="preserve">24.9410610198975</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8344020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9943943023682</t>
+    <t xml:space="preserve">24.834400177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9943962097168</t>
   </si>
   <si>
     <t xml:space="preserve">25.0299472808838</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">24.5321922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6032981872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.674409866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8699512481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6921863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4433059692383</t>
+    <t xml:space="preserve">24.6033000946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744079589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8699531555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6921844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4433078765869</t>
   </si>
   <si>
     <t xml:space="preserve">24.7455158233643</t>
@@ -2729,67 +2729,67 @@
     <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4966373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7810688018799</t>
+    <t xml:space="preserve">24.496639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7810707092285</t>
   </si>
   <si>
     <t xml:space="preserve">24.1410980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0121688842773</t>
+    <t xml:space="preserve">25.012170791626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2921104431152</t>
+    <t xml:space="preserve">25.5454788208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2921085357666</t>
   </si>
   <si>
     <t xml:space="preserve">25.581033706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1854457855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1809577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5587635040283</t>
+    <t xml:space="preserve">26.1854496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1809558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.558765411377</t>
   </si>
   <si>
     <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5765399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2032241821289</t>
+    <t xml:space="preserve">26.5765419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2032260894775</t>
   </si>
   <si>
     <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1498947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8832397460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743320465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4343280792236</t>
+    <t xml:space="preserve">26.1498928070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.883243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743339538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.434326171875</t>
   </si>
   <si>
     <t xml:space="preserve">26.309886932373</t>
@@ -2798,13 +2798,13 @@
     <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4521045684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0342540740967</t>
+    <t xml:space="preserve">26.4521007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.034252166748</t>
   </si>
   <si>
     <t xml:space="preserve">27.9098110198975</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">27.1454029083252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0387439727783</t>
+    <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
     <t xml:space="preserve">27.127628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2210006713867</t>
+    <t xml:space="preserve">26.2210025787354</t>
   </si>
   <si>
     <t xml:space="preserve">26.0254573822021</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4077529907227</t>
+    <t xml:space="preserve">24.4077548980713</t>
   </si>
   <si>
     <t xml:space="preserve">24.4610862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010162353516</t>
+    <t xml:space="preserve">25.9010181427002</t>
   </si>
   <si>
     <t xml:space="preserve">26.1676731109619</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6654262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.736536026001</t>
+    <t xml:space="preserve">26.6654243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7365341186523</t>
   </si>
   <si>
     <t xml:space="preserve">25.403263092041</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">25.1721611022949</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0209655761719</t>
+    <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988082885742</t>
@@ -2864,40 +2864,40 @@
     <t xml:space="preserve">24.8521785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5677433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1543846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499706268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0877685546875</t>
+    <t xml:space="preserve">24.5677452087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1543865203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0877704620361</t>
   </si>
   <si>
     <t xml:space="preserve">25.3143787384033</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">26.0076770782471</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">25.101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5144138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3366470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1766548156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6611232757568</t>
+    <t xml:space="preserve">25.1010551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5144119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3366432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1766529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
@@ -2918,22 +2918,22 @@
     <t xml:space="preserve">23.5617542266846</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7975559234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3803730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7612762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2872905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7794132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8519687652588</t>
+    <t xml:space="preserve">23.7975540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.38037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7612781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2872924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7794151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8519668579102</t>
   </si>
   <si>
     <t xml:space="preserve">23.7250003814697</t>
@@ -2942,13 +2942,13 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989860534668</t>
+    <t xml:space="preserve">23.1989879608154</t>
   </si>
   <si>
     <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4347858428955</t>
+    <t xml:space="preserve">23.4347877502441</t>
   </si>
   <si>
     <t xml:space="preserve">24.251012802124</t>
@@ -2957,28 +2957,28 @@
     <t xml:space="preserve">25.6295299530029</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4457569122314</t>
+    <t xml:space="preserve">26.4457588195801</t>
   </si>
   <si>
     <t xml:space="preserve">26.6452789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3164005279541</t>
+    <t xml:space="preserve">27.3163986206055</t>
   </si>
   <si>
     <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8629398345947</t>
+    <t xml:space="preserve">26.8629417419434</t>
   </si>
   <si>
     <t xml:space="preserve">27.5340595245361</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1870403289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3502864837646</t>
+    <t xml:space="preserve">28.1870422363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
     <t xml:space="preserve">28.2777347564697</t>
@@ -2993,40 +2993,40 @@
     <t xml:space="preserve">30.0371551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3455066680908</t>
+    <t xml:space="preserve">30.3455085754395</t>
   </si>
   <si>
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4724769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3273677825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0008792877197</t>
+    <t xml:space="preserve">30.853385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4724750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3273696899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0008811950684</t>
   </si>
   <si>
     <t xml:space="preserve">29.6199722290039</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8763008117676</t>
+    <t xml:space="preserve">28.8762989044189</t>
   </si>
   <si>
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.586088180542</t>
+    <t xml:space="preserve">27.7335796356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5860843658447</t>
   </si>
   <si>
     <t xml:space="preserve">27.7698612213135</t>
@@ -3035,64 +3035,64 @@
     <t xml:space="preserve">28.803747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7879981994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6610279083252</t>
+    <t xml:space="preserve">27.7879962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6610298156738</t>
   </si>
   <si>
     <t xml:space="preserve">28.3684253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4772567749023</t>
+    <t xml:space="preserve">28.4772529602051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8944396972656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3975353240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2910976409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5450325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1278495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5631675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.177490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0505180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5245018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421627044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3431205749512</t>
+    <t xml:space="preserve">31.397533416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3817863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2910938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5450344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1278514862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5631694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1774864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0505142211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5245037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.742166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3431243896484</t>
   </si>
   <si>
     <t xml:space="preserve">31.5970592498779</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2342910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235515594482</t>
+    <t xml:space="preserve">31.2342872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.923547744751</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225898742676</t>
@@ -3104,10 +3104,10 @@
     <t xml:space="preserve">33.1932334899902</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9211616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2295112609863</t>
+    <t xml:space="preserve">32.9211578369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2295150756836</t>
   </si>
   <si>
     <t xml:space="preserve">33.1388206481934</t>
@@ -3116,16 +3116,16 @@
     <t xml:space="preserve">32.8486061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4108924865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0481300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.685359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.794189453125</t>
+    <t xml:space="preserve">33.4108963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0481262207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6853637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7941932678223</t>
   </si>
   <si>
     <t xml:space="preserve">32.6128082275391</t>
@@ -3140,19 +3140,19 @@
     <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1025390625</t>
+    <t xml:space="preserve">33.1025428771973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299911499023</t>
+    <t xml:space="preserve">33.0299835205078</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736663818359</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9550437927246</t>
+    <t xml:space="preserve">33.9550476074219</t>
   </si>
   <si>
     <t xml:space="preserve">33.2113723754883</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1569595336914</t>
+    <t xml:space="preserve">32.8667449951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1569557189941</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750984191895</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">32.7397766113281</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5324172973633</t>
+    <t xml:space="preserve">33.532413482666</t>
   </si>
   <si>
     <t xml:space="preserve">33.2746162414551</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140037536621</t>
+    <t xml:space="preserve">33.5140075683594</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
@@ -3200,19 +3200,19 @@
     <t xml:space="preserve">33.6429061889648</t>
   </si>
   <si>
-    <t xml:space="preserve">33.661319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.10888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1273040771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664329528809</t>
+    <t xml:space="preserve">33.6613159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1273002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664291381836</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3224,25 +3224,25 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4971199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.478702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7917442321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2761497497559</t>
+    <t xml:space="preserve">35.7789649963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4971160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4787063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.791748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
     <t xml:space="preserve">35.4106750488281</t>
   </si>
   <si>
-    <t xml:space="preserve">35.244945526123</t>
+    <t xml:space="preserve">35.2449493408203</t>
   </si>
   <si>
     <t xml:space="preserve">34.766170501709</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">34.6004486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6372756958008</t>
+    <t xml:space="preserve">34.6372718811035</t>
   </si>
   <si>
     <t xml:space="preserve">34.508373260498</t>
@@ -3266,28 +3266,28 @@
     <t xml:space="preserve">34.4347190856934</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2505760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5636177062988</t>
+    <t xml:space="preserve">34.2505722045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
     <t xml:space="preserve">33.4035148620605</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7165565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1032638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6925163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689895629883</t>
+    <t xml:space="preserve">33.7165603637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6925201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689933776855</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
@@ -3299,25 +3299,25 @@
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298606872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5452003479004</t>
+    <t xml:space="preserve">33.3298645019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
     <t xml:space="preserve">34.342643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2930297851562</t>
+    <t xml:space="preserve">33.2930335998535</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843330383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3186073303223</t>
+    <t xml:space="preserve">35.4843292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.318603515625</t>
   </si>
   <si>
     <t xml:space="preserve">35.5395736694336</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">35.5764007568359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.392261505127</t>
+    <t xml:space="preserve">35.3922576904297</t>
   </si>
   <si>
     <t xml:space="preserve">35.0608062744141</t>
@@ -3353,10 +3353,10 @@
     <t xml:space="preserve">35.1344604492188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7605476379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9815216064453</t>
+    <t xml:space="preserve">35.7605438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.981517791748</t>
   </si>
   <si>
     <t xml:space="preserve">34.3242301940918</t>
@@ -3377,13 +3377,13 @@
     <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6444358825684</t>
+    <t xml:space="preserve">36.6444320678711</t>
   </si>
   <si>
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1656608581543</t>
+    <t xml:space="preserve">36.165657043457</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3395,31 +3395,31 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4700164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8255157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8807621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9175910949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2546730041504</t>
+    <t xml:space="preserve">31.7278175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4700183868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595333099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8255176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8807601928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
     <t xml:space="preserve">29.4996891021729</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">29.0393314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6158008575439</t>
+    <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.278715133667</t>
+    <t xml:space="preserve">28.8183574676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.475643157959</t>
+    <t xml:space="preserve">30.4756450653076</t>
   </si>
   <si>
     <t xml:space="preserve">30.3467445373535</t>
@@ -3461,28 +3461,28 @@
     <t xml:space="preserve">30.7334480285645</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3835735321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5677185058594</t>
+    <t xml:space="preserve">30.3835754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5677165985107</t>
   </si>
   <si>
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649070739746</t>
+    <t xml:space="preserve">31.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649032592773</t>
   </si>
   <si>
     <t xml:space="preserve">30.4940586090088</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1201438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2858715057373</t>
+    <t xml:space="preserve">31.1201457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
     <t xml:space="preserve">31.2674598693848</t>
@@ -3491,34 +3491,34 @@
     <t xml:space="preserve">31.875129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2802505493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4884338378906</t>
+    <t xml:space="preserve">32.2802467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
     <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5861320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3948307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9897155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002025604248</t>
+    <t xml:space="preserve">30.5861339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.394832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9897174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002044677734</t>
   </si>
   <si>
     <t xml:space="preserve">27.7503318786621</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4500751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9104309082031</t>
+    <t xml:space="preserve">28.4500732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9104290008545</t>
   </si>
   <si>
     <t xml:space="preserve">28.5605602264404</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0265445709229</t>
+    <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
     <t xml:space="preserve">28.2291030883789</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">27.4925308227539</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2531471252441</t>
+    <t xml:space="preserve">27.2531452178955</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">28.2106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5237331390381</t>
+    <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
     <t xml:space="preserve">28.1370296478271</t>
@@ -3587,19 +3587,19 @@
     <t xml:space="preserve">29.1314029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0209178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9656753540039</t>
+    <t xml:space="preserve">29.0209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
     <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5421466827393</t>
+    <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477752685547</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">25.7800025939941</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9641456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3508453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5958576202393</t>
+    <t xml:space="preserve">25.964147567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3508472442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5958595275879</t>
   </si>
   <si>
     <t xml:space="preserve">25.1355018615723</t>
@@ -3629,16 +3629,16 @@
     <t xml:space="preserve">24.8592891693115</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7927875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.584602355957</t>
+    <t xml:space="preserve">26.7927894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1682300567627</t>
+    <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
     <t xml:space="preserve">28.4684886932373</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526317596436</t>
+    <t xml:space="preserve">28.6526336669922</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3662,16 +3662,16 @@
     <t xml:space="preserve">28.044958114624</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344749450684</t>
+    <t xml:space="preserve">28.3395881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344730377197</t>
   </si>
   <si>
     <t xml:space="preserve">27.2163181304932</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5534038543701</t>
+    <t xml:space="preserve">26.5534019470215</t>
   </si>
   <si>
     <t xml:space="preserve">25.8720741271973</t>
@@ -3683,10 +3683,10 @@
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091579437256</t>
+    <t xml:space="preserve">25.7984161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091598510742</t>
   </si>
   <si>
     <t xml:space="preserve">23.3677310943604</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623592376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9682445526123</t>
+    <t xml:space="preserve">22.2812881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
     <t xml:space="preserve">21.8393459320068</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388286590576</t>
+    <t xml:space="preserve">23.2388305664062</t>
   </si>
   <si>
     <t xml:space="preserve">23.1835880279541</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">22.391773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4838466644287</t>
+    <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
     <t xml:space="preserve">23.9754028320312</t>
@@ -3743,13 +3743,13 @@
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7784729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6863994598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7232303619385</t>
+    <t xml:space="preserve">22.778470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6864013671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7232322692871</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
@@ -3764,7 +3764,7 @@
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419025421143</t>
+    <t xml:space="preserve">22.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.918628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7897300720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2500877380371</t>
+    <t xml:space="preserve">21.7288589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9186305999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7897319793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2500858306885</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158153533936</t>
+    <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557144165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.624002456665</t>
+    <t xml:space="preserve">20.2557163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6240005493164</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636428833008</t>
+    <t xml:space="preserve">20.1636447906494</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">20.3050022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9933052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2609825134277</t>
+    <t xml:space="preserve">20.9933071136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2609806060791</t>
   </si>
   <si>
     <t xml:space="preserve">21.796329498291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5860137939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1845035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.528657913208</t>
+    <t xml:space="preserve">21.5860157012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1845016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">20.9550685882568</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">20.132926940918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1578273773193</t>
+    <t xml:space="preserve">19.157829284668</t>
   </si>
   <si>
     <t xml:space="preserve">19.5593376159668</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">18.8710327148438</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9034900665283</t>
+    <t xml:space="preserve">19.903491973877</t>
   </si>
   <si>
     <t xml:space="preserve">18.4886417388916</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">18.0202121734619</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0010929107666</t>
+    <t xml:space="preserve">18.001091003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.9150524139404</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">17.4753036499023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9590740203857</t>
+    <t xml:space="preserve">16.9590759277344</t>
   </si>
   <si>
     <t xml:space="preserve">16.8539161682129</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">17.0833530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5039806365967</t>
+    <t xml:space="preserve">17.5039825439453</t>
   </si>
   <si>
     <t xml:space="preserve">17.7907772064209</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">18.2114067077637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6760578155518</t>
+    <t xml:space="preserve">17.6760597229004</t>
   </si>
   <si>
     <t xml:space="preserve">17.1120319366455</t>
@@ -3941,10 +3941,10 @@
     <t xml:space="preserve">17.3988246917725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6282615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8003368377686</t>
+    <t xml:space="preserve">17.6282596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8003387451172</t>
   </si>
   <si>
     <t xml:space="preserve">17.685619354248</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">18.2209663391113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3165664672852</t>
+    <t xml:space="preserve">18.3165645599365</t>
   </si>
   <si>
     <t xml:space="preserve">18.4408435821533</t>
@@ -3995,19 +3995,19 @@
     <t xml:space="preserve">18.421724319458</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9532928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0775718688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.714298248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8098945617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5804595947266</t>
+    <t xml:space="preserve">17.9532947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0775699615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7143001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8098964691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5804615020752</t>
   </si>
   <si>
     <t xml:space="preserve">17.1024703979492</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">16.3090076446533</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5958023071289</t>
+    <t xml:space="preserve">16.5958042144775</t>
   </si>
   <si>
     <t xml:space="preserve">15.6971817016602</t>
@@ -4037,13 +4037,13 @@
     <t xml:space="preserve">15.9074974060059</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8692588806152</t>
+    <t xml:space="preserve">15.8692579269409</t>
   </si>
   <si>
     <t xml:space="preserve">15.8501386642456</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2803287506104</t>
+    <t xml:space="preserve">16.280330657959</t>
   </si>
   <si>
     <t xml:space="preserve">16.6913986206055</t>
@@ -4070,34 +4070,34 @@
     <t xml:space="preserve">14.1867351531982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572992324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1676149368286</t>
+    <t xml:space="preserve">13.9573001861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1676139831543</t>
   </si>
   <si>
     <t xml:space="preserve">14.349250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5213260650635</t>
+    <t xml:space="preserve">14.5213270187378</t>
   </si>
   <si>
     <t xml:space="preserve">13.8808221817017</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4066095352173</t>
+    <t xml:space="preserve">14.406608581543</t>
   </si>
   <si>
     <t xml:space="preserve">14.0815763473511</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4830875396729</t>
+    <t xml:space="preserve">14.4830865859985</t>
   </si>
   <si>
     <t xml:space="preserve">14.0911359786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2440919876099</t>
+    <t xml:space="preserve">14.2440929412842</t>
   </si>
   <si>
     <t xml:space="preserve">13.9095001220703</t>
@@ -4106,7 +4106,7 @@
     <t xml:space="preserve">14.0242176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4448490142822</t>
+    <t xml:space="preserve">14.4448480606079</t>
   </si>
   <si>
     <t xml:space="preserve">14.1102561950684</t>
@@ -4127,10 +4127,10 @@
     <t xml:space="preserve">14.7890014648438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1713924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4581861495972</t>
+    <t xml:space="preserve">15.1713933944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4581871032715</t>
   </si>
   <si>
     <t xml:space="preserve">16.2325305938721</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">16.3950462341309</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5862426757812</t>
+    <t xml:space="preserve">16.5862445831299</t>
   </si>
   <si>
     <t xml:space="preserve">16.8443584442139</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">19.0239906311035</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4330596923828</t>
+    <t xml:space="preserve">21.4330577850342</t>
   </si>
   <si>
     <t xml:space="preserve">21.6051349639893</t>
@@ -4169,13 +4169,13 @@
     <t xml:space="preserve">19.9799690246582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8652515411377</t>
+    <t xml:space="preserve">19.8652534484863</t>
   </si>
   <si>
     <t xml:space="preserve">20.4579582214355</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1271438598633</t>
+    <t xml:space="preserve">21.1271457672119</t>
   </si>
   <si>
     <t xml:space="preserve">20.5535564422607</t>
@@ -4193,16 +4193,16 @@
     <t xml:space="preserve">20.4961986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7065143585205</t>
+    <t xml:space="preserve">20.7065124511719</t>
   </si>
   <si>
     <t xml:space="preserve">20.2858829498291</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3623600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5726776123047</t>
+    <t xml:space="preserve">20.362361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5726757049561</t>
   </si>
   <si>
     <t xml:space="preserve">21.2418613433838</t>
@@ -4217,34 +4217,34 @@
     <t xml:space="preserve">19.7887744903564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7696533203125</t>
+    <t xml:space="preserve">19.7696552276611</t>
   </si>
   <si>
     <t xml:space="preserve">20.0373268127441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5153160095215</t>
+    <t xml:space="preserve">20.5153179168701</t>
   </si>
   <si>
     <t xml:space="preserve">20.0564479827881</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9168300628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9741878509521</t>
+    <t xml:space="preserve">20.9168281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9741897583008</t>
   </si>
   <si>
     <t xml:space="preserve">21.1653823852539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3948192596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7523097991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596031188965</t>
+    <t xml:space="preserve">21.3948173522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7523078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596012115479</t>
   </si>
   <si>
     <t xml:space="preserve">21.8919277191162</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">21.7772102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9492855072021</t>
+    <t xml:space="preserve">21.9492874145508</t>
   </si>
   <si>
     <t xml:space="preserve">21.7007331848145</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">22.4655151367188</t>
   </si>
   <si>
-    <t xml:space="preserve">21.56689453125</t>
+    <t xml:space="preserve">21.5668964385986</t>
   </si>
   <si>
     <t xml:space="preserve">22.2169609069824</t>
@@ -4346,19 +4346,19 @@
     <t xml:space="preserve">20.343240737915</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1902866363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3814792633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7829933166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8785915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4446220397949</t>
+    <t xml:space="preserve">20.1902847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3814811706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7829914093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.878589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4446201324463</t>
   </si>
   <si>
     <t xml:space="preserve">19.2343063354492</t>
@@ -5121,6 +5121,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.5799999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1199989318848</t>
   </si>
 </sst>
 </file>
@@ -61830,7 +61833,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6495138889</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>105767</v>
@@ -61851,6 +61854,32 @@
         <v>1702</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6493055556</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>63767</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>32.2400016784668</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>31.6599998474121</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>32.4599990844727</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>32.1199989318848</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1705">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947128295898</t>
+    <t xml:space="preserve">20.9947166442871</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8097362518311</t>
+    <t xml:space="preserve">20.8097381591797</t>
   </si>
   <si>
     <t xml:space="preserve">20.90993309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.424373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2239818572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0158863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7307167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1314964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.744176864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8501300811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6497364044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7422294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2643737792969</t>
+    <t xml:space="preserve">20.4243717193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2239799499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0158843994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7307147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1314945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8501319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6497421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7422275543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2643756866455</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025238037109</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6477928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9175453186035</t>
+    <t xml:space="preserve">18.2354965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6477909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9175510406494</t>
   </si>
   <si>
     <t xml:space="preserve">17.0100326538086</t>
@@ -101,40 +101,40 @@
     <t xml:space="preserve">16.8790092468262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317909240723</t>
+    <t xml:space="preserve">16.3317928314209</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846230506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598903656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225210189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899381637573</t>
+    <t xml:space="preserve">15.8462295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598894119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.589937210083</t>
   </si>
   <si>
     <t xml:space="preserve">14.9213533401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6458406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995941162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464254379272</t>
+    <t xml:space="preserve">15.6458377838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454507827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464273452759</t>
   </si>
   <si>
     <t xml:space="preserve">15.5764722824097</t>
@@ -146,139 +146,139 @@
     <t xml:space="preserve">16.1545219421387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7768621444702</t>
+    <t xml:space="preserve">15.7768630981445</t>
   </si>
   <si>
     <t xml:space="preserve">16.3240833282471</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3934516906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7633972167969</t>
+    <t xml:space="preserve">16.3934497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7633991241455</t>
   </si>
   <si>
     <t xml:space="preserve">16.9560832977295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0774517059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069156646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687713623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762773513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071115493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999877929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1853504180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076915740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3221302032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146184921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.537938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.229642868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450580596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675960540771</t>
+    <t xml:space="preserve">16.077449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687685012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855472564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928630828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071077346802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456447601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221282958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146194458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296457290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298406600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675970077515</t>
   </si>
   <si>
     <t xml:space="preserve">15.0061330795288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9653387069702</t>
+    <t xml:space="preserve">14.9653396606445</t>
   </si>
   <si>
     <t xml:space="preserve">15.1625623703003</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3440103530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361196517944</t>
+    <t xml:space="preserve">15.3440093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361215591431</t>
   </si>
   <si>
     <t xml:space="preserve">15.146785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1704502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.036337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595659255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646821975708</t>
+    <t xml:space="preserve">15.1704511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388969421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363388061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595668792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646783828735</t>
   </si>
   <si>
     <t xml:space="preserve">16.4169063568115</t>
   </si>
   <si>
-    <t xml:space="preserve">15.951455116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4405727386475</t>
+    <t xml:space="preserve">15.9514579772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4405708312988</t>
   </si>
   <si>
     <t xml:space="preserve">16.3459053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5510215759277</t>
+    <t xml:space="preserve">16.5510158538818</t>
   </si>
   <si>
     <t xml:space="preserve">16.708797454834</t>
@@ -287,28 +287,28 @@
     <t xml:space="preserve">16.5115737915039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9473628997803</t>
+    <t xml:space="preserve">17.9473648071289</t>
   </si>
   <si>
     <t xml:space="preserve">17.0006885528564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2846908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612426757812</t>
+    <t xml:space="preserve">17.284688949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612445831299</t>
   </si>
   <si>
     <t xml:space="preserve">17.0559120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3241367340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134696960449</t>
+    <t xml:space="preserve">17.3241329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134735107422</t>
   </si>
   <si>
     <t xml:space="preserve">17.9868049621582</t>
@@ -320,16 +320,16 @@
     <t xml:space="preserve">18.1682548522949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.286584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.712589263916</t>
+    <t xml:space="preserve">18.2865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7125930786133</t>
   </si>
   <si>
     <t xml:space="preserve">19.0202598571777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6889266967773</t>
+    <t xml:space="preserve">18.6889228820801</t>
   </si>
   <si>
     <t xml:space="preserve">18.5627021789551</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">18.4995899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3023681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597076416016</t>
+    <t xml:space="preserve">18.3023662567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597038269043</t>
   </si>
   <si>
     <t xml:space="preserve">18.6810359954834</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">18.0578060150146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466136932373</t>
+    <t xml:space="preserve">17.6081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661350250244</t>
   </si>
   <si>
     <t xml:space="preserve">17.2925815582275</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">17.7106952667236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1445846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025825500488</t>
+    <t xml:space="preserve">18.1445865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.042028427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
   </si>
   <si>
     <t xml:space="preserve">18.1524753570557</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">15.7147912979126</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3143520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667953491211</t>
+    <t xml:space="preserve">16.3143501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667972564697</t>
   </si>
   <si>
     <t xml:space="preserve">16.8665752410889</t>
@@ -398,16 +398,16 @@
     <t xml:space="preserve">16.0934600830078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9751234054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384576797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830141067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746841430664</t>
+    <t xml:space="preserve">15.9751214981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.574686050415</t>
   </si>
   <si>
     <t xml:space="preserve">16.3853492736816</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">16.3616828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245769500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324619293213</t>
+    <t xml:space="preserve">16.6220169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">17.0480213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1269111633301</t>
+    <t xml:space="preserve">17.1269149780273</t>
   </si>
   <si>
     <t xml:space="preserve">17.0795764923096</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">17.0085773468018</t>
   </si>
   <si>
-    <t xml:space="preserve">17.829029083252</t>
+    <t xml:space="preserve">17.8290309906006</t>
   </si>
   <si>
     <t xml:space="preserve">17.4345817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8132495880127</t>
+    <t xml:space="preserve">17.8132514953613</t>
   </si>
   <si>
     <t xml:space="preserve">17.6318035125732</t>
@@ -458,22 +458,22 @@
     <t xml:space="preserve">17.5371360778809</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.933479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940391540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.043924331665</t>
+    <t xml:space="preserve">17.7185840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786998748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439262390137</t>
   </si>
   <si>
     <t xml:space="preserve">18.3181419372559</t>
@@ -485,19 +485,19 @@
     <t xml:space="preserve">18.1209182739258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.381254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842544555664</t>
+    <t xml:space="preserve">18.3812561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972518920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842525482178</t>
   </si>
   <si>
     <t xml:space="preserve">18.1919193267822</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2550277709961</t>
+    <t xml:space="preserve">18.2550315856934</t>
   </si>
   <si>
     <t xml:space="preserve">17.7264728546143</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">17.7895851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5765819549561</t>
+    <t xml:space="preserve">17.5765781402588</t>
   </si>
   <si>
     <t xml:space="preserve">17.6160278320312</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">17.4503593444824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6239128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.35569190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243549346924</t>
+    <t xml:space="preserve">17.6239166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556900024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0243530273438</t>
   </si>
   <si>
     <t xml:space="preserve">16.819242477417</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8902416229248</t>
+    <t xml:space="preserve">16.8902454376221</t>
   </si>
   <si>
     <t xml:space="preserve">17.2294692993164</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">17.2058010101318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6554718017578</t>
+    <t xml:space="preserve">17.6554679870605</t>
   </si>
   <si>
     <t xml:space="preserve">17.6791362762451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0401363372803</t>
+    <t xml:space="preserve">17.0401344299316</t>
   </si>
   <si>
     <t xml:space="preserve">17.0322437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1111335754395</t>
+    <t xml:space="preserve">17.1111373901367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9927978515625</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">16.9533538818359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.489803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2610244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424705505371</t>
+    <t xml:space="preserve">17.4897994995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582481384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.261022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424724578857</t>
   </si>
   <si>
     <t xml:space="preserve">17.4188041687012</t>
@@ -587,64 +587,64 @@
     <t xml:space="preserve">17.6475830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4976921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1486797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802349090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964574813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774604797363</t>
+    <t xml:space="preserve">17.4976959228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802387237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563503265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964555740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017862319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045635223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.377462387085</t>
   </si>
   <si>
     <t xml:space="preserve">16.9217987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693515777588</t>
+    <t xml:space="preserve">17.2689113616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693534851074</t>
   </si>
   <si>
     <t xml:space="preserve">16.4247951507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1723499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.913911819458</t>
+    <t xml:space="preserve">16.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139099121094</t>
   </si>
   <si>
     <t xml:space="preserve">16.70090675354</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">16.8981304168701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7640171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770240783691</t>
+    <t xml:space="preserve">16.7640209197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770221710205</t>
   </si>
   <si>
     <t xml:space="preserve">17.0716876983643</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">17.2373580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6712474822998</t>
+    <t xml:space="preserve">17.6712493896484</t>
   </si>
   <si>
     <t xml:space="preserve">17.6633605957031</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1051445007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418121337891</t>
+    <t xml:space="preserve">18.1051425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418083190918</t>
   </si>
   <si>
     <t xml:space="preserve">18.4601440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656929016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840324401855</t>
+    <t xml:space="preserve">18.2392559051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840305328369</t>
   </si>
   <si>
     <t xml:space="preserve">18.0893630981445</t>
@@ -695,28 +695,28 @@
     <t xml:space="preserve">17.8526935577393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104751586914</t>
+    <t xml:space="preserve">18.0104713439941</t>
   </si>
   <si>
     <t xml:space="preserve">17.7974700927734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8684692382812</t>
+    <t xml:space="preserve">17.8684711456299</t>
   </si>
   <si>
     <t xml:space="preserve">18.3339195251465</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1998062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968154907227</t>
+    <t xml:space="preserve">18.1998081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.696813583374</t>
   </si>
   <si>
     <t xml:space="preserve">19.3200397491455</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">19.5882625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857082366943</t>
+    <t xml:space="preserve">19.5330429077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.706600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857063293457</t>
   </si>
   <si>
     <t xml:space="preserve">19.5567073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2963714599609</t>
+    <t xml:space="preserve">19.2963695526123</t>
   </si>
   <si>
     <t xml:space="preserve">19.6592636108398</t>
@@ -755,43 +755,43 @@
     <t xml:space="preserve">19.0912609100342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8703689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385936737061</t>
+    <t xml:space="preserve">18.8703708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385955810547</t>
   </si>
   <si>
     <t xml:space="preserve">19.4699287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7381572723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3692684173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820495605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816112518311</t>
+    <t xml:space="preserve">19.7381553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3692722320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816093444824</t>
   </si>
   <si>
     <t xml:space="preserve">21.3001651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0477180480957</t>
+    <t xml:space="preserve">21.0477199554443</t>
   </si>
   <si>
     <t xml:space="preserve">21.0003890991211</t>
@@ -800,70 +800,70 @@
     <t xml:space="preserve">21.1187210083008</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922782897949</t>
+    <t xml:space="preserve">21.505277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.158166885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922763824463</t>
   </si>
   <si>
     <t xml:space="preserve">21.2370529174805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9391689300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8445072174072</t>
+    <t xml:space="preserve">21.939172744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.84450340271</t>
   </si>
   <si>
     <t xml:space="preserve">22.4619026184082</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181930541992</t>
+    <t xml:space="preserve">22.3725414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181949615479</t>
   </si>
   <si>
     <t xml:space="preserve">22.9713516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9295063018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
+    <t xml:space="preserve">22.9295101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621383666992</t>
   </si>
   <si>
     <t xml:space="preserve">23.3060894012451</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4316139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186683654785</t>
+    <t xml:space="preserve">23.4316158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186702728271</t>
   </si>
   <si>
     <t xml:space="preserve">24.2851963043213</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8584060668945</t>
+    <t xml:space="preserve">23.8584041595459</t>
   </si>
   <si>
     <t xml:space="preserve">24.017406463623</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">24.452564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0090389251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650897979736</t>
+    <t xml:space="preserve">24.0090370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650917053223</t>
   </si>
   <si>
     <t xml:space="preserve">24.2517204284668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7788772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0048274993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077751159668</t>
+    <t xml:space="preserve">22.7788753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0048236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077732086182</t>
   </si>
   <si>
     <t xml:space="preserve">23.9086151123047</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">24.2266178131104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1345653533936</t>
+    <t xml:space="preserve">24.1345634460449</t>
   </si>
   <si>
     <t xml:space="preserve">24.15966796875</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">24.6701431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7873001098633</t>
+    <t xml:space="preserve">24.7873039245605</t>
   </si>
   <si>
     <t xml:space="preserve">24.6868801116943</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">24.8709850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935657501221</t>
+    <t xml:space="preserve">24.7789306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935638427734</t>
   </si>
   <si>
     <t xml:space="preserve">24.4358291625977</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">23.7663536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0508785247803</t>
+    <t xml:space="preserve">24.0508823394775</t>
   </si>
   <si>
     <t xml:space="preserve">24.8458805084229</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3939838409424</t>
+    <t xml:space="preserve">24.393985748291</t>
   </si>
   <si>
     <t xml:space="preserve">24.2600898742676</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">24.2684593200684</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1847743988037</t>
+    <t xml:space="preserve">24.1847763061523</t>
   </si>
   <si>
     <t xml:space="preserve">23.9839305877686</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">22.5529308319092</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7035617828369</t>
+    <t xml:space="preserve">22.7035579681396</t>
   </si>
   <si>
     <t xml:space="preserve">22.6700878143311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8039817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956123352051</t>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956161499023</t>
   </si>
   <si>
     <t xml:space="preserve">23.4901943206787</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7161388397217</t>
+    <t xml:space="preserve">23.7161426544189</t>
   </si>
   <si>
     <t xml:space="preserve">23.3311939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6910381317139</t>
+    <t xml:space="preserve">23.6910343170166</t>
   </si>
   <si>
     <t xml:space="preserve">23.8416690826416</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">23.4985637664795</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6240863800049</t>
+    <t xml:space="preserve">23.6240901947021</t>
   </si>
   <si>
     <t xml:space="preserve">23.2475090026855</t>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">22.686824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1512432098389</t>
+    <t xml:space="preserve">22.1512451171875</t>
   </si>
   <si>
     <t xml:space="preserve">21.8918228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8416137695312</t>
+    <t xml:space="preserve">21.8416118621826</t>
   </si>
   <si>
     <t xml:space="preserve">21.9755077362061</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">21.950403213501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5236110687256</t>
+    <t xml:space="preserve">21.5236129760742</t>
   </si>
   <si>
     <t xml:space="preserve">21.3060321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3646087646484</t>
+    <t xml:space="preserve">21.3646125793457</t>
   </si>
   <si>
     <t xml:space="preserve">21.7746658325195</t>
@@ -1061,67 +1061,67 @@
     <t xml:space="preserve">21.5989284515381</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4566631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319786071777</t>
   </si>
   <si>
     <t xml:space="preserve">21.4985065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4734039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223453521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324005126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
+    <t xml:space="preserve">21.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.213981628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324024200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570888519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240310668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261425018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169311523438</t>
   </si>
   <si>
     <t xml:space="preserve">22.2684020996094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148254394531</t>
+    <t xml:space="preserve">22.1428737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399261474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148197174072</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6407718658447</t>
+    <t xml:space="preserve">21.6407699584961</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935066223145</t>
@@ -1139,31 +1139,31 @@
     <t xml:space="preserve">22.8541946411133</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3771953582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
+    <t xml:space="preserve">22.3771896362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.728666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027198791504</t>
   </si>
   <si>
     <t xml:space="preserve">23.2642459869385</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0885105133057</t>
+    <t xml:space="preserve">23.0885124206543</t>
   </si>
   <si>
     <t xml:space="preserve">23.1805629730225</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968761444092</t>
+    <t xml:space="preserve">23.1554565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968799591064</t>
   </si>
   <si>
     <t xml:space="preserve">23.6659317016602</t>
@@ -1172,31 +1172,31 @@
     <t xml:space="preserve">23.0382995605469</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0550346374512</t>
+    <t xml:space="preserve">23.0550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">23.1136150360107</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0466709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
+    <t xml:space="preserve">23.046667098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412490844727</t>
   </si>
   <si>
     <t xml:space="preserve">23.5571403503418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5069313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818248748779</t>
+    <t xml:space="preserve">23.506929397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818286895752</t>
   </si>
   <si>
     <t xml:space="preserve">23.1052474975586</t>
@@ -1205,22 +1205,22 @@
     <t xml:space="preserve">22.7705078125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5153007507324</t>
+    <t xml:space="preserve">23.5152988433838</t>
   </si>
   <si>
     <t xml:space="preserve">23.2056655883789</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1638278961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842418670654</t>
+    <t xml:space="preserve">23.1638259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842437744141</t>
   </si>
   <si>
     <t xml:space="preserve">20.7871932983398</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7118740081787</t>
+    <t xml:space="preserve">20.7118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361385345459</t>
@@ -1229,22 +1229,22 @@
     <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.32692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532955169678</t>
+    <t xml:space="preserve">20.3771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5194034576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532974243164</t>
   </si>
   <si>
     <t xml:space="preserve">20.2516117095947</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">20.603084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968246459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809295654297</t>
+    <t xml:space="preserve">20.5026607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047664642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968208312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809276580811</t>
   </si>
   <si>
     <t xml:space="preserve">21.3562431335449</t>
@@ -1271,34 +1271,34 @@
     <t xml:space="preserve">21.1219272613525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.795560836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210834503174</t>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921085357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.7788219451904</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8332443237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077159881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
+    <t xml:space="preserve">21.8332462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135559082031</t>
   </si>
   <si>
     <t xml:space="preserve">21.3395080566406</t>
@@ -1307,46 +1307,46 @@
     <t xml:space="preserve">21.4231929779053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3269824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.908561706543</t>
+    <t xml:space="preserve">22.3269805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
   </si>
   <si>
     <t xml:space="preserve">22.5780334472656</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0424537658691</t>
+    <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
     <t xml:space="preserve">22.1930866241455</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604545593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583488464355</t>
+    <t xml:space="preserve">22.4274044036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583507537842</t>
   </si>
   <si>
     <t xml:space="preserve">22.2600364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">21.992244720459</t>
+    <t xml:space="preserve">21.9922485351562</t>
   </si>
   <si>
     <t xml:space="preserve">22.628246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7454051971436</t>
+    <t xml:space="preserve">22.7454071044922</t>
   </si>
   <si>
     <t xml:space="preserve">22.7119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3102416992188</t>
+    <t xml:space="preserve">22.3102474212646</t>
   </si>
   <si>
     <t xml:space="preserve">22.6784572601318</t>
@@ -1358,58 +1358,58 @@
     <t xml:space="preserve">20.3687686920166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1511936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043464660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545574188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348728179932</t>
+    <t xml:space="preserve">20.1511878967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545612335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348747253418</t>
   </si>
   <si>
     <t xml:space="preserve">20.3185577392578</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9838199615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.632345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980312347412</t>
+    <t xml:space="preserve">19.9838218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6323471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980274200439</t>
   </si>
   <si>
     <t xml:space="preserve">18.7787666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3812923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151901245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072978973389</t>
+    <t xml:space="preserve">19.3812942504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072959899902</t>
   </si>
   <si>
     <t xml:space="preserve">21.0549812316895</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">20.6198215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6867694854736</t>
+    <t xml:space="preserve">20.686767578125</t>
   </si>
   <si>
     <t xml:space="preserve">20.6700344085693</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">20.2683448791504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9503440856934</t>
+    <t xml:space="preserve">19.9503479003906</t>
   </si>
   <si>
     <t xml:space="preserve">20.184663772583</t>
@@ -1436,28 +1436,28 @@
     <t xml:space="preserve">20.3855075836182</t>
   </si>
   <si>
-    <t xml:space="preserve">20.770450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.418981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490821838379</t>
+    <t xml:space="preserve">20.7704524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164558410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490840911865</t>
   </si>
   <si>
     <t xml:space="preserve">19.9001369476318</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897151947021</t>
+    <t xml:space="preserve">20.7369785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897171020508</t>
   </si>
   <si>
     <t xml:space="preserve">21.0215072631836</t>
@@ -1466,52 +1466,52 @@
     <t xml:space="preserve">21.788459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5444316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.457275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618572235107</t>
+    <t xml:space="preserve">21.5444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4572734832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.561861038208</t>
   </si>
   <si>
     <t xml:space="preserve">21.6141510009766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7361660003662</t>
+    <t xml:space="preserve">21.7361679077148</t>
   </si>
   <si>
     <t xml:space="preserve">21.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4159698486328</t>
+    <t xml:space="preserve">22.4159679412842</t>
   </si>
   <si>
     <t xml:space="preserve">22.03249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
+    <t xml:space="preserve">22.1893653869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847816467285</t>
   </si>
   <si>
     <t xml:space="preserve">21.9976291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8756160736084</t>
+    <t xml:space="preserve">21.8756141662598</t>
   </si>
   <si>
     <t xml:space="preserve">21.6664447784424</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3526916503906</t>
+    <t xml:space="preserve">21.352689743042</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270004272461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4049835205078</t>
+    <t xml:space="preserve">21.4049816131592</t>
   </si>
   <si>
     <t xml:space="preserve">21.126091003418</t>
@@ -1520,19 +1520,19 @@
     <t xml:space="preserve">20.9866466522217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710266113281</t>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
   </si>
   <si>
     <t xml:space="preserve">21.6838760375977</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">21.893045425415</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7013053894043</t>
+    <t xml:space="preserve">21.7013034820557</t>
   </si>
   <si>
     <t xml:space="preserve">21.4747066497803</t>
@@ -1550,49 +1550,49 @@
     <t xml:space="preserve">21.5792922973633</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132453918457</t>
+    <t xml:space="preserve">21.2132434844971</t>
   </si>
   <si>
     <t xml:space="preserve">21.3701229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4398422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0040740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.88205909729</t>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251815795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609516143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820571899414</t>
   </si>
   <si>
     <t xml:space="preserve">20.7949066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9692153930664</t>
+    <t xml:space="preserve">20.9692115783691</t>
   </si>
   <si>
     <t xml:space="preserve">21.1435203552246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2655391693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343547821045</t>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169235229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3004016876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343528747559</t>
   </si>
   <si>
     <t xml:space="preserve">20.6728916168213</t>
@@ -1601,40 +1601,40 @@
     <t xml:space="preserve">20.5334434509277</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9279098510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700748443604</t>
+    <t xml:space="preserve">21.927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.270076751709</t>
   </si>
   <si>
     <t xml:space="preserve">24.0893211364746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1939086914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636318206787</t>
+    <t xml:space="preserve">24.1939067840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
   </si>
   <si>
     <t xml:space="preserve">24.5948123931885</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5425224304199</t>
+    <t xml:space="preserve">24.5425205230713</t>
   </si>
   <si>
     <t xml:space="preserve">24.2113380432129</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8452930450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104305267334</t>
+    <t xml:space="preserve">23.8452911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755680084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104286193848</t>
   </si>
   <si>
     <t xml:space="preserve">23.5141048431396</t>
@@ -1643,64 +1643,64 @@
     <t xml:space="preserve">23.5838279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2462005615234</t>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067504882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461986541748</t>
   </si>
   <si>
     <t xml:space="preserve">24.4030742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6296768188477</t>
+    <t xml:space="preserve">24.629674911499</t>
   </si>
   <si>
     <t xml:space="preserve">24.507661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3856449127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810611724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.071891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801498413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489673614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.287504196167</t>
+    <t xml:space="preserve">24.3856430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810592651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0718898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2875061035156</t>
   </si>
   <si>
     <t xml:space="preserve">23.7929973602295</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4966735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241855621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993961334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
+    <t xml:space="preserve">23.496675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984924316406</t>
   </si>
   <si>
     <t xml:space="preserve">24.4379367828369</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">23.9847373962402</t>
   </si>
   <si>
-    <t xml:space="preserve">23.82785987854</t>
+    <t xml:space="preserve">23.8278579711914</t>
   </si>
   <si>
     <t xml:space="preserve">23.9324436187744</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">22.694860458374</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3811054229736</t>
+    <t xml:space="preserve">22.3811073303223</t>
   </si>
   <si>
     <t xml:space="preserve">21.9453372955322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5967235565186</t>
+    <t xml:space="preserve">21.5967216491699</t>
   </si>
   <si>
     <t xml:space="preserve">21.8058910369873</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">22.1370754241943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3462448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233222961426</t>
+    <t xml:space="preserve">22.3462429046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233242034912</t>
   </si>
   <si>
     <t xml:space="preserve">22.2765216827393</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">22.4333972930908</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077541351318</t>
+    <t xml:space="preserve">21.8581848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
   </si>
   <si>
     <t xml:space="preserve">20.3765678405762</t>
@@ -1766,19 +1766,19 @@
     <t xml:space="preserve">19.8710765838623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2719841003418</t>
+    <t xml:space="preserve">20.2719821929932</t>
   </si>
   <si>
     <t xml:space="preserve">20.2196922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325359344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022609710693</t>
+    <t xml:space="preserve">20.0802478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2022590637207</t>
   </si>
   <si>
     <t xml:space="preserve">19.6096153259277</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">19.4004440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4876022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701690673828</t>
+    <t xml:space="preserve">19.4876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701671600342</t>
   </si>
   <si>
     <t xml:space="preserve">19.5050296783447</t>
@@ -1799,34 +1799,34 @@
     <t xml:space="preserve">19.6967678070068</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
+    <t xml:space="preserve">20.0453853607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
   </si>
   <si>
     <t xml:space="preserve">20.4985847473145</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7426128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903228759766</t>
+    <t xml:space="preserve">20.7426147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
   </si>
   <si>
     <t xml:space="preserve">20.428861618042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9059391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205978393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
+    <t xml:space="preserve">19.9059371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205997467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811534881592</t>
   </si>
   <si>
     <t xml:space="preserve">20.2894134521484</t>
@@ -1838,37 +1838,37 @@
     <t xml:space="preserve">20.1673984527588</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683559417725</t>
+    <t xml:space="preserve">19.3132934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
     <t xml:space="preserve">19.2609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0169677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994884490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783809661865</t>
+    <t xml:space="preserve">19.0169696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261352539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783790588379</t>
   </si>
   <si>
     <t xml:space="preserve">20.8471984863281</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1958122253418</t>
+    <t xml:space="preserve">21.1958141326904</t>
   </si>
   <si>
     <t xml:space="preserve">19.0692596435547</t>
@@ -1877,97 +1877,97 @@
     <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
+    <t xml:space="preserve">18.9995384216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527397155762</t>
   </si>
   <si>
     <t xml:space="preserve">19.0343990325928</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1389827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307247161865</t>
+    <t xml:space="preserve">19.1389846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307209014893</t>
   </si>
   <si>
     <t xml:space="preserve">19.5573234558105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4353084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371196746826</t>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.975658416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
   </si>
   <si>
     <t xml:space="preserve">20.0976753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848278045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
+    <t xml:space="preserve">19.7839241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362159729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499671936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857353210449</t>
   </si>
   <si>
     <t xml:space="preserve">21.0389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5921821594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490634918213</t>
   </si>
   <si>
     <t xml:space="preserve">20.8646297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0912322998047</t>
+    <t xml:space="preserve">21.0912303924561</t>
   </si>
   <si>
     <t xml:space="preserve">22.5031223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0499210357666</t>
+    <t xml:space="preserve">22.049919128418</t>
   </si>
   <si>
     <t xml:space="preserve">20.0279541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8077983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.406888961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802940368652</t>
+    <t xml:space="preserve">18.8077964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.180290222168</t>
   </si>
   <si>
     <t xml:space="preserve">18.3371696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642692565918</t>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564601898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642673492432</t>
   </si>
   <si>
     <t xml:space="preserve">16.6812438964844</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">17.021146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470344543457</t>
+    <t xml:space="preserve">16.559232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4703464508057</t>
   </si>
   <si>
     <t xml:space="preserve">16.4436798095703</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">16.4525680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637022018433</t>
+    <t xml:space="preserve">15.9637002944946</t>
   </si>
   <si>
     <t xml:space="preserve">16.0614738464355</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">16.0970306396484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2036914825439</t>
+    <t xml:space="preserve">16.2036895751953</t>
   </si>
   <si>
     <t xml:space="preserve">15.8125972747803</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9903659820557</t>
+    <t xml:space="preserve">15.9903678894043</t>
   </si>
   <si>
     <t xml:space="preserve">15.6970481872559</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">15.8214855194092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0081462860107</t>
+    <t xml:space="preserve">16.0081443786621</t>
   </si>
   <si>
     <t xml:space="preserve">16.2214679718018</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">16.3192405700684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3014640808105</t>
+    <t xml:space="preserve">16.3014621734619</t>
   </si>
   <si>
     <t xml:space="preserve">16.2481346130371</t>
@@ -2033,16 +2033,16 @@
     <t xml:space="preserve">16.0703620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7059354782104</t>
+    <t xml:space="preserve">15.7059373855591</t>
   </si>
   <si>
     <t xml:space="preserve">15.5281658172607</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6259412765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881561279297</t>
+    <t xml:space="preserve">15.625940322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881580352783</t>
   </si>
   <si>
     <t xml:space="preserve">16.0348091125488</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">15.7326011657715</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7592687606812</t>
+    <t xml:space="preserve">15.7592668533325</t>
   </si>
   <si>
     <t xml:space="preserve">15.8037099838257</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">16.017032623291</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6081638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770627975464</t>
+    <t xml:space="preserve">15.6081647872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
   </si>
   <si>
     <t xml:space="preserve">15.234845161438</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">15.0570774078369</t>
   </si>
   <si>
-    <t xml:space="preserve">15.385950088501</t>
+    <t xml:space="preserve">15.3859491348267</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837411880493</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">15.1015195846558</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
+    <t xml:space="preserve">14.9770822525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.901481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592464447021</t>
   </si>
   <si>
     <t xml:space="preserve">15.6703805923462</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">15.6437187194824</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3148431777954</t>
+    <t xml:space="preserve">15.3148422241211</t>
   </si>
   <si>
     <t xml:space="preserve">15.1548490524292</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">15.0215225219727</t>
   </si>
   <si>
-    <t xml:space="preserve">15.679271697998</t>
+    <t xml:space="preserve">15.6792697906494</t>
   </si>
   <si>
     <t xml:space="preserve">15.7859325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4659471511841</t>
+    <t xml:space="preserve">15.4659452438354</t>
   </si>
   <si>
     <t xml:space="preserve">15.5992736816406</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">16.4881229400635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1903133392334</t>
+    <t xml:space="preserve">17.1903114318848</t>
   </si>
   <si>
     <t xml:space="preserve">17.7769508361816</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">17.7413959503174</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2880878448486</t>
+    <t xml:space="preserve">17.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">17.0125408172607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9325428009033</t>
+    <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
     <t xml:space="preserve">16.6125602722168</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">15.5814981460571</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1459646224976</t>
+    <t xml:space="preserve">15.1459636688232</t>
   </si>
   <si>
     <t xml:space="preserve">15.5726089477539</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">15.2881784439087</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8615312576294</t>
+    <t xml:space="preserve">14.8615303039551</t>
   </si>
   <si>
     <t xml:space="preserve">14.7370920181274</t>
@@ -2219,19 +2219,19 @@
     <t xml:space="preserve">15.1815156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1992921829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748382568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837226867676</t>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681745529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
   </si>
   <si>
     <t xml:space="preserve">15.2970657348633</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">14.6659832000732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4570589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526226043701</t>
+    <t xml:space="preserve">15.4570598602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526235580444</t>
   </si>
   <si>
     <t xml:space="preserve">15.6614942550659</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">16.2125797271729</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4970111846924</t>
+    <t xml:space="preserve">16.497013092041</t>
   </si>
   <si>
     <t xml:space="preserve">16.7192230224609</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">17.1991996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7014465332031</t>
+    <t xml:space="preserve">16.7014446258545</t>
   </si>
   <si>
     <t xml:space="preserve">16.8436603546143</t>
@@ -2306,46 +2306,49 @@
     <t xml:space="preserve">16.80810546875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8881034851074</t>
+    <t xml:space="preserve">16.8881053924561</t>
   </si>
   <si>
     <t xml:space="preserve">16.9236583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8614368438721</t>
+    <t xml:space="preserve">16.8614349365234</t>
   </si>
   <si>
     <t xml:space="preserve">16.7547779083252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992172241211</t>
+    <t xml:space="preserve">16.9769897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992191314697</t>
   </si>
   <si>
     <t xml:space="preserve">16.3814601898193</t>
   </si>
   <si>
+    <t xml:space="preserve">16.3459072113037</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.65700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">16.417013168335</t>
+    <t xml:space="preserve">16.4170112609863</t>
   </si>
   <si>
     <t xml:space="preserve">15.9992561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9459247589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.750376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904058456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.897084236145</t>
+    <t xml:space="preserve">15.9459266662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8970851898193</t>
   </si>
   <si>
     <t xml:space="preserve">14.8526420593262</t>
@@ -2354,19 +2357,16 @@
     <t xml:space="preserve">14.1771183013916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236934661865</t>
+    <t xml:space="preserve">14.292667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237333297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281862258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7148237228394</t>
   </si>
   <si>
     <t xml:space="preserve">16.1059169769287</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548149108887</t>
+    <t xml:space="preserve">15.95481300354</t>
   </si>
   <si>
     <t xml:space="preserve">14.3015575408936</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326751708984</t>
+    <t xml:space="preserve">14.1326761245728</t>
   </si>
   <si>
     <t xml:space="preserve">13.7415838241577</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5904788970947</t>
+    <t xml:space="preserve">13.5904779434204</t>
   </si>
   <si>
     <t xml:space="preserve">13.3060474395752</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882894515991</t>
+    <t xml:space="preserve">12.8882884979248</t>
   </si>
   <si>
     <t xml:space="preserve">12.1594343185425</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260152816772</t>
+    <t xml:space="preserve">14.0260143280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.5460367202759</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">13.0305051803589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5815906524658</t>
+    <t xml:space="preserve">13.5815896987915</t>
   </si>
   <si>
     <t xml:space="preserve">13.928240776062</t>
@@ -2480,13 +2480,13 @@
     <t xml:space="preserve">13.9993495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1948957443237</t>
+    <t xml:space="preserve">14.1948947906494</t>
   </si>
   <si>
     <t xml:space="preserve">13.3682670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2438278198242</t>
+    <t xml:space="preserve">13.2438287734985</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571514129639</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">13.6260328292847</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7771377563477</t>
+    <t xml:space="preserve">13.7771368026733</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726829528809</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">14.5326595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6570959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1104078292847</t>
+    <t xml:space="preserve">14.657096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793272018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.110408782959</t>
   </si>
   <si>
     <t xml:space="preserve">15.3326196670532</t>
@@ -2528,19 +2528,19 @@
     <t xml:space="preserve">14.8082008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192951202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304117202759</t>
+    <t xml:space="preserve">15.1192960739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304126739502</t>
   </si>
   <si>
     <t xml:space="preserve">15.7681541442871</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4037256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926137924194</t>
+    <t xml:space="preserve">15.4037265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926147460938</t>
   </si>
   <si>
     <t xml:space="preserve">16.079252243042</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">17.2525310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.501407623291</t>
+    <t xml:space="preserve">17.5014095306396</t>
   </si>
   <si>
     <t xml:space="preserve">18.1147136688232</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">20.0879535675049</t>
   </si>
   <si>
-    <t xml:space="preserve">19.892406463623</t>
+    <t xml:space="preserve">19.8924083709717</t>
   </si>
   <si>
     <t xml:space="preserve">19.4479827880859</t>
@@ -2588,19 +2588,19 @@
     <t xml:space="preserve">20.4434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4790477752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9234714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7279243469238</t>
+    <t xml:space="preserve">20.4790496826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9234733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7279262542725</t>
   </si>
   <si>
     <t xml:space="preserve">20.6212635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0123538970947</t>
+    <t xml:space="preserve">21.0123558044434</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056949615479</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6923713684082</t>
+    <t xml:space="preserve">20.6923694610596</t>
   </si>
   <si>
     <t xml:space="preserve">20.6568164825439</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">21.563440322876</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7412109375</t>
+    <t xml:space="preserve">21.7412090301514</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9545345306396</t>
+    <t xml:space="preserve">21.9545364379883</t>
   </si>
   <si>
     <t xml:space="preserve">21.8300933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9900913238525</t>
+    <t xml:space="preserve">21.9900894165039</t>
   </si>
   <si>
     <t xml:space="preserve">22.0611953735352</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">22.2211875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7945404052734</t>
+    <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
     <t xml:space="preserve">21.8656482696533</t>
@@ -2675,19 +2675,19 @@
     <t xml:space="preserve">23.6077899932861</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9988842010498</t>
+    <t xml:space="preserve">23.9988822937012</t>
   </si>
   <si>
     <t xml:space="preserve">24.9410610198975</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8344020843506</t>
+    <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299472808838</t>
+    <t xml:space="preserve">25.0299453735352</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">24.6032981872559</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6744060516357</t>
+    <t xml:space="preserve">24.6744079589844</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4433097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455177307129</t>
+    <t xml:space="preserve">24.4433078765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
     <t xml:space="preserve">24.7632923126221</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">24.496639251709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7810688018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1410980224609</t>
+    <t xml:space="preserve">24.7810707092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
     <t xml:space="preserve">25.012170791626</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">24.9232845306396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2921104431152</t>
+    <t xml:space="preserve">25.5454788208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2921123504639</t>
   </si>
   <si>
     <t xml:space="preserve">25.581033706665</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">26.1854476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1809577941895</t>
+    <t xml:space="preserve">27.1809558868408</t>
   </si>
   <si>
     <t xml:space="preserve">26.558765411377</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2032241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.132116317749</t>
+    <t xml:space="preserve">26.2032260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1321144104004</t>
   </si>
   <si>
     <t xml:space="preserve">26.1498947143555</t>
@@ -2780,22 +2780,22 @@
     <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2743339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4343242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.309886932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5232124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4521007537842</t>
+    <t xml:space="preserve">26.2743320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4343223571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5232105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4521026611328</t>
   </si>
   <si>
     <t xml:space="preserve">27.0565185546875</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255275726318</t>
+    <t xml:space="preserve">24.4255294799805</t>
   </si>
   <si>
     <t xml:space="preserve">24.2655372619629</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">24.4077529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4610862731934</t>
+    <t xml:space="preserve">24.4610843658447</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010181427002</t>
@@ -2849,10 +2849,10 @@
     <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209655761719</t>
+    <t xml:space="preserve">25.1721611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988082885742</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">25.3143787384033</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">26.0076808929443</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
@@ -2885,19 +2885,19 @@
     <t xml:space="preserve">25.1010551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5144138336182</t>
+    <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766548156738</t>
+    <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1588764190674</t>
+    <t xml:space="preserve">24.1588745117188</t>
   </si>
   <si>
     <t xml:space="preserve">24.2833137512207</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3803730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7612781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2872905731201</t>
+    <t xml:space="preserve">23.38037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7612800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2872924804688</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
@@ -2939,34 +2939,34 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989879608154</t>
+    <t xml:space="preserve">23.1989860534668</t>
   </si>
   <si>
     <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4347858428955</t>
+    <t xml:space="preserve">23.4347877502441</t>
   </si>
   <si>
     <t xml:space="preserve">24.251012802124</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6295299530029</t>
+    <t xml:space="preserve">25.6295318603516</t>
   </si>
   <si>
     <t xml:space="preserve">26.4457569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6452808380127</t>
+    <t xml:space="preserve">26.6452789306641</t>
   </si>
   <si>
     <t xml:space="preserve">27.3164005279541</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5521984100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8629417419434</t>
+    <t xml:space="preserve">27.5522003173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8629398345947</t>
   </si>
   <si>
     <t xml:space="preserve">27.5340595245361</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">28.1870403289795</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3502883911133</t>
+    <t xml:space="preserve">28.3502864837646</t>
   </si>
   <si>
     <t xml:space="preserve">28.2777347564697</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.347900390625</t>
+    <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
     <t xml:space="preserve">30.0371570587158</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533840179443</t>
+    <t xml:space="preserve">30.8533821105957</t>
   </si>
   <si>
     <t xml:space="preserve">31.3249855041504</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">30.4724788665771</t>
   </si>
   <si>
-    <t xml:space="preserve">30.32737159729</t>
+    <t xml:space="preserve">30.3273696899414</t>
   </si>
   <si>
     <t xml:space="preserve">30.0008792877197</t>
@@ -3020,16 +3020,16 @@
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5860862731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7698593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8037452697754</t>
+    <t xml:space="preserve">27.7335834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.586088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7698612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.803747177124</t>
   </si>
   <si>
     <t xml:space="preserve">27.7879981994629</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">28.894437789917</t>
+    <t xml:space="preserve">28.8944396972656</t>
   </si>
   <si>
     <t xml:space="preserve">31.397533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3817844390869</t>
+    <t xml:space="preserve">30.3817863464355</t>
   </si>
   <si>
     <t xml:space="preserve">30.2910938262939</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5450325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1278495788574</t>
+    <t xml:space="preserve">30.5450305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1278476715088</t>
   </si>
   <si>
     <t xml:space="preserve">30.5631694793701</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">31.5245018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6696128845215</t>
+    <t xml:space="preserve">31.6696090698242</t>
   </si>
   <si>
     <t xml:space="preserve">31.7421627044678</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">31.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">31.597053527832</t>
+    <t xml:space="preserve">31.5970573425293</t>
   </si>
   <si>
     <t xml:space="preserve">31.2342872619629</t>
@@ -3128,19 +3128,19 @@
     <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1206817626953</t>
+    <t xml:space="preserve">33.120677947998</t>
   </si>
   <si>
     <t xml:space="preserve">33.0662651062012</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9392967224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1025466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.993709564209</t>
+    <t xml:space="preserve">32.9393005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1025428771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299873352051</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369049072266</t>
+    <t xml:space="preserve">33.9369087219238</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
@@ -3164,13 +3164,13 @@
     <t xml:space="preserve">32.8667411804199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569557189941</t>
+    <t xml:space="preserve">33.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9755744934082</t>
+    <t xml:space="preserve">32.9755783081055</t>
   </si>
   <si>
     <t xml:space="preserve">32.8304672241211</t>
@@ -5124,6 +5124,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7599983215332</t>
   </si>
 </sst>
 </file>
@@ -31977,7 +31980,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G1020" t="s">
-        <v>87</v>
+        <v>771</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32029,7 +32032,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1022" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32055,7 +32058,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G1023" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32107,7 +32110,7 @@
         <v>18</v>
       </c>
       <c r="G1025" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32133,7 +32136,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1026" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32185,7 +32188,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1028" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32211,7 +32214,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1029" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32237,7 +32240,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1030" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32289,7 +32292,7 @@
         <v>16.7099990844727</v>
       </c>
       <c r="G1032" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32315,7 +32318,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32341,7 +32344,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1034" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32367,7 +32370,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1035" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32419,7 +32422,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1037" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32523,7 +32526,7 @@
         <v>18</v>
       </c>
       <c r="G1041" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32575,7 +32578,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1043" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32601,7 +32604,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1044" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32679,7 +32682,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1047" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -61885,7 +61888,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.649375</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>58658</v>
@@ -61906,6 +61909,32 @@
         <v>1703</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6494212963</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>71522</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>32.8400001525879</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>32.1199989318848</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>32.6599998474121</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>32.7599983215332</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1708">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947128295898</t>
+    <t xml:space="preserve">20.9947147369385</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8097400665283</t>
+    <t xml:space="preserve">20.8097362518311</t>
   </si>
   <si>
     <t xml:space="preserve">20.90993309021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2239837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0158824920654</t>
+    <t xml:space="preserve">20.424373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2239818572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0158843994141</t>
   </si>
   <si>
     <t xml:space="preserve">19.7307167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1314964294434</t>
+    <t xml:space="preserve">20.1314926147461</t>
   </si>
   <si>
     <t xml:space="preserve">18.7441787719727</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">17.7422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2643737792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1025218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2354984283447</t>
+    <t xml:space="preserve">17.2643756866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1025238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2354965209961</t>
   </si>
   <si>
     <t xml:space="preserve">16.8404731750488</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">16.9175472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0100364685059</t>
+    <t xml:space="preserve">17.0100326538086</t>
   </si>
   <si>
     <t xml:space="preserve">16.8790092468262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317928314209</t>
+    <t xml:space="preserve">16.3317909240723</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622295379639</t>
@@ -110,2296 +110,2296 @@
     <t xml:space="preserve">15.8462314605713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1756954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598875045776</t>
+    <t xml:space="preserve">15.1756963729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598903656006</t>
   </si>
   <si>
     <t xml:space="preserve">15.5225229263306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5899381637573</t>
+    <t xml:space="preserve">14.589937210083</t>
   </si>
   <si>
     <t xml:space="preserve">14.9213533401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6458415985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454498291016</t>
+    <t xml:space="preserve">15.6458406448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454507827759</t>
   </si>
   <si>
     <t xml:space="preserve">15.5995950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9464263916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764741897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1545238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7768630981445</t>
+    <t xml:space="preserve">15.9464273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5764722824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7768650054932</t>
   </si>
   <si>
     <t xml:space="preserve">16.3240852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3934535980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9560852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0774478912354</t>
+    <t xml:space="preserve">16.3934478759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7634010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
   </si>
   <si>
     <t xml:space="preserve">15.4069128036499</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5687685012817</t>
+    <t xml:space="preserve">15.5687704086304</t>
   </si>
   <si>
     <t xml:space="preserve">16.2855453491211</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9078884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762783050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928649902344</t>
+    <t xml:space="preserve">15.907886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762773513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928630828857</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071096420288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999849319458</t>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456457138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.32213306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146223068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379362106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296438217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223260879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298387527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061311721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653387069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440065383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467847824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1704511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388959884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363397598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646783828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514541625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4405746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5510177612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.708797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115756988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473628997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846927642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868068695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865867614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7125911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627002716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4995880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782596588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597057342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578098297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081371307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.466136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925777435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.710693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0420303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8823528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7147912979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830121994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3853492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245750427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0480251312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1269130706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795764923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.829029083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786998748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9334831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439281463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842506408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895793914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5765819549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6160278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556900024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0243549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4819164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2058010101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554718017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.040132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533557891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.489803314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582481384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.261022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424724578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188003540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802387237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563541412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964574813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017890930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9218006134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2689113616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693515777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.70090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712512969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392539978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656929016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840324401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.696813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5882682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330429077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4778232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703727722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3692684173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0477199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003871917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581649780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.939172744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788349151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8445014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713516235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0048236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.908618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.15966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9923038482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.268461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.962984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039855957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416690826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985637664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6868267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512432098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236110687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139797210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324043273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729820251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240329742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407718658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.728666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805610656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382995605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.046667098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.741247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5069313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818267822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.10524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638278961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118740081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.460823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.519401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6030864715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5026626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219272613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9210815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788238525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135559082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.578031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930904388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454051971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3687686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043464660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696086883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.632345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812961578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.686767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683486938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189777374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001369476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215091705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7884578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444316864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.457275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5618629455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0324935913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847816467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.997631072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.352689743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4049835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.986644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.341703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710266113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8930435180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5792922973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.88205909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655391693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1939086914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948123931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113380432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104286193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067504882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.403076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.629674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.507661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810592651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0718898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2875061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.496675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498767852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993961334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.82785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9324436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058891296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5902767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333972930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765640258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2196941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2022590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701671600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453853607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4288597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205997467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811515808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1673984527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023090362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2609977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994903564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8471965789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692615509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.435302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756622314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.749059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.049919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.180290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3371696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665351867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.256462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642654418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.681245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.021146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4703464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637022018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99036693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703639984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059364318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281667709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688159942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0881423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592639923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770608901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415079116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3859510421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015186309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437177658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148422241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859325408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659481048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992727279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925943374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903114318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7413959503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125427246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9325466156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814981460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459617614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2881784439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615293502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437362670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748519897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681764602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.412615776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837245941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.297064781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614933013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.777042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570413589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970092773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547565460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.199197769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636623382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9858798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3814601898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.417013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459257125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.897084236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526411056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926683425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.32373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281843185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7148246765137</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851593017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.807692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456457138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32213306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146184921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.537935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296457290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.422327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675951004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625633239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.146785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388969421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0363388061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595678329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646793365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169044494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.951455116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4405746459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5510158538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7087993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115737915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846927642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865886688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.712589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.020263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889228820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5627021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4995899200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023624420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925777435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7106952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025825500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8823566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7147874832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667991638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665752410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751243591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384576797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830150604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3853511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245750427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1269092559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795783996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8132514953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786998748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9334831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.043924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733654022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209182739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972537994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842506408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1919212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.255033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895832061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5765838623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6160259246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243549346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554698944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791400909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.040132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111316680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9927997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533557891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.489803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2610244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663570404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.148681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802349090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352420806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960163116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964574813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.377462387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9218006134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723480224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.913911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7009105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712493896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633567810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051406860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.06569480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526954650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339176177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.706600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592674255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402713775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351570129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3692665100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193775177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820495605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052814483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581649780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370586395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.84450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4618988037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181949615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713516235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295082092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186683654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4525604248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090389251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.908618927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.226619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1596717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.435827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203559875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9923000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081970214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.393985748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839286804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.962984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529289245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700859069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826686859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475070953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9504013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646106719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223510742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1554012298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240348815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407699584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935047149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.728666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642459869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0383014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136169433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571384429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818248748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4608211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.32692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6030864715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026607513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968208312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219291687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.573823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.908561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604526519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.992244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596126556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3520317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6323432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980312347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198196411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.686767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.268346786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1846656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7704524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331928253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897190093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215091705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141510009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324935913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3526878356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5269985198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4049816131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1260929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.986644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086597442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710304260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683874130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.893045425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701190948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0040760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.88205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9279079437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.270076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.193904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113361358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104286193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067543029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416168212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4030742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6296768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810592651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0718936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4966773986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241855621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498767852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8278617858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.932445526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.694860458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.590274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462467193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233242034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4334011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077541351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664928436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939990997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.219690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004440307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205978393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811534881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673984527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683502197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2609996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261390686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8471984863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692615509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0344009399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307247161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976753234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857391357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499210357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8078002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068908691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3371696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665370941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6812438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.021146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525661468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637012481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.99036693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970472335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214864730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214679718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.319242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281667709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6259393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.688157081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0881404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370355606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037090301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0170345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081628799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770618438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348470687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792892456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.13707447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415088653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.261510848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659656524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570783615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3859491348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015195846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770822525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014825820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5770998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.679271697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925914764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881229400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903114318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.741397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9325428009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814981460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459617614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726089477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.288179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437353134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815166473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.297064781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459802627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659860610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7770414352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1992015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281112670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770072937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.985876083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592132568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992532730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8970851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771173477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237314224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281862258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1059169769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836856842041</t>
+    <t xml:space="preserve">16.1059188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836875915527</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.954906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1326751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8660230636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8304681777954</t>
+    <t xml:space="preserve">15.9548139572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9549055099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1326742172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415838241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8660221099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8304691314697</t>
   </si>
   <si>
     <t xml:space="preserve">13.5904788970947</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882904052734</t>
+    <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
     <t xml:space="preserve">12.1594343185425</t>
@@ -2420,13 +2420,13 @@
     <t xml:space="preserve">11.6705684661865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2972526550293</t>
+    <t xml:space="preserve">11.297251701355</t>
   </si>
   <si>
     <t xml:space="preserve">10.1595277786255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1105947494507</t>
+    <t xml:space="preserve">11.1105928421021</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416568756104</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">12.1683225631714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5505275726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.901575088501</t>
+    <t xml:space="preserve">12.5505266189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9015760421753</t>
   </si>
   <si>
     <t xml:space="preserve">14.3104457855225</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">14.8881959915161</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6349229812622</t>
+    <t xml:space="preserve">13.6349201202393</t>
   </si>
   <si>
     <t xml:space="preserve">14.0793447494507</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">14.0260133743286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5460357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6438102722168</t>
+    <t xml:space="preserve">13.5460367202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6438093185425</t>
   </si>
   <si>
     <t xml:space="preserve">13.6793642044067</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">13.5815896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.928240776062</t>
+    <t xml:space="preserve">13.9282398223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.9993495941162</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">13.3682670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2438287734985</t>
+    <t xml:space="preserve">13.2438278198242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571523666382</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">13.6260318756104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7771368026733</t>
+    <t xml:space="preserve">13.7771377563477</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726829528809</t>
@@ -2504,76 +2504,76 @@
     <t xml:space="preserve">13.8837985992432</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3993301391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882135391235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6570949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793262481689</t>
+    <t xml:space="preserve">14.3993310928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6570959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.1104068756104</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3326215744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.808198928833</t>
+    <t xml:space="preserve">15.3326206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8081998825073</t>
   </si>
   <si>
     <t xml:space="preserve">15.1192960739136</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0304117202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7681531906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926137924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079252243042</t>
+    <t xml:space="preserve">15.0304126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7681541442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0792503356934</t>
   </si>
   <si>
     <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192054748535</t>
+    <t xml:space="preserve">16.4259014129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325290679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192035675049</t>
   </si>
   <si>
     <t xml:space="preserve">16.9414348602295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2525310516357</t>
+    <t xml:space="preserve">17.2525291442871</t>
   </si>
   <si>
     <t xml:space="preserve">17.501407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1147136688232</t>
+    <t xml:space="preserve">18.1147117614746</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0879535675049</t>
+    <t xml:space="preserve">20.0879554748535</t>
   </si>
   <si>
     <t xml:space="preserve">19.892406463623</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">19.4479846954346</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7146396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4434928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790477752686</t>
+    <t xml:space="preserve">19.7146377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790496826172</t>
   </si>
   <si>
     <t xml:space="preserve">20.9234714508057</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">20.621265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.012357711792</t>
+    <t xml:space="preserve">21.0123558044434</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056930541992</t>
@@ -2612,49 +2612,49 @@
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568164825439</t>
+    <t xml:space="preserve">20.6568183898926</t>
   </si>
   <si>
     <t xml:space="preserve">21.5989933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8478698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5634422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7412109375</t>
+    <t xml:space="preserve">21.8478736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.563440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7412090301514</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9545345306396</t>
+    <t xml:space="preserve">21.9545364379883</t>
   </si>
   <si>
     <t xml:space="preserve">21.8300952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9900875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1678581237793</t>
+    <t xml:space="preserve">21.9900913238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1678562164307</t>
   </si>
   <si>
     <t xml:space="preserve">22.1323051452637</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9723091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2211894989014</t>
+    <t xml:space="preserve">21.9723129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2211856842041</t>
   </si>
   <si>
     <t xml:space="preserve">21.7945423126221</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">21.8123188018799</t>
   </si>
   <si>
-    <t xml:space="preserve">23.110034942627</t>
+    <t xml:space="preserve">23.1100368499756</t>
   </si>
   <si>
     <t xml:space="preserve">23.6077899932861</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8343982696533</t>
+    <t xml:space="preserve">24.9410629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943943023682</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">25.0299472808838</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5855236053467</t>
+    <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
     <t xml:space="preserve">24.887731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8166217803955</t>
+    <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
     <t xml:space="preserve">24.5321941375732</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">24.6033000946045</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6744060516357</t>
+    <t xml:space="preserve">24.674409866333</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6921844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4433059692383</t>
+    <t xml:space="preserve">24.6921863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4433078765869</t>
   </si>
   <si>
     <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7632942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7099590301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4966373443604</t>
+    <t xml:space="preserve">24.7632923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.496639251709</t>
   </si>
   <si>
     <t xml:space="preserve">24.7810688018799</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454807281494</t>
+    <t xml:space="preserve">25.5454769134521</t>
   </si>
   <si>
     <t xml:space="preserve">26.2921104431152</t>
   </si>
   <si>
-    <t xml:space="preserve">25.581033706665</t>
+    <t xml:space="preserve">25.5810317993164</t>
   </si>
   <si>
     <t xml:space="preserve">26.1854476928711</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">26.5587635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6476497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5765419006348</t>
+    <t xml:space="preserve">26.647647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
     <t xml:space="preserve">26.2032241821289</t>
@@ -2774,19 +2774,19 @@
     <t xml:space="preserve">26.1498947143555</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8832397460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4343242645264</t>
+    <t xml:space="preserve">25.8832416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.434326171875</t>
   </si>
   <si>
     <t xml:space="preserve">26.309886932373</t>
@@ -2795,19 +2795,19 @@
     <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4521026611328</t>
+    <t xml:space="preserve">26.4521045684814</t>
   </si>
   <si>
     <t xml:space="preserve">27.0565204620361</t>
   </si>
   <si>
-    <t xml:space="preserve">28.034252166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9098129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1454029083252</t>
+    <t xml:space="preserve">28.0342540740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9098110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1454048156738</t>
   </si>
   <si>
     <t xml:space="preserve">27.0387439727783</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">25.9010162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1676731109619</t>
+    <t xml:space="preserve">26.1676712036133</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
@@ -2849,43 +2849,43 @@
     <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1721630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0209617614746</t>
+    <t xml:space="preserve">25.1721611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0209655761719</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8521785736084</t>
+    <t xml:space="preserve">24.8521766662598</t>
   </si>
   <si>
     <t xml:space="preserve">24.5677452087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1543865203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143787384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">25.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143768310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0076808929443</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1010551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5144138336182</t>
+    <t xml:space="preserve">25.101053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366451263428</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6611194610596</t>
+    <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
     <t xml:space="preserve">24.1588764190674</t>
@@ -2903,28 +2903,28 @@
     <t xml:space="preserve">24.2833137512207</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1965999603271</t>
+    <t xml:space="preserve">24.1965980529785</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6705856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5617542266846</t>
+    <t xml:space="preserve">23.6705875396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5617561340332</t>
   </si>
   <si>
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3803730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7612781524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2872924804688</t>
+    <t xml:space="preserve">23.38037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7612762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2872886657715</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
@@ -2939,16 +2939,16 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289680480957</t>
+    <t xml:space="preserve">23.1989860534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.251012802124</t>
+    <t xml:space="preserve">24.2510108947754</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
@@ -2957,25 +2957,25 @@
     <t xml:space="preserve">26.4457569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6452789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3163986206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5521965026855</t>
+    <t xml:space="preserve">26.6452808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3164005279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5521984100342</t>
   </si>
   <si>
     <t xml:space="preserve">26.8629417419434</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5340614318848</t>
+    <t xml:space="preserve">27.5340595245361</t>
   </si>
   <si>
     <t xml:space="preserve">28.1870422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3502883911133</t>
+    <t xml:space="preserve">28.3502864837646</t>
   </si>
   <si>
     <t xml:space="preserve">28.2777347564697</t>
@@ -2987,10 +2987,10 @@
     <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3455085754395</t>
+    <t xml:space="preserve">30.0371551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3455066680908</t>
   </si>
   <si>
     <t xml:space="preserve">30.6357231140137</t>
@@ -2999,19 +2999,19 @@
     <t xml:space="preserve">30.8533840179443</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3249816894531</t>
+    <t xml:space="preserve">31.3249835968018</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3273696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.000883102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6199722290039</t>
+    <t xml:space="preserve">30.3273677825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0008792877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6199741363525</t>
   </si>
   <si>
     <t xml:space="preserve">28.8762989044189</t>
@@ -3020,76 +3020,76 @@
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335815429688</t>
+    <t xml:space="preserve">27.7335834503174</t>
   </si>
   <si>
     <t xml:space="preserve">28.5860862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7698593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.803747177124</t>
+    <t xml:space="preserve">27.7698612213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8037452697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7879962921143</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6610298156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684253692627</t>
+    <t xml:space="preserve">27.6610279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684272766113</t>
   </si>
   <si>
     <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">28.894437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.397533416748</t>
+    <t xml:space="preserve">28.8944396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3975353240967</t>
   </si>
   <si>
     <t xml:space="preserve">30.3817863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2910938262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5450305938721</t>
+    <t xml:space="preserve">30.2910976409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5450325012207</t>
   </si>
   <si>
     <t xml:space="preserve">30.1278495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5631713867188</t>
+    <t xml:space="preserve">30.5631694793701</t>
   </si>
   <si>
     <t xml:space="preserve">32.1774864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0505142211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5244998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696090698242</t>
+    <t xml:space="preserve">32.0505180358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5245018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696071624756</t>
   </si>
   <si>
     <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970554351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.923547744751</t>
+    <t xml:space="preserve">31.3431167602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970592498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9235515594482</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225898742676</t>
@@ -3107,31 +3107,31 @@
     <t xml:space="preserve">33.2295112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1388206481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8486099243164</t>
+    <t xml:space="preserve">33.1388168334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8486061096191</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0481262207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.685359954834</t>
+    <t xml:space="preserve">33.0481300354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6128044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1206817626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0662689208984</t>
+    <t xml:space="preserve">32.6128082275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1206855773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0662651062012</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
@@ -3140,10 +3140,10 @@
     <t xml:space="preserve">33.1025428771973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9937171936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0299873352051</t>
+    <t xml:space="preserve">32.9937133789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0299911499023</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736625671387</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">33.9550437927246</t>
   </si>
   <si>
-    <t xml:space="preserve">33.211368560791</t>
+    <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
     <t xml:space="preserve">33.9369049072266</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667449951172</t>
+    <t xml:space="preserve">32.8667488098145</t>
   </si>
   <si>
     <t xml:space="preserve">33.1569595336914</t>
@@ -3170,13 +3170,13 @@
     <t xml:space="preserve">33.1750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9755706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8304672241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7397766113281</t>
+    <t xml:space="preserve">32.9755744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8304710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7397727966309</t>
   </si>
   <si>
     <t xml:space="preserve">33.5324172973633</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">33.2746162414551</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1457138061523</t>
+    <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
     <t xml:space="preserve">33.5140037536621</t>
@@ -3194,22 +3194,22 @@
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.661319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.10888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1273002624512</t>
+    <t xml:space="preserve">33.6429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6613159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1088905334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1273040771484</t>
   </si>
   <si>
     <t xml:space="preserve">33.2377891540527</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0664329528809</t>
+    <t xml:space="preserve">34.0664291381836</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3227,13 +3227,13 @@
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4786987304688</t>
+    <t xml:space="preserve">36.478702545166</t>
   </si>
   <si>
     <t xml:space="preserve">36.7917442321777</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2761497497559</t>
+    <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
     <t xml:space="preserve">35.4106750488281</t>
@@ -3245,13 +3245,13 @@
     <t xml:space="preserve">34.766170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3610610961914</t>
+    <t xml:space="preserve">34.3610572814941</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6372718811035</t>
+    <t xml:space="preserve">34.6372756958008</t>
   </si>
   <si>
     <t xml:space="preserve">34.508373260498</t>
@@ -3260,13 +3260,13 @@
     <t xml:space="preserve">33.8270492553711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4347152709961</t>
+    <t xml:space="preserve">34.4347190856934</t>
   </si>
   <si>
     <t xml:space="preserve">34.2505760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5636215209961</t>
+    <t xml:space="preserve">34.5636177062988</t>
   </si>
   <si>
     <t xml:space="preserve">33.4035148620605</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5876579284668</t>
+    <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
     <t xml:space="preserve">32.5380439758301</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298606872559</t>
+    <t xml:space="preserve">33.3298645019531</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3426475524902</t>
+    <t xml:space="preserve">34.342643737793</t>
   </si>
   <si>
     <t xml:space="preserve">33.2930297851562</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843330383301</t>
+    <t xml:space="preserve">35.4843292236328</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">35.8157920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8526191711426</t>
+    <t xml:space="preserve">35.8526153564453</t>
   </si>
   <si>
     <t xml:space="preserve">35.5948181152344</t>
@@ -3332,16 +3332,16 @@
     <t xml:space="preserve">35.9999313354492</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6132316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6684761047363</t>
+    <t xml:space="preserve">35.6132354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6684722900391</t>
   </si>
   <si>
     <t xml:space="preserve">35.5764007568359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.392261505127</t>
+    <t xml:space="preserve">35.3922576904297</t>
   </si>
   <si>
     <t xml:space="preserve">35.0608062744141</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">35.1344604492188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7605438232422</t>
+    <t xml:space="preserve">35.7605476379395</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3371,19 +3371,19 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.128833770752</t>
+    <t xml:space="preserve">36.1288299560547</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3498039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.165657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5891914367676</t>
+    <t xml:space="preserve">36.3498001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5891876220703</t>
   </si>
   <si>
     <t xml:space="preserve">35.7973747253418</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4700145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8255138397217</t>
+    <t xml:space="preserve">31.727819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4700164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595333099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8255176544189</t>
   </si>
   <si>
     <t xml:space="preserve">30.8807601928711</t>
@@ -3410,22 +3410,22 @@
     <t xml:space="preserve">30.9175910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.604549407959</t>
+    <t xml:space="preserve">31.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045455932617</t>
   </si>
   <si>
     <t xml:space="preserve">30.2546730041504</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996891021729</t>
+    <t xml:space="preserve">29.4996871948242</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393333435059</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6158027648926</t>
+    <t xml:space="preserve">28.6158008575439</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840869903564</t>
+    <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8183574676514</t>
@@ -3443,58 +3443,58 @@
     <t xml:space="preserve">29.278715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2418880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5181045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.475643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3835754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5677185058594</t>
+    <t xml:space="preserve">29.2418899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5181064605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4756450653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3835735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5677165985107</t>
   </si>
   <si>
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1201457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2858715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674617767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.875129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2802467346191</t>
+    <t xml:space="preserve">31.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1201438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2858753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8751335144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2802505493164</t>
   </si>
   <si>
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147720336914</t>
+    <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
     <t xml:space="preserve">30.5861320495605</t>
@@ -3503,37 +3503,37 @@
     <t xml:space="preserve">28.3948307037354</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9897155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002025604248</t>
+    <t xml:space="preserve">27.9897174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002044677734</t>
   </si>
   <si>
     <t xml:space="preserve">27.7503318786621</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4500751495361</t>
+    <t xml:space="preserve">28.4500732421875</t>
   </si>
   <si>
     <t xml:space="preserve">28.9104309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5605583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8424034118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0265445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2291011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.884859085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5661869049072</t>
+    <t xml:space="preserve">28.5605621337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8424015045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0265464782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2291030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8848609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5661888122559</t>
   </si>
   <si>
     <t xml:space="preserve">27.2347316741943</t>
@@ -3542,31 +3542,31 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2531471252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5293598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3027591705322</t>
+    <t xml:space="preserve">27.4925308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2531452178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5293579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4372863769531</t>
+    <t xml:space="preserve">27.8976459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4372882843018</t>
   </si>
   <si>
     <t xml:space="preserve">27.6030158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9713001251221</t>
+    <t xml:space="preserve">27.9713020324707</t>
   </si>
   <si>
     <t xml:space="preserve">28.3764171600342</t>
@@ -3584,58 +3584,58 @@
     <t xml:space="preserve">29.1314029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0209178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9656734466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8367748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5421466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5477733612061</t>
+    <t xml:space="preserve">29.0209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9656753540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8367729187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5421447753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5477752685547</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0930461883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7800025939941</t>
+    <t xml:space="preserve">26.0930442810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7800045013428</t>
   </si>
   <si>
     <t xml:space="preserve">25.9641456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3508453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5958576202393</t>
+    <t xml:space="preserve">26.3508472442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5958595275879</t>
   </si>
   <si>
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.584602355957</t>
+    <t xml:space="preserve">24.8592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1682319641113</t>
+    <t xml:space="preserve">29.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">28.4684886932373</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526298522949</t>
+    <t xml:space="preserve">28.6526336669922</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">28.044958114624</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344749450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2163162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5534019470215</t>
+    <t xml:space="preserve">28.3395881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344730377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2163181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5534038543701</t>
   </si>
   <si>
     <t xml:space="preserve">25.8720741271973</t>
@@ -3680,13 +3680,13 @@
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
+    <t xml:space="preserve">25.7984180450439</t>
   </si>
   <si>
     <t xml:space="preserve">25.2091579437256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3677291870117</t>
+    <t xml:space="preserve">23.3677310943604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
@@ -3698,16 +3698,16 @@
     <t xml:space="preserve">23.6623611450195</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9682445526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8393440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3124885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7048168182373</t>
+    <t xml:space="preserve">21.9682464599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8393459320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3124866485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7048187255859</t>
   </si>
   <si>
     <t xml:space="preserve">23.754430770874</t>
@@ -3716,10 +3716,10 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1835861206055</t>
+    <t xml:space="preserve">23.2388286590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1835899353027</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416458129883</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">22.391773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4838466644287</t>
+    <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
     <t xml:space="preserve">23.9754028320312</t>
@@ -3743,10 +3743,10 @@
     <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7232303619385</t>
+    <t xml:space="preserve">22.6863994598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7232322692871</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
@@ -3758,10 +3758,10 @@
     <t xml:space="preserve">21.857759475708</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0971431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0419025421143</t>
+    <t xml:space="preserve">22.0971450805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288608551025</t>
+    <t xml:space="preserve">21.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">20.918628692627</t>
@@ -3779,22 +3779,22 @@
     <t xml:space="preserve">20.7897300720215</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500877380371</t>
+    <t xml:space="preserve">21.2500858306885</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7160739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8633880615234</t>
+    <t xml:space="preserve">20.7160720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8633861541748</t>
   </si>
   <si>
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158153533936</t>
+    <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557144165039</t>
+    <t xml:space="preserve">20.2557163238525</t>
   </si>
   <si>
     <t xml:space="preserve">20.624002456665</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135154724121</t>
+    <t xml:space="preserve">20.5135173797607</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5133,6 +5133,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.9599990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -62024,7 +62027,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6496296296</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>70368</v>
@@ -62045,6 +62048,32 @@
         <v>1706</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6496064815</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>92133</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>32.2200012207031</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>31.6200008392334</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>31.8199996948242</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>31.6000003814697</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1713">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,28 +53,28 @@
     <t xml:space="preserve">20.4243717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2239799499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0158824920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7307147979736</t>
+    <t xml:space="preserve">20.2239856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0158863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7307167053223</t>
   </si>
   <si>
     <t xml:space="preserve">20.1314964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7441787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8501300811768</t>
+    <t xml:space="preserve">18.7441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.850133895874</t>
   </si>
   <si>
     <t xml:space="preserve">17.6497421264648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7422294616699</t>
+    <t xml:space="preserve">17.7422275543213</t>
   </si>
   <si>
     <t xml:space="preserve">17.2643756866455</t>
@@ -86,64 +86,64 @@
     <t xml:space="preserve">18.2354965209961</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8404750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6477909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9175453186035</t>
+    <t xml:space="preserve">16.8404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6477890014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9175472259521</t>
   </si>
   <si>
     <t xml:space="preserve">17.0100326538086</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8790073394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3317909240723</t>
+    <t xml:space="preserve">16.8790092468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3317890167236</t>
   </si>
   <si>
     <t xml:space="preserve">16.1622295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.846230506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598875045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213523864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6458358764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995950698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464254379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764741897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082782745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1545219421387</t>
+    <t xml:space="preserve">15.8462295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.589940071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6458377838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.576473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.15452003479</t>
   </si>
   <si>
     <t xml:space="preserve">15.7768630981445</t>
@@ -158,2239 +158,2239 @@
     <t xml:space="preserve">16.7633991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687685012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078874588013</t>
+    <t xml:space="preserve">16.9560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.907886505127</t>
   </si>
   <si>
     <t xml:space="preserve">15.4762802124023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0928630828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071096420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999849319458</t>
+    <t xml:space="preserve">16.0928649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071115493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853504180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.807692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221311569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.537938117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296457290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223279953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.245062828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061330795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625595092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.146782875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.170449256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.13889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.036340713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595697402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.951455116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275733947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4405746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5510158538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.708797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559101104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682567596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.712589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627002716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4995899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023662567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782577514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578060150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925815582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7106952667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0420303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8823566436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714789390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751243591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384595870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830131530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.574686050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3853492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245750427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.048023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1269130706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085792541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8290271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345798492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9334831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842506408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.255033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5765800476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6160259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.35569190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.024356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.481912612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2057991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0401306152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111335754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9928035736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533538818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4898014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2610244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424705505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563522338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964555740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017881393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045663833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.913911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.70090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640209197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716857910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373561859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051464080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392539978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06569480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840305328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998081207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390357971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.696813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.588264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.706600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4857063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592674255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4778213500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908226013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.369270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187229156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052814483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.292272567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579467773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.84450340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619007110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713497161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060894012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186683654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851982116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086170196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.226619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358253479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203578948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9923000335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081970214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508766174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.393985748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700878143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311920166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826667785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475090026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755058288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.950403213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236110687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646106719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985103607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.155403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324043273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729820251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240310668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261425018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428737640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407680511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642440795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.088508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0383014678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.741247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.506929397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705059051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5153007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118740081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361366271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4608211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193996429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.603084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5026607513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968208312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562431335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219291687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3144035339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780334472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604526519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9922466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454013824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.368766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6323432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6867694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.268346786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.950345993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704524993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164520263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490802764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001369476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215091705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.457275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847854614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6664447784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.352689743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5269985198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4049816131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8930473327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5792903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609554290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820610046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435241699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728935241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.927906036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.193904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636280059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113342285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452930450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755680084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104286193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141067504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838317871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067543029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416168212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6296768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.507661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810592651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.071891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489673614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929973602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4966773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241855621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984867095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847393035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.82785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9324436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5902767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462467193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4334011077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.219690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2022590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.400447845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876022338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453853607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517822265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205997467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811515808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1673984527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683502197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8471984863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995384216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031204223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.049919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077983856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1802921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3371696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.681245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0211486816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637012481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970306396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.99036693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214864730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214679718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192443847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281658172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081619262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370725631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415079116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615127563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637401580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9593048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570774078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015186309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770822525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014825820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703824996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792707443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903114318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347507476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7413959503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.932544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.052583694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.288179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615293502808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748529434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.199294090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748373031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.297064781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770433425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547565460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969898223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281112670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.985876083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3814582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.417013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904039382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.897084236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771173477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926683425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237323760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281862258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714825630188</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076944351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3221311569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146184921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.537938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296447753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675960540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653387069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.162558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440103530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361206054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.138897895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.036337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595678329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646793365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4405746459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5510177612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7087993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473648071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.284688949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559139251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868049621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865886688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7125911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889266967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5627021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4995880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661331176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925777435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.710693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1524772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8823528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665752410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751234054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384576797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830141067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.574686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3853492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245788574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324619293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1269111633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085792541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8132476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185821533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9334812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.043924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.381254196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842468261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1919193267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2550296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895832061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5765800476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.616024017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.35569190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8192443847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.481912612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0401344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9928035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533538818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4898014068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.261022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083591461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424724578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.148681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802368164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563503265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964546203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045644760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.377462387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9218006134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2689113616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693534851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247951507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9139099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.70090675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770202636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716857910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712493896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392559051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840286254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526973724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974700927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684749603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339195251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968116760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385974884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699325561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.369270324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133865356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0477199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.158166885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922763824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.84450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725452423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295120239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851982116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906162261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.465087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077732086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9086151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1596717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.686882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.435827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203540802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9923000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663497924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9629859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700878143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826667785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475090026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755096435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9503993988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646144866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.531982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324043273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240291595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261386871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428775787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7997722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478775024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.728666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642459869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7412509918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818248748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.460823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532955169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.603084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.50266456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968208312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219272613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955570220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077159881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.573823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144016265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135578155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.423189163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9085597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780334472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930885314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.992244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.310245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511878967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545612335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838180541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6323490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787647247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.381290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.268346786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1846618652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7704544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.021505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444297790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.457275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324897766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.875617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3526916503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4049854278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1260890960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.986644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683874130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.88205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692096710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169235229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9279041290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.270076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893211364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452930450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067543029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.629674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.507661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810592651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.071891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801517486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4966735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847373962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.82785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9324417114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.694860458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811054229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058929443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5902767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462467193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581829071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004440307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205997467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811534881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673984527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683521270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2609996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783809661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8471984863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0518321990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0343971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976753234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921821594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.049919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8077983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3371677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6812438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0211448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970462799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.319242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481365203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703639984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281667709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881589889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0881423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592649459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814777374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081619262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770618438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792882919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1370725631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415079116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015195846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703824996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148422241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5770978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215215682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859334945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659471511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992727279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925924301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881191253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903114318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125389099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459646224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726089477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881784439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615293502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4126176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474835395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659851074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614923477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7770442962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570394515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1992015838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858798980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4170112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.750376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904039382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8970851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325817108154</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2836875915527</t>
+    <t xml:space="preserve">16.2836856842041</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281492233276</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548149108887</t>
+    <t xml:space="preserve">15.95481300354</t>
   </si>
   <si>
     <t xml:space="preserve">14.3015575408936</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9549055099487</t>
+    <t xml:space="preserve">13.954906463623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1326742172241</t>
@@ -2405,34 +2405,34 @@
     <t xml:space="preserve">13.8304681777954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.590479850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3060483932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1638317108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8882894515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1594352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6705684661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2972536087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1595287322998</t>
+    <t xml:space="preserve">13.5904779434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3060474395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1638326644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8882904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1594343185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6705675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1595277786255</t>
   </si>
   <si>
     <t xml:space="preserve">11.1105937957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1416568756104</t>
+    <t xml:space="preserve">12.141655921936</t>
   </si>
   <si>
     <t xml:space="preserve">12.3283157348633</t>
@@ -2459,13 +2459,13 @@
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5460367202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6438112258911</t>
+    <t xml:space="preserve">14.0260143280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5460348129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6438102722168</t>
   </si>
   <si>
     <t xml:space="preserve">13.6793651580811</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">13.5815896987915</t>
   </si>
   <si>
-    <t xml:space="preserve">13.928240776062</t>
+    <t xml:space="preserve">13.9282417297363</t>
   </si>
   <si>
     <t xml:space="preserve">13.9993486404419</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">13.3682670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2438278198242</t>
+    <t xml:space="preserve">13.2438287734985</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571523666382</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">13.6260328292847</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7771377563477</t>
+    <t xml:space="preserve">13.7771368026733</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726829528809</t>
@@ -2507,91 +2507,91 @@
     <t xml:space="preserve">13.8837985992432</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3993320465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4882154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.65709400177</t>
+    <t xml:space="preserve">14.3993301391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4882135391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326585769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6570949554443</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326196670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1192960739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304117202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7681560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037294387817</t>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.808198928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1192970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304126739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7681550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037284851074</t>
   </si>
   <si>
     <t xml:space="preserve">15.4926128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.079252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6214504241943</t>
+    <t xml:space="preserve">16.0792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
     <t xml:space="preserve">16.4259033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3325290679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2525310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147117614746</t>
+    <t xml:space="preserve">17.3325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2525329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147136688232</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0879554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8924083709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4479827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7146377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4434909820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4790458679199</t>
+    <t xml:space="preserve">20.0879535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.892406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4479846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7146396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4434928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4790496826172</t>
   </si>
   <si>
     <t xml:space="preserve">20.923469543457</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">21.0123558044434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9056930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3190574645996</t>
+    <t xml:space="preserve">20.9056949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6568145751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989933013916</t>
+    <t xml:space="preserve">20.6568164825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989952087402</t>
   </si>
   <si>
     <t xml:space="preserve">21.8478717803955</t>
@@ -2627,22 +2627,22 @@
     <t xml:space="preserve">21.5634422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7412071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7767639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9545345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8300952911377</t>
+    <t xml:space="preserve">21.7412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.776762008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9545364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8300933837891</t>
   </si>
   <si>
     <t xml:space="preserve">21.9900875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0611934661865</t>
+    <t xml:space="preserve">22.0611953735352</t>
   </si>
   <si>
     <t xml:space="preserve">22.2034111022949</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">22.1678581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.132303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9723110198975</t>
+    <t xml:space="preserve">22.1323051452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9723091125488</t>
   </si>
   <si>
     <t xml:space="preserve">22.2211875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7945423126221</t>
+    <t xml:space="preserve">21.7945404052734</t>
   </si>
   <si>
     <t xml:space="preserve">21.865650177002</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">21.6523265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8123188018799</t>
+    <t xml:space="preserve">21.8123207092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.110034942627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6077899932861</t>
+    <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
@@ -2684,31 +2684,31 @@
     <t xml:space="preserve">24.9410629272461</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8344020843506</t>
+    <t xml:space="preserve">24.834400177002</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943943023682</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.585521697998</t>
+    <t xml:space="preserve">25.0299472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5855236053467</t>
   </si>
   <si>
     <t xml:space="preserve">24.887731552124</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8166236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6744079589844</t>
+    <t xml:space="preserve">24.8166217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5321922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6033020019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">24.4433059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7455158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7632942199707</t>
+    <t xml:space="preserve">24.7455139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7632923126221</t>
   </si>
   <si>
     <t xml:space="preserve">24.7099590301514</t>
@@ -2732,37 +2732,37 @@
     <t xml:space="preserve">24.4966373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7810668945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1410980224609</t>
+    <t xml:space="preserve">24.7810688018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
     <t xml:space="preserve">25.012170791626</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9232845306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5454769134521</t>
+    <t xml:space="preserve">24.9232864379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5454788208008</t>
   </si>
   <si>
     <t xml:space="preserve">26.2921104431152</t>
   </si>
   <si>
-    <t xml:space="preserve">25.581033706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1854457855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1809597015381</t>
+    <t xml:space="preserve">25.5810317993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1854476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1809558868408</t>
   </si>
   <si>
     <t xml:space="preserve">26.5587635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6476459503174</t>
+    <t xml:space="preserve">26.6476497650146</t>
   </si>
   <si>
     <t xml:space="preserve">26.5765399932861</t>
@@ -2771,43 +2771,43 @@
     <t xml:space="preserve">26.2032260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1498947143555</t>
+    <t xml:space="preserve">26.132116317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1498928070068</t>
   </si>
   <si>
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543514251709</t>
+    <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
     <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7765789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.434326171875</t>
+    <t xml:space="preserve">25.7765808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.3098888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5232124328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4521064758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565204620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.034252166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9098110198975</t>
+    <t xml:space="preserve">26.5232105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4521026611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0342502593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9098129272461</t>
   </si>
   <si>
     <t xml:space="preserve">27.1454048156738</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.127628326416</t>
+    <t xml:space="preserve">27.1276264190674</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210025787354</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2655353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4077491760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4610843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9010162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1676731109619</t>
+    <t xml:space="preserve">24.4255275726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4077529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4610862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9010143280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1676750183105</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">26.7365341186523</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4032611846924</t>
+    <t xml:space="preserve">25.403263092041</t>
   </si>
   <si>
     <t xml:space="preserve">25.1721630096436</t>
@@ -2858,28 +2858,28 @@
     <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5988063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8521766662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677433013916</t>
+    <t xml:space="preserve">25.5988082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8521747589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677452087402</t>
   </si>
   <si>
     <t xml:space="preserve">25.1543865203857</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5499687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">24.5499706268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0076770782471</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">25.1010551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5144138336182</t>
+    <t xml:space="preserve">24.5144157409668</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766548156738</t>
+    <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2833137512207</t>
+    <t xml:space="preserve">24.2833118438721</t>
   </si>
   <si>
     <t xml:space="preserve">24.1965999603271</t>
@@ -2921,19 +2921,19 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3803730010986</t>
+    <t xml:space="preserve">23.38037109375</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2872924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7794132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8519687652588</t>
+    <t xml:space="preserve">24.2872905731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7794151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8519668579102</t>
   </si>
   <si>
     <t xml:space="preserve">23.7250003814697</t>
@@ -2963,58 +2963,58 @@
     <t xml:space="preserve">26.6452789306641</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3164005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5521965026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8629398345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5340614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1870422363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3502864837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2777366638184</t>
+    <t xml:space="preserve">27.3163986206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5521984100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8629417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5340595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1870403289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3502883911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2777347564697</t>
   </si>
   <si>
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.347900390625</t>
+    <t xml:space="preserve">29.3478984832764</t>
   </si>
   <si>
     <t xml:space="preserve">30.0371551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3455066680908</t>
+    <t xml:space="preserve">30.3455085754395</t>
   </si>
   <si>
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533821105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4724788665771</t>
+    <t xml:space="preserve">30.8533840179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4724750518799</t>
   </si>
   <si>
     <t xml:space="preserve">30.3273677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0008792877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6199722290039</t>
+    <t xml:space="preserve">30.0008811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6199741363525</t>
   </si>
   <si>
     <t xml:space="preserve">28.8763008117676</t>
@@ -3023,22 +3023,22 @@
     <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7335834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.586088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7698593139648</t>
+    <t xml:space="preserve">27.7335815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5860862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
     <t xml:space="preserve">28.803747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7879981994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6610279083252</t>
+    <t xml:space="preserve">27.7879962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6610298156738</t>
   </si>
   <si>
     <t xml:space="preserve">28.3684253692627</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8944396972656</t>
+    <t xml:space="preserve">28.894437789917</t>
   </si>
   <si>
     <t xml:space="preserve">31.397533416748</t>
@@ -3056,43 +3056,43 @@
     <t xml:space="preserve">30.3817882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2910976409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5450325012207</t>
+    <t xml:space="preserve">30.2910938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5450305938721</t>
   </si>
   <si>
     <t xml:space="preserve">30.1278495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5631694793701</t>
+    <t xml:space="preserve">30.5631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">32.1774864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0505180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5245037078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421607971191</t>
+    <t xml:space="preserve">32.0505142211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5244998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.669605255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
     <t xml:space="preserve">31.3431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235496520996</t>
+    <t xml:space="preserve">31.5970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.923547744751</t>
   </si>
   <si>
     <t xml:space="preserve">32.3225898742676</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">33.1388206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8486061096191</t>
+    <t xml:space="preserve">32.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">33.1206817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0662651062012</t>
+    <t xml:space="preserve">33.0662689208984</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1025390625</t>
+    <t xml:space="preserve">33.1025428771973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937133789062</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">33.0299873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7736663818359</t>
+    <t xml:space="preserve">33.7736625671387</t>
   </si>
   <si>
     <t xml:space="preserve">33.9550437927246</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">33.211368560791</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369049072266</t>
+    <t xml:space="preserve">33.9369087219238</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">32.8667449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569633483887</t>
+    <t xml:space="preserve">33.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9755744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8304710388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7397766113281</t>
+    <t xml:space="preserve">32.9755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8304672241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7397727966309</t>
   </si>
   <si>
     <t xml:space="preserve">33.5324172973633</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">33.2746162414551</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1457138061523</t>
+    <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
     <t xml:space="preserve">33.5140037536621</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429023742676</t>
+    <t xml:space="preserve">33.6429061889648</t>
   </si>
   <si>
     <t xml:space="preserve">33.661319732666</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">33.10888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377891540527</t>
+    <t xml:space="preserve">33.1273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377853393555</t>
   </si>
   <si>
     <t xml:space="preserve">34.0664329528809</t>
@@ -3227,10 +3227,10 @@
     <t xml:space="preserve">35.7789611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4971160888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4786987304688</t>
+    <t xml:space="preserve">36.4971199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.478702545166</t>
   </si>
   <si>
     <t xml:space="preserve">36.7917442321777</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">34.766170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3610610961914</t>
+    <t xml:space="preserve">34.3610572814941</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6372718811035</t>
+    <t xml:space="preserve">34.6372756958008</t>
   </si>
   <si>
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270492553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4347152709961</t>
+    <t xml:space="preserve">33.8270454406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4347190856934</t>
   </si>
   <si>
     <t xml:space="preserve">34.2505760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5636215209961</t>
+    <t xml:space="preserve">34.5636177062988</t>
   </si>
   <si>
     <t xml:space="preserve">33.4035148620605</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">33.7165565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1032600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6925201416016</t>
+    <t xml:space="preserve">34.1032638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6925163269043</t>
   </si>
   <si>
     <t xml:space="preserve">34.8582496643066</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5876579284668</t>
+    <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
     <t xml:space="preserve">32.5380439758301</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">33.3298606872559</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5452041625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3426475524902</t>
+    <t xml:space="preserve">34.5452003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.342643737793</t>
   </si>
   <si>
     <t xml:space="preserve">33.2930297851562</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">35.4843330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">35.318603515625</t>
+    <t xml:space="preserve">35.3186073303223</t>
   </si>
   <si>
     <t xml:space="preserve">35.5395736694336</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">35.8157920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8526191711426</t>
+    <t xml:space="preserve">35.8526153564453</t>
   </si>
   <si>
     <t xml:space="preserve">35.5948181152344</t>
@@ -3353,10 +3353,10 @@
     <t xml:space="preserve">35.1344604492188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7605438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.981517791748</t>
+    <t xml:space="preserve">35.7605476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9815216064453</t>
   </si>
   <si>
     <t xml:space="preserve">34.3242301940918</t>
@@ -3377,16 +3377,16 @@
     <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6444320678711</t>
+    <t xml:space="preserve">36.6444358825684</t>
   </si>
   <si>
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.165657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5891914367676</t>
+    <t xml:space="preserve">36.1656608581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5891876220703</t>
   </si>
   <si>
     <t xml:space="preserve">35.7973747253418</t>
@@ -3395,28 +3395,28 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4700145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8255138397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8807601928711</t>
+    <t xml:space="preserve">31.7278156280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4700164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595294952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8255157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8807621002197</t>
   </si>
   <si>
     <t xml:space="preserve">30.9175910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.604549407959</t>
+    <t xml:space="preserve">31.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045475006104</t>
   </si>
   <si>
     <t xml:space="preserve">30.2546730041504</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">29.4996891021729</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0393333435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6158027648926</t>
+    <t xml:space="preserve">29.0393314361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6158008575439</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840869903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8183574676514</t>
+    <t xml:space="preserve">28.9840888977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.818359375</t>
   </si>
   <si>
     <t xml:space="preserve">29.278715133667</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">30.475643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3835754394531</t>
+    <t xml:space="preserve">30.3467445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3835735321045</t>
   </si>
   <si>
     <t xml:space="preserve">30.5677185058594</t>
@@ -3476,28 +3476,28 @@
     <t xml:space="preserve">31.0649070739746</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4940605163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1201457977295</t>
+    <t xml:space="preserve">30.4940586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1201438903809</t>
   </si>
   <si>
     <t xml:space="preserve">31.2858715057373</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674617767334</t>
+    <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2802467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.488431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4147720336914</t>
+    <t xml:space="preserve">32.2802505493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4884338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
     <t xml:space="preserve">30.5861320495605</t>
@@ -3521,22 +3521,22 @@
     <t xml:space="preserve">28.9104309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5605583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8424034118652</t>
+    <t xml:space="preserve">28.5605602264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265445709229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.884859085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5661869049072</t>
+    <t xml:space="preserve">28.2291030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8848609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5661888122559</t>
   </si>
   <si>
     <t xml:space="preserve">27.2347316741943</t>
@@ -3545,31 +3545,31 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925327301025</t>
+    <t xml:space="preserve">27.4925308227539</t>
   </si>
   <si>
     <t xml:space="preserve">27.2531471252441</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5293598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3027591705322</t>
+    <t xml:space="preserve">27.5293579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4372863769531</t>
+    <t xml:space="preserve">27.8976459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4372882843018</t>
   </si>
   <si>
     <t xml:space="preserve">27.6030158996582</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9713001251221</t>
+    <t xml:space="preserve">27.9713020324707</t>
   </si>
   <si>
     <t xml:space="preserve">28.3764171600342</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">28.2106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5237312316895</t>
+    <t xml:space="preserve">28.5237331390381</t>
   </si>
   <si>
     <t xml:space="preserve">28.1370296478271</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">28.5789737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9656734466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8367748260498</t>
+    <t xml:space="preserve">28.9656753540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421466827393</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477733612061</t>
+    <t xml:space="preserve">27.5477752685547</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">28.6894588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1682319641113</t>
+    <t xml:space="preserve">29.1682300567627</t>
   </si>
   <si>
     <t xml:space="preserve">28.4684886932373</t>
@@ -3650,7 +3650,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526298522949</t>
+    <t xml:space="preserve">28.6526317596436</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3668,10 +3668,10 @@
     <t xml:space="preserve">27.9344749450684</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2163162231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5534019470215</t>
+    <t xml:space="preserve">27.2163181304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5534038543701</t>
   </si>
   <si>
     <t xml:space="preserve">25.8720741271973</t>
@@ -3683,31 +3683,31 @@
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
+    <t xml:space="preserve">25.7984180450439</t>
   </si>
   <si>
     <t xml:space="preserve">25.2091579437256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3677291870117</t>
+    <t xml:space="preserve">23.3677310943604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623611450195</t>
+    <t xml:space="preserve">22.2812900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623592376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682445526123</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3124885559082</t>
+    <t xml:space="preserve">21.8393459320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
     <t xml:space="preserve">22.7048168182373</t>
@@ -3719,10 +3719,10 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1835861206055</t>
+    <t xml:space="preserve">23.2388286590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1835880279541</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416458129883</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6864013671875</t>
+    <t xml:space="preserve">22.6863994598389</t>
   </si>
   <si>
     <t xml:space="preserve">22.7232303619385</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">21.857759475708</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0971431732178</t>
+    <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
     <t xml:space="preserve">22.0419025421143</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135154724121</t>
+    <t xml:space="preserve">20.5135173797607</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5148,6 +5148,9 @@
   </si>
   <si>
     <t xml:space="preserve">30.7199993133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9799995422363</t>
   </si>
 </sst>
 </file>
@@ -32001,7 +32004,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G1020" t="s">
-        <v>772</v>
+        <v>87</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32053,7 +32056,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1022" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32079,7 +32082,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G1023" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32131,7 +32134,7 @@
         <v>18</v>
       </c>
       <c r="G1025" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32157,7 +32160,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1026" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32209,7 +32212,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1028" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32235,7 +32238,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1029" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32261,7 +32264,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1030" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32313,7 +32316,7 @@
         <v>16.7099990844727</v>
       </c>
       <c r="G1032" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32339,7 +32342,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32365,7 +32368,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1034" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32391,7 +32394,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1035" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32443,7 +32446,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1037" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32547,7 +32550,7 @@
         <v>18</v>
       </c>
       <c r="G1041" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32599,7 +32602,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1043" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32625,7 +32628,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1044" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32703,7 +32706,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1047" t="s">
-        <v>58</v>
+        <v>785</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -62195,7 +62198,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6496064815</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>79970</v>
@@ -62216,6 +62219,32 @@
         <v>1711</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6496412037</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>71908</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>30.9200000762939</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>30.1599998474121</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>30.8400001525879</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>29.9799995422363</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1714">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8097343444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9099311828613</t>
+    <t xml:space="preserve">20.8097362518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9099292755127</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2239837646484</t>
+    <t xml:space="preserve">20.2239818572998</t>
   </si>
   <si>
     <t xml:space="preserve">20.0158843994141</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7307167053223</t>
+    <t xml:space="preserve">19.7307147979736</t>
   </si>
   <si>
     <t xml:space="preserve">20.1314964294434</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">17.8501300811768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6497421264648</t>
+    <t xml:space="preserve">17.6497383117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.7422275543213</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2643737792969</t>
+    <t xml:space="preserve">17.2643756866455</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354927062988</t>
+    <t xml:space="preserve">18.2354965209961</t>
   </si>
   <si>
     <t xml:space="preserve">16.8404750823975</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">16.9175453186035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.01003074646</t>
+    <t xml:space="preserve">17.0100326538086</t>
   </si>
   <si>
     <t xml:space="preserve">16.8790092468262</t>
@@ -104,40 +104,40 @@
     <t xml:space="preserve">16.3317909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622295379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.846230506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959888458252</t>
+    <t xml:space="preserve">16.1622276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8462285995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756935119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598903656006</t>
   </si>
   <si>
     <t xml:space="preserve">15.5225210189819</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5899381637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213542938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6458415985107</t>
+    <t xml:space="preserve">14.5899391174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213514328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6458387374878</t>
   </si>
   <si>
     <t xml:space="preserve">15.4454507827759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5995950698853</t>
+    <t xml:space="preserve">15.5995960235596</t>
   </si>
   <si>
     <t xml:space="preserve">15.9464273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.576473236084</t>
+    <t xml:space="preserve">15.5764722824097</t>
   </si>
   <si>
     <t xml:space="preserve">16.1082763671875</t>
@@ -152,31 +152,31 @@
     <t xml:space="preserve">16.3240871429443</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3934478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7633991241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0774478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762802124023</t>
+    <t xml:space="preserve">16.3934535980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7634010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.077449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069128036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687694549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078874588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476282119751</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928630828857</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">15.7999868392944</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1236934661865</t>
+    <t xml:space="preserve">16.1236953735352</t>
   </si>
   <si>
     <t xml:space="preserve">16.1853523254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0851593017578</t>
+    <t xml:space="preserve">16.0851535797119</t>
   </si>
   <si>
     <t xml:space="preserve">15.8076944351196</t>
@@ -203,64 +203,64 @@
     <t xml:space="preserve">15.5456447601318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3221321105957</t>
+    <t xml:space="preserve">15.32213306427</t>
   </si>
   <si>
     <t xml:space="preserve">15.4146194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.537938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223299026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.245059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298406600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061311721802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653396606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625595092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440103530884</t>
+    <t xml:space="preserve">15.5379371643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296447753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450609207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286691665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653387069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625604629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440074920654</t>
   </si>
   <si>
     <t xml:space="preserve">15.3361196517944</t>
   </si>
   <si>
-    <t xml:space="preserve">15.146785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388969421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.036337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595678329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646812438965</t>
+    <t xml:space="preserve">15.1467866897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.170449256897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.13889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363388061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595668792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646793365479</t>
   </si>
   <si>
     <t xml:space="preserve">16.4169063568115</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">15.9514579772949</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2275714874268</t>
+    <t xml:space="preserve">16.2275695800781</t>
   </si>
   <si>
     <t xml:space="preserve">16.4405708312988</t>
@@ -278,64 +278,64 @@
     <t xml:space="preserve">16.3459053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5510177612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.708797454834</t>
+    <t xml:space="preserve">16.5510196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7087993621826</t>
   </si>
   <si>
     <t xml:space="preserve">16.5115737915039</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9473648071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006904602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559139251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241367340088</t>
+    <t xml:space="preserve">17.9473628997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006885528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241348266602</t>
   </si>
   <si>
     <t xml:space="preserve">17.5134716033936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9868087768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682548522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865886688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7125930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889247894287</t>
+    <t xml:space="preserve">17.9868068695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288108825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865905761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.712589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889266967773</t>
   </si>
   <si>
     <t xml:space="preserve">18.5627021789551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4995861053467</t>
+    <t xml:space="preserve">18.4995899200439</t>
   </si>
   <si>
     <t xml:space="preserve">18.3023662567139</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">18.8782596588135</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0597057342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081352233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.466136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.710693359375</t>
+    <t xml:space="preserve">19.0597076416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578060150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081371307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925777435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7106914520264</t>
   </si>
   <si>
     <t xml:space="preserve">18.1445846557617</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">18.0420303344727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0025863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1524753570557</t>
+    <t xml:space="preserve">18.0025844573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524772644043</t>
   </si>
   <si>
     <t xml:space="preserve">16.8823528289795</t>
@@ -389,37 +389,37 @@
     <t xml:space="preserve">16.5667972564697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8665733337402</t>
+    <t xml:space="preserve">16.8665752410889</t>
   </si>
   <si>
     <t xml:space="preserve">16.8350219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0934600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751234054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384557723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830121994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746898651123</t>
+    <t xml:space="preserve">16.0934581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384576797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746879577637</t>
   </si>
   <si>
     <t xml:space="preserve">16.3853511810303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3616828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245750427246</t>
+    <t xml:space="preserve">16.3616790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220188140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724573135376</t>
   </si>
   <si>
     <t xml:space="preserve">16.7324638366699</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">17.0480213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1269111633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085792541504</t>
+    <t xml:space="preserve">17.1269092559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085773468018</t>
   </si>
   <si>
     <t xml:space="preserve">17.829029083252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4345836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8132476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763618469238</t>
+    <t xml:space="preserve">17.4345817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763637542725</t>
   </si>
   <si>
     <t xml:space="preserve">17.5292472839355</t>
@@ -461,31 +461,31 @@
     <t xml:space="preserve">17.7185802459717</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678108215332</t>
+    <t xml:space="preserve">18.2786998748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678127288818</t>
   </si>
   <si>
     <t xml:space="preserve">18.9334812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8940353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0439262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.381254196167</t>
+    <t xml:space="preserve">18.8940372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439281463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.120922088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812522888184</t>
   </si>
   <si>
     <t xml:space="preserve">18.0972518920898</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">18.1919212341309</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2550315856934</t>
+    <t xml:space="preserve">18.255033493042</t>
   </si>
   <si>
     <t xml:space="preserve">17.7264709472656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7895832061768</t>
+    <t xml:space="preserve">17.7895851135254</t>
   </si>
   <si>
     <t xml:space="preserve">17.5765819549561</t>
@@ -524,13 +524,13 @@
     <t xml:space="preserve">17.0243530273438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8192443847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294673919678</t>
+    <t xml:space="preserve">16.819242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294692993164</t>
   </si>
   <si>
     <t xml:space="preserve">17.3399124145508</t>
@@ -539,31 +539,31 @@
     <t xml:space="preserve">17.4819145202637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0401344299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111316680908</t>
+    <t xml:space="preserve">17.2057991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.040132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322437286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111335754395</t>
   </si>
   <si>
     <t xml:space="preserve">16.9928016662598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9533519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4898014068604</t>
+    <t xml:space="preserve">16.9533538818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.489803314209</t>
   </si>
   <si>
     <t xml:space="preserve">17.4582462310791</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">17.3083572387695</t>
   </si>
   <si>
-    <t xml:space="preserve">17.166353225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424743652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188022613525</t>
+    <t xml:space="preserve">17.1663570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424724578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188041687012</t>
   </si>
   <si>
     <t xml:space="preserve">17.6475811004639</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4976921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1486835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802349090576</t>
+    <t xml:space="preserve">17.4976940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802387237549</t>
   </si>
   <si>
     <t xml:space="preserve">16.4563503265381</t>
@@ -605,34 +605,34 @@
     <t xml:space="preserve">16.5352401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1960144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.596453666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774585723877</t>
+    <t xml:space="preserve">16.1960124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5964546203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017862319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774604797363</t>
   </si>
   <si>
     <t xml:space="preserve">16.9217987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.268913269043</t>
+    <t xml:space="preserve">17.2689113616943</t>
   </si>
   <si>
     <t xml:space="preserve">16.6693553924561</t>
@@ -644,31 +644,31 @@
     <t xml:space="preserve">16.1723480224609</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9139099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.70090675354</t>
+    <t xml:space="preserve">16.913911819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7009105682373</t>
   </si>
   <si>
     <t xml:space="preserve">16.8981323242188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7640171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712512969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633605957031</t>
+    <t xml:space="preserve">16.7640190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716915130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">18.1051406860352</t>
@@ -677,49 +677,49 @@
     <t xml:space="preserve">18.3418083190918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4601402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.06569480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840286254883</t>
+    <t xml:space="preserve">18.4601440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392559051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840305328369</t>
   </si>
   <si>
     <t xml:space="preserve">18.0893650054932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8526954650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104751586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974700927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684749603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285888671875</t>
+    <t xml:space="preserve">17.8526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998100280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285869598389</t>
   </si>
   <si>
     <t xml:space="preserve">18.6968154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3200397491455</t>
+    <t xml:space="preserve">19.3200378417969</t>
   </si>
   <si>
     <t xml:space="preserve">19.5882663726807</t>
@@ -728,40 +728,40 @@
     <t xml:space="preserve">19.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7065963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592655181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279285430908</t>
+    <t xml:space="preserve">19.706600189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.556713104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.477819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279266357422</t>
   </si>
   <si>
     <t xml:space="preserve">19.6908187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0912609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385974884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699287414551</t>
+    <t xml:space="preserve">19.0912590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703708648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.7381553649902</t>
@@ -770,49 +770,49 @@
     <t xml:space="preserve">20.4402732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2351551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3692684173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193813323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133865356445</t>
+    <t xml:space="preserve">20.2351589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3692722320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193775177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133884429932</t>
   </si>
   <si>
     <t xml:space="preserve">20.8820514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4816131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001689910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0477199554443</t>
+    <t xml:space="preserve">21.4816112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047721862793</t>
   </si>
   <si>
     <t xml:space="preserve">21.0003871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1187229156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.505277633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.158166885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922763824463</t>
+    <t xml:space="preserve">21.1187210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581649780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922782897949</t>
   </si>
   <si>
     <t xml:space="preserve">21.2370548248291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9391708374023</t>
+    <t xml:space="preserve">21.939172744751</t>
   </si>
   <si>
     <t xml:space="preserve">21.6788349151611</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">21.5762786865234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4579486846924</t>
+    <t xml:space="preserve">21.4579448699951</t>
   </si>
   <si>
     <t xml:space="preserve">21.6867256164551</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8445053100586</t>
+    <t xml:space="preserve">21.84450340271</t>
   </si>
   <si>
     <t xml:space="preserve">22.4619026184082</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">22.2181930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9713516235352</t>
+    <t xml:space="preserve">22.9713535308838</t>
   </si>
   <si>
     <t xml:space="preserve">22.9295082092285</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7621421813965</t>
+    <t xml:space="preserve">22.7621402740479</t>
   </si>
   <si>
     <t xml:space="preserve">23.3060894012451</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">23.4316158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8751449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186664581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851982116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0174045562744</t>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186683654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
   </si>
   <si>
     <t xml:space="preserve">24.452564239502</t>
@@ -881,58 +881,58 @@
     <t xml:space="preserve">23.5906181335449</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4650897979736</t>
+    <t xml:space="preserve">23.4650917053223</t>
   </si>
   <si>
     <t xml:space="preserve">24.2517223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7788791656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0048236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989837646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077732086182</t>
+    <t xml:space="preserve">22.7788772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077751159668</t>
   </si>
   <si>
     <t xml:space="preserve">23.9086170196533</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2266178131104</t>
+    <t xml:space="preserve">24.2266159057617</t>
   </si>
   <si>
     <t xml:space="preserve">24.1345634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1596717834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701431274414</t>
+    <t xml:space="preserve">24.1596698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701412200928</t>
   </si>
   <si>
     <t xml:space="preserve">24.7873039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">24.686882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709888458252</t>
+    <t xml:space="preserve">24.6868782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
   </si>
   <si>
     <t xml:space="preserve">24.7789325714111</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4023532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4358310699463</t>
+    <t xml:space="preserve">24.4023551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
   </si>
   <si>
     <t xml:space="preserve">24.7203540802002</t>
@@ -950,40 +950,40 @@
     <t xml:space="preserve">24.0508785247803</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8458786010742</t>
+    <t xml:space="preserve">24.8458824157715</t>
   </si>
   <si>
     <t xml:space="preserve">24.3939838409424</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2600879669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684593200684</t>
+    <t xml:space="preserve">24.2600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684574127197</t>
   </si>
   <si>
     <t xml:space="preserve">24.1847724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9839305877686</t>
+    <t xml:space="preserve">23.9839324951172</t>
   </si>
   <si>
     <t xml:space="preserve">22.8458251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">22.962984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215606689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529327392578</t>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
   </si>
   <si>
     <t xml:space="preserve">22.7035617828369</t>
@@ -992,94 +992,94 @@
     <t xml:space="preserve">22.6700878143311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8039855957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956123352051</t>
+    <t xml:space="preserve">22.8039817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956161499023</t>
   </si>
   <si>
     <t xml:space="preserve">23.4901943206787</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7161407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.841667175293</t>
+    <t xml:space="preserve">23.7161445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416690826416</t>
   </si>
   <si>
     <t xml:space="preserve">23.6826667785645</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4985637664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416156768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755096435547</t>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475128173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512432098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
   </si>
   <si>
     <t xml:space="preserve">21.9504013061523</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5236110687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646144866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
+    <t xml:space="preserve">21.5236129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.531982421875</t>
   </si>
   <si>
     <t xml:space="preserve">21.4985065460205</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4734001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
+    <t xml:space="preserve">21.4734020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139797210693</t>
   </si>
   <si>
     <t xml:space="preserve">21.155403137207</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">21.6324005126953</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5570850372314</t>
+    <t xml:space="preserve">21.5570869445801</t>
   </si>
   <si>
     <t xml:space="preserve">21.3729801177979</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">22.1261386871338</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9169292449951</t>
+    <t xml:space="preserve">21.9169273376465</t>
   </si>
   <si>
     <t xml:space="preserve">22.268404006958</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">22.1428756713867</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399318695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148216247559</t>
+    <t xml:space="preserve">21.799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">21.6407718658447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2935047149658</t>
+    <t xml:space="preserve">22.2935085296631</t>
   </si>
   <si>
     <t xml:space="preserve">21.9671401977539</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1345100402832</t>
+    <t xml:space="preserve">22.1345062255859</t>
   </si>
   <si>
     <t xml:space="preserve">22.2851390838623</t>
@@ -1142,19 +1142,19 @@
     <t xml:space="preserve">22.3771915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7370376586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.728666305542</t>
+    <t xml:space="preserve">22.7370357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286682128906</t>
   </si>
   <si>
     <t xml:space="preserve">22.5027179718018</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2642459869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.088508605957</t>
+    <t xml:space="preserve">23.2642440795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885066986084</t>
   </si>
   <si>
     <t xml:space="preserve">23.1805648803711</t>
@@ -1163,19 +1163,19 @@
     <t xml:space="preserve">23.1554565429688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0968799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0382976531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136169433594</t>
+    <t xml:space="preserve">23.0968780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659336090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382995605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136150360107</t>
   </si>
   <si>
     <t xml:space="preserve">23.0466690063477</t>
@@ -1184,19 +1184,19 @@
     <t xml:space="preserve">23.7496147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7412490844727</t>
+    <t xml:space="preserve">23.7412452697754</t>
   </si>
   <si>
     <t xml:space="preserve">23.5571403503418</t>
   </si>
   <si>
-    <t xml:space="preserve">23.506929397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818248748779</t>
+    <t xml:space="preserve">23.5069332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818267822266</t>
   </si>
   <si>
     <t xml:space="preserve">23.1052436828613</t>
@@ -1217,46 +1217,46 @@
     <t xml:space="preserve">20.0842418670654</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7871894836426</t>
+    <t xml:space="preserve">20.7871913909912</t>
   </si>
   <si>
     <t xml:space="preserve">20.7118740081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5361385345459</t>
+    <t xml:space="preserve">20.5361404418945</t>
   </si>
   <si>
     <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3771381378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863475799561</t>
+    <t xml:space="preserve">20.377140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.32692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863494873047</t>
   </si>
   <si>
     <t xml:space="preserve">20.5193996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6532955169678</t>
+    <t xml:space="preserve">20.6532917022705</t>
   </si>
   <si>
     <t xml:space="preserve">20.2516117095947</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6030864715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047702789307</t>
+    <t xml:space="preserve">20.6030883789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.50266456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.004768371582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0968189239502</t>
@@ -1268,34 +1268,34 @@
     <t xml:space="preserve">21.3562431335449</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1219253540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955570220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788238525391</t>
+    <t xml:space="preserve">21.1219272613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9210834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788219451904</t>
   </si>
   <si>
     <t xml:space="preserve">21.8332424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0006122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077178955078</t>
+    <t xml:space="preserve">22.0006141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077159881592</t>
   </si>
   <si>
     <t xml:space="preserve">21.2725601196289</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144035339355</t>
+    <t xml:space="preserve">21.573823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
   </si>
   <si>
     <t xml:space="preserve">21.1135597229004</t>
@@ -1307,34 +1307,34 @@
     <t xml:space="preserve">21.4231910705566</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3269805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.908561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780353546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930866241455</t>
+    <t xml:space="preserve">22.3269824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.578031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930904388428</t>
   </si>
   <si>
     <t xml:space="preserve">22.4274024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583507537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600326538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.992244720459</t>
+    <t xml:space="preserve">22.3604545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583545684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9922466278076</t>
   </si>
   <si>
     <t xml:space="preserve">22.628246307373</t>
@@ -1346,55 +1346,55 @@
     <t xml:space="preserve">22.7119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">22.310245513916</t>
+    <t xml:space="preserve">22.3102436065674</t>
   </si>
   <si>
     <t xml:space="preserve">22.6784572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1596126556396</t>
+    <t xml:space="preserve">22.159610748291</t>
   </si>
   <si>
     <t xml:space="preserve">20.3687705993652</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1511878967285</t>
+    <t xml:space="preserve">20.1511917114258</t>
   </si>
   <si>
     <t xml:space="preserve">20.3352947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3520317077637</t>
+    <t xml:space="preserve">20.352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">20.9043483734131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9545593261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696125030518</t>
+    <t xml:space="preserve">20.9545631408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696105957031</t>
   </si>
   <si>
     <t xml:space="preserve">20.5528736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838161468506</t>
+    <t xml:space="preserve">20.2348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185558319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838199615479</t>
   </si>
   <si>
     <t xml:space="preserve">19.6323471069336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3980293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787647247314</t>
+    <t xml:space="preserve">19.3980274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787666320801</t>
   </si>
   <si>
     <t xml:space="preserve">19.3812923431396</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">19.5151882171631</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8541374206543</t>
+    <t xml:space="preserve">20.8541355133057</t>
   </si>
   <si>
     <t xml:space="preserve">20.9880313873291</t>
@@ -1412,121 +1412,121 @@
     <t xml:space="preserve">21.6072978973389</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0549774169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198196411133</t>
+    <t xml:space="preserve">21.0549793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198215484619</t>
   </si>
   <si>
     <t xml:space="preserve">20.6867694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6700344085693</t>
+    <t xml:space="preserve">20.6700325012207</t>
   </si>
   <si>
     <t xml:space="preserve">20.2683486938477</t>
   </si>
   <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1846618652344</t>
+    <t xml:space="preserve">19.9503479003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
   </si>
   <si>
     <t xml:space="preserve">20.3855037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7704544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.418981552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164520263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490802764893</t>
+    <t xml:space="preserve">20.770450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164501190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490840911865</t>
   </si>
   <si>
     <t xml:space="preserve">19.9001369476318</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897151947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.021505355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7884578704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444297790527</t>
+    <t xml:space="preserve">20.7369785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444316864014</t>
   </si>
   <si>
     <t xml:space="preserve">21.4572772979736</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5618629455566</t>
+    <t xml:space="preserve">21.5618591308594</t>
   </si>
   <si>
     <t xml:space="preserve">21.6141529083252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7361660003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159660339355</t>
+    <t xml:space="preserve">21.7361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
   </si>
   <si>
     <t xml:space="preserve">22.03249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1893692016602</t>
+    <t xml:space="preserve">22.1893653869629</t>
   </si>
   <si>
     <t xml:space="preserve">22.0847835540771</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9976272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756160736084</t>
+    <t xml:space="preserve">21.9976291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.875617980957</t>
   </si>
   <si>
     <t xml:space="preserve">21.666446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3526935577393</t>
+    <t xml:space="preserve">21.3526916503906</t>
   </si>
   <si>
     <t xml:space="preserve">21.5270004272461</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4049835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1260890960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.986644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417053222656</t>
+    <t xml:space="preserve">21.4049816131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563659667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
   </si>
   <si>
     <t xml:space="preserve">21.1086616516113</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">21.683874130249</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8930435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013092041016</t>
+    <t xml:space="preserve">21.893045425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013053894043</t>
   </si>
   <si>
     <t xml:space="preserve">21.4747047424316</t>
@@ -1556,52 +1556,52 @@
     <t xml:space="preserve">21.3701210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4398441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251853942871</t>
+    <t xml:space="preserve">21.4398460388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251834869385</t>
   </si>
   <si>
     <t xml:space="preserve">21.004077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1609535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820571899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655391693115</t>
+    <t xml:space="preserve">21.1609516143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820610046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655372619629</t>
   </si>
   <si>
     <t xml:space="preserve">20.9169216156006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.672887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9279041290283</t>
+    <t xml:space="preserve">21.3003997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334434509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.927906036377</t>
   </si>
   <si>
     <t xml:space="preserve">23.2003536224365</t>
@@ -1610,40 +1610,40 @@
     <t xml:space="preserve">23.2700748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.089319229126</t>
+    <t xml:space="preserve">24.0893230438232</t>
   </si>
   <si>
     <t xml:space="preserve">24.1939067840576</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
+    <t xml:space="preserve">24.2636280059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948104858398</t>
   </si>
   <si>
     <t xml:space="preserve">24.5425224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2113380432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452911376953</t>
+    <t xml:space="preserve">24.2113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452892303467</t>
   </si>
   <si>
     <t xml:space="preserve">23.7755680084229</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8104286193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150161743164</t>
+    <t xml:space="preserve">23.8104305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.514102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
   </si>
   <si>
     <t xml:space="preserve">24.1067523956299</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">24.2461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4030742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.629674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076580047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856449127197</t>
+    <t xml:space="preserve">24.403076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6296768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5076599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856430053711</t>
   </si>
   <si>
     <t xml:space="preserve">24.2810611724854</t>
@@ -1673,19 +1673,19 @@
     <t xml:space="preserve">24.0718936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8801498413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
+    <t xml:space="preserve">23.8801536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489711761475</t>
   </si>
   <si>
     <t xml:space="preserve">23.2875061035156</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7929973602295</t>
+    <t xml:space="preserve">23.7929992675781</t>
   </si>
   <si>
     <t xml:space="preserve">23.4966735839844</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">24.1241836547852</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9498729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
   </si>
   <si>
     <t xml:space="preserve">24.4379386901855</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9847373962402</t>
+    <t xml:space="preserve">23.9847393035889</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
@@ -1715,19 +1715,19 @@
     <t xml:space="preserve">23.9324436187744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.694860458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811054229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453353881836</t>
+    <t xml:space="preserve">22.6948623657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453372955322</t>
   </si>
   <si>
     <t xml:space="preserve">21.5967216491699</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8058910369873</t>
+    <t xml:space="preserve">21.8058929443359</t>
   </si>
   <si>
     <t xml:space="preserve">22.5902767181396</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">22.1370754241943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3462429046631</t>
+    <t xml:space="preserve">22.3462448120117</t>
   </si>
   <si>
     <t xml:space="preserve">21.8233222961426</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2765197753906</t>
+    <t xml:space="preserve">22.2765216827393</t>
   </si>
   <si>
     <t xml:space="preserve">22.4333992004395</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">21.8581809997559</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7077503204346</t>
+    <t xml:space="preserve">20.7077522277832</t>
   </si>
   <si>
     <t xml:space="preserve">20.3765678405762</t>
@@ -1769,13 +1769,13 @@
     <t xml:space="preserve">20.2719841003418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2196922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325397491455</t>
+    <t xml:space="preserve">20.2196941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325378417969</t>
   </si>
   <si>
     <t xml:space="preserve">20.2022609710693</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">19.4701690673828</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5050296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967678070068</t>
+    <t xml:space="preserve">19.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967697143555</t>
   </si>
   <si>
     <t xml:space="preserve">20.0453815460205</t>
@@ -1811,22 +1811,22 @@
     <t xml:space="preserve">20.7426128387451</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9517841339111</t>
+    <t xml:space="preserve">20.9517822265625</t>
   </si>
   <si>
     <t xml:space="preserve">20.6903209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059352874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205978393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811534881592</t>
+    <t xml:space="preserve">20.428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811515808105</t>
   </si>
   <si>
     <t xml:space="preserve">20.2894153594971</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">19.7316284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1674003601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
+    <t xml:space="preserve">20.1673965454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.313289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023052215576</t>
   </si>
   <si>
     <t xml:space="preserve">18.7729396820068</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2609996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169658660889</t>
+    <t xml:space="preserve">19.2610015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169696807861</t>
   </si>
   <si>
     <t xml:space="preserve">19.2261371612549</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">20.8994922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1783828735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8471984863281</t>
+    <t xml:space="preserve">21.1783847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8472003936768</t>
   </si>
   <si>
     <t xml:space="preserve">21.1958141326904</t>
@@ -1874,43 +1874,43 @@
     <t xml:space="preserve">19.0692596435547</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0518321990967</t>
+    <t xml:space="preserve">19.051830291748</t>
   </si>
   <si>
     <t xml:space="preserve">18.9995365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2087078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0343971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389827728271</t>
+    <t xml:space="preserve">19.208703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389846801758</t>
   </si>
   <si>
     <t xml:space="preserve">19.3307228088379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5573215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371234893799</t>
+    <t xml:space="preserve">19.5573234558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.975658416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371215820312</t>
   </si>
   <si>
     <t xml:space="preserve">20.097677230835</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7839221954346</t>
+    <t xml:space="preserve">19.7839241027832</t>
   </si>
   <si>
     <t xml:space="preserve">20.1848297119141</t>
@@ -1922,16 +1922,16 @@
     <t xml:space="preserve">20.1499691009521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5857391357422</t>
+    <t xml:space="preserve">20.5857372283936</t>
   </si>
   <si>
     <t xml:space="preserve">21.0389366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5921821594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7490615844727</t>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.749059677124</t>
   </si>
   <si>
     <t xml:space="preserve">20.8646297454834</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">22.5031223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0499210357666</t>
+    <t xml:space="preserve">22.0499229431152</t>
   </si>
   <si>
     <t xml:space="preserve">20.0279541015625</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">18.3371696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8665370941162</t>
+    <t xml:space="preserve">17.8665351867676</t>
   </si>
   <si>
     <t xml:space="preserve">17.2564601898193</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8642673492432</t>
+    <t xml:space="preserve">16.8642692565918</t>
   </si>
   <si>
     <t xml:space="preserve">16.681245803833</t>
@@ -1985,49 +1985,49 @@
     <t xml:space="preserve">16.4436798095703</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4525661468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637022018433</t>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637002944946</t>
   </si>
   <si>
     <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0970287322998</t>
+    <t xml:space="preserve">16.0970306396484</t>
   </si>
   <si>
     <t xml:space="preserve">16.2036895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8125991821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903659820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970462799072</t>
+    <t xml:space="preserve">15.8125972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9903678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970481872559</t>
   </si>
   <si>
     <t xml:space="preserve">15.8214845657349</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0081443786621</t>
+    <t xml:space="preserve">16.0081462860107</t>
   </si>
   <si>
     <t xml:space="preserve">16.2214679718018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3103523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.319242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481365203857</t>
+    <t xml:space="preserve">16.3103504180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703639984131</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">15.5281667709351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6259412765503</t>
+    <t xml:space="preserve">15.6259384155273</t>
   </si>
   <si>
     <t xml:space="preserve">15.6881589889526</t>
@@ -2048,97 +2048,97 @@
     <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0881423950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370355606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592649459839</t>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370374679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592668533325</t>
   </si>
   <si>
     <t xml:space="preserve">15.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9814777374268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
+    <t xml:space="preserve">15.9814796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
   </si>
   <si>
     <t xml:space="preserve">15.6081628799438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3770608901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.234845161438</t>
+    <t xml:space="preserve">15.3770618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348461151123</t>
   </si>
   <si>
     <t xml:space="preserve">15.2792901992798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.13707447052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415069580078</t>
+    <t xml:space="preserve">15.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415079116821</t>
   </si>
   <si>
     <t xml:space="preserve">15.2615118026733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1637382507324</t>
+    <t xml:space="preserve">15.1637372970581</t>
   </si>
   <si>
     <t xml:space="preserve">14.9681930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
+    <t xml:space="preserve">14.9593029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659666061401</t>
   </si>
   <si>
     <t xml:space="preserve">15.0570764541626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3859519958496</t>
+    <t xml:space="preserve">15.385950088501</t>
   </si>
   <si>
     <t xml:space="preserve">15.0837430953979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1015186309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770812988281</t>
+    <t xml:space="preserve">15.1015205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770822525024</t>
   </si>
   <si>
     <t xml:space="preserve">15.9014806747437</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437177658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148422241211</t>
+    <t xml:space="preserve">16.1592464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703805923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
   </si>
   <si>
     <t xml:space="preserve">15.1548500061035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5770998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215225219727</t>
+    <t xml:space="preserve">14.5771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021523475647</t>
   </si>
   <si>
     <t xml:space="preserve">15.6792707443237</t>
@@ -2147,28 +2147,28 @@
     <t xml:space="preserve">15.7859334945679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4659481048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925943374634</t>
+    <t xml:space="preserve">15.4659471511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925924301147</t>
   </si>
   <si>
     <t xml:space="preserve">16.4881210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1903114318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7769508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347526550293</t>
+    <t xml:space="preserve">17.1903095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.776948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347545623779</t>
   </si>
   <si>
     <t xml:space="preserve">17.7413959503174</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">16.932544708252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6125602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036739349365</t>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036720275879</t>
   </si>
   <si>
     <t xml:space="preserve">16.0525856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5814981460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459627151489</t>
+    <t xml:space="preserve">15.5814971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459636688232</t>
   </si>
   <si>
     <t xml:space="preserve">15.5726099014282</t>
@@ -2204,97 +2204,97 @@
     <t xml:space="preserve">15.2881774902344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8615293502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437362670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748519897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815137863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992921829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4126167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.474835395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437547683716</t>
+    <t xml:space="preserve">14.8615312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748529434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815147399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681745529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.412615776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748344421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.297064781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
   </si>
   <si>
     <t xml:space="preserve">14.7459802627563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6659841537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526226043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.777042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570394515991</t>
+    <t xml:space="preserve">14.6659851074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570413589478</t>
   </si>
   <si>
     <t xml:space="preserve">16.2125797271729</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4970092773438</t>
+    <t xml:space="preserve">16.4970111846924</t>
   </si>
   <si>
     <t xml:space="preserve">16.7192211151123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547546386719</t>
+    <t xml:space="preserve">17.1547565460205</t>
   </si>
   <si>
     <t xml:space="preserve">17.1991996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7014484405518</t>
+    <t xml:space="preserve">16.7014465332031</t>
   </si>
   <si>
     <t xml:space="preserve">16.8436622619629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281112670898</t>
+    <t xml:space="preserve">16.896993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281093597412</t>
   </si>
   <si>
     <t xml:space="preserve">16.7636642456055</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858798980713</t>
+    <t xml:space="preserve">16.5770072937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9858779907227</t>
   </si>
   <si>
     <t xml:space="preserve">16.9592094421387</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">16.8169956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8081092834473</t>
+    <t xml:space="preserve">16.8081073760986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8881034851074</t>
@@ -2321,10 +2321,13 @@
     <t xml:space="preserve">16.9769878387451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7992153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814601898193</t>
+    <t xml:space="preserve">16.7992172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3814582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459072113037</t>
   </si>
   <si>
     <t xml:space="preserve">16.6570014953613</t>
@@ -2333,28 +2336,28 @@
     <t xml:space="preserve">16.417013168335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9992570877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459266662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7503786087036</t>
+    <t xml:space="preserve">15.9992551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.750376701355</t>
   </si>
   <si>
     <t xml:space="preserve">15.1904048919678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.897084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526420593262</t>
+    <t xml:space="preserve">14.8970851898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526411056519</t>
   </si>
   <si>
     <t xml:space="preserve">14.1771183013916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2926683425903</t>
+    <t xml:space="preserve">14.2926692962646</t>
   </si>
   <si>
     <t xml:space="preserve">15.3237314224243</t>
@@ -2366,16 +2369,13 @@
     <t xml:space="preserve">15.714825630188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1236953735352</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.1059188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836894989014</t>
+    <t xml:space="preserve">16.1325817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836875915527</t>
   </si>
   <si>
     <t xml:space="preserve">15.9281492233276</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">13.9549045562744</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415838241577</t>
+    <t xml:space="preserve">14.1326742172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415819168091</t>
   </si>
   <si>
     <t xml:space="preserve">13.8660221099854</t>
@@ -2432,19 +2432,19 @@
     <t xml:space="preserve">12.1416578292847</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3283157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1683225631714</t>
+    <t xml:space="preserve">12.328314781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1683216094971</t>
   </si>
   <si>
     <t xml:space="preserve">12.5505266189575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9015760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3104467391968</t>
+    <t xml:space="preserve">13.901575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3104457855225</t>
   </si>
   <si>
     <t xml:space="preserve">14.8881969451904</t>
@@ -2456,40 +2456,40 @@
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260133743286</t>
+    <t xml:space="preserve">14.0260124206543</t>
   </si>
   <si>
     <t xml:space="preserve">13.5460367202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6438102722168</t>
+    <t xml:space="preserve">13.6438112258911</t>
   </si>
   <si>
     <t xml:space="preserve">13.6793651580811</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0305051803589</t>
+    <t xml:space="preserve">13.0305061340332</t>
   </si>
   <si>
     <t xml:space="preserve">13.5815906524658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.928240776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9993486404419</t>
+    <t xml:space="preserve">13.9282417297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9993495941162</t>
   </si>
   <si>
     <t xml:space="preserve">14.1948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438278198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4571523666382</t>
+    <t xml:space="preserve">13.3682680130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438287734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4571514129639</t>
   </si>
   <si>
     <t xml:space="preserve">13.6260328292847</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">14.532657623291</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6570949554443</t>
+    <t xml:space="preserve">14.657096862793</t>
   </si>
   <si>
     <t xml:space="preserve">14.4793262481689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1104068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326206207275</t>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326196670532</t>
   </si>
   <si>
     <t xml:space="preserve">14.8081998825073</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7681560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037284851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926137924194</t>
+    <t xml:space="preserve">15.7681579589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926128387451</t>
   </si>
   <si>
     <t xml:space="preserve">16.0792503356934</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">16.6214485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259014129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325290679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2525291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5014057159424</t>
+    <t xml:space="preserve">16.4259033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2525310516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.501407623291</t>
   </si>
   <si>
     <t xml:space="preserve">18.1147117614746</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">20.4790477752686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.923469543457</t>
+    <t xml:space="preserve">20.9234714508057</t>
   </si>
   <si>
     <t xml:space="preserve">20.7279243469238</t>
@@ -2603,19 +2603,19 @@
     <t xml:space="preserve">21.0123558044434</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9056930541992</t>
+    <t xml:space="preserve">20.9056949615479</t>
   </si>
   <si>
     <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6923713684082</t>
+    <t xml:space="preserve">20.6923694610596</t>
   </si>
   <si>
     <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5989933013916</t>
+    <t xml:space="preserve">21.5989952087402</t>
   </si>
   <si>
     <t xml:space="preserve">21.8478717803955</t>
@@ -2627,28 +2627,28 @@
     <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7767658233643</t>
+    <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
     <t xml:space="preserve">21.9545345306396</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8300971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1678562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.132303237915</t>
+    <t xml:space="preserve">21.8300933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1678581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1323013305664</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723110198975</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">21.8123188018799</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1100368499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6077919006348</t>
+    <t xml:space="preserve">23.110034942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6077899932861</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">24.8877296447754</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8166255950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5321941375732</t>
+    <t xml:space="preserve">24.8166217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5321922302246</t>
   </si>
   <si>
     <t xml:space="preserve">24.6033000946045</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">24.6744079589844</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8699550628662</t>
+    <t xml:space="preserve">24.8699531555176</t>
   </si>
   <si>
     <t xml:space="preserve">24.6921863555908</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">24.4433059692383</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7455158233643</t>
+    <t xml:space="preserve">24.7455139160156</t>
   </si>
   <si>
     <t xml:space="preserve">24.7632942199707</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.496639251709</t>
+    <t xml:space="preserve">24.4966373443604</t>
   </si>
   <si>
     <t xml:space="preserve">24.7810688018799</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
-    <t xml:space="preserve">25.012170791626</t>
+    <t xml:space="preserve">25.0121688842773</t>
   </si>
   <si>
     <t xml:space="preserve">24.9232864379883</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2032260894775</t>
+    <t xml:space="preserve">26.2032241821289</t>
   </si>
   <si>
     <t xml:space="preserve">26.1321182250977</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743358612061</t>
+    <t xml:space="preserve">25.9543495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
     <t xml:space="preserve">25.7765769958496</t>
   </si>
   <si>
-    <t xml:space="preserve">26.434326171875</t>
+    <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
     <t xml:space="preserve">26.3098888397217</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">24.4255294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2655353546143</t>
+    <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
     <t xml:space="preserve">24.407751083374</t>
@@ -2834,34 +2834,34 @@
     <t xml:space="preserve">24.4610843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1676731109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6654243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7365341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4032611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1721630096436</t>
+    <t xml:space="preserve">25.9010162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1676750183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6654262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.736536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4032649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1721611022949</t>
   </si>
   <si>
     <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5988082885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8521785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677452087402</t>
+    <t xml:space="preserve">25.5988101959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8521766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677471160889</t>
   </si>
   <si>
     <t xml:space="preserve">25.1543846130371</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">24.5499687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0877685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143768310547</t>
+    <t xml:space="preserve">24.0877666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143749237061</t>
   </si>
   <si>
     <t xml:space="preserve">26.0076789855957</t>
@@ -2885,46 +2885,46 @@
     <t xml:space="preserve">25.101053237915</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5144138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1766548156738</t>
+    <t xml:space="preserve">24.5144157409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3366432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1766529083252</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1588745117188</t>
+    <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
     <t xml:space="preserve">24.2833156585693</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1965980529785</t>
+    <t xml:space="preserve">24.1965999603271</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6705875396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5617561340332</t>
+    <t xml:space="preserve">23.6705837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5617542266846</t>
   </si>
   <si>
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3803730010986</t>
+    <t xml:space="preserve">23.38037109375</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2872905731201</t>
+    <t xml:space="preserve">24.2872924804688</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
@@ -2933,34 +2933,34 @@
     <t xml:space="preserve">23.8519687652588</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7250022888184</t>
+    <t xml:space="preserve">23.7250003814697</t>
   </si>
   <si>
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989860534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2896785736084</t>
+    <t xml:space="preserve">23.1989879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.289680480957</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.251012802124</t>
+    <t xml:space="preserve">24.2510108947754</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4457569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6452808380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3164005279541</t>
+    <t xml:space="preserve">26.4457588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6452789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3163986206055</t>
   </si>
   <si>
     <t xml:space="preserve">27.5521984100342</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3478984832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0371532440186</t>
+    <t xml:space="preserve">29.347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0371570587158</t>
   </si>
   <si>
     <t xml:space="preserve">30.3455085754395</t>
@@ -2999,25 +2999,25 @@
     <t xml:space="preserve">30.8533840179443</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3249816894531</t>
+    <t xml:space="preserve">31.3249855041504</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3273677825928</t>
+    <t xml:space="preserve">30.32737159729</t>
   </si>
   <si>
     <t xml:space="preserve">30.0008792877197</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6199741363525</t>
+    <t xml:space="preserve">29.6199722290039</t>
   </si>
   <si>
     <t xml:space="preserve">28.8763008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.93310546875</t>
+    <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
     <t xml:space="preserve">27.7335815429688</t>
@@ -3029,49 +3029,49 @@
     <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8037452697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7879981994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6610279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684272766113</t>
+    <t xml:space="preserve">28.803747177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7879962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6610298156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684253692627</t>
   </si>
   <si>
     <t xml:space="preserve">28.4772529602051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8944396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3975372314453</t>
+    <t xml:space="preserve">28.894437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.397533416748</t>
   </si>
   <si>
     <t xml:space="preserve">30.3817863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2910957336426</t>
+    <t xml:space="preserve">30.2910938262939</t>
   </si>
   <si>
     <t xml:space="preserve">30.5450325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1278495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5631694793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1774864196777</t>
+    <t xml:space="preserve">30.1278476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5631713867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">32.0505180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5245018005371</t>
+    <t xml:space="preserve">31.5245037078857</t>
   </si>
   <si>
     <t xml:space="preserve">31.6696090698242</t>
@@ -3080,37 +3080,37 @@
     <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3431205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235496520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3225936889648</t>
+    <t xml:space="preserve">31.3431224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9235515594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3225898742676</t>
   </si>
   <si>
     <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1932334899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9211540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2295150756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1388168334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8486061096191</t>
+    <t xml:space="preserve">33.1932373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9211578369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2295112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1388206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">33.0481262207031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.685359954834</t>
+    <t xml:space="preserve">32.6853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6128044128418</t>
+    <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
     <t xml:space="preserve">33.1206817626953</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7736625671387</t>
+    <t xml:space="preserve">33.0299835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7736663818359</t>
   </si>
   <si>
     <t xml:space="preserve">33.9550437927246</t>
@@ -3155,25 +3155,25 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2657890319824</t>
+    <t xml:space="preserve">33.9369049072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2657852172852</t>
   </si>
   <si>
     <t xml:space="preserve">32.8667449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569633483887</t>
+    <t xml:space="preserve">33.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9755744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8304710388184</t>
+    <t xml:space="preserve">32.9755706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8304672241211</t>
   </si>
   <si>
     <t xml:space="preserve">32.7397727966309</t>
@@ -3188,28 +3188,28 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140075683594</t>
+    <t xml:space="preserve">33.5140037536621</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6613159179688</t>
+    <t xml:space="preserve">33.6429023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.661319732666</t>
   </si>
   <si>
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664291381836</t>
+    <t xml:space="preserve">33.1273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664329528809</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3221,31 +3221,31 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789649963379</t>
+    <t xml:space="preserve">35.7789611816406</t>
   </si>
   <si>
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4787063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.791748046875</t>
+    <t xml:space="preserve">36.478702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7917442321777</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4106750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2449493408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.766170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3610572814941</t>
+    <t xml:space="preserve">35.4106712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.244945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7661743164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3610610961914</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270454406738</t>
+    <t xml:space="preserve">33.8270492553711</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4035148620605</t>
+    <t xml:space="preserve">33.4035186767578</t>
   </si>
   <si>
     <t xml:space="preserve">33.7165603637695</t>
@@ -3278,40 +3278,40 @@
     <t xml:space="preserve">34.1032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6925201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689933776855</t>
+    <t xml:space="preserve">34.6925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582496643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689895629883</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5380439758301</t>
+    <t xml:space="preserve">32.5380477905273</t>
   </si>
   <si>
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298645019531</t>
+    <t xml:space="preserve">33.3298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.342643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2930335998535</t>
+    <t xml:space="preserve">34.3426475524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2930297851562</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843292236328</t>
+    <t xml:space="preserve">35.4843330383301</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">35.5395736694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8157920837402</t>
+    <t xml:space="preserve">35.815788269043</t>
   </si>
   <si>
     <t xml:space="preserve">35.8526153564453</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">35.5948181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9999313354492</t>
+    <t xml:space="preserve">35.999927520752</t>
   </si>
   <si>
     <t xml:space="preserve">35.6132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6684761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5764007568359</t>
+    <t xml:space="preserve">35.6684722900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5764045715332</t>
   </si>
   <si>
     <t xml:space="preserve">35.3922576904297</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">35.0608062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1344604492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7605438232422</t>
+    <t xml:space="preserve">35.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7605476379395</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">34.6188583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9503173828125</t>
+    <t xml:space="preserve">34.9503135681152</t>
   </si>
   <si>
     <t xml:space="preserve">34.9871444702148</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.128833770752</t>
+    <t xml:space="preserve">36.1288299560547</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.165657043457</t>
+    <t xml:space="preserve">36.1656608581543</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595333099365</t>
+    <t xml:space="preserve">31.3595352172852</t>
   </si>
   <si>
     <t xml:space="preserve">30.8255176544189</t>
@@ -3407,19 +3407,19 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252590179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045455932617</t>
+    <t xml:space="preserve">30.9175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252647399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045475006104</t>
   </si>
   <si>
     <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996891021729</t>
+    <t xml:space="preserve">29.4996871948242</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393314361572</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7759017944336</t>
+    <t xml:space="preserve">29.7759037017822</t>
   </si>
   <si>
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840888977051</t>
+    <t xml:space="preserve">28.9840869903564</t>
   </si>
   <si>
     <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2787170410156</t>
+    <t xml:space="preserve">29.278715133667</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4756450653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334480285645</t>
+    <t xml:space="preserve">30.475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">30.3835754394531</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940586090088</t>
+    <t xml:space="preserve">31.2306289672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940605163574</t>
   </si>
   <si>
     <t xml:space="preserve">31.1201457977295</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674598693848</t>
+    <t xml:space="preserve">31.2674617767334</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
@@ -3494,22 +3494,22 @@
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147758483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5861339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.394832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9897174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7503318786621</t>
+    <t xml:space="preserve">31.4147720336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5861301422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3948307037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9897155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7503299713135</t>
   </si>
   <si>
     <t xml:space="preserve">28.4500732421875</t>
@@ -3521,13 +3521,13 @@
     <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8424015045166</t>
+    <t xml:space="preserve">27.8424034118652</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291030883789</t>
+    <t xml:space="preserve">28.2291011810303</t>
   </si>
   <si>
     <t xml:space="preserve">26.8848609924316</t>
@@ -3542,22 +3542,22 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925308227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2531452178955</t>
+    <t xml:space="preserve">27.4925327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2531471252441</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3027610778809</t>
+    <t xml:space="preserve">28.3027591705322</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976459503174</t>
+    <t xml:space="preserve">27.8976421356201</t>
   </si>
   <si>
     <t xml:space="preserve">27.4372882843018</t>
@@ -3578,28 +3578,28 @@
     <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1370296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1314029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0209159851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789756774902</t>
+    <t xml:space="preserve">28.1370315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1314010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0209178924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789737701416</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8367729187012</t>
+    <t xml:space="preserve">28.8367748260498</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477752685547</t>
+    <t xml:space="preserve">27.5477733612061</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">26.0930461883545</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7800025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.964147567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3508472442627</t>
+    <t xml:space="preserve">25.7800006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9641456604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3508453369141</t>
   </si>
   <si>
     <t xml:space="preserve">25.5958595275879</t>
@@ -3623,13 +3623,13 @@
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927894592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5846004486084</t>
+    <t xml:space="preserve">24.8592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.584602355957</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4684886932373</t>
+    <t xml:space="preserve">28.4684867858887</t>
   </si>
   <si>
     <t xml:space="preserve">28.0817890167236</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526336669922</t>
+    <t xml:space="preserve">28.6526317596436</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3656,16 +3656,16 @@
     <t xml:space="preserve">27.5109443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.044958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3395881652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344730377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2163181304932</t>
+    <t xml:space="preserve">28.0449600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3395900726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344749450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2163162231445</t>
   </si>
   <si>
     <t xml:space="preserve">26.5534019470215</t>
@@ -3674,34 +3674,34 @@
     <t xml:space="preserve">25.8720741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3140163421631</t>
+    <t xml:space="preserve">26.3140182495117</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091598510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677310943604</t>
+    <t xml:space="preserve">25.7984180450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091579437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3677291870117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623611450195</t>
+    <t xml:space="preserve">22.281286239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623592376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393459320068</t>
+    <t xml:space="preserve">21.8393440246582</t>
   </si>
   <si>
     <t xml:space="preserve">23.3124866485596</t>
@@ -3734,34 +3734,34 @@
     <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9754028320312</t>
+    <t xml:space="preserve">23.9754047393799</t>
   </si>
   <si>
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.778470993042</t>
+    <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232322692871</t>
+    <t xml:space="preserve">22.7232303619385</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.857759475708</t>
+    <t xml:space="preserve">22.2997035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8577575683594</t>
   </si>
   <si>
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419044494629</t>
+    <t xml:space="preserve">22.0419025421143</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288589477539</t>
+    <t xml:space="preserve">21.7288608551025</t>
   </si>
   <si>
     <t xml:space="preserve">20.9186305999756</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500858306885</t>
+    <t xml:space="preserve">21.2500877380371</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158172607422</t>
+    <t xml:space="preserve">21.4158153533936</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3803,22 +3803,22 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557163238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6240005493164</t>
+    <t xml:space="preserve">20.2557144165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.624002456665</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636447906494</t>
+    <t xml:space="preserve">20.1636428833008</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135173797607</t>
+    <t xml:space="preserve">20.5135154724121</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5151,6 +5151,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.7600002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1399993896484</t>
   </si>
 </sst>
 </file>
@@ -32004,7 +32007,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G1020" t="s">
-        <v>87</v>
+        <v>771</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32056,7 +32059,7 @@
         <v>18.7399997711182</v>
       </c>
       <c r="G1022" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32082,7 +32085,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G1023" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32134,7 +32137,7 @@
         <v>18</v>
       </c>
       <c r="G1025" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32160,7 +32163,7 @@
         <v>17.9400005340576</v>
       </c>
       <c r="G1026" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32212,7 +32215,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G1028" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32238,7 +32241,7 @@
         <v>17.0900001525879</v>
       </c>
       <c r="G1029" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32264,7 +32267,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1030" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32316,7 +32319,7 @@
         <v>16.7099990844727</v>
       </c>
       <c r="G1032" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32342,7 +32345,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1033" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32368,7 +32371,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G1034" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32394,7 +32397,7 @@
         <v>17.2399997711182</v>
       </c>
       <c r="G1035" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32446,7 +32449,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1037" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32550,7 +32553,7 @@
         <v>18</v>
       </c>
       <c r="G1041" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32602,7 +32605,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G1043" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32628,7 +32631,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1044" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32706,7 +32709,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G1047" t="s">
-        <v>784</v>
+        <v>58</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -62250,7 +62253,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6495023148</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>82187</v>
@@ -62271,6 +62274,32 @@
         <v>1712</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6495023148</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>166537</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>28.9200000762939</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>30.1599998474121</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>29.1399993896484</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="1715">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947128295898</t>
+    <t xml:space="preserve">20.9947109222412</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">20.8097362518311</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9099292755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4243717193604</t>
+    <t xml:space="preserve">20.90993309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.424373626709</t>
   </si>
   <si>
     <t xml:space="preserve">20.2239818572998</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0158843994141</t>
+    <t xml:space="preserve">20.0158863067627</t>
   </si>
   <si>
     <t xml:space="preserve">19.7307147979736</t>
@@ -71,25 +71,25 @@
     <t xml:space="preserve">17.8501300811768</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6497383117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7422275543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2643756866455</t>
+    <t xml:space="preserve">17.6497402191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7422313690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2643737792969</t>
   </si>
   <si>
     <t xml:space="preserve">17.1025218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2354965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6477870941162</t>
+    <t xml:space="preserve">18.2354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6477890014648</t>
   </si>
   <si>
     <t xml:space="preserve">16.9175453186035</t>
@@ -104,79 +104,79 @@
     <t xml:space="preserve">16.3317909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1622276306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8462285995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756935119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598903656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225210189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213514328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6458387374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454507827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995960235596</t>
+    <t xml:space="preserve">16.1622295379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.846230506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598932266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225248336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5899381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213552474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6458368301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454479217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995941162109</t>
   </si>
   <si>
     <t xml:space="preserve">15.9464273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5764722824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1082763671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.15452003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7768630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3240871429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3934535980225</t>
+    <t xml:space="preserve">15.576473236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1082782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1545219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7768650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3240833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3934478759766</t>
   </si>
   <si>
     <t xml:space="preserve">16.7634010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069128036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078874588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.476282119751</t>
+    <t xml:space="preserve">16.9560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687685012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762783050537</t>
   </si>
   <si>
     <t xml:space="preserve">16.0928630828857</t>
@@ -185,2182 +185,2182 @@
     <t xml:space="preserve">15.5071096420288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7999868392944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236953735352</t>
+    <t xml:space="preserve">15.7999839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
     <t xml:space="preserve">16.1853523254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0851535797119</t>
+    <t xml:space="preserve">16.0851554870605</t>
   </si>
   <si>
     <t xml:space="preserve">15.8076944351196</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5456447601318</t>
+    <t xml:space="preserve">15.5456438064575</t>
   </si>
   <si>
     <t xml:space="preserve">15.32213306427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4146194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5379371643066</t>
+    <t xml:space="preserve">15.4146203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379390716553</t>
   </si>
   <si>
     <t xml:space="preserve">15.2296447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4223289489746</t>
+    <t xml:space="preserve">15.4223279953003</t>
   </si>
   <si>
     <t xml:space="preserve">15.2450609207153</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3298397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286691665649</t>
+    <t xml:space="preserve">15.3298425674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286729812622</t>
   </si>
   <si>
     <t xml:space="preserve">14.9675979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653387069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625604629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361196517944</t>
+    <t xml:space="preserve">15.0061330795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440084457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361206054688</t>
   </si>
   <si>
     <t xml:space="preserve">15.1467866897583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.170449256897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.13889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0363388061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646793365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275695800781</t>
+    <t xml:space="preserve">15.1704511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388959884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363397598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595678329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646802902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514570236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275733947754</t>
   </si>
   <si>
     <t xml:space="preserve">16.4405708312988</t>
   </si>
   <si>
+    <t xml:space="preserve">16.3459014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5510177612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7087955474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473628997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2846908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612445831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.055908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241348266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868068695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865867614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7125911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627002716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4995880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782577514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597057342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.057804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081371307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925796508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.710693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0420303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025844573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8823547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7147903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8350219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384557723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746822357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3853492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616847991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.724573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.048023223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1269092559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8290309906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345798492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.933479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940391540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733654022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972518920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.255033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264728546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5765819549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6160259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239147186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.35569190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0243549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819242477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4819145202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2058029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0401344299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111316680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9928016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533538818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4898014068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582481384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.261022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1486835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563522338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960163116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.59645652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017881393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.268913269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693534851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247951507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7009105682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716896057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051445007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601459503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392539978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656929016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840305328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390338897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6968154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200416564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5882606506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4778175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.369270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.300163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0477199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003852844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762805938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579467773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867237091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.84450340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181949615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060894012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186664581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0174045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.883508682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650897979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0048236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086170196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345653533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.992301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458824157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.393985748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.841667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512432098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8918209075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9504013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817695617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5319805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734039306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139797210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324005126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729820251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240329742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428775787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.799768447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671382904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541927337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771934509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.728666305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027179718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805610656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659297943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382976531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136169433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496128082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.741247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.506929397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5153007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.460823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3269271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.519401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.603084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5026626586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968246459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562450408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219272613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.921085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332443237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5738220214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3144016265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.908561706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780353546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454071044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119312286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.159610748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.368766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.352029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043483734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696125030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185558319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6323490142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980312347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812942504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6867694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.268346786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.950345993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1846618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855075836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4189796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215091705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4572772979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.561861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847835540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8756160736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4049835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1260890960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.986644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086578369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710266113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.683874130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.893045425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5792942047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132434844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0040760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820610046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.916919708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003997802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9279079437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2700786590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1939067840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113361358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452930450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104286193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067543029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.629674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5076637268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810611724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.071891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801498413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489673614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929973602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.496675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993980407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.82785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967216491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5902767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462429046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.219690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.202262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096134185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4004440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903247833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.428861618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1673984527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023071289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169658660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261352539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8471984863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.051830291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307247161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9756603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371196746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857353210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0499210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8077964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1802921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3371677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564601898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642673492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.021146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637022018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036914825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9903659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214855194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214679718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192443847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059354782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281667709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.625940322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6881580352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0881423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326030731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592668533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037099838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081647872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770627975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415088653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637372970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570783615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837411880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015195846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703824996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548509597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5770988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.021523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859334945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659471511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992736816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925943374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903133392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.776948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.741397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.932544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459627151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726079940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.288179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615303039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992921829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681745529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748363494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837236404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459802627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659832000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570579528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526235580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125778198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.497013092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192230224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436622619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969898223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.985876083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.80810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881053924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.923656463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.381462097168</t>
+  </si>
+  <si>
     <t xml:space="preserve">16.3459053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5510196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7087993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115737915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868068695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288108825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682510375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865905761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.712589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889266967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5627021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4995899200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023662567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597076416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925777435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7106914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025844573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1524772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8823528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714789390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665752410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384576797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830160140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3853511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616790771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.724573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1269092559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795783996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085773468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8132495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786998748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678127288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9334812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0439281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.120922088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812522888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842506408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1919212341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.255033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895851135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5765819549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6160259246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503593444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239147186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.35569190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.819242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2057991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791362762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.040132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111335754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9928016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533538818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.489803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.261022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663570404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424724578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.148681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563503265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964546203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017862319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166843414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9217987060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2689113616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693553924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247951507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723480224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.913911819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7009105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051406860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392559051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840305328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526935577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339195251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998100280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285869598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5882663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.706600189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.485710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.556713104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.477819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385936737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3692722320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193775177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581649780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370548248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.939172744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788349151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762786865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.84450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295082092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186683654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851963043213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.004825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9086170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1596698760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789325714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4358291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203540802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.992301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663516998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684574127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847724914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700878143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826667785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475128173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.686824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9504013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817695617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.531982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985065460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734020233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223510742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324005126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240310668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261386871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.799768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407718658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370357513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0885066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659336090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0382995605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0466690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7412452697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069332122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5153007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118740081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361404418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.460823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.377140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.32692527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5193996429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6030883789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.50266456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562431335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219272613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9210834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332424163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077159881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.573823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9085597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.578031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930904388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604545593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583545684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9922466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.159610748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.352029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545631408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696105957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185558319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838199615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6323471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541355133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880313873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072978973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867694854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2683486938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9503479003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.184663772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.770450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164501190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369785308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444316864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572772979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.03249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893653869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.875617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.666446685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3526916503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4049816131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.126091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.683874130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.893045425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747047424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.004077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609516143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820610046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169216156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003536224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1939067840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948104858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452892303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104305267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.514102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461986541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.403076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6296768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810611724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0718936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929992675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4966735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.298490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.82785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6948623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453372955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967216491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058929443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5902767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333992004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077522277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3939971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022609710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096153259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453815460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205959320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673965454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.313289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023052215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683521270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2610015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8472003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.208703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0343990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307228088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.975658416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371215820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.097677230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839241027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.749059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031223297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0499229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8078002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068908691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1802921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3371696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665351867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.021146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214679718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103504180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3192405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703639984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059364318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281667709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6259384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881589889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0881404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326011657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0170345306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081628799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770618438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792901992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415079116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637372970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9593029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770822525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014806747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703805923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437187194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5771007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.021523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792707443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859334945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659471511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925924301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.776948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413959503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459636688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881774902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370929718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992931365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681745529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748344421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837236404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.297064781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459802627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659851074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570589065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7770462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570413589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125797271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192211151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547565460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1991996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.896993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281093597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770072937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9858779907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592094421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081073760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9236583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6570014953613</t>
+    <t xml:space="preserve">16.65700340271</t>
   </si>
   <si>
     <t xml:space="preserve">16.417013168335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9992551803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459247589111</t>
+    <t xml:space="preserve">15.9992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459266662598</t>
   </si>
   <si>
     <t xml:space="preserve">15.750376701355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1904048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8970851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526411056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237314224243</t>
+    <t xml:space="preserve">15.1904067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.897084236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771192550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.292667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3237323760986</t>
   </si>
   <si>
     <t xml:space="preserve">15.1281843185425</t>
@@ -2369,31 +2369,31 @@
     <t xml:space="preserve">15.714825630188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1059188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9281492233276</t>
+    <t xml:space="preserve">16.1059169769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.928147315979</t>
   </si>
   <si>
     <t xml:space="preserve">15.95481300354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3015565872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9549045562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1326742172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7415819168091</t>
+    <t xml:space="preserve">14.3015575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9549055099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1326751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.741584777832</t>
   </si>
   <si>
     <t xml:space="preserve">13.8660221099854</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1594343185425</t>
+    <t xml:space="preserve">12.8882894515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1594352722168</t>
   </si>
   <si>
     <t xml:space="preserve">11.6705684661865</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">11.1105937957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1416578292847</t>
+    <t xml:space="preserve">12.1416568756104</t>
   </si>
   <si>
     <t xml:space="preserve">12.328314781189</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">12.1683216094971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5505266189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.901575088501</t>
+    <t xml:space="preserve">12.5505275726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9015760421753</t>
   </si>
   <si>
     <t xml:space="preserve">14.3104457855225</t>
@@ -2456,25 +2456,25 @@
     <t xml:space="preserve">14.0793447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0260124206543</t>
+    <t xml:space="preserve">14.0260143280029</t>
   </si>
   <si>
     <t xml:space="preserve">13.5460367202759</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6438112258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793651580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0305061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5815906524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9282417297363</t>
+    <t xml:space="preserve">13.6438102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0305051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5815896987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9282398223877</t>
   </si>
   <si>
     <t xml:space="preserve">13.9993495941162</t>
@@ -2483,22 +2483,22 @@
     <t xml:space="preserve">14.1948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682680130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2438287734985</t>
+    <t xml:space="preserve">13.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2438278198242</t>
   </si>
   <si>
     <t xml:space="preserve">13.4571514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6260328292847</t>
+    <t xml:space="preserve">13.626033782959</t>
   </si>
   <si>
     <t xml:space="preserve">13.7771368026733</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9726829528809</t>
+    <t xml:space="preserve">13.9726839065552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8837985992432</t>
@@ -2507,19 +2507,19 @@
     <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4882154464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.532657623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.657096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4793262481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1104078292847</t>
+    <t xml:space="preserve">14.4882144927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5326595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6570959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4793281555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.110408782959</t>
   </si>
   <si>
     <t xml:space="preserve">15.3326196670532</t>
@@ -2528,28 +2528,28 @@
     <t xml:space="preserve">14.8081998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192970275879</t>
+    <t xml:space="preserve">15.1192960739136</t>
   </si>
   <si>
     <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7681579589844</t>
+    <t xml:space="preserve">15.7681541442871</t>
   </si>
   <si>
     <t xml:space="preserve">15.4037265777588</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4926128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0792503356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6214485168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4259033203125</t>
+    <t xml:space="preserve">15.4926147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0792541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6214504241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4259014129639</t>
   </si>
   <si>
     <t xml:space="preserve">17.3325271606445</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">17.2525310516357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147117614746</t>
+    <t xml:space="preserve">17.5014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147136688232</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0879554748535</t>
+    <t xml:space="preserve">20.0879535675049</t>
   </si>
   <si>
     <t xml:space="preserve">19.8924083709717</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">19.7146377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4434928894043</t>
+    <t xml:space="preserve">20.4434947967529</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790477752686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9234714508057</t>
+    <t xml:space="preserve">20.9234733581543</t>
   </si>
   <si>
     <t xml:space="preserve">20.7279243469238</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">20.6212635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0123558044434</t>
+    <t xml:space="preserve">21.0123538970947</t>
   </si>
   <si>
     <t xml:space="preserve">20.9056949615479</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">20.319055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6923694610596</t>
+    <t xml:space="preserve">20.6923713684082</t>
   </si>
   <si>
     <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5989952087402</t>
+    <t xml:space="preserve">21.5989933013916</t>
   </si>
   <si>
     <t xml:space="preserve">21.8478717803955</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">21.563440322876</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7412109375</t>
+    <t xml:space="preserve">21.7412090301514</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
@@ -2633,22 +2633,22 @@
     <t xml:space="preserve">21.9545345306396</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8300933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0611934661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2034130096436</t>
+    <t xml:space="preserve">21.8300952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900913238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0611953735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2034091949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.1678581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1323013305664</t>
+    <t xml:space="preserve">22.132303237915</t>
   </si>
   <si>
     <t xml:space="preserve">21.9723110198975</t>
@@ -2660,52 +2660,52 @@
     <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.865650177002</t>
+    <t xml:space="preserve">21.8656482696533</t>
   </si>
   <si>
     <t xml:space="preserve">21.6523265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8123188018799</t>
+    <t xml:space="preserve">21.8123207092285</t>
   </si>
   <si>
     <t xml:space="preserve">23.110034942627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6077899932861</t>
+    <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
     <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9410629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8344020843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9943923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0299472808838</t>
+    <t xml:space="preserve">24.9410610198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.834400177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9943943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0299453735352</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8877296447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8166217803955</t>
+    <t xml:space="preserve">24.887731552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8166236877441</t>
   </si>
   <si>
     <t xml:space="preserve">24.5321922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6744079589844</t>
+    <t xml:space="preserve">24.6032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
     <t xml:space="preserve">24.8699531555176</t>
@@ -2714,28 +2714,28 @@
     <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4433059692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7632942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4966373443604</t>
+    <t xml:space="preserve">24.4433078765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455158233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7632923126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7099628448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.496639251709</t>
   </si>
   <si>
     <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1410999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0121688842773</t>
+    <t xml:space="preserve">24.1410980224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.012170791626</t>
   </si>
   <si>
     <t xml:space="preserve">24.9232864379883</t>
@@ -2750,70 +2750,70 @@
     <t xml:space="preserve">25.581033706665</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1854476928711</t>
+    <t xml:space="preserve">26.1854496002197</t>
   </si>
   <si>
     <t xml:space="preserve">27.1809577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5587635040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.647647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5765399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2032241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1321182250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1498947143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8832416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2743339538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7765769958496</t>
+    <t xml:space="preserve">26.558765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6476497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5765419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2032260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1321144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1498928070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.883243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2743320465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
     <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3098888397217</t>
+    <t xml:space="preserve">26.3098850250244</t>
   </si>
   <si>
     <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4521026611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565204620361</t>
+    <t xml:space="preserve">26.4521007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565185546875</t>
   </si>
   <si>
     <t xml:space="preserve">28.034252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9098091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1454048156738</t>
+    <t xml:space="preserve">27.9098110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1454029083252</t>
   </si>
   <si>
     <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1276264190674</t>
+    <t xml:space="preserve">27.1276302337646</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210025787354</t>
@@ -2828,70 +2828,70 @@
     <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.407751083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4610843658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9010162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1676750183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6654262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.736536026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4032649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1721611022949</t>
+    <t xml:space="preserve">24.4077548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4610862731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9010181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1676712036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6654243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7365341186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.403263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1721630096436</t>
   </si>
   <si>
     <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5988101959229</t>
+    <t xml:space="preserve">25.5988082885742</t>
   </si>
   <si>
     <t xml:space="preserve">24.8521766662598</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5677471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1543846130371</t>
+    <t xml:space="preserve">24.5677452087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1543865203857</t>
   </si>
   <si>
     <t xml:space="preserve">24.5499687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3143749237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0076789855957</t>
+    <t xml:space="preserve">24.0877704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3143787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0076808929443</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">25.101053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5144157409668</t>
+    <t xml:space="preserve">25.1010551452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5144138336182</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766529083252</t>
+    <t xml:space="preserve">24.1766548156738</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
@@ -2900,16 +2900,16 @@
     <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2833156585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1965999603271</t>
+    <t xml:space="preserve">24.2833137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1965980529785</t>
   </si>
   <si>
     <t xml:space="preserve">24.3779811859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6705837249756</t>
+    <t xml:space="preserve">23.6705856323242</t>
   </si>
   <si>
     <t xml:space="preserve">23.5617542266846</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">23.7794151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8519687652588</t>
+    <t xml:space="preserve">23.8519668579102</t>
   </si>
   <si>
     <t xml:space="preserve">23.7250003814697</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289680480957</t>
+    <t xml:space="preserve">23.1989860534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2510108947754</t>
+    <t xml:space="preserve">24.2510147094727</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4457588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6452789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3163986206055</t>
+    <t xml:space="preserve">26.4457569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6452808380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3164005279541</t>
   </si>
   <si>
     <t xml:space="preserve">27.5521984100342</t>
@@ -2978,16 +2978,16 @@
     <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2777347564697</t>
+    <t xml:space="preserve">28.2777328491211</t>
   </si>
   <si>
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.347900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0371570587158</t>
+    <t xml:space="preserve">29.3478965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0371551513672</t>
   </si>
   <si>
     <t xml:space="preserve">30.3455085754395</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533840179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249855041504</t>
+    <t xml:space="preserve">30.8533878326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249778747559</t>
   </si>
   <si>
     <t xml:space="preserve">30.4724769592285</t>
   </si>
   <si>
-    <t xml:space="preserve">30.32737159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0008792877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6199722290039</t>
+    <t xml:space="preserve">30.3273677825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0008811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6199741363525</t>
   </si>
   <si>
     <t xml:space="preserve">28.8763008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9331035614014</t>
+    <t xml:space="preserve">27.93310546875</t>
   </si>
   <si>
     <t xml:space="preserve">27.7335815429688</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">28.803747177124</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7879962921143</t>
+    <t xml:space="preserve">27.7879981994629</t>
   </si>
   <si>
     <t xml:space="preserve">27.6610298156738</t>
@@ -3041,16 +3041,16 @@
     <t xml:space="preserve">28.3684253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4772529602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.894437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.397533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3817863464355</t>
+    <t xml:space="preserve">28.4772548675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8944396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3975372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3817844390869</t>
   </si>
   <si>
     <t xml:space="preserve">30.2910938262939</t>
@@ -3059,46 +3059,46 @@
     <t xml:space="preserve">30.5450325012207</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1278476715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5631713867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.177490234375</t>
+    <t xml:space="preserve">30.1278495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5631694793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1774864196777</t>
   </si>
   <si>
     <t xml:space="preserve">32.0505180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5245037078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6696090698242</t>
+    <t xml:space="preserve">31.5245018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696128845215</t>
   </si>
   <si>
     <t xml:space="preserve">31.7421627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3431224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5970554351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9235515594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3225898742676</t>
+    <t xml:space="preserve">31.3431243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5970573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9235496520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3225936889648</t>
   </si>
   <si>
     <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1932373046875</t>
+    <t xml:space="preserve">33.1932334899902</t>
   </si>
   <si>
     <t xml:space="preserve">32.9211578369141</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">33.1388206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8486099243164</t>
+    <t xml:space="preserve">32.8486061096191</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
@@ -3119,31 +3119,31 @@
     <t xml:space="preserve">33.0481262207031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6853637695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.794189453125</t>
+    <t xml:space="preserve">32.685359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7941856384277</t>
   </si>
   <si>
     <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1206817626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0662651062012</t>
+    <t xml:space="preserve">33.120677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0662612915039</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1025428771973</t>
+    <t xml:space="preserve">33.1025466918945</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937133789062</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0299835205078</t>
+    <t xml:space="preserve">33.0299873352051</t>
   </si>
   <si>
     <t xml:space="preserve">33.7736663818359</t>
@@ -3155,10 +3155,10 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369049072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2657852172852</t>
+    <t xml:space="preserve">33.9369087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
     <t xml:space="preserve">32.8667449951172</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">33.1750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9755706787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8304672241211</t>
+    <t xml:space="preserve">32.9755744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8304710388184</t>
   </si>
   <si>
     <t xml:space="preserve">32.7397727966309</t>
@@ -3188,28 +3188,28 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140037536621</t>
+    <t xml:space="preserve">33.5140075683594</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.661319732666</t>
+    <t xml:space="preserve">33.6429061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6613159179688</t>
   </si>
   <si>
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273040771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664329528809</t>
+    <t xml:space="preserve">33.1273002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664291381836</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3221,31 +3221,31 @@
     <t xml:space="preserve">34.7293472290039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7789611816406</t>
+    <t xml:space="preserve">35.7789649963379</t>
   </si>
   <si>
     <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.478702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7917442321777</t>
+    <t xml:space="preserve">36.4787063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.791748046875</t>
   </si>
   <si>
     <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4106712341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.244945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7661743164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3610610961914</t>
+    <t xml:space="preserve">35.4106750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2449493408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.766170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3610572814941</t>
   </si>
   <si>
     <t xml:space="preserve">34.6004486083984</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270492553711</t>
+    <t xml:space="preserve">33.8270454406738</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">34.5636215209961</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4035186767578</t>
+    <t xml:space="preserve">33.4035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">33.7165603637695</t>
@@ -3278,40 +3278,40 @@
     <t xml:space="preserve">34.1032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6925163269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2689895629883</t>
+    <t xml:space="preserve">34.6925201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2689933776855</t>
   </si>
   <si>
     <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5380477905273</t>
+    <t xml:space="preserve">32.5380439758301</t>
   </si>
   <si>
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298606872559</t>
+    <t xml:space="preserve">33.3298645019531</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3426475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2930297851562</t>
+    <t xml:space="preserve">34.342643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2930335998535</t>
   </si>
   <si>
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843330383301</t>
+    <t xml:space="preserve">35.4843292236328</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">35.5395736694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.815788269043</t>
+    <t xml:space="preserve">35.8157920837402</t>
   </si>
   <si>
     <t xml:space="preserve">35.8526153564453</t>
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">35.5948181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.999927520752</t>
+    <t xml:space="preserve">35.9999313354492</t>
   </si>
   <si>
     <t xml:space="preserve">35.6132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6684722900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5764045715332</t>
+    <t xml:space="preserve">35.6684761047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5764007568359</t>
   </si>
   <si>
     <t xml:space="preserve">35.3922576904297</t>
@@ -3347,10 +3347,10 @@
     <t xml:space="preserve">35.0608062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7605476379395</t>
+    <t xml:space="preserve">35.1344604492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7605438232422</t>
   </si>
   <si>
     <t xml:space="preserve">35.981517791748</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">34.6188583374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9503135681152</t>
+    <t xml:space="preserve">34.9503173828125</t>
   </si>
   <si>
     <t xml:space="preserve">34.9871444702148</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1288299560547</t>
+    <t xml:space="preserve">36.128833770752</t>
   </si>
   <si>
     <t xml:space="preserve">36.6444320678711</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1656608581543</t>
+    <t xml:space="preserve">36.165657043457</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">31.4700183868408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595352172852</t>
+    <t xml:space="preserve">31.3595333099365</t>
   </si>
   <si>
     <t xml:space="preserve">30.8255176544189</t>
@@ -3407,19 +3407,19 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6045475006104</t>
+    <t xml:space="preserve">30.9175930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6045455932617</t>
   </si>
   <si>
     <t xml:space="preserve">30.254674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996871948242</t>
+    <t xml:space="preserve">29.4996891021729</t>
   </si>
   <si>
     <t xml:space="preserve">29.0393314361572</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">28.6158027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7759037017822</t>
+    <t xml:space="preserve">29.7759017944336</t>
   </si>
   <si>
     <t xml:space="preserve">29.2971305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9840869903564</t>
+    <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
     <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278715133667</t>
+    <t xml:space="preserve">29.2787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3449,13 +3449,13 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.475643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334461212158</t>
+    <t xml:space="preserve">30.4756450653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334480285645</t>
   </si>
   <si>
     <t xml:space="preserve">30.3835754394531</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649070739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940605163574</t>
+    <t xml:space="preserve">31.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940586090088</t>
   </si>
   <si>
     <t xml:space="preserve">31.1201457977295</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2674617767334</t>
+    <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">31.875129699707</t>
@@ -3494,22 +3494,22 @@
     <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4147720336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5861301422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3948307037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9897155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7503299713135</t>
+    <t xml:space="preserve">31.4147758483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5861339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.394832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9897174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7503318786621</t>
   </si>
   <si>
     <t xml:space="preserve">28.4500732421875</t>
@@ -3521,13 +3521,13 @@
     <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8424034118652</t>
+    <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2291011810303</t>
+    <t xml:space="preserve">28.2291030883789</t>
   </si>
   <si>
     <t xml:space="preserve">26.8848609924316</t>
@@ -3542,22 +3542,22 @@
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2531471252441</t>
+    <t xml:space="preserve">27.4925308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2531452178955</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3027591705322</t>
+    <t xml:space="preserve">28.3027610778809</t>
   </si>
   <si>
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976421356201</t>
+    <t xml:space="preserve">27.8976459503174</t>
   </si>
   <si>
     <t xml:space="preserve">27.4372882843018</t>
@@ -3578,28 +3578,28 @@
     <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1370315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1314010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0209178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789737701416</t>
+    <t xml:space="preserve">28.1370296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1314029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789756774902</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656734466553</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8367748260498</t>
+    <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
     <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5477733612061</t>
+    <t xml:space="preserve">27.5477752685547</t>
   </si>
   <si>
     <t xml:space="preserve">25.9825592041016</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">26.0930461883545</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7800006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9641456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3508453369141</t>
+    <t xml:space="preserve">25.7800025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.964147567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3508472442627</t>
   </si>
   <si>
     <t xml:space="preserve">25.5958595275879</t>
@@ -3623,13 +3623,13 @@
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.584602355957</t>
+    <t xml:space="preserve">24.8592891693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">29.1682319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4684867858887</t>
+    <t xml:space="preserve">28.4684886932373</t>
   </si>
   <si>
     <t xml:space="preserve">28.0817890167236</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526317596436</t>
+    <t xml:space="preserve">28.6526336669922</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3656,16 +3656,16 @@
     <t xml:space="preserve">27.5109443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0449600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344749450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2163162231445</t>
+    <t xml:space="preserve">28.044958114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3395881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344730377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2163181304932</t>
   </si>
   <si>
     <t xml:space="preserve">26.5534019470215</t>
@@ -3674,34 +3674,34 @@
     <t xml:space="preserve">25.8720741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3140182495117</t>
+    <t xml:space="preserve">26.3140163421631</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984180450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2091579437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3677291870117</t>
+    <t xml:space="preserve">25.7984161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2091598510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3677310943604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.281286239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623592376709</t>
+    <t xml:space="preserve">22.2812881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623611450195</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393440246582</t>
+    <t xml:space="preserve">21.8393459320068</t>
   </si>
   <si>
     <t xml:space="preserve">23.3124866485596</t>
@@ -3734,34 +3734,34 @@
     <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9754047393799</t>
+    <t xml:space="preserve">23.9754028320312</t>
   </si>
   <si>
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7784729003906</t>
+    <t xml:space="preserve">22.778470993042</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232303619385</t>
+    <t xml:space="preserve">22.7232322692871</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2997035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8577575683594</t>
+    <t xml:space="preserve">22.2997016906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.857759475708</t>
   </si>
   <si>
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419025421143</t>
+    <t xml:space="preserve">22.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288608551025</t>
+    <t xml:space="preserve">21.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">20.9186305999756</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500877380371</t>
+    <t xml:space="preserve">21.2500858306885</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158153533936</t>
+    <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3803,22 +3803,22 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557144165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.624002456665</t>
+    <t xml:space="preserve">20.2557163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6240005493164</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1636428833008</t>
+    <t xml:space="preserve">20.1636447906494</t>
   </si>
   <si>
     <t xml:space="preserve">20.384614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5135154724121</t>
+    <t xml:space="preserve">20.5135173797607</t>
   </si>
   <si>
     <t xml:space="preserve">20.7638721466064</t>
@@ -5154,6 +5154,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.1399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2199993133545</t>
   </si>
 </sst>
 </file>
@@ -62279,7 +62282,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6495023148</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>166537</v>
@@ -62300,6 +62303,32 @@
         <v>1713</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6493402778</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>194176</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>29.2800006866455</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>27.1800003051758</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>29.1399993896484</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>27.2199993133545</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947147369385</t>
+    <t xml:space="preserve">20.9947128295898</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8097381591797</t>
+    <t xml:space="preserve">20.8097400665283</t>
   </si>
   <si>
     <t xml:space="preserve">20.9099311828613</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243698120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2239818572998</t>
+    <t xml:space="preserve">20.424373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2239837646484</t>
   </si>
   <si>
     <t xml:space="preserve">20.0158863067627</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">19.7307167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1314945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.744176864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8501300811768</t>
+    <t xml:space="preserve">20.1314964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7441806793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8501319885254</t>
   </si>
   <si>
     <t xml:space="preserve">17.6497402191162</t>
@@ -77,28 +77,28 @@
     <t xml:space="preserve">17.7422294616699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2643737792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1025199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2354946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6477909088135</t>
+    <t xml:space="preserve">17.2643775939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1025238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2354965209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6477928161621</t>
   </si>
   <si>
     <t xml:space="preserve">16.9175472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0100345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8790092468262</t>
+    <t xml:space="preserve">17.0100326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8790054321289</t>
   </si>
   <si>
     <t xml:space="preserve">16.3317909240723</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">16.1622295379639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8462295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756944656372</t>
+    <t xml:space="preserve">15.8462314605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756925582886</t>
   </si>
   <si>
     <t xml:space="preserve">14.959888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5225210189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899419784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213542938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6458377838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4454488754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995960235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464282989502</t>
+    <t xml:space="preserve">15.5225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5899381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213533401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6458396911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4454498291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995950698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464244842529</t>
   </si>
   <si>
     <t xml:space="preserve">15.5764751434326</t>
@@ -146,10 +146,10 @@
     <t xml:space="preserve">16.1545219421387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7768630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3240833282471</t>
+    <t xml:space="preserve">15.7768650054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3240852355957</t>
   </si>
   <si>
     <t xml:space="preserve">16.3934497833252</t>
@@ -158,28 +158,28 @@
     <t xml:space="preserve">16.7634010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069108963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5687656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2855472564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9078874588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.476279258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928611755371</t>
+    <t xml:space="preserve">16.9560852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069147109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5687685012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2855453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4762802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.092866897583</t>
   </si>
   <si>
     <t xml:space="preserve">15.5071086883545</t>
@@ -191,88 +191,88 @@
     <t xml:space="preserve">16.1236934661865</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851554870605</t>
+    <t xml:space="preserve">16.1853523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851573944092</t>
   </si>
   <si>
     <t xml:space="preserve">15.807692527771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5456457138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32213306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146213531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5379371643066</t>
+    <t xml:space="preserve">15.5456438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221311569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146194458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379362106323</t>
   </si>
   <si>
     <t xml:space="preserve">15.2296466827393</t>
   </si>
   <si>
-    <t xml:space="preserve">15.422327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298377990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286691665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061349868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653367996216</t>
+    <t xml:space="preserve">15.4223289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2450618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298387527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061330795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653377532959</t>
   </si>
   <si>
     <t xml:space="preserve">15.162561416626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.344012260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467847824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704511642456</t>
+    <t xml:space="preserve">15.3440084457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467838287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1704530715942</t>
   </si>
   <si>
     <t xml:space="preserve">15.1388969421387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0363416671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595659255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646802902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
+    <t xml:space="preserve">15.0363388061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514570236206</t>
   </si>
   <si>
     <t xml:space="preserve">16.2275714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4405746459961</t>
+    <t xml:space="preserve">16.4405727386475</t>
   </si>
   <si>
     <t xml:space="preserve">16.3459033966064</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">16.708797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5115737915039</t>
+    <t xml:space="preserve">16.5115756988525</t>
   </si>
   <si>
     <t xml:space="preserve">17.9473628997803</t>
@@ -302,55 +302,55 @@
     <t xml:space="preserve">16.9612426757812</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0559120178223</t>
+    <t xml:space="preserve">17.0559101104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.3241348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868068695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682529449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865867614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7125911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202579498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889228820801</t>
+    <t xml:space="preserve">17.5134735107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868049621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682548522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.712589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889266967773</t>
   </si>
   <si>
     <t xml:space="preserve">18.5627002716064</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4995918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023643493652</t>
+    <t xml:space="preserve">18.4995880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023662567139</t>
   </si>
   <si>
     <t xml:space="preserve">18.8782577514648</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578060150146</t>
+    <t xml:space="preserve">19.0597019195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6810321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578079223633</t>
   </si>
   <si>
     <t xml:space="preserve">17.6081390380859</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">17.2925796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.710693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445865631104</t>
+    <t xml:space="preserve">17.7106952667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445846557617</t>
   </si>
   <si>
     <t xml:space="preserve">18.0420303344727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0025844573975</t>
+    <t xml:space="preserve">18.0025863647461</t>
   </si>
   <si>
     <t xml:space="preserve">18.152473449707</t>
@@ -380,37 +380,37 @@
     <t xml:space="preserve">16.8823547363281</t>
   </si>
   <si>
-    <t xml:space="preserve">15.714789390564</t>
+    <t xml:space="preserve">15.7147884368896</t>
   </si>
   <si>
     <t xml:space="preserve">16.3143501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5667991638184</t>
+    <t xml:space="preserve">16.5667953491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.8665733337402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.835018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751214981079</t>
+    <t xml:space="preserve">16.8350200653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751262664795</t>
   </si>
   <si>
     <t xml:space="preserve">15.7384567260742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9830141067505</t>
+    <t xml:space="preserve">15.9830131530762</t>
   </si>
   <si>
     <t xml:space="preserve">16.5746841430664</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3853492736816</t>
+    <t xml:space="preserve">16.3853511810303</t>
   </si>
   <si>
     <t xml:space="preserve">16.3616828918457</t>
@@ -419,13 +419,13 @@
     <t xml:space="preserve">16.6220169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7245750427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324657440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.048023223877</t>
+    <t xml:space="preserve">16.7245769500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0480213165283</t>
   </si>
   <si>
     <t xml:space="preserve">17.1269111633301</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">17.0085773468018</t>
   </si>
   <si>
-    <t xml:space="preserve">17.829029083252</t>
+    <t xml:space="preserve">17.8290271759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.4345817565918</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">17.8132495880127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6318035125732</t>
+    <t xml:space="preserve">17.6318073272705</t>
   </si>
   <si>
     <t xml:space="preserve">17.8763618469238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5292472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371341705322</t>
+    <t xml:space="preserve">17.5292491912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371379852295</t>
   </si>
   <si>
     <t xml:space="preserve">17.7185821533203</t>
@@ -464,91 +464,91 @@
     <t xml:space="preserve">18.2786960601807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7678146362305</t>
+    <t xml:space="preserve">18.7678108215332</t>
   </si>
   <si>
     <t xml:space="preserve">18.9334812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8940353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.043924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181400299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209182739258</t>
+    <t xml:space="preserve">18.8940334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0439262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181419372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209201812744</t>
   </si>
   <si>
     <t xml:space="preserve">18.381254196167</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0972537994385</t>
+    <t xml:space="preserve">18.0972518920898</t>
   </si>
   <si>
     <t xml:space="preserve">17.8842525482178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1919174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.726469039917</t>
+    <t xml:space="preserve">18.1919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2550296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264709472656</t>
   </si>
   <si>
     <t xml:space="preserve">17.7895851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5765819549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6160259246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503574371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243587493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.819242477417</t>
+    <t xml:space="preserve">17.5765781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6160278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.35569190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0243549346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8192405700684</t>
   </si>
   <si>
     <t xml:space="preserve">16.8902435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3399105072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819145202637</t>
+    <t xml:space="preserve">17.2294654846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.481912612915</t>
   </si>
   <si>
     <t xml:space="preserve">17.2058010101318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6554737091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0401344299316</t>
+    <t xml:space="preserve">17.6554698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.040132522583</t>
   </si>
   <si>
     <t xml:space="preserve">17.0322437286377</t>
@@ -557,40 +557,40 @@
     <t xml:space="preserve">17.1111335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9927997589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533538818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4898052215576</t>
+    <t xml:space="preserve">16.9928016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533557891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.489803314209</t>
   </si>
   <si>
     <t xml:space="preserve">17.4582481384277</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2610244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083553314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424705505371</t>
+    <t xml:space="preserve">17.261022567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083591461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424724578857</t>
   </si>
   <si>
     <t xml:space="preserve">17.4188041687012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6475849151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
+    <t xml:space="preserve">17.6475830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.497688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.276798248291</t>
   </si>
   <si>
     <t xml:space="preserve">16.148681640625</t>
@@ -599,76 +599,76 @@
     <t xml:space="preserve">16.1802368164062</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4563484191895</t>
+    <t xml:space="preserve">16.4563503265381</t>
   </si>
   <si>
     <t xml:space="preserve">16.5352382659912</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1960163116455</t>
+    <t xml:space="preserve">16.1960144042969</t>
   </si>
   <si>
     <t xml:space="preserve">15.59645652771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5017871856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
+    <t xml:space="preserve">15.5017890930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045635223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166843414307</t>
   </si>
   <si>
     <t xml:space="preserve">16.2906818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3774604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9218006134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2689151763916</t>
+    <t xml:space="preserve">16.1092338562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.268913269043</t>
   </si>
   <si>
     <t xml:space="preserve">16.6693515777588</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4247970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723518371582</t>
+    <t xml:space="preserve">16.4247951507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723499298096</t>
   </si>
   <si>
     <t xml:space="preserve">16.9139099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.70090675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981342315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640209197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716876983643</t>
+    <t xml:space="preserve">16.7009086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640171051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716896057129</t>
   </si>
   <si>
     <t xml:space="preserve">17.2373561859131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6712455749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633605957031</t>
+    <t xml:space="preserve">17.6712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">18.1051425933838</t>
@@ -677,34 +677,34 @@
     <t xml:space="preserve">18.3418102264404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4601402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656929016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840324401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526954650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104732513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974700927734</t>
+    <t xml:space="preserve">18.4601421356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392520904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840305328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104713439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
   </si>
   <si>
     <t xml:space="preserve">17.8684730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3339214324951</t>
+    <t xml:space="preserve">18.3339176177979</t>
   </si>
   <si>
     <t xml:space="preserve">18.1998081207275</t>
@@ -713,109 +713,109 @@
     <t xml:space="preserve">18.5390338897705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.696813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5882663726807</t>
+    <t xml:space="preserve">18.4285869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6968116760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.588264465332</t>
   </si>
   <si>
     <t xml:space="preserve">19.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963733673096</t>
+    <t xml:space="preserve">19.7065963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567111968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963714599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.6592655181885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.477819442749</t>
+    <t xml:space="preserve">19.4778175354004</t>
   </si>
   <si>
     <t xml:space="preserve">19.3279304504395</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6908187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912628173828</t>
+    <t xml:space="preserve">19.6908226013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912609100342</t>
   </si>
   <si>
     <t xml:space="preserve">18.8703689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1385955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699306488037</t>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699325561523</t>
   </si>
   <si>
     <t xml:space="preserve">19.7381553649902</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4402675628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.369270324707</t>
+    <t xml:space="preserve">20.4402713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3692684173584</t>
   </si>
   <si>
     <t xml:space="preserve">20.2193813323975</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2133884429932</t>
+    <t xml:space="preserve">21.2133865356445</t>
   </si>
   <si>
     <t xml:space="preserve">20.8820514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4816131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0477199554443</t>
+    <t xml:space="preserve">21.4816112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.047721862793</t>
   </si>
   <si>
     <t xml:space="preserve">21.0003871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1187229156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.505277633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581649780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370567321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788349151611</t>
+    <t xml:space="preserve">21.1187171936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.158166885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922763824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.939172744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788368225098</t>
   </si>
   <si>
     <t xml:space="preserve">21.5762825012207</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">21.8445053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4619007110596</t>
+    <t xml:space="preserve">22.4619026184082</t>
   </si>
   <si>
     <t xml:space="preserve">22.3725433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2181949615479</t>
+    <t xml:space="preserve">22.2181930541992</t>
   </si>
   <si>
     <t xml:space="preserve">22.9713516235352</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9295063018799</t>
+    <t xml:space="preserve">22.9295101165771</t>
   </si>
   <si>
     <t xml:space="preserve">22.7621402740479</t>
@@ -854,34 +854,34 @@
     <t xml:space="preserve">23.4316139221191</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8751430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186664581299</t>
+    <t xml:space="preserve">23.8751411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186683654785</t>
   </si>
   <si>
     <t xml:space="preserve">24.2851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8584060668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0174045562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4525623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090389251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.883508682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650897979736</t>
+    <t xml:space="preserve">23.8584041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.017406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4525604248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650917053223</t>
   </si>
   <si>
     <t xml:space="preserve">24.2517204284668</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">22.7788753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0048217773438</t>
+    <t xml:space="preserve">23.004825592041</t>
   </si>
   <si>
     <t xml:space="preserve">23.5989837646484</t>
@@ -899,37 +899,37 @@
     <t xml:space="preserve">23.7077732086182</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9086170196533</t>
+    <t xml:space="preserve">23.908618927002</t>
   </si>
   <si>
     <t xml:space="preserve">24.2266159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1345634460449</t>
+    <t xml:space="preserve">24.1345653533936</t>
   </si>
   <si>
     <t xml:space="preserve">24.1596698760986</t>
   </si>
   <si>
-    <t xml:space="preserve">24.67014503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873039245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789306640625</t>
+    <t xml:space="preserve">24.6701431274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873001098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868801116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789325714111</t>
   </si>
   <si>
     <t xml:space="preserve">24.4023513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2935657501221</t>
+    <t xml:space="preserve">24.2935676574707</t>
   </si>
   <si>
     <t xml:space="preserve">24.4358291625977</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">23.992301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8081932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508785247803</t>
+    <t xml:space="preserve">23.8081951141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508804321289</t>
   </si>
   <si>
     <t xml:space="preserve">24.8458805084229</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">24.2600898742676</t>
   </si>
   <si>
-    <t xml:space="preserve">24.268461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847724914551</t>
+    <t xml:space="preserve">24.2684593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
   </si>
   <si>
     <t xml:space="preserve">23.9839324951172</t>
@@ -971,43 +971,43 @@
     <t xml:space="preserve">22.8458232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.962984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3939304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035598754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700878143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
+    <t xml:space="preserve">22.9629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.393928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529289245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035617828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039855957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956123352051</t>
   </si>
   <si>
     <t xml:space="preserve">23.4901962280273</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7161407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
+    <t xml:space="preserve">23.7161445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910381317139</t>
   </si>
   <si>
     <t xml:space="preserve">23.8416709899902</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">23.6826686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4985618591309</t>
+    <t xml:space="preserve">23.4985599517822</t>
   </si>
   <si>
     <t xml:space="preserve">23.6240882873535</t>
@@ -1025,34 +1025,34 @@
     <t xml:space="preserve">23.2475109100342</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512451171875</t>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512432098389</t>
   </si>
   <si>
     <t xml:space="preserve">21.8918228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8416118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
+    <t xml:space="preserve">21.8416137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755096435547</t>
   </si>
   <si>
     <t xml:space="preserve">21.950403213501</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5236129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746658325195</t>
+    <t xml:space="preserve">21.5236110687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646106719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746677398682</t>
   </si>
   <si>
     <t xml:space="preserve">21.757926940918</t>
@@ -1073,28 +1073,28 @@
     <t xml:space="preserve">21.4985084533691</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4734039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.213981628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1553993225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570869445801</t>
+    <t xml:space="preserve">21.4734020233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223472595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.155403137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324005126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570831298828</t>
   </si>
   <si>
     <t xml:space="preserve">21.3729801177979</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6240348815918</t>
+    <t xml:space="preserve">21.6240329742432</t>
   </si>
   <si>
     <t xml:space="preserve">22.1261405944824</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">21.9169292449951</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2684020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428737640381</t>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428775787354</t>
   </si>
   <si>
     <t xml:space="preserve">21.7997703552246</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4399299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148216247559</t>
+    <t xml:space="preserve">21.4399280548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148235321045</t>
   </si>
   <si>
     <t xml:space="preserve">21.3478755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6407699584961</t>
+    <t xml:space="preserve">21.6407718658447</t>
   </si>
   <si>
     <t xml:space="preserve">22.2935085296631</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">21.9671382904053</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1345100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851428985596</t>
+    <t xml:space="preserve">22.1345062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
   </si>
   <si>
     <t xml:space="preserve">22.8541927337646</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">22.7286682128906</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642440795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0885124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554584503174</t>
+    <t xml:space="preserve">22.5027198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.088508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554565429688</t>
   </si>
   <si>
     <t xml:space="preserve">23.0968780517578</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">23.6659317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0382976531982</t>
+    <t xml:space="preserve">23.0382995605469</t>
   </si>
   <si>
     <t xml:space="preserve">23.0550365447998</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">23.046667098999</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7496166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.741247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571422576904</t>
+    <t xml:space="preserve">23.7496147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571441650391</t>
   </si>
   <si>
     <t xml:space="preserve">23.5069313049316</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3730354309082</t>
+    <t xml:space="preserve">23.3730335235596</t>
   </si>
   <si>
     <t xml:space="preserve">23.4818248748779</t>
@@ -1202,67 +1202,67 @@
     <t xml:space="preserve">23.1052474975586</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7705059051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5152988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056655883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638278961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842437744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118759155273</t>
+    <t xml:space="preserve">22.7705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5153007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118740081787</t>
   </si>
   <si>
     <t xml:space="preserve">20.5361366271973</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4608211517334</t>
+    <t xml:space="preserve">20.460823059082</t>
   </si>
   <si>
     <t xml:space="preserve">20.3771381378174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863494873047</t>
+    <t xml:space="preserve">20.3269290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
   </si>
   <si>
     <t xml:space="preserve">20.5193996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6532936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6030864715576</t>
+    <t xml:space="preserve">20.6532955169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.603084564209</t>
   </si>
   <si>
     <t xml:space="preserve">20.5026626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0047702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809295654297</t>
+    <t xml:space="preserve">21.004768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809276580811</t>
   </si>
   <si>
     <t xml:space="preserve">21.3562450408936</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">21.1219272613525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7955570220947</t>
+    <t xml:space="preserve">20.7955589294434</t>
   </si>
   <si>
     <t xml:space="preserve">20.921085357666</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">22.0006141662598</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7077159881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725601196289</t>
+    <t xml:space="preserve">21.7077198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725582122803</t>
   </si>
   <si>
     <t xml:space="preserve">21.573823928833</t>
@@ -1301,55 +1301,55 @@
     <t xml:space="preserve">21.1135597229004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9085578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780353546143</t>
+    <t xml:space="preserve">21.3395099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780334472656</t>
   </si>
   <si>
     <t xml:space="preserve">22.0424556732178</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1930866241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274044036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604564666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9922466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6282482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454013824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102436065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784553527832</t>
+    <t xml:space="preserve">22.1930847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274024963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583507537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.628246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3102474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
   </si>
   <si>
     <t xml:space="preserve">22.1596126556396</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">20.1511898040771</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.352029800415</t>
+    <t xml:space="preserve">20.3352947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520317077637</t>
   </si>
   <si>
     <t xml:space="preserve">20.9043483734131</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">20.9545612335205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5696067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348728179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838199615479</t>
+    <t xml:space="preserve">20.5696105957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185596466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838180541992</t>
   </si>
   <si>
     <t xml:space="preserve">19.632345199585</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">19.3812923431396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5151882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072940826416</t>
+    <t xml:space="preserve">19.5151901245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072959899902</t>
   </si>
   <si>
     <t xml:space="preserve">21.0549793243408</t>
@@ -1418,43 +1418,43 @@
     <t xml:space="preserve">20.6198215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.686767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.268346786499</t>
+    <t xml:space="preserve">20.6867694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683448791504</t>
   </si>
   <si>
     <t xml:space="preserve">19.950345993042</t>
   </si>
   <si>
-    <t xml:space="preserve">20.184663772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855056762695</t>
+    <t xml:space="preserve">20.1846656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855075836182</t>
   </si>
   <si>
     <t xml:space="preserve">20.7704524993896</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4189796447754</t>
+    <t xml:space="preserve">20.4189777374268</t>
   </si>
   <si>
     <t xml:space="preserve">19.8331890106201</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8164558410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369785308838</t>
+    <t xml:space="preserve">19.8164501190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
   </si>
   <si>
     <t xml:space="preserve">21.3897171020508</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">21.0215072631836</t>
   </si>
   <si>
-    <t xml:space="preserve">21.788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572772979736</t>
+    <t xml:space="preserve">21.7884616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.457275390625</t>
   </si>
   <si>
     <t xml:space="preserve">21.5618591308594</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">21.6141510009766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7361679077148</t>
+    <t xml:space="preserve">21.7361660003662</t>
   </si>
   <si>
     <t xml:space="preserve">21.7187366485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4159679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324897766113</t>
+    <t xml:space="preserve">22.4159698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03249168396</t>
   </si>
   <si>
     <t xml:space="preserve">22.1893672943115</t>
@@ -1499,28 +1499,28 @@
     <t xml:space="preserve">21.9976291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8756160736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.352689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5270004272461</t>
+    <t xml:space="preserve">21.8756141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6664428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5269985198975</t>
   </si>
   <si>
     <t xml:space="preserve">21.4049816131592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.126091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563716888428</t>
+    <t xml:space="preserve">21.1260929107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.986644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563678741455</t>
   </si>
   <si>
     <t xml:space="preserve">20.7774753570557</t>
@@ -1535,25 +1535,25 @@
     <t xml:space="preserve">21.7710304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6838760375977</t>
+    <t xml:space="preserve">21.683874130249</t>
   </si>
   <si>
     <t xml:space="preserve">21.893045425415</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7013072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747066497803</t>
+    <t xml:space="preserve">21.7013053894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747047424316</t>
   </si>
   <si>
     <t xml:space="preserve">21.5792903900146</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2132453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701210021973</t>
+    <t xml:space="preserve">21.2132472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701190948486</t>
   </si>
   <si>
     <t xml:space="preserve">21.4398460388184</t>
@@ -1565,76 +1565,76 @@
     <t xml:space="preserve">20.7251834869385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0040740966797</t>
+    <t xml:space="preserve">21.0040760040283</t>
   </si>
   <si>
     <t xml:space="preserve">21.1609535217285</t>
   </si>
   <si>
-    <t xml:space="preserve">20.88205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692115783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655372619629</t>
+    <t xml:space="preserve">20.8820610046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435241699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655353546143</t>
   </si>
   <si>
     <t xml:space="preserve">20.9169235229492</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3003997802734</t>
+    <t xml:space="preserve">21.3003978729248</t>
   </si>
   <si>
     <t xml:space="preserve">20.9343528747559</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6728935241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334453582764</t>
+    <t xml:space="preserve">20.6728916168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334434509277</t>
   </si>
   <si>
     <t xml:space="preserve">21.927906036377</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2003517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700729370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893211364746</t>
+    <t xml:space="preserve">23.2003536224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.270076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893230438232</t>
   </si>
   <si>
     <t xml:space="preserve">24.193904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2636280059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948143005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113380432129</t>
+    <t xml:space="preserve">24.2636299133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948162078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113361358643</t>
   </si>
   <si>
     <t xml:space="preserve">23.8452911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104267120361</t>
+    <t xml:space="preserve">23.7755699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104286193848</t>
   </si>
   <si>
     <t xml:space="preserve">23.5141067504883</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">23.5838279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067504882812</t>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067523956299</t>
   </si>
   <si>
     <t xml:space="preserve">24.1416168212891</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">24.4030742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6296768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.507661819458</t>
+    <t xml:space="preserve">24.629674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5076599121094</t>
   </si>
   <si>
     <t xml:space="preserve">24.3856449127197</t>
@@ -1673,49 +1673,49 @@
     <t xml:space="preserve">24.071891784668</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8801498413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489692687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875080108643</t>
+    <t xml:space="preserve">23.8801536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
   </si>
   <si>
     <t xml:space="preserve">23.7929973602295</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4966773986816</t>
+    <t xml:space="preserve">23.496675491333</t>
   </si>
   <si>
     <t xml:space="preserve">24.1241855621338</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847373962402</t>
+    <t xml:space="preserve">23.949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6993999481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.298490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847393035889</t>
   </si>
   <si>
     <t xml:space="preserve">23.82785987854</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6948623657227</t>
+    <t xml:space="preserve">23.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
   </si>
   <si>
     <t xml:space="preserve">22.3811073303223</t>
@@ -1733,31 +1733,31 @@
     <t xml:space="preserve">22.5902767181396</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1370754241943</t>
+    <t xml:space="preserve">22.137077331543</t>
   </si>
   <si>
     <t xml:space="preserve">22.3462448120117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8233242034912</t>
+    <t xml:space="preserve">21.8233222961426</t>
   </si>
   <si>
     <t xml:space="preserve">22.2765216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4333972930908</t>
+    <t xml:space="preserve">22.4334011077881</t>
   </si>
   <si>
     <t xml:space="preserve">21.8581848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7077541351318</t>
+    <t xml:space="preserve">20.7077522277832</t>
   </si>
   <si>
     <t xml:space="preserve">20.3765659332275</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7664909362793</t>
+    <t xml:space="preserve">19.7664928436279</t>
   </si>
   <si>
     <t xml:space="preserve">20.3939990997314</t>
@@ -1766,49 +1766,49 @@
     <t xml:space="preserve">19.8710746765137</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2719821929932</t>
+    <t xml:space="preserve">20.2719841003418</t>
   </si>
   <si>
     <t xml:space="preserve">20.2196941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0802478790283</t>
+    <t xml:space="preserve">20.0802440643311</t>
   </si>
   <si>
     <t xml:space="preserve">20.1325359344482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2022590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096172332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
+    <t xml:space="preserve">20.2022609710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.400447845459</t>
   </si>
   <si>
     <t xml:space="preserve">19.4876003265381</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4701690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967678070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160140991211</t>
+    <t xml:space="preserve">19.4701671600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453853607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
   </si>
   <si>
     <t xml:space="preserve">20.4985847473145</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7426147460938</t>
+    <t xml:space="preserve">20.7426109313965</t>
   </si>
   <si>
     <t xml:space="preserve">20.9517841339111</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">20.6903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059391021729</t>
+    <t xml:space="preserve">20.4288597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059371948242</t>
   </si>
   <si>
     <t xml:space="preserve">20.6205997467041</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">20.4811515808105</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316284179688</t>
+    <t xml:space="preserve">20.2894134521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316303253174</t>
   </si>
   <si>
     <t xml:space="preserve">20.1673965454102</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023090362549</t>
+    <t xml:space="preserve">19.3132934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023071289062</t>
   </si>
   <si>
     <t xml:space="preserve">18.7729377746582</t>
@@ -1850,40 +1850,40 @@
     <t xml:space="preserve">18.6683521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2609996795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169696807861</t>
+    <t xml:space="preserve">19.2610015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169677734375</t>
   </si>
   <si>
     <t xml:space="preserve">19.2261371612549</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8994903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783809661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8472003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692615509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.051830291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8471984863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0518321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527359008789</t>
   </si>
   <si>
     <t xml:space="preserve">19.0343990325928</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">19.1389827728271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3307209014893</t>
+    <t xml:space="preserve">19.3307247161865</t>
   </si>
   <si>
     <t xml:space="preserve">19.5573234558105</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">19.9756603240967</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2371196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976753234863</t>
+    <t xml:space="preserve">20.2371215820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0976734161377</t>
   </si>
   <si>
     <t xml:space="preserve">19.7839221954346</t>
@@ -1916,43 +1916,43 @@
     <t xml:space="preserve">20.1848297119141</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8362159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857353210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921821594238</t>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921859741211</t>
   </si>
   <si>
     <t xml:space="preserve">19.749059677124</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031185150146</t>
+    <t xml:space="preserve">20.8646335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
   </si>
   <si>
     <t xml:space="preserve">22.049919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0279521942139</t>
+    <t xml:space="preserve">20.0279502868652</t>
   </si>
   <si>
     <t xml:space="preserve">18.8077983856201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4068946838379</t>
+    <t xml:space="preserve">18.4068927764893</t>
   </si>
   <si>
     <t xml:space="preserve">18.1802921295166</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">18.3371696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8665370941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6812438964844</t>
+    <t xml:space="preserve">17.8665390014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.681245803833</t>
   </si>
   <si>
     <t xml:space="preserve">17.021146774292</t>
@@ -1982,22 +1982,22 @@
     <t xml:space="preserve">16.470344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4436798095703</t>
+    <t xml:space="preserve">16.4436779022217</t>
   </si>
   <si>
     <t xml:space="preserve">16.4525680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637012481689</t>
+    <t xml:space="preserve">15.9636993408203</t>
   </si>
   <si>
     <t xml:space="preserve">16.0614738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0970306396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036914825439</t>
+    <t xml:space="preserve">16.0970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036895751953</t>
   </si>
   <si>
     <t xml:space="preserve">15.8125972747803</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">16.2214660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3103523254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.319242477417</t>
+    <t xml:space="preserve">16.3103542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192405700684</t>
   </si>
   <si>
     <t xml:space="preserve">16.3014640808105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2481365203857</t>
+    <t xml:space="preserve">16.2481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">16.0703620910645</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">15.5281667709351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.625940322876</t>
+    <t xml:space="preserve">15.6259422302246</t>
   </si>
   <si>
     <t xml:space="preserve">15.6881580352783</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">16.0348110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0881404876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370355606079</t>
+    <t xml:space="preserve">16.0881423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370374679565</t>
   </si>
   <si>
     <t xml:space="preserve">15.7326011657715</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">15.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9814767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
+    <t xml:space="preserve">15.9814786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0170345306396</t>
   </si>
   <si>
     <t xml:space="preserve">15.6081628799438</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">15.3770618438721</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2348480224609</t>
+    <t xml:space="preserve">15.2348461151123</t>
   </si>
   <si>
     <t xml:space="preserve">15.2792892456055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1370735168457</t>
+    <t xml:space="preserve">15.1370754241943</t>
   </si>
   <si>
     <t xml:space="preserve">15.3415088653564</t>
@@ -2093,28 +2093,28 @@
     <t xml:space="preserve">15.1637401580811</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9681921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9593048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659675598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015176773071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770822525024</t>
+    <t xml:space="preserve">14.9681940078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659656524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570783615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3859510421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837411880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015195846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770812988281</t>
   </si>
   <si>
     <t xml:space="preserve">15.9014825820923</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">15.6437177658081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3148422241211</t>
+    <t xml:space="preserve">15.3148441314697</t>
   </si>
   <si>
     <t xml:space="preserve">15.1548500061035</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">15.6792707443237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7859325408936</t>
+    <t xml:space="preserve">15.7859306335449</t>
   </si>
   <si>
     <t xml:space="preserve">15.4659461975098</t>
@@ -2156,22 +2156,22 @@
     <t xml:space="preserve">15.8925933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4881210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903114318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.776948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7413959503174</t>
+    <t xml:space="preserve">16.4881191253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903133392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.741397857666</t>
   </si>
   <si>
     <t xml:space="preserve">17.2880859375</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">16.6125602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6036701202393</t>
+    <t xml:space="preserve">16.6036720275879</t>
   </si>
   <si>
     <t xml:space="preserve">16.0525856018066</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">15.5814990997314</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1459627151489</t>
+    <t xml:space="preserve">15.1459608078003</t>
   </si>
   <si>
     <t xml:space="preserve">15.5726079940796</t>
@@ -2213,31 +2213,31 @@
     <t xml:space="preserve">15.2437343597412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0748529434204</t>
+    <t xml:space="preserve">15.0748538970947</t>
   </si>
   <si>
     <t xml:space="preserve">15.1815156936646</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1992950439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
+    <t xml:space="preserve">15.1992931365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681735992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126176834106</t>
   </si>
   <si>
     <t xml:space="preserve">15.4748363494873</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4837226867676</t>
+    <t xml:space="preserve">15.4837245941162</t>
   </si>
   <si>
     <t xml:space="preserve">15.297064781189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8437538146973</t>
+    <t xml:space="preserve">14.8437547683716</t>
   </si>
   <si>
     <t xml:space="preserve">14.7459812164307</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">15.6614933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7770433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570413589478</t>
+    <t xml:space="preserve">15.777045249939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570394515991</t>
   </si>
   <si>
     <t xml:space="preserve">16.2125778198242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4970111846924</t>
+    <t xml:space="preserve">16.4970092773438</t>
   </si>
   <si>
     <t xml:space="preserve">16.7192211151123</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">16.8436603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8969898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281112670898</t>
+    <t xml:space="preserve">16.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281131744385</t>
   </si>
   <si>
     <t xml:space="preserve">16.7636642456055</t>
@@ -2300,25 +2300,25 @@
     <t xml:space="preserve">16.9592113494873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8169937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8081092834473</t>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8081073760986</t>
   </si>
   <si>
     <t xml:space="preserve">16.8881034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769897460938</t>
+    <t xml:space="preserve">16.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769878387451</t>
   </si>
   <si>
     <t xml:space="preserve">16.7992172241211</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">15.1904039382935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.897084236145</t>
+    <t xml:space="preserve">14.8970851898193</t>
   </si>
   <si>
     <t xml:space="preserve">14.8526420593262</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">14.2926683425903</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3237323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281871795654</t>
+    <t xml:space="preserve">15.32373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281852722168</t>
   </si>
   <si>
     <t xml:space="preserve">15.714825630188</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">16.2836875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9281492233276</t>
+    <t xml:space="preserve">15.928147315979</t>
   </si>
   <si>
     <t xml:space="preserve">15.9548149108887</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">13.8660230636597</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8304681777954</t>
+    <t xml:space="preserve">13.8304691314697</t>
   </si>
   <si>
     <t xml:space="preserve">13.5904788970947</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">13.1638336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882904052734</t>
+    <t xml:space="preserve">12.8882894515991</t>
   </si>
   <si>
     <t xml:space="preserve">12.1594343185425</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">11.1105937957764</t>
   </si>
   <si>
-    <t xml:space="preserve">12.141655921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3283157348633</t>
+    <t xml:space="preserve">12.1416568756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.328314781189</t>
   </si>
   <si>
     <t xml:space="preserve">12.1683216094971</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">14.3104467391968</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8881969451904</t>
+    <t xml:space="preserve">14.8881959915161</t>
   </si>
   <si>
     <t xml:space="preserve">13.6349210739136</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">13.6438102722168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6793651580811</t>
+    <t xml:space="preserve">13.6793642044067</t>
   </si>
   <si>
     <t xml:space="preserve">13.0305051803589</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">14.1948957443237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682670593262</t>
+    <t xml:space="preserve">13.3682680130005</t>
   </si>
   <si>
     <t xml:space="preserve">13.2438287734985</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">13.6260318756104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7771368026733</t>
+    <t xml:space="preserve">13.777135848999</t>
   </si>
   <si>
     <t xml:space="preserve">13.9726839065552</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8837985992432</t>
+    <t xml:space="preserve">13.8837995529175</t>
   </si>
   <si>
     <t xml:space="preserve">14.3993310928345</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">14.6570949554443</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4793262481689</t>
+    <t xml:space="preserve">14.4793272018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.1104078292847</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">15.3326206207275</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8081998825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1192970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304126739502</t>
+    <t xml:space="preserve">14.8082008361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1192979812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304117202759</t>
   </si>
   <si>
     <t xml:space="preserve">15.7681531906128</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">17.3325290679932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1192054748535</t>
+    <t xml:space="preserve">17.1192035675049</t>
   </si>
   <si>
     <t xml:space="preserve">16.9414348602295</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">17.501407623291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1147136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2168865203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0879535675049</t>
+    <t xml:space="preserve">18.1147155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2168846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0879554748535</t>
   </si>
   <si>
     <t xml:space="preserve">19.8924083709717</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">20.7279243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.621265411377</t>
+    <t xml:space="preserve">20.6212673187256</t>
   </si>
   <si>
     <t xml:space="preserve">21.0123558044434</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">21.9545364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8300933837891</t>
+    <t xml:space="preserve">21.8300952911377</t>
   </si>
   <si>
     <t xml:space="preserve">21.9900875091553</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">22.2034130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1678581237793</t>
+    <t xml:space="preserve">22.1678562164307</t>
   </si>
   <si>
     <t xml:space="preserve">22.1323051452637</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">22.2211875915527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7945404052734</t>
+    <t xml:space="preserve">21.7945423126221</t>
   </si>
   <si>
     <t xml:space="preserve">21.865650177002</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">23.6077899932861</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9988861083984</t>
+    <t xml:space="preserve">23.9988842010498</t>
   </si>
   <si>
     <t xml:space="preserve">24.9410610198975</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8877296447754</t>
+    <t xml:space="preserve">24.887731552124</t>
   </si>
   <si>
     <t xml:space="preserve">24.8166236877441</t>
@@ -2708,22 +2708,22 @@
     <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8699550628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6921863555908</t>
+    <t xml:space="preserve">24.8699531555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6921882629395</t>
   </si>
   <si>
     <t xml:space="preserve">24.4433078765869</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7455139160156</t>
+    <t xml:space="preserve">24.7455158233643</t>
   </si>
   <si>
     <t xml:space="preserve">24.7632923126221</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7099590301514</t>
+    <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
     <t xml:space="preserve">24.4966373443604</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">24.9232864379883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5454788208008</t>
+    <t xml:space="preserve">25.5454807281494</t>
   </si>
   <si>
     <t xml:space="preserve">26.2921104431152</t>
@@ -2783,25 +2783,25 @@
     <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7765808105469</t>
+    <t xml:space="preserve">25.7765789031982</t>
   </si>
   <si>
     <t xml:space="preserve">26.4343242645264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3098888397217</t>
+    <t xml:space="preserve">26.309886932373</t>
   </si>
   <si>
     <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4521026611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.034252166748</t>
+    <t xml:space="preserve">26.4521045684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0565204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0342540740967</t>
   </si>
   <si>
     <t xml:space="preserve">27.9098129272461</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1276264190674</t>
+    <t xml:space="preserve">27.127628326416</t>
   </si>
   <si>
     <t xml:space="preserve">26.2210006713867</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">26.0254573822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4255294799805</t>
+    <t xml:space="preserve">24.4255313873291</t>
   </si>
   <si>
     <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4077529907227</t>
+    <t xml:space="preserve">24.407751083374</t>
   </si>
   <si>
     <t xml:space="preserve">24.4610843658447</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9010162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1676731109619</t>
+    <t xml:space="preserve">25.9010181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1676712036133</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7365341186523</t>
+    <t xml:space="preserve">26.736536026001</t>
   </si>
   <si>
     <t xml:space="preserve">25.403263092041</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">25.1721630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0209617614746</t>
+    <t xml:space="preserve">27.0209636688232</t>
   </si>
   <si>
     <t xml:space="preserve">25.5988082885742</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">25.3143768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0076770782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3321552276611</t>
+    <t xml:space="preserve">26.0076789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3321533203125</t>
   </si>
   <si>
     <t xml:space="preserve">25.1010551452637</t>
@@ -2891,16 +2891,16 @@
     <t xml:space="preserve">24.3366432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1766529083252</t>
+    <t xml:space="preserve">24.1766548156738</t>
   </si>
   <si>
     <t xml:space="preserve">23.6611213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1588745117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2833118438721</t>
+    <t xml:space="preserve">24.1588764190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2833137512207</t>
   </si>
   <si>
     <t xml:space="preserve">24.1965999603271</t>
@@ -2921,13 +2921,13 @@
     <t xml:space="preserve">23.38037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7612781524658</t>
+    <t xml:space="preserve">23.7612762451172</t>
   </si>
   <si>
     <t xml:space="preserve">24.2872905731201</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7794151306152</t>
+    <t xml:space="preserve">23.7794170379639</t>
   </si>
   <si>
     <t xml:space="preserve">23.8519668579102</t>
@@ -2939,19 +2939,19 @@
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.289680480957</t>
+    <t xml:space="preserve">23.1989860534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2896785736084</t>
   </si>
   <si>
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.251012802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6295318603516</t>
+    <t xml:space="preserve">24.2510147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6295299530029</t>
   </si>
   <si>
     <t xml:space="preserve">26.4457569122314</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533840179443</t>
+    <t xml:space="preserve">30.8533878326416</t>
   </si>
   <si>
     <t xml:space="preserve">31.3249816894531</t>
@@ -3008,7 +3008,7 @@
     <t xml:space="preserve">30.3273677825928</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0008811950684</t>
+    <t xml:space="preserve">30.0008792877197</t>
   </si>
   <si>
     <t xml:space="preserve">29.6199741363525</t>
@@ -3017,19 +3017,19 @@
     <t xml:space="preserve">28.8763008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9331035614014</t>
+    <t xml:space="preserve">27.93310546875</t>
   </si>
   <si>
     <t xml:space="preserve">27.7335815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5860862731934</t>
+    <t xml:space="preserve">28.5860843658447</t>
   </si>
   <si>
     <t xml:space="preserve">27.7698612213135</t>
   </si>
   <si>
-    <t xml:space="preserve">28.803747177124</t>
+    <t xml:space="preserve">28.8037490844727</t>
   </si>
   <si>
     <t xml:space="preserve">27.7879962921143</t>
@@ -3044,25 +3044,25 @@
     <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">28.894437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.397533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2910938262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5450305938721</t>
+    <t xml:space="preserve">28.8944396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3975372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3817863464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2910957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5450344085693</t>
   </si>
   <si>
     <t xml:space="preserve">30.1278495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5631713867188</t>
+    <t xml:space="preserve">30.5631694793701</t>
   </si>
   <si>
     <t xml:space="preserve">32.1774864196777</t>
@@ -3071,19 +3071,19 @@
     <t xml:space="preserve">32.0505142211914</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5244998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.669605255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7421627044678</t>
+    <t xml:space="preserve">31.5245037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6696090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.742166519165</t>
   </si>
   <si>
     <t xml:space="preserve">31.3431224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5970554351807</t>
+    <t xml:space="preserve">31.5970592498779</t>
   </si>
   <si>
     <t xml:space="preserve">31.2342891693115</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">32.9574356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1932334899902</t>
+    <t xml:space="preserve">33.1932373046875</t>
   </si>
   <si>
     <t xml:space="preserve">32.9211578369141</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">33.1388206481934</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8486099243164</t>
+    <t xml:space="preserve">32.8486061096191</t>
   </si>
   <si>
     <t xml:space="preserve">33.4108963012695</t>
@@ -3119,19 +3119,19 @@
     <t xml:space="preserve">33.0481262207031</t>
   </si>
   <si>
-    <t xml:space="preserve">32.685359954834</t>
+    <t xml:space="preserve">32.6853637695312</t>
   </si>
   <si>
     <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6128044128418</t>
+    <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
     <t xml:space="preserve">33.1206817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0662689208984</t>
+    <t xml:space="preserve">33.0662651062012</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
@@ -3146,10 +3146,10 @@
     <t xml:space="preserve">33.0299873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7736625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9550437927246</t>
+    <t xml:space="preserve">33.7736663818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9550476074219</t>
   </si>
   <si>
     <t xml:space="preserve">33.211368560791</t>
@@ -3164,19 +3164,19 @@
     <t xml:space="preserve">32.8667449951172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1569595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1750946044922</t>
+    <t xml:space="preserve">33.1569557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1750984191895</t>
   </si>
   <si>
     <t xml:space="preserve">32.9755706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8304672241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7397727966309</t>
+    <t xml:space="preserve">32.8304710388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7397766113281</t>
   </si>
   <si>
     <t xml:space="preserve">33.5324172973633</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">33.6429061889648</t>
   </si>
   <si>
-    <t xml:space="preserve">33.661319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.10888671875</t>
+    <t xml:space="preserve">33.6613159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
     <t xml:space="preserve">33.1273040771484</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2377853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0664329528809</t>
+    <t xml:space="preserve">33.2377891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0664291381836</t>
   </si>
   <si>
     <t xml:space="preserve">34.4163055419922</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">35.7789611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4971199035645</t>
+    <t xml:space="preserve">36.4971160888672</t>
   </si>
   <si>
     <t xml:space="preserve">36.478702545166</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">36.7917442321777</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2761497497559</t>
+    <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
     <t xml:space="preserve">35.4106750488281</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">34.508373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8270454406738</t>
+    <t xml:space="preserve">33.8270492553711</t>
   </si>
   <si>
     <t xml:space="preserve">34.4347190856934</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">33.7165565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1032638549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6925163269043</t>
+    <t xml:space="preserve">34.1032600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6925201416016</t>
   </si>
   <si>
     <t xml:space="preserve">34.8582496643066</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298606872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5452003479004</t>
+    <t xml:space="preserve">33.3298645019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5452041625977</t>
   </si>
   <si>
     <t xml:space="preserve">34.342643737793</t>
@@ -3311,10 +3311,10 @@
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843330383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3186073303223</t>
+    <t xml:space="preserve">35.4843292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.318603515625</t>
   </si>
   <si>
     <t xml:space="preserve">35.5395736694336</t>
@@ -3332,16 +3332,16 @@
     <t xml:space="preserve">35.9999313354492</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6132316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6684761047363</t>
+    <t xml:space="preserve">35.6132354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6684722900391</t>
   </si>
   <si>
     <t xml:space="preserve">35.5764007568359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.392261505127</t>
+    <t xml:space="preserve">35.3922576904297</t>
   </si>
   <si>
     <t xml:space="preserve">35.0608062744141</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">35.7605476379395</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9815216064453</t>
+    <t xml:space="preserve">35.981517791748</t>
   </si>
   <si>
     <t xml:space="preserve">34.3242301940918</t>
@@ -3371,13 +3371,13 @@
     <t xml:space="preserve">35.2633590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">36.128833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6444358825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3498039245605</t>
+    <t xml:space="preserve">36.1288299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6444320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3498001098633</t>
   </si>
   <si>
     <t xml:space="preserve">36.1656608581543</t>
@@ -3392,19 +3392,19 @@
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278156280518</t>
+    <t xml:space="preserve">31.727819442749</t>
   </si>
   <si>
     <t xml:space="preserve">31.4700164794922</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8255157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8807621002197</t>
+    <t xml:space="preserve">31.3595333099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8255176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
     <t xml:space="preserve">30.9175910949707</t>
@@ -3413,16 +3413,16 @@
     <t xml:space="preserve">31.5252628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6045475006104</t>
+    <t xml:space="preserve">30.6045455932617</t>
   </si>
   <si>
     <t xml:space="preserve">30.2546730041504</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4996891021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0393314361572</t>
+    <t xml:space="preserve">29.4996871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0393333435059</t>
   </si>
   <si>
     <t xml:space="preserve">28.6158008575439</t>
@@ -3437,19 +3437,19 @@
     <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.818359375</t>
+    <t xml:space="preserve">28.8183574676514</t>
   </si>
   <si>
     <t xml:space="preserve">29.278715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2418880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5181045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.475643157959</t>
+    <t xml:space="preserve">29.2418899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5181064605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4756450653076</t>
   </si>
   <si>
     <t xml:space="preserve">30.3467445373535</t>
@@ -3461,16 +3461,16 @@
     <t xml:space="preserve">30.3835735321045</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5677185058594</t>
+    <t xml:space="preserve">30.5677165985107</t>
   </si>
   <si>
     <t xml:space="preserve">31.1017322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2306289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0649070739746</t>
+    <t xml:space="preserve">31.2306308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0649032592773</t>
   </si>
   <si>
     <t xml:space="preserve">30.4940586090088</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">31.1201438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2858715057373</t>
+    <t xml:space="preserve">31.2858753204346</t>
   </si>
   <si>
     <t xml:space="preserve">31.2674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">31.875129699707</t>
+    <t xml:space="preserve">31.8751335144043</t>
   </si>
   <si>
     <t xml:space="preserve">32.2802505493164</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4884338378906</t>
+    <t xml:space="preserve">31.488431930542</t>
   </si>
   <si>
     <t xml:space="preserve">31.4147758483887</t>
@@ -3503,28 +3503,28 @@
     <t xml:space="preserve">28.3948307037354</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9897155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1002025604248</t>
+    <t xml:space="preserve">27.9897174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1002044677734</t>
   </si>
   <si>
     <t xml:space="preserve">27.7503318786621</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4500751495361</t>
+    <t xml:space="preserve">28.4500732421875</t>
   </si>
   <si>
     <t xml:space="preserve">28.9104309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5605602264404</t>
+    <t xml:space="preserve">28.5605621337891</t>
   </si>
   <si>
     <t xml:space="preserve">27.8424015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0265445709229</t>
+    <t xml:space="preserve">28.0265464782715</t>
   </si>
   <si>
     <t xml:space="preserve">28.2291030883789</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">27.4925308227539</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2531471252441</t>
+    <t xml:space="preserve">27.2531452178955</t>
   </si>
   <si>
     <t xml:space="preserve">27.5293579101562</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">28.2106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5237331390381</t>
+    <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
     <t xml:space="preserve">28.1370296478271</t>
@@ -3584,10 +3584,10 @@
     <t xml:space="preserve">29.1314029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0209178924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5789737701416</t>
+    <t xml:space="preserve">29.0209159851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5789756774902</t>
   </si>
   <si>
     <t xml:space="preserve">28.9656753540039</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">28.8367729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5421466827393</t>
+    <t xml:space="preserve">28.5421447753906</t>
   </si>
   <si>
     <t xml:space="preserve">27.5477752685547</t>
@@ -3605,31 +3605,31 @@
     <t xml:space="preserve">25.9825592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0930461883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7800025939941</t>
+    <t xml:space="preserve">26.0930442810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7800045013428</t>
   </si>
   <si>
     <t xml:space="preserve">25.9641456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3508453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5958576202393</t>
+    <t xml:space="preserve">26.3508472442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5958595275879</t>
   </si>
   <si>
     <t xml:space="preserve">25.1355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8592891693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7927875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.584602355957</t>
+    <t xml:space="preserve">24.8592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7927894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5846004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.6894588470459</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">28.7078742980957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6526317596436</t>
+    <t xml:space="preserve">28.6526336669922</t>
   </si>
   <si>
     <t xml:space="preserve">28.1186180114746</t>
@@ -3659,10 +3659,10 @@
     <t xml:space="preserve">28.044958114624</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9344749450684</t>
+    <t xml:space="preserve">28.3395881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9344730377197</t>
   </si>
   <si>
     <t xml:space="preserve">27.2163181304932</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">22.3365306854248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2812900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6623592376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9682445526123</t>
+    <t xml:space="preserve">22.2812881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6623611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
     <t xml:space="preserve">21.8393459320068</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7048168182373</t>
+    <t xml:space="preserve">22.7048187255859</t>
   </si>
   <si>
     <t xml:space="preserve">23.754430770874</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">23.2388286590576</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1835880279541</t>
+    <t xml:space="preserve">23.1835899353027</t>
   </si>
   <si>
     <t xml:space="preserve">22.7416458129883</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">22.391773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4838466644287</t>
+    <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
     <t xml:space="preserve">23.9754028320312</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">22.6863994598389</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232303619385</t>
+    <t xml:space="preserve">22.7232322692871</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">22.0971450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0419025421143</t>
+    <t xml:space="preserve">22.0419044494629</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">21.6552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7288608551025</t>
+    <t xml:space="preserve">21.7288589477539</t>
   </si>
   <si>
     <t xml:space="preserve">20.918628692627</t>
@@ -3779,22 +3779,22 @@
     <t xml:space="preserve">20.7897300720215</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500877380371</t>
+    <t xml:space="preserve">21.2500858306885</t>
   </si>
   <si>
     <t xml:space="preserve">21.3974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7160739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8633880615234</t>
+    <t xml:space="preserve">20.7160720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8633861541748</t>
   </si>
   <si>
     <t xml:space="preserve">21.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4158153533936</t>
+    <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
     <t xml:space="preserve">20.9002170562744</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">20.0163307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2557144165039</t>
+    <t xml:space="preserve">20.2557163238525</t>
   </si>
   <si>
     <t xml:space="preserve">20.624002456665</t>
@@ -62453,7 +62453,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n">
-        <v>45512.6496180556</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B2191" t="n">
         <v>80253</v>
@@ -62474,6 +62474,32 @@
         <v>1719</v>
       </c>
       <c r="H2191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>45513.649525463</v>
+      </c>
+      <c r="B2192" t="n">
+        <v>66428</v>
+      </c>
+      <c r="C2192" t="n">
+        <v>27.5599994659424</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>27.0200004577637</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>27.2199993133545</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H2192" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DLG.MI.xlsx
+++ b/data/DLG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1723">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9947128295898</t>
+    <t xml:space="preserve">20.9947147369385</t>
   </si>
   <si>
     <t xml:space="preserve">DLG.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">20.8097381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.90993309021</t>
+    <t xml:space="preserve">20.9099292755127</t>
   </si>
   <si>
     <t xml:space="preserve">20.424373626709</t>
@@ -56,49 +56,49 @@
     <t xml:space="preserve">20.2239837646484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0158843994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.730712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1314964294434</t>
+    <t xml:space="preserve">20.0158824920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7307167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1314945220947</t>
   </si>
   <si>
     <t xml:space="preserve">18.7441787719727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8501319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6497421264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7422294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2643737792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1025238037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2354965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8404731750488</t>
+    <t xml:space="preserve">17.8501300811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6497402191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7422256469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2643756866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1025218963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8404750823975</t>
   </si>
   <si>
     <t xml:space="preserve">16.6477890014648</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9175472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0100345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8790092468262</t>
+    <t xml:space="preserve">16.9175491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0100364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8790111541748</t>
   </si>
   <si>
     <t xml:space="preserve">16.3317909240723</t>
@@ -107,49 +107,49 @@
     <t xml:space="preserve">16.1622276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8462314605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1756935119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9598913192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5225229263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5899391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9213542938232</t>
+    <t xml:space="preserve">15.8462295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1756925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9598903656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5225219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5899381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9213533401489</t>
   </si>
   <si>
     <t xml:space="preserve">15.6458396911621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4454498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995950698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9464254379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5764722824097</t>
+    <t xml:space="preserve">15.4454517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9464273452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5764713287354</t>
   </si>
   <si>
     <t xml:space="preserve">16.1082782745361</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1545257568359</t>
+    <t xml:space="preserve">16.1545219421387</t>
   </si>
   <si>
     <t xml:space="preserve">15.7768650054932</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3240833282471</t>
+    <t xml:space="preserve">16.3240852355957</t>
   </si>
   <si>
     <t xml:space="preserve">16.3934516906738</t>
@@ -158,2245 +158,2245 @@
     <t xml:space="preserve">16.7634010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.077449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069118499756</t>
+    <t xml:space="preserve">16.9560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0774517059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.406909942627</t>
   </si>
   <si>
     <t xml:space="preserve">15.5687675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2855434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.907886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4762811660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0928649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5071086883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7999849319458</t>
+    <t xml:space="preserve">16.2855491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476279258728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0928611755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5071096420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7999868392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1236934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1853523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0851573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8076953887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5456438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3221321105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4146203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5379390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2296447753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4223279953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.245059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3298425674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9675979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0061311721802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9653377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.162561416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3440074920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3361196517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467876434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1704502105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1388988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0363397598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6595649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8646821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4169063568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9514579772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2275714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4405746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5510196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.708797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5115737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9473628997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0006866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.284688949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9612426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0559120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3241367340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9868068695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1288089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1682510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2865886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7125911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6889266967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5627040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4995899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8782577514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0597038269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.681037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0578079223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6081390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4661350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2925796508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.710693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1445846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.042028427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0025863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1524753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8823528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714789390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3143501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5667972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8665752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.835018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0934600830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9751253128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7384548187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9830141067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5746841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3853530883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3616809844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6220207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7245769500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0480251312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1269111633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0795783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0085773468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8290271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4345836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8132495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6318054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8763618469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5292472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5371341705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7185802459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7678108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8940353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.043924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3181438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3733673095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1209182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.381254196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0972537994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8842525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1919193267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.255033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7264728546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7895832061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5765838623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6160259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4503593444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6239147186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3556938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.024356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8902454376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2294673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3399143218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4819145202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2058029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6554698944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6791362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.040132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0322456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1111373901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9927997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9533576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4898052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4582462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2610244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3083591461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1663551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4424724578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4188041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6475849151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4976940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2768001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1802387237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4563484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1960144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.59645652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5017871856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3045654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7166862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2906837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1092357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3774604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9217987060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2689094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6693496704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4247951507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9139080047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7009086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7640190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9770202636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0716876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2373580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6712493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6633605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1051406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4601440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2392559051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0656967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1840286254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0893611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0104732513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7974720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8684730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3339195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1998062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5390338897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4285869598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6968154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3200397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.588264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5330390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7065982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.485710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5567092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2963733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6592617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.477819442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3279285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6908187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0912609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8703727722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1385936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4699306488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7381553649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4402713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2351589202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.369270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2193794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2133865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4816093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3001670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0477180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0003871917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1187210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.505277633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1581630706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2922801971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2370548248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.939172744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6788368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5762786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6867256164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.84450340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4619007110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2181911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9713535308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9295082092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3060894012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4316177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8751430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3186702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2851963043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8584060668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0174045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0090370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8835124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4650917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2517223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7788772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.004825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5989837646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7077732086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9086170196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2266159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1345634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1596698760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6701412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7873039245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6868801116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8709850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7789344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4023551940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2935657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4358291625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7203540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.992301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8081970214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7663516998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0508785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8458805084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3939838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2600879669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2684574127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1847743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9839324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8458251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.962984085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0215606689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4776153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3939304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5529308319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7035598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6700878143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8039836883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7956142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7161445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3311939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6910362243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8416709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6826667785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4985618591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6240901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2475109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.686824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.89182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8416118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9755077362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9504013061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5236148834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3060321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3646125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7746639251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5989284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4566650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4817676544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.531982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4985084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2223491668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2139778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1554012298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6324024200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5570869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6240329742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1261425018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9169273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.268404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1428756713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4399261474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4148216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3478736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6407699584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2935047149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9671363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1345081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2851390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8541927337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3771915435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7370357513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2642459869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1805629730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1554565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0968799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6659317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0382976531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1136150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0466690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7496147155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7412452697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5571403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5069332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3730354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4818248748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1052474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7705097198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5152988433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2056694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1638240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0842437744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7871894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7118740081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5361423492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4608211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3771381378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.32692527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2599754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5863475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5193977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6532936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2516117095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6030864715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.50266456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0047702789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0968227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2809295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3562450408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1219253540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7955589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9210815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7788219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8332424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0006122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7077159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2725620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5738220214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1135559082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3395042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4231929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3269786834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9085578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5780353546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0424537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1930885314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4274005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3604564666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8583507537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2600345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6282444000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7119293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1596126556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.368766784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1511898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3352947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3520336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9043502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9545593261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5696125030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5528717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2348728179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3185577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9838180541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.632345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3980293273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7787647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3812923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5151882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8541355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9880313873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6072959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0549793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6198196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.686767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2683448791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9503479003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.184663772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3855056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7704544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.418981552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8164539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9001350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7369804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3897190093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0215072631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7884578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5444278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4572792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.561861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6141510009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7361698150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7187347412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4159679412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0324897766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1893672943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0847854614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9976272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.875617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.666446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3526935577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5270023345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4049816131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.126091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9866466522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0563678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7774753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3417072296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1086616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7710285186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.683874130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.893045425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7013072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4747047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.579288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2132453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4398441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6031665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7251853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.004077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1609535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8820571899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7949066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9692134857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1435222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2655372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9169216156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3003978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9343528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6728897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9279041290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.270076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0893211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.193904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2636280059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5948143005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5425224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2113380432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8452911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7755680084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8104305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5141048431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5838298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9150142669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1067523956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1416149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2461986541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4030742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6296787261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5076599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3856449127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2810611724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0718936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8801517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5315361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5489692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.287504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7929992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4966735839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1241817474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9498748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6994018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2984886169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4379386901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9847373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8278617858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.932445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.694860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3811054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9453392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5967235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8058929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.590274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1370754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3462448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8233203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2765216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4333992004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8581809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7077522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7664909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3939971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2719841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2196922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0802440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1325397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.202262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6096153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.400447845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4876003265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4701690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5050296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6967678070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0453815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5160160064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4985828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7426128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9517822265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6903209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4288597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6205978393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4811534881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2894153594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7316284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1674003601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3023052215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7729396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6683540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0169677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2261371612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8994922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8471984863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1958141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0692596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0518321990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9995346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2087059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4527359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0343971252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1389827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3307247161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5573215484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4353065490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.975658416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2371234893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.097677230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7839221954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1848297119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1499691009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0389385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5921840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7490615844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5031223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0499229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0279541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8078002929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4068908691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1802921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3371677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8665370941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2564582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8642692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.681245803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0211448669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4703464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4525661468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637002944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0970287322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2036895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8125991821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9903678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8214845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2214698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103523254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3192405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2481327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0703639984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7059364318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5281667709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6259393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.688157081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0348110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0881404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9370355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7326030731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7592649459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9814796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.017032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6081628799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3770618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2348461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2792911529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1370763778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3415069580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2615118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1637382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9681930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959303855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0659666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0570764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.385950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0837430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1015205383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9014806747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6703815460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6437177658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3148431777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1548509597778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5771007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0215225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6792707443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7859315872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4659461975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5992746353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8925924301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4881191253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1903095245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7769508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5102977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2347545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7413959503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2880840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0125408172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.932544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6125621795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6036739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5814981460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1459636688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2881784439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8615312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7370920181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2437353134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.074854850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1815156936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1992921829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3681755065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4126148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4748334884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4837226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2970657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8437538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7459802627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6659841537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4570589065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2526226043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6614961624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7770442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8570394515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2125797271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4970111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7192211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1992015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014484405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8436641693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7281093597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636661529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5770053863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9858798980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9592094421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8169956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.80810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8881034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9236602783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8614368438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7547779083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9769878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7992153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3814601898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3459053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.417013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9992570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9459247589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7503786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1904039382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8970851898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8526411056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1771183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2926692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.32373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1281833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.714825630188</t>
   </si>
   <si>
     <t xml:space="preserve">16.1236953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1853504180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0851573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8076934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5456447601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.32213306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4146213531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5379362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2296466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4223289489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2450609207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3298406600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7286691665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9675970077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0061302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9653396606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625623703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3440103530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3361186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467847824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1704511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1388959884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0363397598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6595678329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8646764755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4169063568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9514579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2275676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4405727386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3459053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5510177612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7087955474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5115756988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9473628997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0006885528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2846908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9691333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9612426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0559101104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3241329193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5134696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9868068695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1288070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1682510375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2865867614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7125930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6889247894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5626983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4995880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8782577514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6810359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0578079223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6081371307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4661350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2925796508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.710693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1445846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0420303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0025844573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.152473449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8823509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7147912979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3143501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5667953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8665733337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8350200653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0934600830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9751253128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7384567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9830121994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3853492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3616847991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6220188140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7245769500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0480213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1269130706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0795764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0085773468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.829029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4345798492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.81325340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6318054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8763599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5292453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5371360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7185802459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7678146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9334812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8940334320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0439262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3181438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3733673095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1209163665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0972518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8842544555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1919174194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2550315856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7264709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7895832061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5765838623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6160278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4503612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6239166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3556900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0243530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.819242477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8902435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2294673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.339916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4819145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2058010101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6554718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.040132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0322437286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1111354827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9928016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9533557891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.489803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4582462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.261022567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3083572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1663570404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4424705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6475811004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4976959228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2768001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.148681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1802387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4563522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352401733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1960163116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5964527130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5017862319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3045635223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7166862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2906856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1092395782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.377462387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9217987060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.268913269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6693515777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4247932434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1723499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9139099121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7009086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8981304168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7640190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9770202636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0716896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2373580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6712474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1051445007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3418121337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4601421356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2392539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0656967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1840286254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0893630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8526935577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7974700927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8684730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3339214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1998081207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5390338897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4285888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6968116760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3200378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5330429077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7065982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4857063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5567092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2963714599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6592636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.477819442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3279266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6908168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0912628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8703689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1385974884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4699306488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7381553649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4402694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2351589202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.369270324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193775177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2133846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8820533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4816131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3001670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.047721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1187229156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.505277633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1581630706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2922744750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2370510101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6788387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5762786865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6867256164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.84450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4619045257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2181911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9713535308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9295101165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7621421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3060894012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4316177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8751430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3186702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8584022521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.017406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8835124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5906181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4650917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7788753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0048236846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5989875793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7077751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9086170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2266139984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1345653533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.15966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6701431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7873020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6868782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8709869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7789344787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4023513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2935638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.435827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7203521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9923000335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8081951141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0508804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8458805084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3939838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2600936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2684593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1847705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9839324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8458251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9629821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0215625762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4776153564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5529327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7035617828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6700859069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7956142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4901924133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7161426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3311920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6910362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8416690826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6826686859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4985618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6240882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2475109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6868267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1512432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8918228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.841609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9755077362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9504013061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5236148834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3060321807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3646125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7746639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7579288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5989265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4566631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4817714691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4985046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4734001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2223491668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2139797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.155403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6324024200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5570850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3729820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6240329742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1261405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.268404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1428756713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.799768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4399299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4148235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3478736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6407737731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2935085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9671401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1345100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2851371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8541946411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3771953582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7370338439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027179718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2642478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0885105133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1805629730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0968799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6659317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0383014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0550365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1136150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.046667098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7496128082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7412490844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5571422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5069313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3730354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4818267822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1052474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7705097198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5153007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2056674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1638259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0842418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7871913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7118721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5361385345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4608211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3771343231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3269271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2599792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5863475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.519401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6532974243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.603084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0047702789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0968227386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2809276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3562450408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1219253540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7955589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.921085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7788219451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8332462310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0006141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7077198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2725601196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3144035339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1135597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.339506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4231929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3269805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9085578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5780334472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0424556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1930885314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4274024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3604545593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8583507537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2600364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9922428131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.628246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7454051971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7119293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3102474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1596126556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3687705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1511898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3352928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3520317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9043483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9545593261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5696125030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5528736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3185577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9838218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.632345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3980293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7787666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5151863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8541393280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9880332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6072959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0549793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6198196411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6867656707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6700305938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2683448791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.950345993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.184663772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3855037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7704524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4189796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8331890106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8164539337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9001369476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7369804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3897151947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215091705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7884616851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5444278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4572734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.561861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6141510009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7361679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7187385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4159698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0324935913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1893672943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0847835540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9976272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8756141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6664447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.352689743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5269966125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4049835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1260929107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9866466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0563678741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7774753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3417072296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0215072631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1086578369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7710285186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6838760375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8930473327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7013053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4747066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5792922973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2132472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3701229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4398460388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6031684875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7251834869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0040740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1609535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.88205909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7949066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9692134857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2655372619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9169235229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3003978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9343490600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6728916168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334434509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.927906036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2003517150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2700748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0893211364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.193904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2636299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5948123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5425205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2113380432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8452911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7755680084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8104286193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5141048431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5838298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9150142669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1067504882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1416149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2461967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4030780792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.629674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3856430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2810592651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0718898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8801536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5315399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5489654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2875061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7929973602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.496675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1241836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9498748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6993980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2984886169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4379386901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9847393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.82785987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9324436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6948623657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3811054229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9453392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5967235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8058910369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5902767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3462429046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8233222961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2765197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4333972930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8581848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7077503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7664928436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3940010070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2719821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2196941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0802459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1325378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2022590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6096134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4004459381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4876003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4701671600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5050296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6967697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0453853607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5160160064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4985847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7426147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9517860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6903228759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.428861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6205978393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4811515808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2894153594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7316303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1673984527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3023071289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7729377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6683540344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2609977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0169677734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2261371612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8994903564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783809661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8471984863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1958141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0692596435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0518321990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9995365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2087078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4527378082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0343990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1389827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3307209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5573215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4353065490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9756603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2371196746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0976753234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7839221954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1848297119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1499691009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0389385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5921840667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.749059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.864631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5031204223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.049919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0279521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8077964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4068927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.180290222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3371677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8665370941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2564601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8642673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6812438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0211448669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.470344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0614738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0970287322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2036914825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8125972747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9903659820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8214855194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0081443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2214679718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3192443847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2481327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0703620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7059354782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5281648635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6881580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0348091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0881443023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9370374679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7326030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7592668533325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8037099838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9814786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.017032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6081628799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3770627975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2792901992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1370754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3415088653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2615118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1637392044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9681940078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.959303855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0659666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0570783615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.385950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0837411880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1015214920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770803451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9014835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1592464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6703844070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6437168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3148431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1548490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5770998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0215225219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6792678833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7859334945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4659471511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5992736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8925943374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4881210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1903133392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.776948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5102977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2347545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.741397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0125408172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.932544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6036720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0525856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5814990997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1459627151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5726079940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2881774902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8615303039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7370920181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2437343597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0748538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1815156936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1992921829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3681745529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.412615776062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4748363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4837245941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2970657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8437538146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7459802627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6659832000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4570569992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2526254653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6614942550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7770442962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8570404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2125778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4970111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7192230224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1991996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8969898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7281112670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5770053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.985876083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9592113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8169956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.80810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8881034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9236583709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8614368438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7547760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9769897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7992191314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3814601898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9992561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9459247589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.750376701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1904048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.897084236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8526420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1771183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2926683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3237323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1281843185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.714825630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1236934661865</t>
-  </si>
-  <si>
     <t xml:space="preserve">16.1059169769287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2836856842041</t>
+    <t xml:space="preserve">16.1325817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2836875915527</t>
   </si>
   <si>
     <t xml:space="preserve">15.928147315979</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9548149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3015575408936</t>
+    <t xml:space="preserve">15.95481300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3015565872192</t>
   </si>
   <si>
     <t xml:space="preserve">13.9549055099487</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326761245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.741584777832</t>
+    <t xml:space="preserve">14.1326742172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7415828704834</t>
   </si>
   <si>
     <t xml:space="preserve">13.8660221099854</t>
@@ -2408,34 +2408,34 @@
     <t xml:space="preserve">13.5904788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3060464859009</t>
+    <t xml:space="preserve">13.3060474395752</t>
   </si>
   <si>
     <t xml:space="preserve">13.1638326644897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8882894515991</t>
+    <t xml:space="preserve">12.8882884979248</t>
   </si>
   <si>
     <t xml:space="preserve">12.1594343185425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6705684661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2972526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1595277786255</t>
+    <t xml:space="preserve">11.6705675125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2972536087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1595268249512</t>
   </si>
   <si>
     <t xml:space="preserve">11.1105947494507</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1416568756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.328314781189</t>
+    <t xml:space="preserve">12.1416578292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3283157348633</t>
   </si>
   <si>
     <t xml:space="preserve">12.1683225631714</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">13.9015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3104457855225</t>
+    <t xml:space="preserve">14.3104467391968</t>
   </si>
   <si>
     <t xml:space="preserve">14.8881959915161</t>
@@ -2456,28 +2456,28 @@
     <t xml:space="preserve">13.6349210739136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0793447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0260143280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5460357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6438102722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6793632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0305042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5815896987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.928240776062</t>
+    <t xml:space="preserve">14.0793437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0260133743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5460367202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6438112258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6793651580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0305051803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5815906524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9282417297363</t>
   </si>
   <si>
     <t xml:space="preserve">13.9993486404419</t>
@@ -2486,64 +2486,64 @@
     <t xml:space="preserve">14.1948947906494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3682680130005</t>
+    <t xml:space="preserve">13.3682670593262</t>
   </si>
   <si>
     <t xml:space="preserve">13.2438278198242</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4571514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.626033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7771368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9726848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8837985992432</t>
+    <t xml:space="preserve">13.4571523666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6260328292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.777135848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9726829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8837976455688</t>
   </si>
   <si>
     <t xml:space="preserve">14.3993310928345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4882144927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5326585769653</t>
+    <t xml:space="preserve">14.4882154464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.532657623291</t>
   </si>
   <si>
     <t xml:space="preserve">14.6570959091187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4793281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1104068756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3326196670532</t>
+    <t xml:space="preserve">14.4793262481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1104078292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3326187133789</t>
   </si>
   <si>
     <t xml:space="preserve">14.8081998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1192979812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0304126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7681541442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4037275314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4926147460938</t>
+    <t xml:space="preserve">15.1192970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0304107666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7681560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4037265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4926137924194</t>
   </si>
   <si>
     <t xml:space="preserve">16.079252243042</t>
@@ -2552,25 +2552,25 @@
     <t xml:space="preserve">16.6214504241943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4259014129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3325271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1192035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9414329528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2525310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.501407623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1147136688232</t>
+    <t xml:space="preserve">16.4259033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3325290679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1192016601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9414310455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2525291442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5014057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1147117614746</t>
   </si>
   <si>
     <t xml:space="preserve">19.2168846130371</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">19.4479827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7146377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4434947967529</t>
+    <t xml:space="preserve">19.7146396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4434928894043</t>
   </si>
   <si>
     <t xml:space="preserve">20.4790477752686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9234733581543</t>
+    <t xml:space="preserve">20.9234714508057</t>
   </si>
   <si>
     <t xml:space="preserve">20.7279243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">20.621265411377</t>
+    <t xml:space="preserve">20.6212635040283</t>
   </si>
   <si>
     <t xml:space="preserve">21.0123558044434</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">20.9056949615479</t>
   </si>
   <si>
-    <t xml:space="preserve">20.319055557251</t>
+    <t xml:space="preserve">20.3190536499023</t>
   </si>
   <si>
     <t xml:space="preserve">20.6923713684082</t>
@@ -2618,28 +2618,28 @@
     <t xml:space="preserve">20.6568164825439</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5989933013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8478736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5634422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7412090301514</t>
+    <t xml:space="preserve">21.5989952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8478698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.563440322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7412109375</t>
   </si>
   <si>
     <t xml:space="preserve">21.7767639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.954532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8300952911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9900894165039</t>
+    <t xml:space="preserve">21.9545345306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8300971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9900875091553</t>
   </si>
   <si>
     <t xml:space="preserve">22.0611953735352</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">22.1678581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">22.132303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9723091125488</t>
+    <t xml:space="preserve">22.1323013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9723110198975</t>
   </si>
   <si>
     <t xml:space="preserve">22.2211894989014</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">21.865650177002</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6523246765137</t>
+    <t xml:space="preserve">21.6523265838623</t>
   </si>
   <si>
     <t xml:space="preserve">21.8123188018799</t>
@@ -2678,76 +2678,76 @@
     <t xml:space="preserve">23.6077919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9988861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9410610198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.834400177002</t>
+    <t xml:space="preserve">23.9988842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9410629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8344020843506</t>
   </si>
   <si>
     <t xml:space="preserve">24.9943923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0299453735352</t>
+    <t xml:space="preserve">25.0299472808838</t>
   </si>
   <si>
     <t xml:space="preserve">24.585521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8877334594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8166236877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5321941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6033000946045</t>
+    <t xml:space="preserve">24.8877296447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8166217803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5321922302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6032981872559</t>
   </si>
   <si>
     <t xml:space="preserve">24.6744060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8699531555176</t>
+    <t xml:space="preserve">24.8699550628662</t>
   </si>
   <si>
     <t xml:space="preserve">24.6921863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4433078765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7455158233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7632923126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7099628448486</t>
+    <t xml:space="preserve">24.4433059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7455139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7632942199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7099609375</t>
   </si>
   <si>
     <t xml:space="preserve">24.4966373443604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7810668945312</t>
+    <t xml:space="preserve">24.7810688018799</t>
   </si>
   <si>
     <t xml:space="preserve">24.1410999298096</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0121688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9232864379883</t>
+    <t xml:space="preserve">25.012170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9232845306396</t>
   </si>
   <si>
     <t xml:space="preserve">25.5454788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2921104431152</t>
+    <t xml:space="preserve">26.2921085357666</t>
   </si>
   <si>
     <t xml:space="preserve">25.581033706665</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">27.1809577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">26.558765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6476516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5765419006348</t>
+    <t xml:space="preserve">26.5587635040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.647647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5765399932861</t>
   </si>
   <si>
     <t xml:space="preserve">26.2032260894775</t>
@@ -2774,46 +2774,46 @@
     <t xml:space="preserve">26.132116317749</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1498928070068</t>
+    <t xml:space="preserve">26.1498947143555</t>
   </si>
   <si>
     <t xml:space="preserve">25.8832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543476104736</t>
+    <t xml:space="preserve">25.9543514251709</t>
   </si>
   <si>
     <t xml:space="preserve">26.2743339538574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7765789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4343242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3098850250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5232086181641</t>
+    <t xml:space="preserve">25.7765769958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.434326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3098888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5232105255127</t>
   </si>
   <si>
     <t xml:space="preserve">26.4521026611328</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0342540740967</t>
+    <t xml:space="preserve">27.0565204620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.034252166748</t>
   </si>
   <si>
     <t xml:space="preserve">27.9098110198975</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1454029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0387439727783</t>
+    <t xml:space="preserve">27.1454048156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0387420654297</t>
   </si>
   <si>
     <t xml:space="preserve">27.127628326416</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">26.2210006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0254573822021</t>
+    <t xml:space="preserve">26.0254592895508</t>
   </si>
   <si>
     <t xml:space="preserve">24.4255294799805</t>
@@ -2831,22 +2831,22 @@
     <t xml:space="preserve">24.2655372619629</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4077529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4610862731934</t>
+    <t xml:space="preserve">24.4077548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4610843658447</t>
   </si>
   <si>
     <t xml:space="preserve">25.9010181427002</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1676712036133</t>
+    <t xml:space="preserve">26.1676731109619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6654262542725</t>
   </si>
   <si>
-    <t xml:space="preserve">26.736536026001</t>
+    <t xml:space="preserve">26.7365341186523</t>
   </si>
   <si>
     <t xml:space="preserve">25.403263092041</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">25.5988082885742</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8521747589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5677452087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1543865203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5499687194824</t>
+    <t xml:space="preserve">24.8521766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5677471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1543846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5499706268311</t>
   </si>
   <si>
     <t xml:space="preserve">24.0877685546875</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">25.3143768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0076808929443</t>
+    <t xml:space="preserve">26.0076789855957</t>
   </si>
   <si>
     <t xml:space="preserve">25.3321552276611</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">25.1010551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5144157409668</t>
+    <t xml:space="preserve">24.5144138336182</t>
   </si>
   <si>
     <t xml:space="preserve">24.3366451263428</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">24.1588764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2833137512207</t>
+    <t xml:space="preserve">24.2833156585693</t>
   </si>
   <si>
     <t xml:space="preserve">24.1965980529785</t>
@@ -2921,28 +2921,28 @@
     <t xml:space="preserve">23.7975540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">23.38037109375</t>
+    <t xml:space="preserve">23.3803730010986</t>
   </si>
   <si>
     <t xml:space="preserve">23.7612781524658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2872924804688</t>
+    <t xml:space="preserve">24.2872905731201</t>
   </si>
   <si>
     <t xml:space="preserve">23.7794151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8519668579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7250003814697</t>
+    <t xml:space="preserve">23.8519687652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7249984741211</t>
   </si>
   <si>
     <t xml:space="preserve">23.6887245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1989860534668</t>
+    <t xml:space="preserve">23.1989879608154</t>
   </si>
   <si>
     <t xml:space="preserve">23.2896785736084</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">23.4347858428955</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2510147094727</t>
+    <t xml:space="preserve">24.251012802124</t>
   </si>
   <si>
     <t xml:space="preserve">25.6295299530029</t>
@@ -2975,22 +2975,22 @@
     <t xml:space="preserve">27.5340595245361</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1870422363281</t>
+    <t xml:space="preserve">28.1870403289795</t>
   </si>
   <si>
     <t xml:space="preserve">28.3502883911133</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2777328491211</t>
+    <t xml:space="preserve">28.2777347564697</t>
   </si>
   <si>
     <t xml:space="preserve">28.1689033508301</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3478965759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0371551513672</t>
+    <t xml:space="preserve">29.347900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0371570587158</t>
   </si>
   <si>
     <t xml:space="preserve">30.3455085754395</t>
@@ -2999,28 +2999,28 @@
     <t xml:space="preserve">30.6357231140137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8533878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3249778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4724769592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3273677825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0008811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6199741363525</t>
+    <t xml:space="preserve">30.8533840179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3249855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4724788665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.32737159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0008792877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6199722290039</t>
   </si>
   <si>
     <t xml:space="preserve">28.8763008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">27.93310546875</t>
+    <t xml:space="preserve">27.9331035614014</t>
   </si>
   <si>
     <t xml:space="preserve">27.7335815429688</t>
@@ -3029,28 +3029,28 @@
     <t xml:space="preserve">28.5860862731934</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7698612213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.803747177124</t>
+    <t xml:space="preserve">27.7698593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8037452697754</t>
   </si>
   <si>
     <t xml:space="preserve">27.7879981994629</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6610298156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3684253692627</t>
+    <t xml:space="preserve">27.6610279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3684272766113</t>
   </si>
   <si>
     <t xml:space="preserve">28.4772548675537</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8944396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3975372314453</t>
+    <t xml:space="preserve">28.894437789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.397533416748</t>
   </si>
   <si>
     <t xml:space="preserve">30.3817844390869</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">31.3431243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5970573425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2342891693115</t>
+    <t xml:space="preserve">31.597053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2342872619629</t>
   </si>
   <si>
     <t xml:space="preserve">31.9235496520996</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3225936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9574356079102</t>
+    <t xml:space="preserve">32.3225975036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9574394226074</t>
   </si>
   <si>
     <t xml:space="preserve">33.1932334899902</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">33.2295112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1388206481934</t>
+    <t xml:space="preserve">33.1388168334961</t>
   </si>
   <si>
     <t xml:space="preserve">32.8486061096191</t>
@@ -3125,16 +3125,16 @@
     <t xml:space="preserve">32.685359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7941856384277</t>
+    <t xml:space="preserve">32.794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">32.6128082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">33.120677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0662612915039</t>
+    <t xml:space="preserve">33.1206817626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0662651062012</t>
   </si>
   <si>
     <t xml:space="preserve">32.9392967224121</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">33.1025466918945</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9937133789062</t>
+    <t xml:space="preserve">32.993709564209</t>
   </si>
   <si>
     <t xml:space="preserve">33.0299873352051</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7736663818359</t>
+    <t xml:space="preserve">33.7736625671387</t>
   </si>
   <si>
     <t xml:space="preserve">33.9550437927246</t>
@@ -3158,16 +3158,16 @@
     <t xml:space="preserve">33.2113723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9369087219238</t>
+    <t xml:space="preserve">33.9369049072266</t>
   </si>
   <si>
     <t xml:space="preserve">33.2657890319824</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8667449951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1569595336914</t>
+    <t xml:space="preserve">32.8667411804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1569557189941</t>
   </si>
   <si>
     <t xml:space="preserve">33.1750984191895</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">32.9755744934082</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8304710388184</t>
+    <t xml:space="preserve">32.8304672241211</t>
   </si>
   <si>
     <t xml:space="preserve">32.7397727966309</t>
@@ -3191,13 +3191,13 @@
     <t xml:space="preserve">33.1457176208496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5140075683594</t>
+    <t xml:space="preserve">33.5140037536621</t>
   </si>
   <si>
     <t xml:space="preserve">33.5508308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6429061889648</t>
+    <t xml:space="preserve">33.6429023742676</t>
   </si>
   <si>
     <t xml:space="preserve">33.6613159179688</t>
@@ -3206,10 +3206,10 @@
     <t xml:space="preserve">33.1088905334473</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1273002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2377891540527</t>
+    <t xml:space="preserve">33.1273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2377853393555</t>
   </si>
   <si>
     <t xml:space="preserve">34.0664291381836</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">35.7789649963379</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4971160888672</t>
+    <t xml:space="preserve">36.4971199035645</t>
   </si>
   <si>
     <t xml:space="preserve">36.4787063598633</t>
@@ -3239,13 +3239,13 @@
     <t xml:space="preserve">36.2761459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4106750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2449493408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.766170501709</t>
+    <t xml:space="preserve">35.4106712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.244945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7661743164062</t>
   </si>
   <si>
     <t xml:space="preserve">34.3610572814941</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">34.1032600402832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6925201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8582458496094</t>
+    <t xml:space="preserve">34.6925163269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8582496643066</t>
   </si>
   <si>
     <t xml:space="preserve">34.2689933776855</t>
@@ -3293,13 +3293,13 @@
     <t xml:space="preserve">33.5876617431641</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5380439758301</t>
+    <t xml:space="preserve">32.5380477905273</t>
   </si>
   <si>
     <t xml:space="preserve">32.4459762573242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3298645019531</t>
+    <t xml:space="preserve">33.3298606872559</t>
   </si>
   <si>
     <t xml:space="preserve">34.5452041625977</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">33.9375305175781</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4843292236328</t>
+    <t xml:space="preserve">35.4843330383301</t>
   </si>
   <si>
     <t xml:space="preserve">35.318603515625</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">35.5948181152344</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9999313354492</t>
+    <t xml:space="preserve">35.999927520752</t>
   </si>
   <si>
     <t xml:space="preserve">35.6132316589355</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">35.6684761047363</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5764007568359</t>
+    <t xml:space="preserve">35.5764045715332</t>
   </si>
   <si>
     <t xml:space="preserve">35.3922576904297</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0608062744141</t>
+    <t xml:space="preserve">35.0608024597168</t>
   </si>
   <si>
     <t xml:space="preserve">35.1344604492188</t>
@@ -3383,19 +3383,19 @@
     <t xml:space="preserve">36.3498039245605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.165657043457</t>
+    <t xml:space="preserve">36.1656608581543</t>
   </si>
   <si>
     <t xml:space="preserve">36.5891876220703</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7973747253418</t>
+    <t xml:space="preserve">35.7973785400391</t>
   </si>
   <si>
     <t xml:space="preserve">32.5748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7278175354004</t>
+    <t xml:space="preserve">31.7278137207031</t>
   </si>
   <si>
     <t xml:space="preserve">31.4700183868408</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">30.8807601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9175930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5252590179443</t>
+    <t xml:space="preserve">30.9175891876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5252628326416</t>
   </si>
   <si>
     <t xml:space="preserve">30.6045455932617</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">29.0393314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6158027648926</t>
+    <t xml:space="preserve">28.6158008575439</t>
   </si>
   <si>
     <t xml:space="preserve">29.7759017944336</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">28.9840888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8183574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2787170410156</t>
+    <t xml:space="preserve">28.818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.278715133667</t>
   </si>
   <si>
     <t xml:space="preserve">29.2418880462646</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">29.5181045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4756450653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3467445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7334480285645</t>
+    <t xml:space="preserve">30.475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3467464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">30.3835754394531</t>
@@ -3467,22 +3467,22 @@
     <t xml:space="preserve">30.5677165985107</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1017322540283</t>
+    <t xml:space="preserve">31.1017303466797</t>
   </si>
   <si>
     <t xml:space="preserve">31.2306308746338</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0649032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4940586090088</t>
+    <t xml:space="preserve">31.0649070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4940605163574</t>
   </si>
   <si>
     <t xml:space="preserve">31.1201457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2858753204346</t>
+    <t xml:space="preserve">31.2858734130859</t>
   </si>
   <si>
     <t xml:space="preserve">31.2674598693848</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">31.4147758483887</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5861339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.394832611084</t>
+    <t xml:space="preserve">30.5861320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3948307037354</t>
   </si>
   <si>
     <t xml:space="preserve">27.9897174835205</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1002044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7503318786621</t>
+    <t xml:space="preserve">28.1002025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7503299713135</t>
   </si>
   <si>
     <t xml:space="preserve">28.4500732421875</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">28.5605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8424015045166</t>
+    <t xml:space="preserve">27.8424034118652</t>
   </si>
   <si>
     <t xml:space="preserve">28.0265464782715</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">27.5661888122559</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2347316741943</t>
+    <t xml:space="preserve">27.2347297668457</t>
   </si>
   <si>
     <t xml:space="preserve">28.0081310272217</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4925308227539</t>
+    <t xml:space="preserve">27.4925327301025</t>
   </si>
   <si>
     <t xml:space="preserve">27.2531452178955</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">27.7135028839111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8976459503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4372882843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6030158996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9713020324707</t>
+    <t xml:space="preserve">27.8976440429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4372863769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6030139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9713039398193</t>
   </si>
   <si>
     <t xml:space="preserve">28.3764171600342</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">28.5237312316895</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1370296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1314029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0209159851074</t>
+    <t xml:space="preserve">28.1370315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1314010620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0209178924561</t>
   </si>
   <si>
     <t xml:space="preserve">28.5789756774902</t>
@@ -3617,13 +3617,13 @@
     <t xml:space="preserve">25.964147567749</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3508472442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5958595275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1355018615723</t>
+    <t xml:space="preserve">26.3508453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5958576202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1355037689209</t>
   </si>
   <si>
     <t xml:space="preserve">24.8592891693115</t>
@@ -3644,7 +3644,7 @@
     <t xml:space="preserve">28.4684886932373</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0817890167236</t>
+    <t xml:space="preserve">28.081787109375</t>
   </si>
   <si>
     <t xml:space="preserve">28.7078742980957</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">27.5109443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.044958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3395881652832</t>
+    <t xml:space="preserve">28.0449600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3395900726318</t>
   </si>
   <si>
     <t xml:space="preserve">27.9344730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2163181304932</t>
+    <t xml:space="preserve">27.2163162231445</t>
   </si>
   <si>
     <t xml:space="preserve">26.5534019470215</t>
@@ -3677,19 +3677,19 @@
     <t xml:space="preserve">25.8720741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3140163421631</t>
+    <t xml:space="preserve">26.3140182495117</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7984161376953</t>
+    <t xml:space="preserve">25.7984180450439</t>
   </si>
   <si>
     <t xml:space="preserve">25.2091598510742</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3677310943604</t>
+    <t xml:space="preserve">23.3677291870117</t>
   </si>
   <si>
     <t xml:space="preserve">22.3365306854248</t>
@@ -3698,19 +3698,19 @@
     <t xml:space="preserve">22.2812881469727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6623611450195</t>
+    <t xml:space="preserve">23.6623592376709</t>
   </si>
   <si>
     <t xml:space="preserve">21.9682464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8393459320068</t>
+    <t xml:space="preserve">21.8393440246582</t>
   </si>
   <si>
     <t xml:space="preserve">23.3124866485596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7048168182373</t>
+    <t xml:space="preserve">22.7048149108887</t>
   </si>
   <si>
     <t xml:space="preserve">23.754430770874</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">23.4229736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2388305664062</t>
+    <t xml:space="preserve">23.2388286590576</t>
   </si>
   <si>
     <t xml:space="preserve">23.1835880279541</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">22.7416458129883</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4470157623291</t>
+    <t xml:space="preserve">22.4470176696777</t>
   </si>
   <si>
     <t xml:space="preserve">22.391773223877</t>
@@ -3737,34 +3737,34 @@
     <t xml:space="preserve">22.4838447570801</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9754028320312</t>
+    <t xml:space="preserve">23.9754047393799</t>
   </si>
   <si>
     <t xml:space="preserve">23.2940731048584</t>
   </si>
   <si>
-    <t xml:space="preserve">22.778470993042</t>
+    <t xml:space="preserve">22.7784729003906</t>
   </si>
   <si>
     <t xml:space="preserve">22.6864013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7232322692871</t>
+    <t xml:space="preserve">22.7232303619385</t>
   </si>
   <si>
     <t xml:space="preserve">22.5206737518311</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2997016906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.857759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0971450805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0419044494629</t>
+    <t xml:space="preserve">22.2997035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8577575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.097146987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0419025421143</t>
   </si>
   <si>
     <t xml:space="preserve">22.3181171417236</t>
@@ -3782,10 +3782,10 @@
     <t xml:space="preserve">20.7897319793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2500858306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3974018096924</t>
+    <t xml:space="preserve">21.2500877380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3973999023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.7160739898682</t>
@@ -3800,16 +3800,16 @@
     <t xml:space="preserve">21.4158172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9002170562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0163307189941</t>
+    <t xml:space="preserve">20.9002151489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0163288116455</t>
   </si>
   <si>
     <t xml:space="preserve">20.2557163238525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6240005493164</t>
+    <t xml:space="preserve">20.624002456665</t>
   </si>
   <si>
     <t xml:space="preserve">21.2132606506348</t>
@@ -5178,6 +5178,9 @@
   </si>
   <si>
     <t xml:space="preserve">27.3400001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1800003051758</t>
   </si>
 </sst>
 </file>
@@ -21501,7 +21504,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G615" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21527,7 +21530,7 @@
         <v>24.2199993133545</v>
       </c>
       <c r="G616" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21579,7 +21582,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G618" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21605,7 +21608,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G619" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21631,7 +21634,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G620" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21709,7 +21712,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G623" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21761,7 +21764,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21787,7 +21790,7 @@
         <v>25.1200008392334</v>
       </c>
       <c r="G626" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21813,7 +21816,7 @@
         <v>24.6399993896484</v>
       </c>
       <c r="G627" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21839,7 +21842,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G628" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21865,7 +21868,7 @@
         <v>24.3400001525879</v>
       </c>
       <c r="G629" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21891,7 +21894,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G630" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21917,7 +21920,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G631" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21995,7 +21998,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G634" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22021,7 +22024,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G635" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22047,7 +22050,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G636" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22073,7 +22076,7 @@
         <v>24.2800006866455</v>
       </c>
       <c r="G637" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22099,7 +22102,7 @@
         <v>23.9599990844727</v>
       </c>
       <c r="G638" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22151,7 +22154,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G640" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22177,7 +22180,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G641" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22229,7 +22232,7 @@
         <v>24.2600002288818</v>
       </c>
       <c r="G643" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22255,7 +22258,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22281,7 +22284,7 @@
         <v>24</v>
       </c>
       <c r="G645" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22307,7 +22310,7 @@
         <v>24.4400005340576</v>
       </c>
       <c r="G646" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22411,7 +22414,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G650" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22437,7 +22440,7 @@
         <v>24.0200004577637</v>
       </c>
       <c r="G651" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22489,7 +22492,7 @@
         <v>23.6399993896484</v>
       </c>
       <c r="G653" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22515,7 +22518,7 @@
         <v>23.7199993133545</v>
       </c>
       <c r="G654" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22541,7 +22544,7 @@
         <v>23.5599994659424</v>
       </c>
       <c r="G655" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22567,7 +22570,7 @@
         <v>24</v>
       </c>
       <c r="G656" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22593,7 +22596,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G657" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22619,7 +22622,7 @@
         <v>24.0599994659424</v>
       </c>
       <c r="G658" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22645,7 +22648,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G659" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22671,7 +22674,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G660" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22697,7 +22700,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G661" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22723,7 +22726,7 @@
         <v>27.6399993896484</v>
       </c>
       <c r="G662" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22749,7 +22752,7 @@
         <v>27.7600002288818</v>
       </c>
       <c r="G663" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22775,7 +22778,7 @@
         <v>27.8400001525879</v>
       </c>
       <c r="G664" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22801,7 +22804,7 @@
         <v>28.2199993133545</v>
       </c>
       <c r="G665" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22827,7 +22830,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G666" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22853,7 +22856,7 @@
         <v>27.7800006866455</v>
       </c>
       <c r="G667" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22879,7 +22882,7 @@
         <v>27.3600006103516</v>
       </c>
       <c r="G668" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22905,7 +22908,7 @@
         <v>27.2800006866455</v>
       </c>
       <c r="G669" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22931,7 +22934,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G670" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22957,7 +22960,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G671" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22983,7 +22986,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23009,7 +23012,7 @@
         <v>27.4400005340576</v>
       </c>
       <c r="G673" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23035,7 +23038,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G674" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23061,7 +23064,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G675" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23087,7 +23090,7 @@
         <v>27.8400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23113,7 +23116,7 @@
         <v>27.8199996948242</v>
       </c>
       <c r="G677" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23139,7 +23142,7 @@
         <v>28</v>
       </c>
       <c r="G678" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23165,7 +23168,7 @@
         <v>28.2600002288818</v>
       </c>
       <c r="G679" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23191,7 +23194,7 @@
         <v>28.1200008392334</v>
       </c>
       <c r="G680" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23217,7 +23220,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G681" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23243,7 +23246,7 @@
         <v>27.9799995422363</v>
       </c>
       <c r="G682" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23269,7 +23272,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G683" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23295,7 +23298,7 @@
         <v>27.6200008392334</v>
       </c>
       <c r="G684" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23321,7 +23324,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23347,7 +23350,7 @@
         <v>27</v>
       </c>
       <c r="G686" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23373,7 +23376,7 @@
         <v>27.0200004577637</v>
       </c>
       <c r="G687" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23399,7 +23402,7 @@
         <v>26.7199993133545</v>
       </c>
       <c r="G688" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23425,7 +23428,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23451,7 +23454,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G690" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23477,7 +23480,7 @@
         <v>27.6399993896484</v>
       </c>
       <c r="G691" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23503,7 +23506,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G692" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23529,7 +23532,7 @@
         <v>27.6800003051758</v>
       </c>
       <c r="G693" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23555,7 +23558,7 @@
         <v>28.1599998474121</v>
       </c>
       <c r="G694" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23581,7 +23584,7 @@
         <v>27.4799995422363</v>
       </c>
       <c r="G695" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23607,7 +23610,7 @@
         <v>28.3400001525879</v>
       </c>
       <c r="G696" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23633,7 +23636,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="G697" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23659,7 +23662,7 @@
         <v>28.0400009155273</v>
       </c>
       <c r="G698" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23685,7 +23688,7 @@
         <v>27.8600006103516</v>
       </c>
       <c r="G699" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23711,7 +23714,7 @@
         <v>27.5200004577637</v>
       </c>
       <c r="G700" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23737,7 +23740,7 @@
         <v>27.0599994659424</v>
       </c>
       <c r="G701" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23763,7 +23766,7 @@
         <v>27.3400001525879</v>
       </c>
       <c r="G702" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23789,7 +23792,7 @@
         <v>27.3199996948242</v>
       </c>
       <c r="G703" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23815,7 +23818,7 @@
         <v>27.4599990844727</v>
       </c>
       <c r="G704" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23841,7 +23844,7 @@
         <v>26.9799995422363</v>
       </c>
       <c r="G705" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23867,7 +23870,7 @@
         <v>26.0400009155273</v>
       </c>
       <c r="G706" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23893,7 +23896,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G707" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23919,7 +23922,7 @@
         <v>25.1800003051758</v>
       </c>
       <c r="G708" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23945,7 +23948,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G709" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23971,7 +23974,7 @@
         <v>24.5200004577637</v>
       </c>
       <c r="G710" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23997,7 +24000,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G711" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24023,7 +24026,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G712" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24049,7 +24052,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G713" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24075,7 +24078,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G714" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24101,7 +24104,7 @@
         <v>25.6399993896484</v>
       </c>
       <c r="G715" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24127,7 +24130,7 @@
         <v>25.0400009155273</v>
       </c>
       <c r="G716" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24179,7 +24182,7 @@
         <v>25.5599994659424</v>
       </c>
       <c r="G718" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24205,7 +24208,7 @@
         <v>25.7399997711182</v>
       </c>
       <c r="G719" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24231,7 +24234,7 @@
         <v>25.0799999237061</v>
       </c>
       <c r="G720" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -24257,7 +24260,7 @@
         <v>23.7600002288818</v>
       </c>
       <c r="G721" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -24283,7 +24286,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G722" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -24309,7 +24312,7 @@
         <v>22.6800003051758</v>
       </c>
       <c r="G723" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -24335,7 +24338,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G724" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -24361,7 +24364,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G725" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24387,7 +24390,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G726" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24413,7 +24416,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G727" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -24439,7 +24442,7 @@
         <v>23.0400009155273</v>
       </c>
       <c r="G728" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24465,7 +24468,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G729" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24491,7 +24494,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G730" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -24517,7 +24520,7 @@
         <v>23.2600002288818</v>
       </c>
       <c r="G731" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -24543,7 +24546,7 @@
         <v>22.5</v>
       </c>
       <c r="G732" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -24569,7 +24572,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G733" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24595,7 +24598,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G734" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24621,7 +24624,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G735" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24647,7 +24650,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G736" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24673,7 +24676,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G737" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24699,7 +24702,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G738" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24725,7 +24728,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G739" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24751,7 +24754,7 @@
         <v>23</v>
       </c>
       <c r="G740" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24777,7 +24780,7 @@
         <v>23.5400009155273</v>
       </c>
       <c r="G741" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24803,7 +24806,7 @@
         <v>23.5200004577637</v>
       </c>
       <c r="G742" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24829,7 +24832,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G743" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24855,7 +24858,7 @@
         <v>24.05999